--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -8607,24 +8607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8653,6 +8635,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8952,7 +8952,7 @@
   <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9690,7 +9690,7 @@
       <c r="A56" t="s">
         <v>2461</v>
       </c>
-      <c r="E56" s="235" t="s">
+      <c r="E56" s="229" t="s">
         <v>222</v>
       </c>
       <c r="F56" s="166" t="s">
@@ -9739,10 +9739,10 @@
       <c r="G58" s="54"/>
       <c r="H58" s="54"/>
       <c r="I58" s="162"/>
-      <c r="J58" s="236" t="s">
+      <c r="J58" s="230" t="s">
         <v>76</v>
       </c>
-      <c r="K58" s="237" t="s">
+      <c r="K58" s="231" t="s">
         <v>430</v>
       </c>
       <c r="L58" s="162"/>
@@ -10015,7 +10015,7 @@
       <c r="A81" t="s">
         <v>2458</v>
       </c>
-      <c r="E81" s="235" t="s">
+      <c r="E81" s="229" t="s">
         <v>222</v>
       </c>
       <c r="F81" s="166" t="s">
@@ -10023,11 +10023,11 @@
       </c>
       <c r="G81" s="54"/>
       <c r="H81" s="54"/>
-      <c r="I81" s="238" t="s">
+      <c r="I81" s="232" t="s">
         <v>431</v>
       </c>
-      <c r="J81" s="239"/>
-      <c r="K81" s="240"/>
+      <c r="J81" s="233"/>
+      <c r="K81" s="234"/>
       <c r="L81" s="162"/>
       <c r="M81" s="55"/>
     </row>
@@ -10043,11 +10043,11 @@
       </c>
       <c r="G82" s="54"/>
       <c r="H82" s="54"/>
-      <c r="I82" s="238"/>
-      <c r="J82" s="241" t="s">
+      <c r="I82" s="232"/>
+      <c r="J82" s="235" t="s">
         <v>76</v>
       </c>
-      <c r="K82" s="242" t="s">
+      <c r="K82" s="236" t="s">
         <v>430</v>
       </c>
       <c r="L82" s="162"/>
@@ -10065,11 +10065,11 @@
       </c>
       <c r="G83" s="54"/>
       <c r="H83" s="54"/>
-      <c r="I83" s="238"/>
-      <c r="J83" s="243" t="s">
+      <c r="I83" s="232"/>
+      <c r="J83" s="237" t="s">
         <v>2456</v>
       </c>
-      <c r="K83" s="244">
+      <c r="K83" s="238">
         <v>12</v>
       </c>
       <c r="L83" s="162"/>
@@ -19687,13 +19687,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="229" t="s">
+      <c r="H3" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="231"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="241"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="P4" t="s">
@@ -19730,20 +19730,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="232" t="s">
+      <c r="G6" s="242" t="s">
         <v>1683</v>
       </c>
-      <c r="H6" s="233"/>
+      <c r="H6" s="243"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="232" t="s">
+      <c r="J6" s="242" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="233"/>
+      <c r="K6" s="243"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="232" t="s">
+      <c r="M6" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="233"/>
+      <c r="N6" s="243"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="128" t="s">
@@ -19767,20 +19767,20 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
       <c r="F8" s="4"/>
-      <c r="G8" s="232" t="s">
+      <c r="G8" s="242" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="233"/>
+      <c r="H8" s="243"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="232" t="s">
+      <c r="J8" s="242" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="233"/>
+      <c r="K8" s="243"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="232" t="s">
+      <c r="M8" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="233"/>
+      <c r="N8" s="243"/>
       <c r="P8" t="s">
         <v>1689</v>
       </c>
@@ -33822,11 +33822,11 @@
       <c r="L6" s="46" t="s">
         <v>1620</v>
       </c>
-      <c r="M6" s="234" t="s">
+      <c r="M6" s="244" t="s">
         <v>1621</v>
       </c>
-      <c r="N6" s="234"/>
-      <c r="O6" s="234"/>
+      <c r="N6" s="244"/>
+      <c r="O6" s="244"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7725"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7725" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="2476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="2510">
   <si>
     <t>USER</t>
   </si>
@@ -7652,6 +7652,108 @@
   </si>
   <si>
     <t>sysout(p2.weight)</t>
+  </si>
+  <si>
+    <t>MethodTest.main : 7</t>
+  </si>
+  <si>
+    <t>Encounter return statement</t>
+  </si>
+  <si>
+    <t>or end of your method</t>
+  </si>
+  <si>
+    <t>METHOD STACK Memory</t>
+  </si>
+  <si>
+    <t>Methods.m3 : 17</t>
+  </si>
+  <si>
+    <t>Methods.m1: 5</t>
+  </si>
+  <si>
+    <t>Methods.m2 : 12</t>
+  </si>
+  <si>
+    <t>public class Methods {</t>
+  </si>
+  <si>
+    <t>public void test(int a,Person p) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         System.out.println(a);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         System.out.println(p.name);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         p.name="jane";</t>
+  </si>
+  <si>
+    <t>System.out.println("main");</t>
+  </si>
+  <si>
+    <t>Methods m=new Methods();</t>
+  </si>
+  <si>
+    <t>m.test(x, p1);</t>
+  </si>
+  <si>
+    <t>System.out.println(x);</t>
+  </si>
+  <si>
+    <t>System.out.println(p1.name);</t>
+  </si>
+  <si>
+    <t>PSVM</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>PRINTS</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>Method Stack</t>
+  </si>
+  <si>
+    <t>main:204</t>
+  </si>
+  <si>
+    <t>Pass By value</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>Pass by reference</t>
+  </si>
+  <si>
+    <t>Primitive data type</t>
+  </si>
+  <si>
+    <t>Object data type</t>
+  </si>
+  <si>
+    <t>p1.name="jane";</t>
+  </si>
+  <si>
+    <t>m.testing(p1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p.name="mike";</t>
+  </si>
+  <si>
+    <t>public void testing(Person p) {</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>main:225</t>
   </si>
 </sst>
 </file>
@@ -8163,7 +8265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -8655,6 +8757,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8951,7 +9055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
@@ -37102,16 +37206,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:N155"/>
+  <dimension ref="A2:N228"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -38119,6 +38223,950 @@
       <c r="J155">
         <v>10</v>
       </c>
+    </row>
+    <row r="160" spans="2:14" ht="15.75" thickBot="1"/>
+    <row r="161" spans="2:12">
+      <c r="B161" s="33"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="34"/>
+      <c r="E161" s="34"/>
+      <c r="F161" s="34"/>
+      <c r="G161" s="34"/>
+      <c r="H161" s="34"/>
+      <c r="I161" s="34"/>
+      <c r="J161" s="34"/>
+      <c r="K161" s="34"/>
+      <c r="L161" s="35"/>
+    </row>
+    <row r="162" spans="2:12">
+      <c r="B162" s="36"/>
+      <c r="C162" s="30"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="30"/>
+      <c r="F162" s="30"/>
+      <c r="G162" s="30" t="s">
+        <v>2479</v>
+      </c>
+      <c r="H162" s="30"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="30"/>
+      <c r="K162" s="30"/>
+      <c r="L162" s="37"/>
+    </row>
+    <row r="163" spans="2:12">
+      <c r="B163" s="36"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="30"/>
+      <c r="G163" s="30"/>
+      <c r="H163" s="30"/>
+      <c r="I163" s="30"/>
+      <c r="J163" s="30"/>
+      <c r="K163" s="30"/>
+      <c r="L163" s="37"/>
+    </row>
+    <row r="164" spans="2:12">
+      <c r="B164" s="36" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C164" s="30"/>
+      <c r="D164" s="30"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="30"/>
+      <c r="G164" s="46"/>
+      <c r="H164" s="30"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="30"/>
+      <c r="K164" s="30"/>
+      <c r="L164" s="37"/>
+    </row>
+    <row r="165" spans="2:12">
+      <c r="B165" s="36" t="s">
+        <v>2478</v>
+      </c>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="30"/>
+      <c r="F165" s="30"/>
+      <c r="G165" s="46" t="s">
+        <v>2482</v>
+      </c>
+      <c r="H165" s="30"/>
+      <c r="I165" s="30"/>
+      <c r="J165" s="30"/>
+      <c r="K165" s="30"/>
+      <c r="L165" s="37"/>
+    </row>
+    <row r="166" spans="2:12">
+      <c r="B166" s="36"/>
+      <c r="C166" s="30"/>
+      <c r="D166" s="30"/>
+      <c r="E166" s="30"/>
+      <c r="F166" s="30"/>
+      <c r="G166" s="46" t="s">
+        <v>2481</v>
+      </c>
+      <c r="H166" s="30"/>
+      <c r="I166" s="30"/>
+      <c r="J166" s="30"/>
+      <c r="K166" s="30"/>
+      <c r="L166" s="37"/>
+    </row>
+    <row r="167" spans="2:12">
+      <c r="B167" s="36"/>
+      <c r="C167" s="30"/>
+      <c r="D167" s="30"/>
+      <c r="E167" s="30"/>
+      <c r="F167" s="30"/>
+      <c r="G167" s="46" t="s">
+        <v>2480</v>
+      </c>
+      <c r="H167" s="30"/>
+      <c r="I167" s="30"/>
+      <c r="J167" s="30"/>
+      <c r="K167" s="30"/>
+      <c r="L167" s="37"/>
+    </row>
+    <row r="168" spans="2:12">
+      <c r="B168" s="36"/>
+      <c r="C168" s="30"/>
+      <c r="D168" s="30"/>
+      <c r="E168" s="30"/>
+      <c r="F168" s="30"/>
+      <c r="G168" s="46" t="s">
+        <v>2482</v>
+      </c>
+      <c r="H168" s="30"/>
+      <c r="I168" s="30"/>
+      <c r="J168" s="30"/>
+      <c r="K168" s="30"/>
+      <c r="L168" s="37"/>
+    </row>
+    <row r="169" spans="2:12">
+      <c r="B169" s="36"/>
+      <c r="C169" s="30"/>
+      <c r="D169" s="30"/>
+      <c r="E169" s="30"/>
+      <c r="F169" s="30"/>
+      <c r="G169" s="46" t="s">
+        <v>2481</v>
+      </c>
+      <c r="H169" s="30"/>
+      <c r="I169" s="30"/>
+      <c r="J169" s="30"/>
+      <c r="K169" s="30"/>
+      <c r="L169" s="37"/>
+    </row>
+    <row r="170" spans="2:12">
+      <c r="B170" s="36"/>
+      <c r="C170" s="30"/>
+      <c r="D170" s="30"/>
+      <c r="E170" s="30"/>
+      <c r="F170" s="30"/>
+      <c r="G170" s="46" t="s">
+        <v>2480</v>
+      </c>
+      <c r="H170" s="30"/>
+      <c r="I170" s="30"/>
+      <c r="J170" s="30"/>
+      <c r="K170" s="30"/>
+      <c r="L170" s="37"/>
+    </row>
+    <row r="171" spans="2:12">
+      <c r="B171" s="36"/>
+      <c r="C171" s="30"/>
+      <c r="D171" s="30"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="30"/>
+      <c r="G171" s="46" t="s">
+        <v>2482</v>
+      </c>
+      <c r="H171" s="30"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="30"/>
+      <c r="K171" s="30"/>
+      <c r="L171" s="37"/>
+    </row>
+    <row r="172" spans="2:12">
+      <c r="B172" s="36"/>
+      <c r="C172" s="30"/>
+      <c r="D172" s="30"/>
+      <c r="E172" s="30"/>
+      <c r="F172" s="30"/>
+      <c r="G172" s="46" t="s">
+        <v>2481</v>
+      </c>
+      <c r="H172" s="30"/>
+      <c r="I172" s="30"/>
+      <c r="J172" s="30"/>
+      <c r="K172" s="30"/>
+      <c r="L172" s="37"/>
+    </row>
+    <row r="173" spans="2:12">
+      <c r="B173" s="36"/>
+      <c r="C173" s="30"/>
+      <c r="D173" s="30"/>
+      <c r="E173" s="30"/>
+      <c r="F173" s="30"/>
+      <c r="G173" s="46" t="s">
+        <v>2480</v>
+      </c>
+      <c r="H173" s="30"/>
+      <c r="I173" s="30"/>
+      <c r="J173" s="30"/>
+      <c r="K173" s="30"/>
+      <c r="L173" s="37"/>
+    </row>
+    <row r="174" spans="2:12">
+      <c r="B174" s="36"/>
+      <c r="C174" s="30"/>
+      <c r="D174" s="30"/>
+      <c r="E174" s="30"/>
+      <c r="F174" s="30"/>
+      <c r="G174" s="46" t="s">
+        <v>2482</v>
+      </c>
+      <c r="H174" s="30"/>
+      <c r="I174" s="30"/>
+      <c r="J174" s="30"/>
+      <c r="K174" s="30"/>
+      <c r="L174" s="37"/>
+    </row>
+    <row r="175" spans="2:12">
+      <c r="B175" s="36"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="30"/>
+      <c r="E175" s="30"/>
+      <c r="F175" s="30"/>
+      <c r="G175" s="46" t="s">
+        <v>2481</v>
+      </c>
+      <c r="H175" s="30"/>
+      <c r="I175" s="30"/>
+      <c r="J175" s="30"/>
+      <c r="K175" s="30"/>
+      <c r="L175" s="37"/>
+    </row>
+    <row r="176" spans="2:12">
+      <c r="B176" s="36"/>
+      <c r="C176" s="30"/>
+      <c r="D176" s="30"/>
+      <c r="E176" s="30"/>
+      <c r="F176" s="30"/>
+      <c r="G176" s="46" t="s">
+        <v>2480</v>
+      </c>
+      <c r="H176" s="30"/>
+      <c r="I176" s="30"/>
+      <c r="J176" s="30"/>
+      <c r="K176" s="30"/>
+      <c r="L176" s="37"/>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="B177" s="36"/>
+      <c r="C177" s="30"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="30"/>
+      <c r="F177" s="30"/>
+      <c r="G177" s="46" t="s">
+        <v>2476</v>
+      </c>
+      <c r="H177" s="30"/>
+      <c r="I177" s="30"/>
+      <c r="J177" s="30"/>
+      <c r="K177" s="30"/>
+      <c r="L177" s="37"/>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="B178" s="36"/>
+      <c r="C178" s="30"/>
+      <c r="D178" s="30"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="30"/>
+      <c r="H178" s="30"/>
+      <c r="I178" s="30"/>
+      <c r="J178" s="30"/>
+      <c r="K178" s="30"/>
+      <c r="L178" s="37"/>
+    </row>
+    <row r="179" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B179" s="38"/>
+      <c r="C179" s="39"/>
+      <c r="D179" s="39"/>
+      <c r="E179" s="39"/>
+      <c r="F179" s="39"/>
+      <c r="G179" s="39"/>
+      <c r="H179" s="39"/>
+      <c r="I179" s="39"/>
+      <c r="J179" s="39"/>
+      <c r="K179" s="39"/>
+      <c r="L179" s="40"/>
+    </row>
+    <row r="186" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="187" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A187" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D187" s="33"/>
+      <c r="E187" s="34"/>
+      <c r="F187" s="34"/>
+      <c r="G187" s="34"/>
+      <c r="H187" s="34"/>
+      <c r="I187" s="34"/>
+      <c r="J187" s="34"/>
+      <c r="K187" s="34"/>
+      <c r="L187" s="35"/>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="B188" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D188" s="36" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E188" s="30" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F188" s="30"/>
+      <c r="G188" s="30"/>
+      <c r="H188" s="30"/>
+      <c r="I188" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="J188" s="33"/>
+      <c r="K188" s="35"/>
+      <c r="L188" s="37"/>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="B189" t="s">
+        <v>2485</v>
+      </c>
+      <c r="D189" s="53" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E189" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="F189" s="30"/>
+      <c r="G189" s="30"/>
+      <c r="H189" s="30"/>
+      <c r="I189" s="30"/>
+      <c r="J189" s="36"/>
+      <c r="K189" s="37"/>
+      <c r="L189" s="37"/>
+    </row>
+    <row r="190" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B190" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D190" s="53" t="s">
+        <v>554</v>
+      </c>
+      <c r="E190" s="54">
+        <v>10</v>
+      </c>
+      <c r="F190" s="30"/>
+      <c r="G190" s="30"/>
+      <c r="H190" s="30"/>
+      <c r="I190" s="30"/>
+      <c r="J190" s="38"/>
+      <c r="K190" s="40"/>
+      <c r="L190" s="37"/>
+    </row>
+    <row r="191" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B191" t="s">
+        <v>2487</v>
+      </c>
+      <c r="D191" s="53" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E191" s="54" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F191" s="30"/>
+      <c r="G191" s="30"/>
+      <c r="H191" s="30"/>
+      <c r="I191" s="30"/>
+      <c r="J191" s="30"/>
+      <c r="K191" s="30"/>
+      <c r="L191" s="37"/>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="B192" s="60" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D192" s="53" t="s">
+        <v>420</v>
+      </c>
+      <c r="E192" s="54">
+        <v>20</v>
+      </c>
+      <c r="F192" s="30"/>
+      <c r="G192" s="30"/>
+      <c r="H192" s="30"/>
+      <c r="I192" s="30" t="s">
+        <v>2023</v>
+      </c>
+      <c r="J192" s="33"/>
+      <c r="K192" s="35"/>
+      <c r="L192" s="37"/>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193" t="s">
+        <v>162</v>
+      </c>
+      <c r="D193" s="53" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E193" s="54" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F193" s="30"/>
+      <c r="G193" s="30"/>
+      <c r="H193" s="30"/>
+      <c r="I193" s="30"/>
+      <c r="J193" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K193" s="55" t="s">
+        <v>542</v>
+      </c>
+      <c r="L193" s="37"/>
+    </row>
+    <row r="194" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A194" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D194" s="53"/>
+      <c r="E194" s="54"/>
+      <c r="F194" s="30"/>
+      <c r="G194" s="30"/>
+      <c r="H194" s="30"/>
+      <c r="I194" s="30"/>
+      <c r="J194" s="56" t="s">
+        <v>2456</v>
+      </c>
+      <c r="K194" s="58">
+        <v>20</v>
+      </c>
+      <c r="L194" s="37"/>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="B195" t="s">
+        <v>374</v>
+      </c>
+      <c r="D195" s="53"/>
+      <c r="E195" s="54"/>
+      <c r="F195" s="30"/>
+      <c r="G195" s="30"/>
+      <c r="H195" s="30"/>
+      <c r="I195" s="30"/>
+      <c r="J195" s="30"/>
+      <c r="K195" s="30"/>
+      <c r="L195" s="37"/>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="B196" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D196" s="53"/>
+      <c r="E196" s="54"/>
+      <c r="F196" s="30"/>
+      <c r="G196" s="30"/>
+      <c r="H196" s="30"/>
+      <c r="I196" s="30"/>
+      <c r="J196" s="30"/>
+      <c r="K196" s="30"/>
+      <c r="L196" s="37"/>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197" t="s">
+        <v>162</v>
+      </c>
+      <c r="D197" s="53"/>
+      <c r="E197" s="54"/>
+      <c r="F197" s="30"/>
+      <c r="G197" s="30"/>
+      <c r="H197" s="30"/>
+      <c r="I197" s="30"/>
+      <c r="J197" s="30"/>
+      <c r="K197" s="30"/>
+      <c r="L197" s="37"/>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D198" s="245" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E198" s="54"/>
+      <c r="F198" s="246" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G198" s="30"/>
+      <c r="H198" s="30"/>
+      <c r="I198" s="30"/>
+      <c r="J198" s="30"/>
+      <c r="K198" s="30"/>
+      <c r="L198" s="37"/>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="B199" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D199" s="53" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E199" s="30"/>
+      <c r="F199" s="30"/>
+      <c r="G199" s="30"/>
+      <c r="H199" s="246" t="s">
+        <v>552</v>
+      </c>
+      <c r="I199" s="30"/>
+      <c r="J199" s="30"/>
+      <c r="K199" s="30"/>
+      <c r="L199" s="37"/>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="B200" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D200" s="53">
+        <v>10</v>
+      </c>
+      <c r="E200" s="30"/>
+      <c r="F200" s="30"/>
+      <c r="G200" s="30"/>
+      <c r="H200" s="30"/>
+      <c r="I200" s="30"/>
+      <c r="J200" s="30"/>
+      <c r="K200" s="30"/>
+      <c r="L200" s="37"/>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="B201" t="s">
+        <v>382</v>
+      </c>
+      <c r="D201" s="53" t="s">
+        <v>577</v>
+      </c>
+      <c r="E201" s="30"/>
+      <c r="F201" s="30"/>
+      <c r="G201" s="30"/>
+      <c r="H201" s="30"/>
+      <c r="I201" s="30"/>
+      <c r="J201" s="30"/>
+      <c r="K201" s="30"/>
+      <c r="L201" s="37"/>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="B202" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D202" s="53">
+        <v>10</v>
+      </c>
+      <c r="E202" s="30"/>
+      <c r="F202" s="30"/>
+      <c r="G202" s="30"/>
+      <c r="H202" s="30" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I202" s="30"/>
+      <c r="J202" s="30" t="s">
+        <v>2502</v>
+      </c>
+      <c r="K202" s="30"/>
+      <c r="L202" s="37"/>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="B203" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D203" s="53" t="s">
+        <v>542</v>
+      </c>
+      <c r="E203" s="30"/>
+      <c r="F203" s="30"/>
+      <c r="G203" s="30"/>
+      <c r="H203" s="30" t="s">
+        <v>2500</v>
+      </c>
+      <c r="I203" s="30"/>
+      <c r="J203" s="30"/>
+      <c r="K203" s="30"/>
+      <c r="L203" s="37"/>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="B204" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D204" s="53"/>
+      <c r="E204" s="30"/>
+      <c r="F204" s="30" t="s">
+        <v>2498</v>
+      </c>
+      <c r="G204" s="30"/>
+      <c r="H204" s="30" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I204" s="30"/>
+      <c r="J204" s="30" t="s">
+        <v>2503</v>
+      </c>
+      <c r="K204" s="30"/>
+      <c r="L204" s="37"/>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="B205" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D205" s="53"/>
+      <c r="E205" s="30"/>
+      <c r="F205" s="30"/>
+      <c r="G205" s="30"/>
+      <c r="H205" s="30"/>
+      <c r="I205" s="30"/>
+      <c r="J205" s="30"/>
+      <c r="K205" s="30"/>
+      <c r="L205" s="37"/>
+    </row>
+    <row r="206" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B206" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D206" s="56"/>
+      <c r="E206" s="39"/>
+      <c r="F206" s="39"/>
+      <c r="G206" s="39"/>
+      <c r="H206" s="39"/>
+      <c r="I206" s="39"/>
+      <c r="J206" s="39"/>
+      <c r="K206" s="39"/>
+      <c r="L206" s="40"/>
+    </row>
+    <row r="208" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="209" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A209" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D209" s="33"/>
+      <c r="E209" s="34"/>
+      <c r="F209" s="34"/>
+      <c r="G209" s="34"/>
+      <c r="H209" s="34"/>
+      <c r="I209" s="34"/>
+      <c r="J209" s="34"/>
+      <c r="K209" s="34"/>
+      <c r="L209" s="35"/>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="B210" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D210" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="E210" s="30" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F210" s="30"/>
+      <c r="G210" s="30"/>
+      <c r="H210" s="30"/>
+      <c r="I210" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="J210" s="33"/>
+      <c r="K210" s="35"/>
+      <c r="L210" s="37"/>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="B211" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D211" s="53" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E211" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="F211" s="30"/>
+      <c r="G211" s="30"/>
+      <c r="H211" s="30"/>
+      <c r="I211" s="30"/>
+      <c r="J211" s="36"/>
+      <c r="K211" s="37"/>
+      <c r="L211" s="37"/>
+    </row>
+    <row r="212" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B212" t="s">
+        <v>162</v>
+      </c>
+      <c r="D212" s="53" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E212" s="54" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F212" s="30"/>
+      <c r="G212" s="30"/>
+      <c r="H212" s="30"/>
+      <c r="I212" s="30"/>
+      <c r="J212" s="38"/>
+      <c r="K212" s="40"/>
+      <c r="L212" s="37"/>
+    </row>
+    <row r="213" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A213" t="s">
+        <v>162</v>
+      </c>
+      <c r="D213" s="53" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E213" s="54" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F213" s="30"/>
+      <c r="G213" s="30"/>
+      <c r="H213" s="30"/>
+      <c r="I213" s="30"/>
+      <c r="J213" s="30"/>
+      <c r="K213" s="30"/>
+      <c r="L213" s="37"/>
+    </row>
+    <row r="214" spans="1:12">
+      <c r="B214" s="60"/>
+      <c r="D214" s="53"/>
+      <c r="E214" s="54"/>
+      <c r="F214" s="30"/>
+      <c r="G214" s="30"/>
+      <c r="H214" s="30"/>
+      <c r="I214" s="30" t="s">
+        <v>2023</v>
+      </c>
+      <c r="J214" s="33"/>
+      <c r="K214" s="35"/>
+      <c r="L214" s="37"/>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="A215" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D215" s="53"/>
+      <c r="E215" s="54"/>
+      <c r="F215" s="30"/>
+      <c r="G215" s="30"/>
+      <c r="H215" s="30"/>
+      <c r="I215" s="30"/>
+      <c r="J215" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K215" s="55" t="s">
+        <v>577</v>
+      </c>
+      <c r="L215" s="37"/>
+    </row>
+    <row r="216" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B216" t="s">
+        <v>374</v>
+      </c>
+      <c r="D216" s="53"/>
+      <c r="E216" s="54"/>
+      <c r="F216" s="30"/>
+      <c r="G216" s="30"/>
+      <c r="H216" s="30"/>
+      <c r="I216" s="30"/>
+      <c r="J216" s="56" t="s">
+        <v>2456</v>
+      </c>
+      <c r="K216" s="58">
+        <v>20</v>
+      </c>
+      <c r="L216" s="37"/>
+    </row>
+    <row r="217" spans="1:12">
+      <c r="B217" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D217" s="53"/>
+      <c r="E217" s="54"/>
+      <c r="F217" s="30"/>
+      <c r="G217" s="30"/>
+      <c r="H217" s="30"/>
+      <c r="I217" s="30"/>
+      <c r="J217" s="30"/>
+      <c r="K217" s="30"/>
+      <c r="L217" s="37"/>
+    </row>
+    <row r="218" spans="1:12">
+      <c r="A218" t="s">
+        <v>162</v>
+      </c>
+      <c r="D218" s="53"/>
+      <c r="E218" s="54"/>
+      <c r="F218" s="30"/>
+      <c r="G218" s="30"/>
+      <c r="H218" s="30"/>
+      <c r="I218" s="30"/>
+      <c r="J218" s="30"/>
+      <c r="K218" s="30"/>
+      <c r="L218" s="37"/>
+    </row>
+    <row r="219" spans="1:12">
+      <c r="D219" s="53"/>
+      <c r="E219" s="54"/>
+      <c r="F219" s="30"/>
+      <c r="G219" s="30"/>
+      <c r="H219" s="30"/>
+      <c r="I219" s="30"/>
+      <c r="J219" s="30"/>
+      <c r="K219" s="30"/>
+      <c r="L219" s="37"/>
+    </row>
+    <row r="220" spans="1:12">
+      <c r="A220" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D220" s="245" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E220" s="54"/>
+      <c r="F220" s="246" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G220" s="30"/>
+      <c r="H220" s="30"/>
+      <c r="I220" s="30"/>
+      <c r="J220" s="30"/>
+      <c r="K220" s="30"/>
+      <c r="L220" s="37"/>
+    </row>
+    <row r="221" spans="1:12">
+      <c r="B221" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D221" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="E221" s="30"/>
+      <c r="F221" s="30"/>
+      <c r="G221" s="30"/>
+      <c r="H221" s="246" t="s">
+        <v>552</v>
+      </c>
+      <c r="I221" s="30"/>
+      <c r="J221" s="30"/>
+      <c r="K221" s="30"/>
+      <c r="L221" s="37"/>
+    </row>
+    <row r="222" spans="1:12">
+      <c r="B222" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D222" s="53" t="s">
+        <v>577</v>
+      </c>
+      <c r="E222" s="30"/>
+      <c r="F222" s="30"/>
+      <c r="G222" s="30"/>
+      <c r="H222" s="30"/>
+      <c r="I222" s="30"/>
+      <c r="J222" s="30"/>
+      <c r="K222" s="30"/>
+      <c r="L222" s="37"/>
+    </row>
+    <row r="223" spans="1:12">
+      <c r="B223" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D223" s="53"/>
+      <c r="E223" s="30"/>
+      <c r="F223" s="30"/>
+      <c r="G223" s="30"/>
+      <c r="H223" s="30"/>
+      <c r="I223" s="30"/>
+      <c r="J223" s="30"/>
+      <c r="K223" s="30"/>
+      <c r="L223" s="37"/>
+    </row>
+    <row r="224" spans="1:12">
+      <c r="B224" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D224" s="53"/>
+      <c r="E224" s="30"/>
+      <c r="F224" s="30" t="s">
+        <v>2509</v>
+      </c>
+      <c r="G224" s="30"/>
+      <c r="H224" s="30" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I224" s="30"/>
+      <c r="J224" s="30" t="s">
+        <v>2502</v>
+      </c>
+      <c r="K224" s="30"/>
+      <c r="L224" s="37"/>
+    </row>
+    <row r="225" spans="2:12">
+      <c r="B225" t="s">
+        <v>2505</v>
+      </c>
+      <c r="D225" s="53"/>
+      <c r="E225" s="30"/>
+      <c r="F225" s="30"/>
+      <c r="G225" s="30"/>
+      <c r="H225" s="30" t="s">
+        <v>2500</v>
+      </c>
+      <c r="I225" s="30"/>
+      <c r="J225" s="30"/>
+      <c r="K225" s="30"/>
+      <c r="L225" s="37"/>
+    </row>
+    <row r="226" spans="2:12">
+      <c r="B226" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D226" s="53"/>
+      <c r="E226" s="30"/>
+      <c r="F226" s="30"/>
+      <c r="G226" s="30"/>
+      <c r="H226" s="30" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I226" s="30"/>
+      <c r="J226" s="30" t="s">
+        <v>2503</v>
+      </c>
+      <c r="K226" s="30"/>
+      <c r="L226" s="37"/>
+    </row>
+    <row r="227" spans="2:12">
+      <c r="D227" s="53"/>
+      <c r="E227" s="30"/>
+      <c r="F227" s="30"/>
+      <c r="G227" s="30"/>
+      <c r="H227" s="30"/>
+      <c r="I227" s="30"/>
+      <c r="J227" s="30"/>
+      <c r="K227" s="30"/>
+      <c r="L227" s="37"/>
+    </row>
+    <row r="228" spans="2:12" ht="15.75" thickBot="1">
+      <c r="D228" s="56"/>
+      <c r="E228" s="39"/>
+      <c r="F228" s="39"/>
+      <c r="G228" s="39"/>
+      <c r="H228" s="39"/>
+      <c r="I228" s="39"/>
+      <c r="J228" s="39"/>
+      <c r="K228" s="39"/>
+      <c r="L228" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="2510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4403" uniqueCount="2520">
   <si>
     <t>USER</t>
   </si>
@@ -7754,6 +7754,36 @@
   </si>
   <si>
     <t>main:225</t>
+  </si>
+  <si>
+    <t>p.name="mike";</t>
+  </si>
+  <si>
+    <t>testing2(p);</t>
+  </si>
+  <si>
+    <t>public void testing2(Person p2) {</t>
+  </si>
+  <si>
+    <t>p2.name="andy";</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>method stack</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>m.testing(p1); // copy of key</t>
+  </si>
+  <si>
+    <t>Locker</t>
   </si>
 </sst>
 </file>
@@ -8265,7 +8295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -8739,6 +8769,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8757,8 +8792,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19791,13 +19824,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="239" t="s">
+      <c r="H3" s="242" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="241"/>
+      <c r="I3" s="243"/>
+      <c r="J3" s="243"/>
+      <c r="K3" s="243"/>
+      <c r="L3" s="244"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="P4" t="s">
@@ -19834,20 +19867,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="242" t="s">
+      <c r="G6" s="245" t="s">
         <v>1683</v>
       </c>
-      <c r="H6" s="243"/>
+      <c r="H6" s="246"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="242" t="s">
+      <c r="J6" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="243"/>
+      <c r="K6" s="246"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="242" t="s">
+      <c r="M6" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="243"/>
+      <c r="N6" s="246"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="128" t="s">
@@ -19871,20 +19904,20 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
       <c r="F8" s="4"/>
-      <c r="G8" s="242" t="s">
+      <c r="G8" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="243"/>
+      <c r="H8" s="246"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="242" t="s">
+      <c r="J8" s="245" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="243"/>
+      <c r="K8" s="246"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="242" t="s">
+      <c r="M8" s="245" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="243"/>
+      <c r="N8" s="246"/>
       <c r="P8" t="s">
         <v>1689</v>
       </c>
@@ -33926,11 +33959,11 @@
       <c r="L6" s="46" t="s">
         <v>1620</v>
       </c>
-      <c r="M6" s="244" t="s">
+      <c r="M6" s="247" t="s">
         <v>1621</v>
       </c>
-      <c r="N6" s="244"/>
-      <c r="O6" s="244"/>
+      <c r="N6" s="247"/>
+      <c r="O6" s="247"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
@@ -37206,10 +37239,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:N228"/>
+  <dimension ref="A2:N263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B211" sqref="B211"/>
+    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J261" sqref="J261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38698,11 +38731,11 @@
       <c r="A198" t="s">
         <v>2493</v>
       </c>
-      <c r="D198" s="245" t="s">
+      <c r="D198" s="240" t="s">
         <v>2495</v>
       </c>
       <c r="E198" s="54"/>
-      <c r="F198" s="246" t="s">
+      <c r="F198" s="241" t="s">
         <v>2497</v>
       </c>
       <c r="G198" s="30"/>
@@ -38722,7 +38755,7 @@
       <c r="E199" s="30"/>
       <c r="F199" s="30"/>
       <c r="G199" s="30"/>
-      <c r="H199" s="246" t="s">
+      <c r="H199" s="241" t="s">
         <v>552</v>
       </c>
       <c r="I199" s="30"/>
@@ -39030,11 +39063,11 @@
       <c r="A220" t="s">
         <v>2493</v>
       </c>
-      <c r="D220" s="245" t="s">
+      <c r="D220" s="240" t="s">
         <v>2495</v>
       </c>
       <c r="E220" s="54"/>
-      <c r="F220" s="246" t="s">
+      <c r="F220" s="241" t="s">
         <v>2497</v>
       </c>
       <c r="G220" s="30"/>
@@ -39054,7 +39087,7 @@
       <c r="E221" s="30"/>
       <c r="F221" s="30"/>
       <c r="G221" s="30"/>
-      <c r="H221" s="246" t="s">
+      <c r="H221" s="241" t="s">
         <v>552</v>
       </c>
       <c r="I221" s="30"/>
@@ -39112,7 +39145,7 @@
       <c r="K224" s="30"/>
       <c r="L224" s="37"/>
     </row>
-    <row r="225" spans="2:12">
+    <row r="225" spans="1:12">
       <c r="B225" t="s">
         <v>2505</v>
       </c>
@@ -39128,10 +39161,7 @@
       <c r="K225" s="30"/>
       <c r="L225" s="37"/>
     </row>
-    <row r="226" spans="2:12">
-      <c r="B226" t="s">
-        <v>2492</v>
-      </c>
+    <row r="226" spans="1:12">
       <c r="D226" s="53"/>
       <c r="E226" s="30"/>
       <c r="F226" s="30"/>
@@ -39146,7 +39176,10 @@
       <c r="K226" s="30"/>
       <c r="L226" s="37"/>
     </row>
-    <row r="227" spans="2:12">
+    <row r="227" spans="1:12">
+      <c r="A227" t="s">
+        <v>444</v>
+      </c>
       <c r="D227" s="53"/>
       <c r="E227" s="30"/>
       <c r="F227" s="30"/>
@@ -39157,7 +39190,10 @@
       <c r="K227" s="30"/>
       <c r="L227" s="37"/>
     </row>
-    <row r="228" spans="2:12" ht="15.75" thickBot="1">
+    <row r="228" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B228" t="s">
+        <v>2489</v>
+      </c>
       <c r="D228" s="56"/>
       <c r="E228" s="39"/>
       <c r="F228" s="39"/>
@@ -39167,6 +39203,518 @@
       <c r="J228" s="39"/>
       <c r="K228" s="39"/>
       <c r="L228" s="40"/>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="B229" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B230" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
+      <c r="B231" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D231" s="50" t="s">
+        <v>2514</v>
+      </c>
+      <c r="E231" s="51" t="s">
+        <v>2515</v>
+      </c>
+      <c r="F231" s="51"/>
+      <c r="G231" s="51"/>
+      <c r="H231" s="51"/>
+      <c r="I231" s="51"/>
+      <c r="J231" s="51"/>
+      <c r="K231" s="51"/>
+      <c r="L231" s="52"/>
+    </row>
+    <row r="232" spans="1:12">
+      <c r="B232" t="s">
+        <v>2518</v>
+      </c>
+      <c r="D232" s="53" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E232" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="F232" s="54"/>
+      <c r="G232" s="54"/>
+      <c r="H232" s="54"/>
+      <c r="I232" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="J232" s="239"/>
+      <c r="K232" s="54"/>
+      <c r="L232" s="55"/>
+    </row>
+    <row r="233" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B233" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D233" s="53" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E233" s="54" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F233" s="54" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G233" s="54"/>
+      <c r="H233" s="54"/>
+      <c r="I233" s="54"/>
+      <c r="J233" s="54"/>
+      <c r="K233" s="54"/>
+      <c r="L233" s="55"/>
+    </row>
+    <row r="234" spans="1:12">
+      <c r="A234" t="s">
+        <v>162</v>
+      </c>
+      <c r="D234" s="53" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E234" s="54" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F234" s="54"/>
+      <c r="G234" s="54"/>
+      <c r="H234" s="54" t="s">
+        <v>2519</v>
+      </c>
+      <c r="I234" s="54" t="s">
+        <v>2023</v>
+      </c>
+      <c r="J234" s="50"/>
+      <c r="K234" s="52"/>
+      <c r="L234" s="55"/>
+    </row>
+    <row r="235" spans="1:12">
+      <c r="A235" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D235" s="53" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E235" s="54" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F235" s="54"/>
+      <c r="G235" s="54"/>
+      <c r="H235" s="54"/>
+      <c r="I235" s="54"/>
+      <c r="J235" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K235" s="55" t="s">
+        <v>542</v>
+      </c>
+      <c r="L235" s="55"/>
+    </row>
+    <row r="236" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B236" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D236" s="53"/>
+      <c r="E236" s="54"/>
+      <c r="F236" s="54"/>
+      <c r="G236" s="54"/>
+      <c r="H236" s="54"/>
+      <c r="I236" s="54"/>
+      <c r="J236" s="56" t="s">
+        <v>2456</v>
+      </c>
+      <c r="K236" s="58">
+        <v>20</v>
+      </c>
+      <c r="L236" s="55"/>
+    </row>
+    <row r="237" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B237" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D237" s="53"/>
+      <c r="E237" s="54"/>
+      <c r="F237" s="54"/>
+      <c r="G237" s="54"/>
+      <c r="H237" s="54"/>
+      <c r="I237" s="54"/>
+      <c r="J237" s="54"/>
+      <c r="K237" s="54"/>
+      <c r="L237" s="55"/>
+    </row>
+    <row r="238" spans="1:12">
+      <c r="B238" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D238" s="53"/>
+      <c r="E238" s="54"/>
+      <c r="F238" s="54"/>
+      <c r="G238" s="54"/>
+      <c r="H238" s="54"/>
+      <c r="I238" s="54" t="s">
+        <v>2080</v>
+      </c>
+      <c r="J238" s="50"/>
+      <c r="K238" s="52"/>
+      <c r="L238" s="55"/>
+    </row>
+    <row r="239" spans="1:12">
+      <c r="A239" t="s">
+        <v>162</v>
+      </c>
+      <c r="D239" s="53"/>
+      <c r="E239" s="54"/>
+      <c r="F239" s="54"/>
+      <c r="G239" s="54" t="s">
+        <v>2516</v>
+      </c>
+      <c r="H239" s="54"/>
+      <c r="I239" s="54"/>
+      <c r="J239" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K239" s="55" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L239" s="55"/>
+    </row>
+    <row r="240" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A240" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D240" s="53"/>
+      <c r="E240" s="166" t="s">
+        <v>2517</v>
+      </c>
+      <c r="F240" s="54"/>
+      <c r="G240" s="239"/>
+      <c r="H240" s="54"/>
+      <c r="I240" s="54"/>
+      <c r="J240" s="56" t="s">
+        <v>2456</v>
+      </c>
+      <c r="K240" s="58">
+        <v>20</v>
+      </c>
+      <c r="L240" s="55"/>
+    </row>
+    <row r="241" spans="1:12">
+      <c r="B241" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D241" s="53"/>
+      <c r="E241" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="F241" s="54"/>
+      <c r="G241" s="239"/>
+      <c r="H241" s="54"/>
+      <c r="I241" s="54"/>
+      <c r="J241" s="54"/>
+      <c r="K241" s="54"/>
+      <c r="L241" s="55"/>
+    </row>
+    <row r="242" spans="1:12">
+      <c r="A242" t="s">
+        <v>162</v>
+      </c>
+      <c r="D242" s="53"/>
+      <c r="E242" s="54" t="s">
+        <v>542</v>
+      </c>
+      <c r="F242" s="54"/>
+      <c r="G242" s="239"/>
+      <c r="H242" s="54"/>
+      <c r="I242" s="54"/>
+      <c r="J242" s="54"/>
+      <c r="K242" s="54"/>
+      <c r="L242" s="55"/>
+    </row>
+    <row r="243" spans="1:12">
+      <c r="A243" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D243" s="53"/>
+      <c r="E243" s="54"/>
+      <c r="F243" s="54"/>
+      <c r="G243" s="239"/>
+      <c r="H243" s="54"/>
+      <c r="I243" s="54"/>
+      <c r="J243" s="54"/>
+      <c r="K243" s="54"/>
+      <c r="L243" s="55"/>
+    </row>
+    <row r="244" spans="1:12">
+      <c r="B244" t="s">
+        <v>374</v>
+      </c>
+      <c r="D244" s="53"/>
+      <c r="E244" s="54"/>
+      <c r="F244" s="54"/>
+      <c r="G244" s="239"/>
+      <c r="H244" s="54"/>
+      <c r="I244" s="54"/>
+      <c r="J244" s="54"/>
+      <c r="K244" s="54"/>
+      <c r="L244" s="55"/>
+    </row>
+    <row r="245" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B245" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D245" s="56"/>
+      <c r="E245" s="57"/>
+      <c r="F245" s="57"/>
+      <c r="G245" s="57"/>
+      <c r="H245" s="57"/>
+      <c r="I245" s="57"/>
+      <c r="J245" s="57"/>
+      <c r="K245" s="57"/>
+      <c r="L245" s="58"/>
+    </row>
+    <row r="246" spans="1:12">
+      <c r="A246" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="249" spans="1:12">
+      <c r="A249" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D249" s="50" t="s">
+        <v>2514</v>
+      </c>
+      <c r="E249" s="51" t="s">
+        <v>2515</v>
+      </c>
+      <c r="F249" s="51"/>
+      <c r="G249" s="51"/>
+      <c r="H249" s="51"/>
+      <c r="I249" s="51"/>
+      <c r="J249" s="51"/>
+      <c r="K249" s="51"/>
+      <c r="L249" s="52"/>
+    </row>
+    <row r="250" spans="1:12">
+      <c r="B250" t="s">
+        <v>374</v>
+      </c>
+      <c r="D250" s="53" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E250" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="F250" s="54"/>
+      <c r="G250" s="54"/>
+      <c r="H250" s="54"/>
+      <c r="I250" s="54"/>
+      <c r="J250" s="239"/>
+      <c r="K250" s="54"/>
+      <c r="L250" s="55"/>
+    </row>
+    <row r="251" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B251" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D251" s="53" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E251" s="54" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F251" s="54"/>
+      <c r="G251" s="54"/>
+      <c r="H251" s="54"/>
+      <c r="I251" s="54"/>
+      <c r="J251" s="54"/>
+      <c r="K251" s="54"/>
+      <c r="L251" s="55"/>
+    </row>
+    <row r="252" spans="1:12">
+      <c r="A252" t="s">
+        <v>162</v>
+      </c>
+      <c r="D252" s="53" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E252" s="54" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F252" s="54"/>
+      <c r="G252" s="54"/>
+      <c r="H252" s="54"/>
+      <c r="I252" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="J252" s="50"/>
+      <c r="K252" s="52"/>
+      <c r="L252" s="55"/>
+    </row>
+    <row r="253" spans="1:12">
+      <c r="D253" s="53"/>
+      <c r="E253" s="54"/>
+      <c r="F253" s="54"/>
+      <c r="G253" s="54"/>
+      <c r="H253" s="54"/>
+      <c r="I253" s="54"/>
+      <c r="J253" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K253" s="55" t="s">
+        <v>430</v>
+      </c>
+      <c r="L253" s="55"/>
+    </row>
+    <row r="254" spans="1:12" ht="15.75" thickBot="1">
+      <c r="D254" s="53"/>
+      <c r="E254" s="54"/>
+      <c r="F254" s="54"/>
+      <c r="G254" s="54"/>
+      <c r="H254" s="54"/>
+      <c r="I254" s="54"/>
+      <c r="J254" s="56" t="s">
+        <v>2456</v>
+      </c>
+      <c r="K254" s="58">
+        <v>20</v>
+      </c>
+      <c r="L254" s="55"/>
+    </row>
+    <row r="255" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A255" t="s">
+        <v>360</v>
+      </c>
+      <c r="D255" s="53"/>
+      <c r="E255" s="54"/>
+      <c r="F255" s="54"/>
+      <c r="G255" s="54"/>
+      <c r="H255" s="54"/>
+      <c r="I255" s="54"/>
+      <c r="J255" s="54"/>
+      <c r="K255" s="54"/>
+      <c r="L255" s="55"/>
+    </row>
+    <row r="256" spans="1:12">
+      <c r="A256" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D256" s="53"/>
+      <c r="E256" s="54"/>
+      <c r="F256" s="54"/>
+      <c r="G256" s="54"/>
+      <c r="H256" s="54"/>
+      <c r="I256" s="54" t="s">
+        <v>2023</v>
+      </c>
+      <c r="J256" s="50"/>
+      <c r="K256" s="52"/>
+      <c r="L256" s="55"/>
+    </row>
+    <row r="257" spans="1:12">
+      <c r="A257" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D257" s="53"/>
+      <c r="E257" s="54"/>
+      <c r="F257" s="54"/>
+      <c r="G257" s="54"/>
+      <c r="H257" s="54"/>
+      <c r="I257" s="54"/>
+      <c r="J257" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K257" s="55" t="s">
+        <v>430</v>
+      </c>
+      <c r="L257" s="55"/>
+    </row>
+    <row r="258" spans="1:12" ht="15.75" thickBot="1">
+      <c r="D258" s="53"/>
+      <c r="E258" s="166"/>
+      <c r="F258" s="54"/>
+      <c r="G258" s="239"/>
+      <c r="H258" s="54"/>
+      <c r="I258" s="54"/>
+      <c r="J258" s="56" t="s">
+        <v>2456</v>
+      </c>
+      <c r="K258" s="58">
+        <v>20</v>
+      </c>
+      <c r="L258" s="55"/>
+    </row>
+    <row r="259" spans="1:12" ht="15.75" thickBot="1">
+      <c r="D259" s="53"/>
+      <c r="E259" s="54"/>
+      <c r="F259" s="54"/>
+      <c r="G259" s="239"/>
+      <c r="H259" s="54"/>
+      <c r="I259" s="54"/>
+      <c r="J259" s="54"/>
+      <c r="K259" s="54"/>
+      <c r="L259" s="55"/>
+    </row>
+    <row r="260" spans="1:12">
+      <c r="D260" s="53"/>
+      <c r="E260" s="54"/>
+      <c r="F260" s="54"/>
+      <c r="G260" s="239"/>
+      <c r="H260" s="54"/>
+      <c r="I260" s="54" t="s">
+        <v>2080</v>
+      </c>
+      <c r="J260" s="50"/>
+      <c r="K260" s="52"/>
+      <c r="L260" s="55"/>
+    </row>
+    <row r="261" spans="1:12">
+      <c r="D261" s="53"/>
+      <c r="E261" s="54"/>
+      <c r="F261" s="54"/>
+      <c r="G261" s="239"/>
+      <c r="H261" s="54"/>
+      <c r="I261" s="54"/>
+      <c r="J261" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K261" s="55" t="s">
+        <v>430</v>
+      </c>
+      <c r="L261" s="55"/>
+    </row>
+    <row r="262" spans="1:12" ht="15.75" thickBot="1">
+      <c r="D262" s="53"/>
+      <c r="E262" s="54"/>
+      <c r="F262" s="54"/>
+      <c r="G262" s="239"/>
+      <c r="H262" s="54"/>
+      <c r="I262" s="54"/>
+      <c r="J262" s="56" t="s">
+        <v>2456</v>
+      </c>
+      <c r="K262" s="58">
+        <v>20</v>
+      </c>
+      <c r="L262" s="55"/>
+    </row>
+    <row r="263" spans="1:12" ht="15.75" thickBot="1">
+      <c r="D263" s="56"/>
+      <c r="E263" s="57"/>
+      <c r="F263" s="57"/>
+      <c r="G263" s="57"/>
+      <c r="H263" s="57"/>
+      <c r="I263" s="57"/>
+      <c r="J263" s="57"/>
+      <c r="K263" s="57"/>
+      <c r="L263" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7725" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7725" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4403" uniqueCount="2520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4438" uniqueCount="2526">
   <si>
     <t>USER</t>
   </si>
@@ -7784,6 +7784,24 @@
   </si>
   <si>
     <t>Locker</t>
+  </si>
+  <si>
+    <t>p1==p2</t>
+  </si>
+  <si>
+    <t>int a=10</t>
+  </si>
+  <si>
+    <t>int b=10</t>
+  </si>
+  <si>
+    <t>a==b</t>
+  </si>
+  <si>
+    <t>p1.weight == p2.weight</t>
+  </si>
+  <si>
+    <t>10 ^ 3</t>
   </si>
 </sst>
 </file>
@@ -8295,7 +8313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -8774,6 +8792,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -19787,8 +19808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD98"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="N95" sqref="N95"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="N92" sqref="N92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19824,13 +19845,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="242" t="s">
+      <c r="H3" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="243"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="245"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="P4" t="s">
@@ -19867,20 +19888,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="245" t="s">
+      <c r="G6" s="246" t="s">
         <v>1683</v>
       </c>
-      <c r="H6" s="246"/>
+      <c r="H6" s="247"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="245" t="s">
+      <c r="J6" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="246"/>
+      <c r="K6" s="247"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="245" t="s">
+      <c r="M6" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="246"/>
+      <c r="N6" s="247"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="128" t="s">
@@ -19904,20 +19925,20 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
       <c r="F8" s="4"/>
-      <c r="G8" s="245" t="s">
+      <c r="G8" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="246"/>
+      <c r="H8" s="247"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="245" t="s">
+      <c r="J8" s="246" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="246"/>
+      <c r="K8" s="247"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="245" t="s">
+      <c r="M8" s="246" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="246"/>
+      <c r="N8" s="247"/>
       <c r="P8" t="s">
         <v>1689</v>
       </c>
@@ -20814,12 +20835,12 @@
       <c r="N60" s="157"/>
       <c r="O60" s="157"/>
     </row>
-    <row r="86" spans="2:14">
+    <row r="86" spans="2:17">
       <c r="E86" t="s">
         <v>2402</v>
       </c>
     </row>
-    <row r="87" spans="2:14">
+    <row r="87" spans="2:17">
       <c r="E87" s="54">
         <v>128</v>
       </c>
@@ -20845,7 +20866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:14">
+    <row r="88" spans="2:17">
       <c r="E88" s="30" t="s">
         <v>53</v>
       </c>
@@ -20871,56 +20892,52 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="2:14">
+    <row r="89" spans="2:17">
       <c r="B89" t="s">
         <v>195</v>
       </c>
-      <c r="E89" s="226">
-        <v>1</v>
-      </c>
+      <c r="E89" s="226"/>
       <c r="F89" s="137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" s="137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" s="137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="137">
         <v>1</v>
       </c>
       <c r="J89" s="137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="137">
         <v>1</v>
       </c>
       <c r="L89" s="137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" s="227">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14">
-      <c r="E90" s="226">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17">
+      <c r="E90" s="226"/>
       <c r="F90" s="137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" s="137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" s="137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" s="137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" s="137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="137">
         <v>1</v>
@@ -20928,18 +20945,79 @@
       <c r="L90" s="137">
         <v>1</v>
       </c>
-      <c r="N90" s="168">
-        <v>-128</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14">
+      <c r="M90" s="60">
+        <v>3</v>
+      </c>
+      <c r="N90" s="168"/>
+    </row>
+    <row r="91" spans="2:17">
+      <c r="F91" s="60"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="60">
+        <v>1</v>
+      </c>
+      <c r="J91" s="60">
+        <v>0</v>
+      </c>
+      <c r="K91" s="60">
+        <v>0</v>
+      </c>
+      <c r="L91" s="60">
+        <v>1</v>
+      </c>
+      <c r="M91" t="s">
+        <v>2525</v>
+      </c>
+      <c r="N91" s="60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17">
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17">
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17">
       <c r="E94" t="s">
         <v>2403</v>
       </c>
-    </row>
-    <row r="95" spans="2:14">
-      <c r="N95">
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
         <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17">
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="8:10">
@@ -33959,11 +34037,11 @@
       <c r="L6" s="46" t="s">
         <v>1620</v>
       </c>
-      <c r="M6" s="247" t="s">
+      <c r="M6" s="248" t="s">
         <v>1621</v>
       </c>
-      <c r="N6" s="247"/>
-      <c r="O6" s="247"/>
+      <c r="N6" s="248"/>
+      <c r="O6" s="248"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
@@ -37239,10 +37317,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:N263"/>
+  <dimension ref="A2:N283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J261" sqref="J261"/>
+    <sheetView topLeftCell="A267" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39715,6 +39793,273 @@
       <c r="J263" s="57"/>
       <c r="K263" s="57"/>
       <c r="L263" s="58"/>
+    </row>
+    <row r="266" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="267" spans="1:12">
+      <c r="A267" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D267" s="50" t="s">
+        <v>2514</v>
+      </c>
+      <c r="E267" s="51" t="s">
+        <v>2515</v>
+      </c>
+      <c r="F267" s="51"/>
+      <c r="G267" s="51"/>
+      <c r="H267" s="51"/>
+      <c r="I267" s="51"/>
+      <c r="J267" s="51"/>
+      <c r="K267" s="51"/>
+      <c r="L267" s="52"/>
+    </row>
+    <row r="268" spans="1:12">
+      <c r="B268" t="s">
+        <v>374</v>
+      </c>
+      <c r="D268" s="53" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E268" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="F268" s="54"/>
+      <c r="G268" s="54"/>
+      <c r="H268" s="54"/>
+      <c r="I268" s="54"/>
+      <c r="J268" s="242"/>
+      <c r="K268" s="54"/>
+      <c r="L268" s="55"/>
+    </row>
+    <row r="269" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B269" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D269" s="53" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E269" s="54" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F269" s="54"/>
+      <c r="G269" s="54"/>
+      <c r="H269" s="54"/>
+      <c r="I269" s="54"/>
+      <c r="J269" s="54"/>
+      <c r="K269" s="54"/>
+      <c r="L269" s="55"/>
+    </row>
+    <row r="270" spans="1:12">
+      <c r="A270" t="s">
+        <v>162</v>
+      </c>
+      <c r="D270" s="53" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E270" s="54" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F270" s="54"/>
+      <c r="G270" s="54"/>
+      <c r="H270" s="54"/>
+      <c r="I270" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="J270" s="50"/>
+      <c r="K270" s="52"/>
+      <c r="L270" s="55"/>
+    </row>
+    <row r="271" spans="1:12">
+      <c r="D271" s="53"/>
+      <c r="E271" s="54"/>
+      <c r="F271" s="54"/>
+      <c r="G271" s="54"/>
+      <c r="H271" s="54"/>
+      <c r="I271" s="54"/>
+      <c r="J271" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K271" s="55" t="s">
+        <v>430</v>
+      </c>
+      <c r="L271" s="55"/>
+    </row>
+    <row r="272" spans="1:12" ht="15.75" thickBot="1">
+      <c r="D272" s="53"/>
+      <c r="E272" s="54"/>
+      <c r="F272" s="54"/>
+      <c r="G272" s="54"/>
+      <c r="H272" s="54"/>
+      <c r="I272" s="54"/>
+      <c r="J272" s="56" t="s">
+        <v>2456</v>
+      </c>
+      <c r="K272" s="58">
+        <v>20</v>
+      </c>
+      <c r="L272" s="55"/>
+    </row>
+    <row r="273" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A273" t="s">
+        <v>360</v>
+      </c>
+      <c r="D273" s="53"/>
+      <c r="E273" s="54"/>
+      <c r="F273" s="54"/>
+      <c r="G273" s="54"/>
+      <c r="H273" s="54"/>
+      <c r="I273" s="54"/>
+      <c r="J273" s="54"/>
+      <c r="K273" s="54"/>
+      <c r="L273" s="55"/>
+    </row>
+    <row r="274" spans="1:12">
+      <c r="A274" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D274" s="53"/>
+      <c r="E274" s="54"/>
+      <c r="F274" s="54"/>
+      <c r="G274" s="54"/>
+      <c r="H274" s="54"/>
+      <c r="I274" s="54" t="s">
+        <v>2023</v>
+      </c>
+      <c r="J274" s="50"/>
+      <c r="K274" s="52"/>
+      <c r="L274" s="55"/>
+    </row>
+    <row r="275" spans="1:12">
+      <c r="A275" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D275" s="53" t="s">
+        <v>420</v>
+      </c>
+      <c r="E275" s="54">
+        <v>10</v>
+      </c>
+      <c r="F275" s="54"/>
+      <c r="G275" s="54"/>
+      <c r="H275" s="54"/>
+      <c r="I275" s="54"/>
+      <c r="J275" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K275" s="55" t="s">
+        <v>430</v>
+      </c>
+      <c r="L275" s="55"/>
+    </row>
+    <row r="276" spans="1:12" ht="15.75" thickBot="1">
+      <c r="D276" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="E276" s="166">
+        <v>10</v>
+      </c>
+      <c r="F276" s="54"/>
+      <c r="G276" s="242"/>
+      <c r="H276" s="54"/>
+      <c r="I276" s="54"/>
+      <c r="J276" s="56" t="s">
+        <v>2456</v>
+      </c>
+      <c r="K276" s="58">
+        <v>20</v>
+      </c>
+      <c r="L276" s="55"/>
+    </row>
+    <row r="277" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B277" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C277" t="b">
+        <v>0</v>
+      </c>
+      <c r="D277" s="53"/>
+      <c r="E277" s="54"/>
+      <c r="F277" s="54"/>
+      <c r="G277" s="242"/>
+      <c r="H277" s="54"/>
+      <c r="I277" s="54"/>
+      <c r="J277" s="54"/>
+      <c r="K277" s="54"/>
+      <c r="L277" s="55"/>
+    </row>
+    <row r="278" spans="1:12">
+      <c r="D278" s="53"/>
+      <c r="E278" s="54"/>
+      <c r="F278" s="54"/>
+      <c r="G278" s="242"/>
+      <c r="H278" s="54"/>
+      <c r="I278" s="54" t="s">
+        <v>2080</v>
+      </c>
+      <c r="J278" s="50"/>
+      <c r="K278" s="52"/>
+      <c r="L278" s="55"/>
+    </row>
+    <row r="279" spans="1:12">
+      <c r="A279" t="s">
+        <v>2521</v>
+      </c>
+      <c r="D279" s="53"/>
+      <c r="E279" s="54"/>
+      <c r="F279" s="54"/>
+      <c r="G279" s="242"/>
+      <c r="H279" s="54"/>
+      <c r="I279" s="54"/>
+      <c r="J279" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K279" s="55" t="s">
+        <v>430</v>
+      </c>
+      <c r="L279" s="55"/>
+    </row>
+    <row r="280" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A280" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D280" s="53"/>
+      <c r="E280" s="54"/>
+      <c r="F280" s="54"/>
+      <c r="G280" s="242"/>
+      <c r="H280" s="54"/>
+      <c r="I280" s="54"/>
+      <c r="J280" s="56" t="s">
+        <v>2456</v>
+      </c>
+      <c r="K280" s="58">
+        <v>20</v>
+      </c>
+      <c r="L280" s="55"/>
+    </row>
+    <row r="281" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B281" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C281" t="b">
+        <v>1</v>
+      </c>
+      <c r="D281" s="56"/>
+      <c r="E281" s="57"/>
+      <c r="F281" s="57"/>
+      <c r="G281" s="57"/>
+      <c r="H281" s="57"/>
+      <c r="I281" s="57"/>
+      <c r="J281" s="57"/>
+      <c r="K281" s="57"/>
+      <c r="L281" s="58"/>
+    </row>
+    <row r="283" spans="1:12">
+      <c r="B283" t="s">
+        <v>2524</v>
+      </c>
+      <c r="C283" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4519" uniqueCount="2558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4561" uniqueCount="2579">
   <si>
     <t>USER</t>
   </si>
@@ -7894,10 +7894,73 @@
     <t>problem</t>
   </si>
   <si>
-    <t>Grandparent</t>
-  </si>
-  <si>
-    <t>Parent</t>
+    <t>Interface inheritance - implements ( multiple inheritnace allowed)</t>
+  </si>
+  <si>
+    <t>Subclass inheritance - extends ( NO multiple inheritnace allowed)</t>
+  </si>
+  <si>
+    <t>default void play(){</t>
+  </si>
+  <si>
+    <t>soccer</t>
+  </si>
+  <si>
+    <t>basketball</t>
+  </si>
+  <si>
+    <t>void play(){</t>
+  </si>
+  <si>
+    <t>baseball</t>
+  </si>
+  <si>
+    <t>engineer }</t>
+  </si>
+  <si>
+    <t>Iphone5</t>
+  </si>
+  <si>
+    <t>BiometricScan</t>
+  </si>
+  <si>
+    <t>Iphone4</t>
+  </si>
+  <si>
+    <t>browse() {}</t>
+  </si>
+  <si>
+    <t>screen(){}</t>
+  </si>
+  <si>
+    <t>makecall(){}</t>
+  </si>
+  <si>
+    <t>text(){}</t>
+  </si>
+  <si>
+    <t>Iphone5 extends Iphone4</t>
+  </si>
+  <si>
+    <t>biometricScan(){}</t>
+  </si>
+  <si>
+    <t>Iphone4 i4=new Iphone5();</t>
+  </si>
+  <si>
+    <t>i4.call</t>
+  </si>
+  <si>
+    <t>i4.text</t>
+  </si>
+  <si>
+    <t>i4.screen</t>
+  </si>
+  <si>
+    <t>i4,browser</t>
+  </si>
+  <si>
+    <t>i4.biometricScan()</t>
   </si>
 </sst>
 </file>
@@ -8901,6 +8964,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8917,12 +8986,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15410,7 +15473,7 @@
       <c r="C20" s="63" t="s">
         <v>602</v>
       </c>
-      <c r="D20" s="250" t="s">
+      <c r="D20" s="244" t="s">
         <v>2539</v>
       </c>
       <c r="E20" s="67" t="s">
@@ -15462,7 +15525,7 @@
       <c r="C22" s="68" t="s">
         <v>605</v>
       </c>
-      <c r="D22" s="251" t="s">
+      <c r="D22" s="245" t="s">
         <v>2542</v>
       </c>
       <c r="E22" s="60" t="s">
@@ -17839,10 +17902,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V204"/>
+  <dimension ref="A1:V227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178:J182"/>
+    <sheetView tabSelected="1" topLeftCell="B196" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F222" sqref="F222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18856,7 +18919,11 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="177" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="177" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C177" t="s">
+        <v>2557</v>
+      </c>
+    </row>
     <row r="178" spans="2:10">
       <c r="D178" s="33" t="s">
         <v>1979</v>
@@ -18967,23 +19034,260 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="198" spans="6:6">
-      <c r="F198" t="s">
+    <row r="193" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C193" t="s">
         <v>2556</v>
       </c>
     </row>
-    <row r="201" spans="6:6">
-      <c r="F201" t="s">
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="204" spans="6:6">
-      <c r="F204" t="s">
+    <row r="194" spans="2:10">
+      <c r="D194" s="33" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E194" s="34"/>
+      <c r="F194" s="35"/>
+      <c r="H194" s="33" t="s">
+        <v>2548</v>
+      </c>
+      <c r="I194" s="34"/>
+      <c r="J194" s="35"/>
+    </row>
+    <row r="195" spans="2:10">
+      <c r="D195" s="36" t="s">
+        <v>838</v>
+      </c>
+      <c r="E195" s="30"/>
+      <c r="F195" s="37"/>
+      <c r="H195" s="36" t="s">
+        <v>838</v>
+      </c>
+      <c r="I195" s="30"/>
+      <c r="J195" s="37"/>
+    </row>
+    <row r="196" spans="2:10">
+      <c r="D196" s="36" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E196" s="30"/>
+      <c r="F196" s="37"/>
+      <c r="H196" s="36" t="s">
+        <v>2558</v>
+      </c>
+      <c r="I196" s="30"/>
+      <c r="J196" s="37"/>
+    </row>
+    <row r="197" spans="2:10">
+      <c r="D197" s="36"/>
+      <c r="E197" s="30" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F197" s="37"/>
+      <c r="H197" s="36"/>
+      <c r="I197" s="30" t="s">
+        <v>2560</v>
+      </c>
+      <c r="J197" s="37"/>
+    </row>
+    <row r="198" spans="2:10" ht="15.75" thickBot="1">
+      <c r="D198" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="E198" s="39"/>
+      <c r="F198" s="40"/>
+      <c r="H198" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="I198" s="39"/>
+      <c r="J198" s="40"/>
+    </row>
+    <row r="199" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B199" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10">
+      <c r="B200" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F200" s="33" t="s">
         <v>748</v>
+      </c>
+      <c r="G200" s="34"/>
+      <c r="H200" s="35"/>
+    </row>
+    <row r="201" spans="2:10">
+      <c r="F201" s="36" t="s">
+        <v>745</v>
+      </c>
+      <c r="G201" s="30"/>
+      <c r="H201" s="37"/>
+    </row>
+    <row r="202" spans="2:10">
+      <c r="F202" s="36" t="s">
+        <v>2563</v>
+      </c>
+      <c r="G202" s="30"/>
+      <c r="H202" s="37"/>
+    </row>
+    <row r="203" spans="2:10">
+      <c r="B203" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F203" s="36" t="s">
+        <v>2561</v>
+      </c>
+      <c r="G203" s="30"/>
+      <c r="H203" s="37"/>
+    </row>
+    <row r="204" spans="2:10" ht="15.75" thickBot="1">
+      <c r="F204" s="38"/>
+      <c r="G204" s="39" t="s">
+        <v>2562</v>
+      </c>
+      <c r="H204" s="40"/>
+    </row>
+    <row r="213" spans="4:10" ht="15.75" thickBot="1"/>
+    <row r="214" spans="4:10">
+      <c r="D214" s="33" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E214" s="34"/>
+      <c r="F214" s="34"/>
+      <c r="G214" s="35"/>
+      <c r="I214" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="215" spans="4:10" ht="15.75" thickBot="1">
+      <c r="D215" s="36"/>
+      <c r="E215" s="30"/>
+      <c r="F215" s="30"/>
+      <c r="G215" s="37"/>
+      <c r="J215" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="216" spans="4:10">
+      <c r="D216" s="36"/>
+      <c r="E216" s="33" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F216" s="35"/>
+      <c r="G216" s="37"/>
+      <c r="J216" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="217" spans="4:10">
+      <c r="D217" s="36"/>
+      <c r="E217" s="36"/>
+      <c r="F217" s="37"/>
+      <c r="G217" s="37"/>
+      <c r="J217" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="218" spans="4:10">
+      <c r="D218" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E218" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F218" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G218" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J218" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="219" spans="4:10">
+      <c r="D219" s="36"/>
+      <c r="E219" s="36"/>
+      <c r="F219" s="37"/>
+      <c r="G219" s="37"/>
+    </row>
+    <row r="220" spans="4:10">
+      <c r="D220" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E220" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F220" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G220" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="I220" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="221" spans="4:10">
+      <c r="D221" s="36"/>
+      <c r="E221" s="36"/>
+      <c r="F221" s="37"/>
+      <c r="G221" s="37"/>
+    </row>
+    <row r="222" spans="4:10">
+      <c r="D222" s="36" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E222" s="36" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F222" s="37"/>
+      <c r="G222" s="37"/>
+      <c r="J222" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="223" spans="4:10" ht="15.75" thickBot="1">
+      <c r="D223" s="36"/>
+      <c r="E223" s="38"/>
+      <c r="F223" s="40"/>
+      <c r="G223" s="37"/>
+    </row>
+    <row r="224" spans="4:10">
+      <c r="D224" s="36"/>
+      <c r="E224" s="30"/>
+      <c r="F224" s="30"/>
+      <c r="G224" s="37"/>
+      <c r="I224" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="225" spans="4:11" ht="15.75" thickBot="1">
+      <c r="D225" s="38"/>
+      <c r="E225" s="39"/>
+      <c r="F225" s="39"/>
+      <c r="G225" s="40"/>
+      <c r="I225" t="s">
+        <v>2574</v>
+      </c>
+      <c r="K225" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="226" spans="4:11">
+      <c r="I226" t="s">
+        <v>2575</v>
+      </c>
+      <c r="K226" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="227" spans="4:11">
+      <c r="J227" s="59" t="s">
+        <v>2578</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20345,13 +20649,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="244" t="s">
+      <c r="H3" s="246" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="246"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="248"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="P4" t="s">
@@ -20388,20 +20692,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="247" t="s">
+      <c r="G6" s="249" t="s">
         <v>1681</v>
       </c>
-      <c r="H6" s="248"/>
+      <c r="H6" s="250"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="247" t="s">
+      <c r="J6" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="248"/>
+      <c r="K6" s="250"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="247" t="s">
+      <c r="M6" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="248"/>
+      <c r="N6" s="250"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="128" t="s">
@@ -20425,20 +20729,20 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
       <c r="F8" s="4"/>
-      <c r="G8" s="247" t="s">
+      <c r="G8" s="249" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="248"/>
+      <c r="H8" s="250"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="247" t="s">
+      <c r="J8" s="249" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="248"/>
+      <c r="K8" s="250"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="247" t="s">
+      <c r="M8" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="248"/>
+      <c r="N8" s="250"/>
       <c r="P8" t="s">
         <v>1687</v>
       </c>
@@ -34537,11 +34841,11 @@
       <c r="L6" s="46" t="s">
         <v>1618</v>
       </c>
-      <c r="M6" s="249" t="s">
+      <c r="M6" s="251" t="s">
         <v>1619</v>
       </c>
-      <c r="N6" s="249"/>
-      <c r="O6" s="249"/>
+      <c r="N6" s="251"/>
+      <c r="O6" s="251"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="14" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4561" uniqueCount="2579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4705" uniqueCount="2637">
   <si>
     <t>USER</t>
   </si>
@@ -7961,6 +7961,180 @@
   </si>
   <si>
     <t>i4.biometricScan()</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>public class Hyundai {</t>
+  </si>
+  <si>
+    <t>String companyName="hyundai";</t>
+  </si>
+  <si>
+    <t>int vin;</t>
+  </si>
+  <si>
+    <t>public Hyundai(String cn,int v) {</t>
+  </si>
+  <si>
+    <t>customerName=cn;</t>
+  </si>
+  <si>
+    <t>vin=v;</t>
+  </si>
+  <si>
+    <t>Hyundai customer1=new Hyundai("john",1234);</t>
+  </si>
+  <si>
+    <t>Hyundai customer2=new Hyundai("jane",2345);</t>
+  </si>
+  <si>
+    <t>Hyundai customer3=new Hyundai("mike",6789);</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>hyundai</t>
+  </si>
+  <si>
+    <t>static String companyName="hyundai";</t>
+  </si>
+  <si>
+    <t>company Hyundai</t>
+  </si>
+  <si>
+    <t>class variable</t>
+  </si>
+  <si>
+    <t>instance/object variable</t>
+  </si>
+  <si>
+    <t>Hyundai.companyName</t>
+  </si>
+  <si>
+    <t>customer1.vin</t>
+  </si>
+  <si>
+    <t>public class Student</t>
+  </si>
+  <si>
+    <t>Student[] allStudents=new Student[5];</t>
+  </si>
+  <si>
+    <t>student s0;</t>
+  </si>
+  <si>
+    <t>initlize</t>
+  </si>
+  <si>
+    <t>s0=new Student();</t>
+  </si>
+  <si>
+    <t>allStudents[0] =new Student();</t>
+  </si>
+  <si>
+    <t>allStudents[4]=new Student();</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>do-while</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>0 or more</t>
+  </si>
+  <si>
+    <t>1 or more</t>
+  </si>
+  <si>
+    <t>Student[][] school=new Student[3][2];</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>for(int i=0;i&lt;3;i++) {</t>
+  </si>
+  <si>
+    <t>for(int j=0;j&lt;2;j++) {</t>
+  </si>
+  <si>
+    <t>school[i][j]=new Student();</t>
+  </si>
+  <si>
+    <t>[2][0]=null</t>
+  </si>
+  <si>
+    <t>[2][1]=null</t>
+  </si>
+  <si>
+    <t>j=0</t>
+  </si>
+  <si>
+    <t>school[0][0]=new Student();</t>
+  </si>
+  <si>
+    <t>[0][0]=#abc</t>
+  </si>
+  <si>
+    <t>outer for loop</t>
+  </si>
+  <si>
+    <t>inner for loop</t>
+  </si>
+  <si>
+    <t>j=1</t>
+  </si>
+  <si>
+    <t>school[0][1]=new Student();</t>
+  </si>
+  <si>
+    <t>[0][1]=#pqr</t>
+  </si>
+  <si>
+    <t>school[1][0]=new Student();</t>
+  </si>
+  <si>
+    <t>school[1][1]=new Student();</t>
+  </si>
+  <si>
+    <t>[1][0]=#qwe</t>
+  </si>
+  <si>
+    <t>[1][1]=#sdf</t>
+  </si>
+  <si>
+    <t>nested for loop</t>
+  </si>
+  <si>
+    <t>int[] scoreA= {12,56,78,99,125};</t>
+  </si>
+  <si>
+    <t>// array declaration</t>
+  </si>
+  <si>
+    <t>int[] scoreB=new int[5];</t>
+  </si>
+  <si>
+    <t>scoreA</t>
+  </si>
+  <si>
+    <t>scoreB</t>
+  </si>
+  <si>
+    <t>System.arraycopy(scoreA, 1, scoreB, 2, 3);</t>
+  </si>
+  <si>
+    <t>source, source_position, destination, destination_position, length</t>
   </si>
 </sst>
 </file>
@@ -8479,7 +8653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -8970,6 +9144,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8987,6 +9164,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17904,8 +18087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B196" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F222" sqref="F222"/>
+    <sheetView topLeftCell="B196" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H211" sqref="H211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20649,13 +20832,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="246" t="s">
+      <c r="H3" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="247"/>
-      <c r="J3" s="247"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="248"/>
+      <c r="I3" s="248"/>
+      <c r="J3" s="248"/>
+      <c r="K3" s="248"/>
+      <c r="L3" s="249"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="P4" t="s">
@@ -20692,20 +20875,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="249" t="s">
+      <c r="G6" s="250" t="s">
         <v>1681</v>
       </c>
-      <c r="H6" s="250"/>
+      <c r="H6" s="251"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="249" t="s">
+      <c r="J6" s="250" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="250"/>
+      <c r="K6" s="251"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="249" t="s">
+      <c r="M6" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="250"/>
+      <c r="N6" s="251"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="128" t="s">
@@ -20729,20 +20912,20 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
       <c r="F8" s="4"/>
-      <c r="G8" s="249" t="s">
+      <c r="G8" s="250" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="250"/>
+      <c r="H8" s="251"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="249" t="s">
+      <c r="J8" s="250" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="250"/>
+      <c r="K8" s="251"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="249" t="s">
+      <c r="M8" s="250" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="250"/>
+      <c r="N8" s="251"/>
       <c r="P8" t="s">
         <v>1687</v>
       </c>
@@ -21856,10 +22039,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:R187"/>
+  <dimension ref="A2:R231"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N200" sqref="N200:O200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24091,6 +24274,708 @@
       <c r="P187" s="57"/>
       <c r="Q187" s="58"/>
     </row>
+    <row r="192" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="193" spans="1:17">
+      <c r="A193" s="99" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B193" s="99"/>
+      <c r="C193" s="99"/>
+      <c r="G193" s="50"/>
+      <c r="H193" s="51"/>
+      <c r="I193" s="51"/>
+      <c r="J193" s="51"/>
+      <c r="K193" s="51"/>
+      <c r="L193" s="51"/>
+      <c r="M193" s="51"/>
+      <c r="N193" s="51"/>
+      <c r="O193" s="51"/>
+      <c r="P193" s="51"/>
+      <c r="Q193" s="52"/>
+    </row>
+    <row r="194" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A194" s="254" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B194" s="254" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C194" s="254"/>
+      <c r="D194" s="62"/>
+      <c r="E194" s="62"/>
+      <c r="G194" s="53"/>
+      <c r="H194" s="54"/>
+      <c r="I194" s="54"/>
+      <c r="J194" s="54"/>
+      <c r="K194" s="54"/>
+      <c r="L194" s="54"/>
+      <c r="M194" s="54"/>
+      <c r="N194" s="54"/>
+      <c r="O194" s="54"/>
+      <c r="P194" s="54"/>
+      <c r="Q194" s="55"/>
+    </row>
+    <row r="195" spans="1:17">
+      <c r="A195" s="99" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B195" s="99" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C195" s="99"/>
+      <c r="G195" s="53"/>
+      <c r="H195" s="54" t="s">
+        <v>2065</v>
+      </c>
+      <c r="I195" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="J195" s="54"/>
+      <c r="K195" s="54"/>
+      <c r="L195" s="54"/>
+      <c r="M195" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="N195" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="O195" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="P195" s="77"/>
+      <c r="Q195" s="253"/>
+    </row>
+    <row r="196" spans="1:17">
+      <c r="A196" s="99" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B196" s="99" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C196" s="99"/>
+      <c r="G196" s="53"/>
+      <c r="H196" s="54" t="s">
+        <v>2066</v>
+      </c>
+      <c r="I196" s="54" t="s">
+        <v>2019</v>
+      </c>
+      <c r="J196" s="54"/>
+      <c r="K196" s="54"/>
+      <c r="L196" s="54"/>
+      <c r="M196" s="54"/>
+      <c r="N196" s="53" t="s">
+        <v>2579</v>
+      </c>
+      <c r="O196" s="55" t="s">
+        <v>2590</v>
+      </c>
+      <c r="P196" s="77"/>
+      <c r="Q196" s="253"/>
+    </row>
+    <row r="197" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A197" s="99"/>
+      <c r="B197" s="99" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C197" s="99"/>
+      <c r="G197" s="53"/>
+      <c r="H197" s="54" t="s">
+        <v>2069</v>
+      </c>
+      <c r="I197" s="54" t="s">
+        <v>2020</v>
+      </c>
+      <c r="J197" s="54"/>
+      <c r="K197" s="54"/>
+      <c r="L197" s="54"/>
+      <c r="M197" s="54"/>
+      <c r="N197" s="56" t="s">
+        <v>1814</v>
+      </c>
+      <c r="O197" s="58">
+        <v>1234</v>
+      </c>
+      <c r="P197" s="77"/>
+      <c r="Q197" s="253"/>
+    </row>
+    <row r="198" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A198" s="99"/>
+      <c r="B198" s="99"/>
+      <c r="C198" s="99" t="s">
+        <v>2584</v>
+      </c>
+      <c r="G198" s="53"/>
+      <c r="H198" s="54"/>
+      <c r="I198" s="54"/>
+      <c r="J198" s="54"/>
+      <c r="K198" s="54"/>
+      <c r="L198" s="54"/>
+      <c r="M198" s="54"/>
+      <c r="N198" s="54"/>
+      <c r="O198" s="54"/>
+      <c r="P198" s="77"/>
+      <c r="Q198" s="253"/>
+    </row>
+    <row r="199" spans="1:17">
+      <c r="A199" s="99"/>
+      <c r="B199" s="99"/>
+      <c r="C199" s="99" t="s">
+        <v>2585</v>
+      </c>
+      <c r="G199" s="53"/>
+      <c r="H199" s="54"/>
+      <c r="I199" s="54"/>
+      <c r="J199" s="54"/>
+      <c r="K199" s="54"/>
+      <c r="L199" s="54"/>
+      <c r="M199" s="54" t="s">
+        <v>2019</v>
+      </c>
+      <c r="N199" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="O199" s="52" t="s">
+        <v>542</v>
+      </c>
+      <c r="P199" s="77"/>
+      <c r="Q199" s="253"/>
+    </row>
+    <row r="200" spans="1:17">
+      <c r="A200" s="99"/>
+      <c r="B200" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="C200" s="99"/>
+      <c r="G200" s="53"/>
+      <c r="H200" s="54"/>
+      <c r="I200" s="54"/>
+      <c r="J200" s="54"/>
+      <c r="K200" s="54"/>
+      <c r="L200" s="54"/>
+      <c r="M200" s="54"/>
+      <c r="N200" s="53" t="s">
+        <v>2579</v>
+      </c>
+      <c r="O200" s="55" t="s">
+        <v>2590</v>
+      </c>
+      <c r="P200" s="121"/>
+      <c r="Q200" s="253"/>
+    </row>
+    <row r="201" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A201" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="B201" s="99"/>
+      <c r="C201" s="99"/>
+      <c r="G201" s="53"/>
+      <c r="H201" s="54"/>
+      <c r="I201" s="54"/>
+      <c r="J201" s="54"/>
+      <c r="K201" s="54"/>
+      <c r="L201" s="54"/>
+      <c r="M201" s="54"/>
+      <c r="N201" s="56" t="s">
+        <v>1814</v>
+      </c>
+      <c r="O201" s="58">
+        <v>2345</v>
+      </c>
+      <c r="P201" s="77"/>
+      <c r="Q201" s="253"/>
+    </row>
+    <row r="202" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A202" s="99" t="s">
+        <v>2586</v>
+      </c>
+      <c r="G202" s="53"/>
+      <c r="H202" s="54"/>
+      <c r="I202" s="54"/>
+      <c r="J202" s="54"/>
+      <c r="K202" s="54"/>
+      <c r="L202" s="54"/>
+      <c r="M202" s="54"/>
+      <c r="N202" s="54"/>
+      <c r="O202" s="54"/>
+      <c r="P202" s="77"/>
+      <c r="Q202" s="253"/>
+    </row>
+    <row r="203" spans="1:17">
+      <c r="A203" s="99" t="s">
+        <v>2587</v>
+      </c>
+      <c r="G203" s="53"/>
+      <c r="H203" s="54"/>
+      <c r="I203" s="54"/>
+      <c r="J203" s="54"/>
+      <c r="K203" s="54"/>
+      <c r="L203" s="54"/>
+      <c r="M203" s="54" t="s">
+        <v>2020</v>
+      </c>
+      <c r="N203" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="O203" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="P203" s="77"/>
+      <c r="Q203" s="253"/>
+    </row>
+    <row r="204" spans="1:17">
+      <c r="A204" s="99" t="s">
+        <v>2588</v>
+      </c>
+      <c r="G204" s="53"/>
+      <c r="H204" s="54"/>
+      <c r="I204" s="54"/>
+      <c r="J204" s="54"/>
+      <c r="K204" s="54"/>
+      <c r="L204" s="54"/>
+      <c r="M204" s="54"/>
+      <c r="N204" s="53" t="s">
+        <v>2579</v>
+      </c>
+      <c r="O204" s="55" t="s">
+        <v>2590</v>
+      </c>
+      <c r="P204" s="77"/>
+      <c r="Q204" s="253"/>
+    </row>
+    <row r="205" spans="1:17" ht="15.75" thickBot="1">
+      <c r="G205" s="53"/>
+      <c r="H205" s="54"/>
+      <c r="I205" s="54"/>
+      <c r="J205" s="54"/>
+      <c r="K205" s="54"/>
+      <c r="L205" s="54"/>
+      <c r="M205" s="54"/>
+      <c r="N205" s="56" t="s">
+        <v>1814</v>
+      </c>
+      <c r="O205" s="58">
+        <v>6789</v>
+      </c>
+      <c r="P205" s="77"/>
+      <c r="Q205" s="253"/>
+    </row>
+    <row r="206" spans="1:17">
+      <c r="G206" s="53"/>
+      <c r="H206" s="54"/>
+      <c r="I206" s="54"/>
+      <c r="J206" s="54"/>
+      <c r="K206" s="54"/>
+      <c r="L206" s="54"/>
+      <c r="M206" s="54"/>
+      <c r="N206" s="54"/>
+      <c r="O206" s="54"/>
+      <c r="P206" s="54"/>
+      <c r="Q206" s="55"/>
+    </row>
+    <row r="207" spans="1:17">
+      <c r="G207" s="53"/>
+      <c r="H207" s="54"/>
+      <c r="I207" s="54"/>
+      <c r="J207" s="54"/>
+      <c r="K207" s="54"/>
+      <c r="L207" s="54"/>
+      <c r="M207" s="54"/>
+      <c r="N207" s="54"/>
+      <c r="O207" s="54"/>
+      <c r="P207" s="54"/>
+      <c r="Q207" s="55"/>
+    </row>
+    <row r="208" spans="1:17">
+      <c r="G208" s="53"/>
+      <c r="H208" s="54"/>
+      <c r="I208" s="54"/>
+      <c r="J208" s="54"/>
+      <c r="K208" s="54"/>
+      <c r="L208" s="54"/>
+      <c r="M208" s="54"/>
+      <c r="N208" s="54"/>
+      <c r="O208" s="54"/>
+      <c r="P208" s="54"/>
+      <c r="Q208" s="55"/>
+    </row>
+    <row r="209" spans="1:17">
+      <c r="G209" s="53"/>
+      <c r="H209" s="54"/>
+      <c r="I209" s="54"/>
+      <c r="J209" s="54"/>
+      <c r="K209" s="54"/>
+      <c r="L209" s="54"/>
+      <c r="M209" s="54"/>
+      <c r="N209" s="54"/>
+      <c r="O209" s="54"/>
+      <c r="P209" s="54"/>
+      <c r="Q209" s="55"/>
+    </row>
+    <row r="210" spans="1:17" ht="15.75" thickBot="1">
+      <c r="G210" s="56"/>
+      <c r="H210" s="57"/>
+      <c r="I210" s="57"/>
+      <c r="J210" s="57"/>
+      <c r="K210" s="57"/>
+      <c r="L210" s="57"/>
+      <c r="M210" s="57"/>
+      <c r="N210" s="57"/>
+      <c r="O210" s="57"/>
+      <c r="P210" s="57"/>
+      <c r="Q210" s="58"/>
+    </row>
+    <row r="213" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="214" spans="1:17">
+      <c r="A214" s="99" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B214" s="99"/>
+      <c r="C214" s="99"/>
+      <c r="G214" s="50"/>
+      <c r="H214" s="51"/>
+      <c r="I214" s="51"/>
+      <c r="J214" s="51"/>
+      <c r="K214" s="51"/>
+      <c r="L214" s="51"/>
+      <c r="M214" s="51"/>
+      <c r="N214" s="51"/>
+      <c r="O214" s="51"/>
+      <c r="P214" s="51"/>
+      <c r="Q214" s="52"/>
+    </row>
+    <row r="215" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A215" s="254" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B215" s="254" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C215" s="254"/>
+      <c r="D215" s="62"/>
+      <c r="E215" s="62"/>
+      <c r="G215" s="53"/>
+      <c r="H215" s="54"/>
+      <c r="I215" s="54"/>
+      <c r="J215" s="54"/>
+      <c r="K215" s="54"/>
+      <c r="L215" s="54"/>
+      <c r="M215" s="54"/>
+      <c r="N215" s="54" t="s">
+        <v>2594</v>
+      </c>
+      <c r="O215" s="54"/>
+      <c r="P215" s="54"/>
+      <c r="Q215" s="55"/>
+    </row>
+    <row r="216" spans="1:17">
+      <c r="A216" s="99" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B216" s="99" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C216" s="99"/>
+      <c r="G216" s="53"/>
+      <c r="H216" s="54" t="s">
+        <v>2065</v>
+      </c>
+      <c r="I216" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="J216" s="54"/>
+      <c r="K216" s="54"/>
+      <c r="L216" s="54"/>
+      <c r="M216" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="N216" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="O216" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="P216" s="107"/>
+      <c r="Q216" s="253"/>
+    </row>
+    <row r="217" spans="1:17">
+      <c r="A217" s="99" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B217" s="99" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C217" s="99"/>
+      <c r="G217" s="53"/>
+      <c r="H217" s="54" t="s">
+        <v>2066</v>
+      </c>
+      <c r="I217" s="54" t="s">
+        <v>2019</v>
+      </c>
+      <c r="J217" s="54"/>
+      <c r="K217" s="54"/>
+      <c r="L217" s="54"/>
+      <c r="M217" s="54"/>
+      <c r="N217" s="53"/>
+      <c r="O217" s="55"/>
+      <c r="P217" s="107"/>
+      <c r="Q217" s="253"/>
+    </row>
+    <row r="218" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A218" s="99"/>
+      <c r="B218" s="99" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C218" s="99"/>
+      <c r="G218" s="53"/>
+      <c r="H218" s="54" t="s">
+        <v>2069</v>
+      </c>
+      <c r="I218" s="54" t="s">
+        <v>2020</v>
+      </c>
+      <c r="J218" s="54"/>
+      <c r="K218" s="54"/>
+      <c r="L218" s="54"/>
+      <c r="M218" s="54"/>
+      <c r="N218" s="56" t="s">
+        <v>1814</v>
+      </c>
+      <c r="O218" s="58">
+        <v>1234</v>
+      </c>
+      <c r="P218" s="107"/>
+      <c r="Q218" s="253"/>
+    </row>
+    <row r="219" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A219" s="99"/>
+      <c r="B219" s="99"/>
+      <c r="C219" s="99" t="s">
+        <v>2584</v>
+      </c>
+      <c r="G219" s="53"/>
+      <c r="H219" s="54"/>
+      <c r="I219" s="54"/>
+      <c r="J219" s="54"/>
+      <c r="K219" s="54"/>
+      <c r="L219" s="54"/>
+      <c r="M219" s="54"/>
+      <c r="N219" s="54"/>
+      <c r="O219" s="54"/>
+      <c r="P219" s="107"/>
+      <c r="Q219" s="253"/>
+    </row>
+    <row r="220" spans="1:17">
+      <c r="A220" s="99"/>
+      <c r="B220" s="99"/>
+      <c r="C220" s="99" t="s">
+        <v>2585</v>
+      </c>
+      <c r="G220" s="53"/>
+      <c r="H220" s="54"/>
+      <c r="I220" s="54"/>
+      <c r="J220" s="54"/>
+      <c r="K220" s="54"/>
+      <c r="L220" s="54"/>
+      <c r="M220" s="54" t="s">
+        <v>2019</v>
+      </c>
+      <c r="N220" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="O220" s="52" t="s">
+        <v>542</v>
+      </c>
+      <c r="P220" s="195" t="s">
+        <v>2593</v>
+      </c>
+      <c r="Q220" s="253"/>
+    </row>
+    <row r="221" spans="1:17">
+      <c r="A221" s="99"/>
+      <c r="B221" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="C221" s="99"/>
+      <c r="G221" s="53"/>
+      <c r="H221" s="54"/>
+      <c r="I221" s="54"/>
+      <c r="J221" s="54"/>
+      <c r="K221" s="54"/>
+      <c r="L221" s="54"/>
+      <c r="M221" s="54"/>
+      <c r="N221" s="53"/>
+      <c r="O221" s="55"/>
+      <c r="P221" s="195" t="s">
+        <v>2592</v>
+      </c>
+      <c r="Q221" s="253"/>
+    </row>
+    <row r="222" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A222" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="B222" s="99"/>
+      <c r="C222" s="99"/>
+      <c r="G222" s="53"/>
+      <c r="H222" s="54"/>
+      <c r="I222" s="54"/>
+      <c r="J222" s="54"/>
+      <c r="K222" s="54"/>
+      <c r="L222" s="54"/>
+      <c r="M222" s="54"/>
+      <c r="N222" s="56" t="s">
+        <v>1814</v>
+      </c>
+      <c r="O222" s="58">
+        <v>2345</v>
+      </c>
+      <c r="P222" s="107"/>
+      <c r="Q222" s="253"/>
+    </row>
+    <row r="223" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A223" s="99" t="s">
+        <v>2586</v>
+      </c>
+      <c r="G223" s="53"/>
+      <c r="H223" s="54"/>
+      <c r="I223" s="54"/>
+      <c r="J223" s="54"/>
+      <c r="K223" s="54"/>
+      <c r="L223" s="54"/>
+      <c r="M223" s="54"/>
+      <c r="N223" s="54"/>
+      <c r="O223" s="54"/>
+      <c r="P223" s="107"/>
+      <c r="Q223" s="253"/>
+    </row>
+    <row r="224" spans="1:17">
+      <c r="A224" s="99" t="s">
+        <v>2587</v>
+      </c>
+      <c r="G224" s="53"/>
+      <c r="H224" s="54"/>
+      <c r="I224" s="54"/>
+      <c r="J224" s="54"/>
+      <c r="K224" s="54"/>
+      <c r="L224" s="54"/>
+      <c r="M224" s="54" t="s">
+        <v>2020</v>
+      </c>
+      <c r="N224" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="O224" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="P224" s="107"/>
+      <c r="Q224" s="253"/>
+    </row>
+    <row r="225" spans="1:17">
+      <c r="A225" s="99" t="s">
+        <v>2588</v>
+      </c>
+      <c r="G225" s="53"/>
+      <c r="H225" s="54"/>
+      <c r="I225" s="54"/>
+      <c r="J225" s="54"/>
+      <c r="K225" s="54"/>
+      <c r="L225" s="54"/>
+      <c r="M225" s="54"/>
+      <c r="N225" s="53"/>
+      <c r="O225" s="55"/>
+      <c r="P225" s="107"/>
+      <c r="Q225" s="253"/>
+    </row>
+    <row r="226" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A226" s="60" t="s">
+        <v>2596</v>
+      </c>
+      <c r="G226" s="53"/>
+      <c r="H226" s="54"/>
+      <c r="I226" s="54"/>
+      <c r="J226" s="54"/>
+      <c r="K226" s="54"/>
+      <c r="L226" s="54"/>
+      <c r="M226" s="54"/>
+      <c r="N226" s="56" t="s">
+        <v>1814</v>
+      </c>
+      <c r="O226" s="58">
+        <v>6789</v>
+      </c>
+      <c r="P226" s="107"/>
+      <c r="Q226" s="253"/>
+    </row>
+    <row r="227" spans="1:17">
+      <c r="A227" s="99" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G227" s="53"/>
+      <c r="H227" s="54"/>
+      <c r="I227" s="54"/>
+      <c r="J227" s="54"/>
+      <c r="K227" s="54"/>
+      <c r="L227" s="54"/>
+      <c r="M227" s="54"/>
+      <c r="N227" s="54"/>
+      <c r="O227" s="54"/>
+      <c r="P227" s="54"/>
+      <c r="Q227" s="55"/>
+    </row>
+    <row r="228" spans="1:17">
+      <c r="G228" s="53"/>
+      <c r="H228" s="54"/>
+      <c r="I228" s="54"/>
+      <c r="J228" s="54"/>
+      <c r="K228" s="54"/>
+      <c r="L228" s="54"/>
+      <c r="M228" s="54"/>
+      <c r="N228" s="54"/>
+      <c r="O228" s="54"/>
+      <c r="P228" s="54"/>
+      <c r="Q228" s="55"/>
+    </row>
+    <row r="229" spans="1:17">
+      <c r="G229" s="53"/>
+      <c r="H229" s="54"/>
+      <c r="I229" s="54"/>
+      <c r="J229" s="54"/>
+      <c r="K229" s="54"/>
+      <c r="L229" s="54"/>
+      <c r="M229" s="54"/>
+      <c r="N229" s="54"/>
+      <c r="O229" s="54"/>
+      <c r="P229" s="54"/>
+      <c r="Q229" s="55"/>
+    </row>
+    <row r="230" spans="1:17">
+      <c r="G230" s="53"/>
+      <c r="H230" s="54"/>
+      <c r="I230" s="54"/>
+      <c r="J230" s="54"/>
+      <c r="K230" s="54"/>
+      <c r="L230" s="54"/>
+      <c r="M230" s="54"/>
+      <c r="N230" s="54"/>
+      <c r="O230" s="54"/>
+      <c r="P230" s="54"/>
+      <c r="Q230" s="55"/>
+    </row>
+    <row r="231" spans="1:17" ht="15.75" thickBot="1">
+      <c r="G231" s="56"/>
+      <c r="H231" s="57"/>
+      <c r="I231" s="57"/>
+      <c r="J231" s="57"/>
+      <c r="K231" s="57"/>
+      <c r="L231" s="57"/>
+      <c r="M231" s="57"/>
+      <c r="N231" s="57"/>
+      <c r="O231" s="57"/>
+      <c r="P231" s="57"/>
+      <c r="Q231" s="58"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24098,15 +24983,17 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P203"/>
+  <dimension ref="A1:P249"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J244" sqref="J244:J246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1"/>
@@ -26118,7 +27005,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="193" spans="3:12">
+    <row r="193" spans="1:14">
       <c r="H193" t="s">
         <v>2241</v>
       </c>
@@ -26126,7 +27013,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="197" spans="3:12">
+    <row r="197" spans="1:14">
       <c r="C197" t="s">
         <v>2243</v>
       </c>
@@ -26137,7 +27024,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="198" spans="3:12">
+    <row r="198" spans="1:14">
       <c r="C198" t="s">
         <v>2244</v>
       </c>
@@ -26154,7 +27041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:12">
+    <row r="199" spans="1:14">
       <c r="C199" t="s">
         <v>2245</v>
       </c>
@@ -26171,7 +27058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="3:12">
+    <row r="200" spans="1:14">
       <c r="C200" t="s">
         <v>2246</v>
       </c>
@@ -26188,7 +27075,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="201" spans="3:12">
+    <row r="201" spans="1:14">
       <c r="C201" t="s">
         <v>2247</v>
       </c>
@@ -26205,12 +27092,491 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:12">
+    <row r="203" spans="1:14">
       <c r="C203" t="s">
         <v>2248</v>
       </c>
       <c r="I203" t="s">
         <v>2249</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="206" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A206" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E206" s="33"/>
+      <c r="F206" s="34"/>
+      <c r="G206" s="34"/>
+      <c r="H206" s="34"/>
+      <c r="I206" s="34"/>
+      <c r="J206" s="34"/>
+      <c r="K206" s="34"/>
+      <c r="L206" s="34"/>
+      <c r="M206" s="34"/>
+      <c r="N206" s="35"/>
+    </row>
+    <row r="207" spans="1:14">
+      <c r="A207" t="s">
+        <v>384</v>
+      </c>
+      <c r="E207" s="36" t="s">
+        <v>1863</v>
+      </c>
+      <c r="F207" s="246">
+        <v>0</v>
+      </c>
+      <c r="G207" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="H207" s="30"/>
+      <c r="I207" s="30"/>
+      <c r="J207" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="K207" s="33"/>
+      <c r="L207" s="35"/>
+      <c r="M207" s="30"/>
+      <c r="N207" s="37"/>
+    </row>
+    <row r="208" spans="1:14">
+      <c r="B208" t="s">
+        <v>478</v>
+      </c>
+      <c r="E208" s="36"/>
+      <c r="F208" s="246">
+        <v>1</v>
+      </c>
+      <c r="G208" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="H208" s="30"/>
+      <c r="I208" s="30"/>
+      <c r="J208" s="30"/>
+      <c r="K208" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="L208" s="37"/>
+      <c r="M208" s="30"/>
+      <c r="N208" s="37"/>
+    </row>
+    <row r="209" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B209" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E209" s="36"/>
+      <c r="F209" s="246">
+        <v>2</v>
+      </c>
+      <c r="G209" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="H209" s="30"/>
+      <c r="I209" s="30"/>
+      <c r="J209" s="30"/>
+      <c r="K209" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L209" s="40"/>
+      <c r="M209" s="30"/>
+      <c r="N209" s="37"/>
+    </row>
+    <row r="210" spans="1:14">
+      <c r="E210" s="36"/>
+      <c r="F210" s="133">
+        <v>3</v>
+      </c>
+      <c r="G210" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="H210" s="30"/>
+      <c r="I210" s="30"/>
+      <c r="J210" s="30"/>
+      <c r="K210" s="30"/>
+      <c r="L210" s="30"/>
+      <c r="M210" s="30"/>
+      <c r="N210" s="37"/>
+    </row>
+    <row r="211" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A211" t="s">
+        <v>162</v>
+      </c>
+      <c r="E211" s="36"/>
+      <c r="F211" s="133">
+        <v>4</v>
+      </c>
+      <c r="G211" s="41" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H211" s="30"/>
+      <c r="I211" s="30"/>
+      <c r="J211" s="30"/>
+      <c r="K211" s="30"/>
+      <c r="L211" s="30"/>
+      <c r="M211" s="30"/>
+      <c r="N211" s="37"/>
+    </row>
+    <row r="212" spans="1:14">
+      <c r="E212" s="36"/>
+      <c r="F212" s="30"/>
+      <c r="G212" s="30"/>
+      <c r="H212" s="30"/>
+      <c r="I212" s="30"/>
+      <c r="J212" s="30" t="s">
+        <v>2077</v>
+      </c>
+      <c r="K212" s="33"/>
+      <c r="L212" s="35"/>
+      <c r="M212" s="30"/>
+      <c r="N212" s="37"/>
+    </row>
+    <row r="213" spans="1:14">
+      <c r="A213" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E213" s="36"/>
+      <c r="F213" s="30"/>
+      <c r="G213" s="30"/>
+      <c r="H213" s="30"/>
+      <c r="I213" s="30"/>
+      <c r="J213" s="30"/>
+      <c r="K213" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="L213" s="37"/>
+      <c r="M213" s="30"/>
+      <c r="N213" s="37"/>
+    </row>
+    <row r="214" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A214" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E214" s="36"/>
+      <c r="F214" s="30"/>
+      <c r="G214" s="30"/>
+      <c r="H214" s="30"/>
+      <c r="I214" s="30"/>
+      <c r="J214" s="30"/>
+      <c r="K214" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L214" s="40"/>
+      <c r="M214" s="30"/>
+      <c r="N214" s="37"/>
+    </row>
+    <row r="215" spans="1:14">
+      <c r="A215" t="s">
+        <v>2603</v>
+      </c>
+      <c r="E215" s="36"/>
+      <c r="F215" s="30"/>
+      <c r="G215" s="30"/>
+      <c r="H215" s="30"/>
+      <c r="I215" s="30"/>
+      <c r="J215" s="30"/>
+      <c r="K215" s="30"/>
+      <c r="L215" s="30"/>
+      <c r="M215" s="30"/>
+      <c r="N215" s="37"/>
+    </row>
+    <row r="216" spans="1:14">
+      <c r="E216" s="36"/>
+      <c r="F216" s="30"/>
+      <c r="G216" s="30"/>
+      <c r="H216" s="30"/>
+      <c r="I216" s="30"/>
+      <c r="J216" s="30"/>
+      <c r="K216" s="30"/>
+      <c r="L216" s="30"/>
+      <c r="M216" s="30"/>
+      <c r="N216" s="37"/>
+    </row>
+    <row r="217" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A217" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C217" t="s">
+        <v>277</v>
+      </c>
+      <c r="E217" s="38"/>
+      <c r="F217" s="39"/>
+      <c r="G217" s="39"/>
+      <c r="H217" s="39"/>
+      <c r="I217" s="39"/>
+      <c r="J217" s="39"/>
+      <c r="K217" s="39"/>
+      <c r="L217" s="39"/>
+      <c r="M217" s="39"/>
+      <c r="N217" s="40"/>
+    </row>
+    <row r="218" spans="1:14">
+      <c r="A218" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C218" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
+      <c r="E219" t="s">
+        <v>2604</v>
+      </c>
+      <c r="F219" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
+      <c r="E220" t="s">
+        <v>2605</v>
+      </c>
+      <c r="F220" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
+      <c r="E221" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F221" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
+      <c r="A223" s="32" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B223" s="32"/>
+      <c r="C223" s="32"/>
+      <c r="D223" s="32"/>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="A224" t="s">
+        <v>2612</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2620</v>
+      </c>
+      <c r="F224" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="B225" t="s">
+        <v>2613</v>
+      </c>
+      <c r="D225" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="C226" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="B227" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
+        <v>162</v>
+      </c>
+      <c r="E228" s="60"/>
+      <c r="F228" s="60">
+        <v>0</v>
+      </c>
+      <c r="G228" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="D229" t="s">
+        <v>2611</v>
+      </c>
+      <c r="E229" s="60">
+        <v>0</v>
+      </c>
+      <c r="F229" s="137" t="s">
+        <v>2619</v>
+      </c>
+      <c r="G229" s="137" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B230" t="s">
+        <v>2617</v>
+      </c>
+      <c r="E230" s="60">
+        <v>1</v>
+      </c>
+      <c r="F230" s="137" t="s">
+        <v>2627</v>
+      </c>
+      <c r="G230" s="137" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>2618</v>
+      </c>
+      <c r="E231" s="60">
+        <v>2</v>
+      </c>
+      <c r="F231" s="137" t="s">
+        <v>2615</v>
+      </c>
+      <c r="G231" s="137" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B232" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G232" s="77"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>702</v>
+      </c>
+      <c r="B234" t="s">
+        <v>2617</v>
+      </c>
+      <c r="E234" t="s">
+        <v>702</v>
+      </c>
+      <c r="F234" s="107" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>702</v>
+      </c>
+      <c r="B236" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="241" spans="2:10">
+      <c r="B241" t="s">
+        <v>2630</v>
+      </c>
+      <c r="F241" s="60" t="s">
+        <v>2633</v>
+      </c>
+      <c r="G241" s="60"/>
+      <c r="I241" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10">
+      <c r="B242" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F242" s="60">
+        <v>0</v>
+      </c>
+      <c r="G242" s="246">
+        <v>12</v>
+      </c>
+      <c r="I242" s="60">
+        <v>0</v>
+      </c>
+      <c r="J242" s="246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10">
+      <c r="B243" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F243" s="60">
+        <v>1</v>
+      </c>
+      <c r="G243" s="137">
+        <v>56</v>
+      </c>
+      <c r="I243" s="60">
+        <v>1</v>
+      </c>
+      <c r="J243" s="246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10">
+      <c r="F244" s="60">
+        <v>2</v>
+      </c>
+      <c r="G244" s="246">
+        <v>78</v>
+      </c>
+      <c r="I244" s="60">
+        <v>2</v>
+      </c>
+      <c r="J244" s="137">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="245" spans="2:10">
+      <c r="F245" s="60">
+        <v>3</v>
+      </c>
+      <c r="G245" s="246">
+        <v>99</v>
+      </c>
+      <c r="I245" s="60">
+        <v>3</v>
+      </c>
+      <c r="J245" s="246">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10">
+      <c r="F246" s="60">
+        <v>4</v>
+      </c>
+      <c r="G246" s="246">
+        <v>125</v>
+      </c>
+      <c r="I246" s="60">
+        <v>4</v>
+      </c>
+      <c r="J246" s="246">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="248" spans="2:10">
+      <c r="D248" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="249" spans="2:10">
+      <c r="E249" t="s">
+        <v>2636</v>
       </c>
     </row>
   </sheetData>
@@ -34841,11 +36207,11 @@
       <c r="L6" s="46" t="s">
         <v>1618</v>
       </c>
-      <c r="M6" s="251" t="s">
+      <c r="M6" s="252" t="s">
         <v>1619</v>
       </c>
-      <c r="N6" s="251"/>
-      <c r="O6" s="251"/>
+      <c r="N6" s="252"/>
+      <c r="O6" s="252"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="14" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="16" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4705" uniqueCount="2637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="2644">
   <si>
     <t>USER</t>
   </si>
@@ -8135,6 +8135,27 @@
   </si>
   <si>
     <t>source, source_position, destination, destination_position, length</t>
+  </si>
+  <si>
+    <t>arithmeticexception</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>arrayindexoutofboundexception</t>
+  </si>
+  <si>
+    <t>Biggest bucket</t>
+  </si>
+  <si>
+    <t>bigger bucket</t>
+  </si>
+  <si>
+    <t>small bucket</t>
+  </si>
+  <si>
+    <t>smallest bucket</t>
   </si>
 </sst>
 </file>
@@ -9147,6 +9168,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9164,12 +9191,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20832,13 +20853,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="247" t="s">
+      <c r="H3" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="248"/>
-      <c r="J3" s="248"/>
-      <c r="K3" s="248"/>
-      <c r="L3" s="249"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="251"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="P4" t="s">
@@ -20875,20 +20896,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="250" t="s">
+      <c r="G6" s="252" t="s">
         <v>1681</v>
       </c>
-      <c r="H6" s="251"/>
+      <c r="H6" s="253"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="250" t="s">
+      <c r="J6" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="251"/>
+      <c r="K6" s="253"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="250" t="s">
+      <c r="M6" s="252" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="251"/>
+      <c r="N6" s="253"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="128" t="s">
@@ -20912,20 +20933,20 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
       <c r="F8" s="4"/>
-      <c r="G8" s="250" t="s">
+      <c r="G8" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="251"/>
+      <c r="H8" s="253"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="250" t="s">
+      <c r="J8" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="251"/>
+      <c r="K8" s="253"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="250" t="s">
+      <c r="M8" s="252" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="251"/>
+      <c r="N8" s="253"/>
       <c r="P8" t="s">
         <v>1687</v>
       </c>
@@ -24294,13 +24315,13 @@
       <c r="Q193" s="52"/>
     </row>
     <row r="194" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A194" s="254" t="s">
+      <c r="A194" s="248" t="s">
         <v>2589</v>
       </c>
-      <c r="B194" s="254" t="s">
+      <c r="B194" s="248" t="s">
         <v>2581</v>
       </c>
-      <c r="C194" s="254"/>
+      <c r="C194" s="248"/>
       <c r="D194" s="62"/>
       <c r="E194" s="62"/>
       <c r="G194" s="53"/>
@@ -24343,7 +24364,7 @@
         <v>430</v>
       </c>
       <c r="P195" s="77"/>
-      <c r="Q195" s="253"/>
+      <c r="Q195" s="247"/>
     </row>
     <row r="196" spans="1:17">
       <c r="A196" s="99" t="s">
@@ -24371,7 +24392,7 @@
         <v>2590</v>
       </c>
       <c r="P196" s="77"/>
-      <c r="Q196" s="253"/>
+      <c r="Q196" s="247"/>
     </row>
     <row r="197" spans="1:17" ht="15.75" thickBot="1">
       <c r="A197" s="99"/>
@@ -24397,7 +24418,7 @@
         <v>1234</v>
       </c>
       <c r="P197" s="77"/>
-      <c r="Q197" s="253"/>
+      <c r="Q197" s="247"/>
     </row>
     <row r="198" spans="1:17" ht="15.75" thickBot="1">
       <c r="A198" s="99"/>
@@ -24415,7 +24436,7 @@
       <c r="N198" s="54"/>
       <c r="O198" s="54"/>
       <c r="P198" s="77"/>
-      <c r="Q198" s="253"/>
+      <c r="Q198" s="247"/>
     </row>
     <row r="199" spans="1:17">
       <c r="A199" s="99"/>
@@ -24439,7 +24460,7 @@
         <v>542</v>
       </c>
       <c r="P199" s="77"/>
-      <c r="Q199" s="253"/>
+      <c r="Q199" s="247"/>
     </row>
     <row r="200" spans="1:17">
       <c r="A200" s="99"/>
@@ -24461,7 +24482,7 @@
         <v>2590</v>
       </c>
       <c r="P200" s="121"/>
-      <c r="Q200" s="253"/>
+      <c r="Q200" s="247"/>
     </row>
     <row r="201" spans="1:17" ht="15.75" thickBot="1">
       <c r="A201" s="99" t="s">
@@ -24483,7 +24504,7 @@
         <v>2345</v>
       </c>
       <c r="P201" s="77"/>
-      <c r="Q201" s="253"/>
+      <c r="Q201" s="247"/>
     </row>
     <row r="202" spans="1:17" ht="15.75" thickBot="1">
       <c r="A202" s="99" t="s">
@@ -24499,7 +24520,7 @@
       <c r="N202" s="54"/>
       <c r="O202" s="54"/>
       <c r="P202" s="77"/>
-      <c r="Q202" s="253"/>
+      <c r="Q202" s="247"/>
     </row>
     <row r="203" spans="1:17">
       <c r="A203" s="99" t="s">
@@ -24521,7 +24542,7 @@
         <v>577</v>
       </c>
       <c r="P203" s="77"/>
-      <c r="Q203" s="253"/>
+      <c r="Q203" s="247"/>
     </row>
     <row r="204" spans="1:17">
       <c r="A204" s="99" t="s">
@@ -24541,7 +24562,7 @@
         <v>2590</v>
       </c>
       <c r="P204" s="77"/>
-      <c r="Q204" s="253"/>
+      <c r="Q204" s="247"/>
     </row>
     <row r="205" spans="1:17" ht="15.75" thickBot="1">
       <c r="G205" s="53"/>
@@ -24558,7 +24579,7 @@
         <v>6789</v>
       </c>
       <c r="P205" s="77"/>
-      <c r="Q205" s="253"/>
+      <c r="Q205" s="247"/>
     </row>
     <row r="206" spans="1:17">
       <c r="G206" s="53"/>
@@ -24645,13 +24666,13 @@
       <c r="Q214" s="52"/>
     </row>
     <row r="215" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A215" s="254" t="s">
+      <c r="A215" s="248" t="s">
         <v>2589</v>
       </c>
-      <c r="B215" s="254" t="s">
+      <c r="B215" s="248" t="s">
         <v>2591</v>
       </c>
-      <c r="C215" s="254"/>
+      <c r="C215" s="248"/>
       <c r="D215" s="62"/>
       <c r="E215" s="62"/>
       <c r="G215" s="53"/>
@@ -24696,7 +24717,7 @@
         <v>430</v>
       </c>
       <c r="P216" s="107"/>
-      <c r="Q216" s="253"/>
+      <c r="Q216" s="247"/>
     </row>
     <row r="217" spans="1:17">
       <c r="A217" s="99" t="s">
@@ -24720,7 +24741,7 @@
       <c r="N217" s="53"/>
       <c r="O217" s="55"/>
       <c r="P217" s="107"/>
-      <c r="Q217" s="253"/>
+      <c r="Q217" s="247"/>
     </row>
     <row r="218" spans="1:17" ht="15.75" thickBot="1">
       <c r="A218" s="99"/>
@@ -24746,7 +24767,7 @@
         <v>1234</v>
       </c>
       <c r="P218" s="107"/>
-      <c r="Q218" s="253"/>
+      <c r="Q218" s="247"/>
     </row>
     <row r="219" spans="1:17" ht="15.75" thickBot="1">
       <c r="A219" s="99"/>
@@ -24764,7 +24785,7 @@
       <c r="N219" s="54"/>
       <c r="O219" s="54"/>
       <c r="P219" s="107"/>
-      <c r="Q219" s="253"/>
+      <c r="Q219" s="247"/>
     </row>
     <row r="220" spans="1:17">
       <c r="A220" s="99"/>
@@ -24790,7 +24811,7 @@
       <c r="P220" s="195" t="s">
         <v>2593</v>
       </c>
-      <c r="Q220" s="253"/>
+      <c r="Q220" s="247"/>
     </row>
     <row r="221" spans="1:17">
       <c r="A221" s="99"/>
@@ -24810,7 +24831,7 @@
       <c r="P221" s="195" t="s">
         <v>2592</v>
       </c>
-      <c r="Q221" s="253"/>
+      <c r="Q221" s="247"/>
     </row>
     <row r="222" spans="1:17" ht="15.75" thickBot="1">
       <c r="A222" s="99" t="s">
@@ -24832,7 +24853,7 @@
         <v>2345</v>
       </c>
       <c r="P222" s="107"/>
-      <c r="Q222" s="253"/>
+      <c r="Q222" s="247"/>
     </row>
     <row r="223" spans="1:17" ht="15.75" thickBot="1">
       <c r="A223" s="99" t="s">
@@ -24848,7 +24869,7 @@
       <c r="N223" s="54"/>
       <c r="O223" s="54"/>
       <c r="P223" s="107"/>
-      <c r="Q223" s="253"/>
+      <c r="Q223" s="247"/>
     </row>
     <row r="224" spans="1:17">
       <c r="A224" s="99" t="s">
@@ -24870,7 +24891,7 @@
         <v>577</v>
       </c>
       <c r="P224" s="107"/>
-      <c r="Q224" s="253"/>
+      <c r="Q224" s="247"/>
     </row>
     <row r="225" spans="1:17">
       <c r="A225" s="99" t="s">
@@ -24886,7 +24907,7 @@
       <c r="N225" s="53"/>
       <c r="O225" s="55"/>
       <c r="P225" s="107"/>
-      <c r="Q225" s="253"/>
+      <c r="Q225" s="247"/>
     </row>
     <row r="226" spans="1:17" ht="15.75" thickBot="1">
       <c r="A226" s="60" t="s">
@@ -24906,7 +24927,7 @@
         <v>6789</v>
       </c>
       <c r="P226" s="107"/>
-      <c r="Q226" s="253"/>
+      <c r="Q226" s="247"/>
     </row>
     <row r="227" spans="1:17">
       <c r="A227" s="99" t="s">
@@ -24985,7 +25006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A233" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J244" sqref="J244:J246"/>
     </sheetView>
   </sheetViews>
@@ -29537,10 +29558,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W300"/>
+  <dimension ref="A1:W306"/>
   <sheetViews>
-    <sheetView topLeftCell="B282" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I264" sqref="I264"/>
+    <sheetView tabSelected="1" topLeftCell="B279" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D293" sqref="D293:J294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31370,6 +31391,42 @@
     </row>
     <row r="300" spans="4:12">
       <c r="D300" s="109"/>
+      <c r="E300" t="s">
+        <v>2640</v>
+      </c>
+      <c r="G300" t="s">
+        <v>1925</v>
+      </c>
+      <c r="H300" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="302" spans="4:12">
+      <c r="E302" t="s">
+        <v>2641</v>
+      </c>
+      <c r="G302" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="304" spans="4:12">
+      <c r="E304" t="s">
+        <v>2642</v>
+      </c>
+      <c r="G304" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="306" spans="3:8">
+      <c r="C306" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E306" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H306" t="s">
+        <v>2639</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36207,11 +36264,11 @@
       <c r="L6" s="46" t="s">
         <v>1618</v>
       </c>
-      <c r="M6" s="252" t="s">
+      <c r="M6" s="254" t="s">
         <v>1619</v>
       </c>
-      <c r="N6" s="252"/>
-      <c r="O6" s="252"/>
+      <c r="N6" s="254"/>
+      <c r="O6" s="254"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="16" activeTab="22"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="16" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="2644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4834" uniqueCount="2695">
   <si>
     <t>USER</t>
   </si>
@@ -8156,6 +8156,159 @@
   </si>
   <si>
     <t>smallest bucket</t>
+  </si>
+  <si>
+    <t>ExceptionHandling eh=new ExceptionHandling();</t>
+  </si>
+  <si>
+    <t>public class ExceptionHandling {</t>
+  </si>
+  <si>
+    <t>Person p1;//null</t>
+  </si>
+  <si>
+    <t>eh</t>
+  </si>
+  <si>
+    <t>Person#pqr</t>
+  </si>
+  <si>
+    <t>ExceHan#abc</t>
+  </si>
+  <si>
+    <t>public void method1() {</t>
+  </si>
+  <si>
+    <t>System.out.println( p.weight + p1.weight);</t>
+  </si>
+  <si>
+    <t>System.out.println( s1==s2 );</t>
+  </si>
+  <si>
+    <t>System.out.println( s1==s3 );</t>
+  </si>
+  <si>
+    <t>share objects</t>
+  </si>
+  <si>
+    <t>int b=10;</t>
+  </si>
+  <si>
+    <t>System.out.println( a==b );</t>
+  </si>
+  <si>
+    <t>String is immutable object</t>
+  </si>
+  <si>
+    <t>CANNOT CHANGE</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>string variable can change</t>
+  </si>
+  <si>
+    <t>String objectin memory cannot change</t>
+  </si>
+  <si>
+    <t>String appleProduct1="iphone";</t>
+  </si>
+  <si>
+    <t>String appleProduct2="iphone";</t>
+  </si>
+  <si>
+    <t>String appleProduct3="iphone";</t>
+  </si>
+  <si>
+    <t>String appleProduct6="iphone";</t>
+  </si>
+  <si>
+    <t>String appleProduct100000000="iphone";</t>
+  </si>
+  <si>
+    <t>String appleProduct4="iphone";</t>
+  </si>
+  <si>
+    <t>String appleProduct5="iphone";</t>
+  </si>
+  <si>
+    <t>appleProduct1</t>
+  </si>
+  <si>
+    <t>appleProduct2</t>
+  </si>
+  <si>
+    <t>appleProduct3</t>
+  </si>
+  <si>
+    <t>appleProduct4</t>
+  </si>
+  <si>
+    <t>appleProduct5</t>
+  </si>
+  <si>
+    <t>appleProduct6</t>
+  </si>
+  <si>
+    <t>appleProduct10000000</t>
+  </si>
+  <si>
+    <t>immutable ????</t>
+  </si>
+  <si>
+    <t>appleProduct5="ipad";</t>
+  </si>
+  <si>
+    <t>ipad</t>
+  </si>
+  <si>
+    <t>String poool</t>
+  </si>
+  <si>
+    <t>Sharing</t>
+  </si>
+  <si>
+    <t>Pros</t>
+  </si>
+  <si>
+    <t>memory saving</t>
+  </si>
+  <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <t>impact all variable : Immutable</t>
+  </si>
+  <si>
+    <t>name=name + "doe";</t>
+  </si>
+  <si>
+    <t>name = name + "ny";</t>
+  </si>
+  <si>
+    <t>name = name + "usa";</t>
+  </si>
+  <si>
+    <t>Frequently editing</t>
+  </si>
+  <si>
+    <t>#bbb</t>
+  </si>
+  <si>
+    <t>#ccc</t>
+  </si>
+  <si>
+    <t>#xxx</t>
+  </si>
+  <si>
+    <t>#yyy</t>
+  </si>
+  <si>
+    <t>#zzz</t>
+  </si>
+  <si>
+    <t>changing often</t>
   </si>
 </sst>
 </file>
@@ -27608,10 +27761,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O209"/>
+  <dimension ref="A1:O272"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C258" sqref="C258:D259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29545,10 +29698,871 @@
       <c r="N208" s="39"/>
       <c r="O208" s="40"/>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:15">
       <c r="A209" t="s">
         <v>2309</v>
       </c>
+    </row>
+    <row r="210" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="211" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F211" s="33"/>
+      <c r="G211" s="34"/>
+      <c r="H211" s="34"/>
+      <c r="I211" s="34"/>
+      <c r="J211" s="34"/>
+      <c r="K211" s="34"/>
+      <c r="L211" s="34"/>
+      <c r="M211" s="34"/>
+      <c r="N211" s="34"/>
+      <c r="O211" s="35"/>
+    </row>
+    <row r="212" spans="1:15">
+      <c r="A212" t="s">
+        <v>2655</v>
+      </c>
+      <c r="F212" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="G212" s="30" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H212" s="30"/>
+      <c r="I212" s="30"/>
+      <c r="J212" s="30"/>
+      <c r="K212" s="33" t="s">
+        <v>1151</v>
+      </c>
+      <c r="L212" s="34"/>
+      <c r="M212" s="34" t="s">
+        <v>2654</v>
+      </c>
+      <c r="N212" s="35"/>
+      <c r="O212" s="37"/>
+    </row>
+    <row r="213" spans="1:15">
+      <c r="A213" t="s">
+        <v>291</v>
+      </c>
+      <c r="F213" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="G213" s="30" t="s">
+        <v>2020</v>
+      </c>
+      <c r="H213" s="30"/>
+      <c r="I213" s="30"/>
+      <c r="J213" s="30"/>
+      <c r="K213" s="36"/>
+      <c r="L213" s="30"/>
+      <c r="M213" s="30"/>
+      <c r="N213" s="37"/>
+      <c r="O213" s="37"/>
+    </row>
+    <row r="214" spans="1:15">
+      <c r="A214" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D214" s="13" t="s">
+        <v>2276</v>
+      </c>
+      <c r="F214" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="G214" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="H214" s="30"/>
+      <c r="I214" s="30"/>
+      <c r="J214" s="30"/>
+      <c r="K214" s="36"/>
+      <c r="L214" s="30" t="s">
+        <v>2659</v>
+      </c>
+      <c r="M214" s="30"/>
+      <c r="N214" s="37"/>
+      <c r="O214" s="37"/>
+    </row>
+    <row r="215" spans="1:15">
+      <c r="A215" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D215" s="13" t="s">
+        <v>2276</v>
+      </c>
+      <c r="F215" s="36" t="s">
+        <v>729</v>
+      </c>
+      <c r="G215" s="30" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H215" s="30"/>
+      <c r="I215" s="30"/>
+      <c r="J215" s="30"/>
+      <c r="K215" s="36"/>
+      <c r="L215" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="M215" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="N215" s="37"/>
+      <c r="O215" s="37"/>
+    </row>
+    <row r="216" spans="1:15">
+      <c r="A216" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D216" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="F216" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="G216" s="54">
+        <v>10</v>
+      </c>
+      <c r="H216" s="30"/>
+      <c r="I216" s="30"/>
+      <c r="J216" s="30"/>
+      <c r="K216" s="36"/>
+      <c r="L216" s="30"/>
+      <c r="M216" s="30"/>
+      <c r="N216" s="37"/>
+      <c r="O216" s="37"/>
+    </row>
+    <row r="217" spans="1:15">
+      <c r="A217" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F217" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="G217" s="54">
+        <v>10</v>
+      </c>
+      <c r="H217" s="30"/>
+      <c r="I217" s="30"/>
+      <c r="J217" s="30"/>
+      <c r="K217" s="36"/>
+      <c r="L217" s="30"/>
+      <c r="M217" s="30"/>
+      <c r="N217" s="37"/>
+      <c r="O217" s="37"/>
+    </row>
+    <row r="218" spans="1:15">
+      <c r="F218" s="36"/>
+      <c r="G218" s="30"/>
+      <c r="H218" s="30"/>
+      <c r="I218" s="30"/>
+      <c r="J218" s="30"/>
+      <c r="K218" s="36"/>
+      <c r="L218" s="30" t="s">
+        <v>2020</v>
+      </c>
+      <c r="M218" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="N218" s="37"/>
+      <c r="O218" s="37"/>
+    </row>
+    <row r="219" spans="1:15">
+      <c r="F219" s="36"/>
+      <c r="G219" s="30"/>
+      <c r="H219" s="30"/>
+      <c r="I219" s="30"/>
+      <c r="J219" s="30"/>
+      <c r="K219" s="36"/>
+      <c r="L219" s="30"/>
+      <c r="M219" s="30"/>
+      <c r="N219" s="37"/>
+      <c r="O219" s="37"/>
+    </row>
+    <row r="220" spans="1:15">
+      <c r="F220" s="36"/>
+      <c r="G220" s="30"/>
+      <c r="H220" s="30"/>
+      <c r="I220" s="30"/>
+      <c r="J220" s="30"/>
+      <c r="K220" s="36"/>
+      <c r="L220" s="30"/>
+      <c r="M220" s="30"/>
+      <c r="N220" s="37"/>
+      <c r="O220" s="37"/>
+    </row>
+    <row r="221" spans="1:15">
+      <c r="A221" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D221" t="b">
+        <v>1</v>
+      </c>
+      <c r="F221" s="36"/>
+      <c r="G221" s="30"/>
+      <c r="H221" s="30"/>
+      <c r="I221" s="30"/>
+      <c r="J221" s="30"/>
+      <c r="K221" s="36"/>
+      <c r="L221" s="30"/>
+      <c r="M221" s="30"/>
+      <c r="N221" s="37"/>
+      <c r="O221" s="37"/>
+    </row>
+    <row r="222" spans="1:15">
+      <c r="A222" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D222" t="b">
+        <v>1</v>
+      </c>
+      <c r="F222" s="36"/>
+      <c r="G222" s="30"/>
+      <c r="H222" s="30" t="s">
+        <v>2077</v>
+      </c>
+      <c r="I222" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="J222" s="30"/>
+      <c r="K222" s="36"/>
+      <c r="L222" s="30"/>
+      <c r="M222" s="30"/>
+      <c r="N222" s="37"/>
+      <c r="O222" s="37"/>
+    </row>
+    <row r="223" spans="1:15">
+      <c r="A223" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D223" t="b">
+        <v>0</v>
+      </c>
+      <c r="F223" s="36"/>
+      <c r="G223" s="30"/>
+      <c r="H223" s="30"/>
+      <c r="I223" s="30"/>
+      <c r="J223" s="30"/>
+      <c r="K223" s="36"/>
+      <c r="L223" s="30"/>
+      <c r="M223" s="30"/>
+      <c r="N223" s="37"/>
+      <c r="O223" s="37"/>
+    </row>
+    <row r="224" spans="1:15">
+      <c r="F224" s="36"/>
+      <c r="G224" s="30"/>
+      <c r="H224" s="30"/>
+      <c r="I224" s="30"/>
+      <c r="J224" s="30"/>
+      <c r="K224" s="36"/>
+      <c r="L224" s="30"/>
+      <c r="M224" s="30"/>
+      <c r="N224" s="37"/>
+      <c r="O224" s="37"/>
+    </row>
+    <row r="225" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F225" s="36"/>
+      <c r="G225" s="30"/>
+      <c r="H225" s="30"/>
+      <c r="I225" s="30"/>
+      <c r="J225" s="30"/>
+      <c r="K225" s="38"/>
+      <c r="L225" s="39"/>
+      <c r="M225" s="39"/>
+      <c r="N225" s="40"/>
+      <c r="O225" s="37"/>
+    </row>
+    <row r="226" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F226" s="38"/>
+      <c r="G226" s="39"/>
+      <c r="H226" s="39"/>
+      <c r="I226" s="39"/>
+      <c r="J226" s="39"/>
+      <c r="K226" s="39"/>
+      <c r="L226" s="39"/>
+      <c r="M226" s="39"/>
+      <c r="N226" s="39"/>
+      <c r="O226" s="40"/>
+    </row>
+    <row r="228" spans="1:15">
+      <c r="D228" t="s">
+        <v>2657</v>
+      </c>
+      <c r="G228" t="s">
+        <v>2658</v>
+      </c>
+      <c r="I228" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15">
+      <c r="I229" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="232" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F232" s="33"/>
+      <c r="G232" s="34"/>
+      <c r="H232" s="34"/>
+      <c r="I232" s="34"/>
+      <c r="J232" s="34"/>
+      <c r="K232" s="34"/>
+      <c r="L232" s="34"/>
+      <c r="M232" s="34"/>
+      <c r="N232" s="34"/>
+      <c r="O232" s="35"/>
+    </row>
+    <row r="233" spans="1:15">
+      <c r="F233" s="36"/>
+      <c r="G233" s="30"/>
+      <c r="H233" s="30"/>
+      <c r="I233" s="30"/>
+      <c r="J233" s="30"/>
+      <c r="K233" s="33" t="s">
+        <v>1151</v>
+      </c>
+      <c r="L233" s="34"/>
+      <c r="M233" s="34"/>
+      <c r="N233" s="35"/>
+      <c r="O233" s="37"/>
+    </row>
+    <row r="234" spans="1:15">
+      <c r="A234" t="s">
+        <v>2662</v>
+      </c>
+      <c r="F234" s="36" t="s">
+        <v>2669</v>
+      </c>
+      <c r="G234" s="30"/>
+      <c r="H234" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="I234" s="30"/>
+      <c r="J234" s="30"/>
+      <c r="K234" s="36"/>
+      <c r="L234" s="30"/>
+      <c r="M234" s="30"/>
+      <c r="N234" s="37"/>
+      <c r="O234" s="37"/>
+    </row>
+    <row r="235" spans="1:15">
+      <c r="A235" t="s">
+        <v>2663</v>
+      </c>
+      <c r="D235" s="13"/>
+      <c r="F235" s="36" t="s">
+        <v>2670</v>
+      </c>
+      <c r="G235" s="30"/>
+      <c r="H235" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="I235" s="30"/>
+      <c r="J235" s="30"/>
+      <c r="K235" s="36"/>
+      <c r="L235" s="30"/>
+      <c r="M235" s="30"/>
+      <c r="N235" s="37"/>
+      <c r="O235" s="37"/>
+    </row>
+    <row r="236" spans="1:15">
+      <c r="A236" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D236" s="13"/>
+      <c r="F236" s="36" t="s">
+        <v>2671</v>
+      </c>
+      <c r="G236" s="30"/>
+      <c r="H236" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="I236" s="30"/>
+      <c r="J236" s="30"/>
+      <c r="K236" s="36"/>
+      <c r="L236" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="M236" s="30" t="s">
+        <v>2064</v>
+      </c>
+      <c r="N236" s="37"/>
+      <c r="O236" s="37"/>
+    </row>
+    <row r="237" spans="1:15">
+      <c r="A237" t="s">
+        <v>2667</v>
+      </c>
+      <c r="D237" s="13"/>
+      <c r="F237" s="36" t="s">
+        <v>2672</v>
+      </c>
+      <c r="G237" s="54"/>
+      <c r="H237" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="I237" s="30"/>
+      <c r="J237" s="30"/>
+      <c r="K237" s="36"/>
+      <c r="L237" s="30"/>
+      <c r="M237" s="30"/>
+      <c r="N237" s="37"/>
+      <c r="O237" s="37"/>
+    </row>
+    <row r="238" spans="1:15">
+      <c r="A238" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F238" s="36" t="s">
+        <v>2673</v>
+      </c>
+      <c r="G238" s="54"/>
+      <c r="H238" s="30" t="s">
+        <v>2020</v>
+      </c>
+      <c r="I238" s="30"/>
+      <c r="J238" s="30"/>
+      <c r="K238" s="36"/>
+      <c r="L238" s="30"/>
+      <c r="M238" s="30"/>
+      <c r="N238" s="37"/>
+      <c r="O238" s="37"/>
+    </row>
+    <row r="239" spans="1:15">
+      <c r="A239" t="s">
+        <v>2665</v>
+      </c>
+      <c r="F239" s="36" t="s">
+        <v>2674</v>
+      </c>
+      <c r="G239" s="30"/>
+      <c r="H239" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="I239" s="30"/>
+      <c r="J239" s="30"/>
+      <c r="K239" s="36"/>
+      <c r="L239" s="30"/>
+      <c r="M239" s="30"/>
+      <c r="N239" s="37"/>
+      <c r="O239" s="37"/>
+    </row>
+    <row r="240" spans="1:15">
+      <c r="A240" t="s">
+        <v>2666</v>
+      </c>
+      <c r="F240" s="36" t="s">
+        <v>2675</v>
+      </c>
+      <c r="G240" s="30"/>
+      <c r="H240" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="I240" s="30"/>
+      <c r="J240" s="30"/>
+      <c r="K240" s="36"/>
+      <c r="L240" s="30" t="s">
+        <v>2020</v>
+      </c>
+      <c r="M240" s="30" t="s">
+        <v>2678</v>
+      </c>
+      <c r="N240" s="37"/>
+      <c r="O240" s="37"/>
+    </row>
+    <row r="241" spans="1:15">
+      <c r="F241" s="36"/>
+      <c r="G241" s="30"/>
+      <c r="H241" s="30"/>
+      <c r="I241" s="30"/>
+      <c r="J241" s="30"/>
+      <c r="K241" s="36"/>
+      <c r="L241" s="30"/>
+      <c r="M241" s="30"/>
+      <c r="N241" s="37"/>
+      <c r="O241" s="37"/>
+    </row>
+    <row r="242" spans="1:15">
+      <c r="A242" t="s">
+        <v>2677</v>
+      </c>
+      <c r="F242" s="36"/>
+      <c r="G242" s="30"/>
+      <c r="H242" s="30"/>
+      <c r="I242" s="30"/>
+      <c r="J242" s="30"/>
+      <c r="K242" s="36"/>
+      <c r="L242" s="30"/>
+      <c r="M242" s="30"/>
+      <c r="N242" s="37"/>
+      <c r="O242" s="37"/>
+    </row>
+    <row r="243" spans="1:15">
+      <c r="F243" s="36"/>
+      <c r="G243" s="30"/>
+      <c r="H243" s="30"/>
+      <c r="I243" s="30"/>
+      <c r="J243" s="30"/>
+      <c r="K243" s="36"/>
+      <c r="L243" s="30"/>
+      <c r="M243" s="30"/>
+      <c r="N243" s="37"/>
+      <c r="O243" s="37"/>
+    </row>
+    <row r="244" spans="1:15">
+      <c r="A244" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F244" s="36"/>
+      <c r="G244" s="30"/>
+      <c r="H244" s="30"/>
+      <c r="I244" s="30"/>
+      <c r="J244" s="30"/>
+      <c r="K244" s="36"/>
+      <c r="L244" s="30"/>
+      <c r="M244" s="30"/>
+      <c r="N244" s="37"/>
+      <c r="O244" s="37"/>
+    </row>
+    <row r="245" spans="1:15">
+      <c r="F245" s="36"/>
+      <c r="G245" s="30"/>
+      <c r="H245" s="30"/>
+      <c r="I245" s="30"/>
+      <c r="J245" s="30"/>
+      <c r="K245" s="36"/>
+      <c r="L245" s="30"/>
+      <c r="M245" s="30"/>
+      <c r="N245" s="37"/>
+      <c r="O245" s="37"/>
+    </row>
+    <row r="246" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F246" s="36"/>
+      <c r="G246" s="30"/>
+      <c r="H246" s="30"/>
+      <c r="I246" s="30"/>
+      <c r="J246" s="30"/>
+      <c r="K246" s="38"/>
+      <c r="L246" s="39"/>
+      <c r="M246" s="39"/>
+      <c r="N246" s="40"/>
+      <c r="O246" s="37"/>
+    </row>
+    <row r="247" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F247" s="38"/>
+      <c r="G247" s="39"/>
+      <c r="H247" s="39"/>
+      <c r="I247" s="39"/>
+      <c r="J247" s="39"/>
+      <c r="K247" s="39"/>
+      <c r="L247" s="39"/>
+      <c r="M247" s="39"/>
+      <c r="N247" s="39"/>
+      <c r="O247" s="40"/>
+    </row>
+    <row r="249" spans="1:15">
+      <c r="D249" t="s">
+        <v>2657</v>
+      </c>
+      <c r="G249" t="s">
+        <v>2658</v>
+      </c>
+      <c r="I249" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15">
+      <c r="F252" t="s">
+        <v>2679</v>
+      </c>
+      <c r="H252" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15">
+      <c r="G253" t="s">
+        <v>2681</v>
+      </c>
+      <c r="I253" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15">
+      <c r="G254" t="s">
+        <v>2682</v>
+      </c>
+      <c r="I254" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="256" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F256" s="33"/>
+      <c r="G256" s="34"/>
+      <c r="H256" s="34"/>
+      <c r="I256" s="34"/>
+      <c r="J256" s="34"/>
+      <c r="K256" s="34"/>
+      <c r="L256" s="34"/>
+      <c r="M256" s="34"/>
+      <c r="N256" s="34"/>
+      <c r="O256" s="35"/>
+    </row>
+    <row r="257" spans="1:15">
+      <c r="A257" t="s">
+        <v>374</v>
+      </c>
+      <c r="F257" s="36"/>
+      <c r="G257" s="30"/>
+      <c r="H257" s="30"/>
+      <c r="I257" s="30"/>
+      <c r="J257" s="33" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K257" s="34"/>
+      <c r="L257" s="34"/>
+      <c r="M257" s="34"/>
+      <c r="N257" s="35"/>
+      <c r="O257" s="37"/>
+    </row>
+    <row r="258" spans="1:15">
+      <c r="A258" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C258" t="s">
+        <v>2688</v>
+      </c>
+      <c r="F258" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G258" s="30" t="s">
+        <v>2693</v>
+      </c>
+      <c r="H258" s="30"/>
+      <c r="I258" s="30"/>
+      <c r="J258" s="36"/>
+      <c r="K258" s="30"/>
+      <c r="L258" s="30"/>
+      <c r="M258" s="30"/>
+      <c r="N258" s="37"/>
+      <c r="O258" s="37"/>
+    </row>
+    <row r="259" spans="1:15">
+      <c r="A259" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C259" t="s">
+        <v>2694</v>
+      </c>
+      <c r="F259" s="36"/>
+      <c r="G259" s="30"/>
+      <c r="H259" s="30"/>
+      <c r="I259" s="30"/>
+      <c r="J259" s="36"/>
+      <c r="K259" s="30"/>
+      <c r="L259" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="M259" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="N259" s="37"/>
+      <c r="O259" s="37"/>
+    </row>
+    <row r="260" spans="1:15">
+      <c r="A260" t="s">
+        <v>2687</v>
+      </c>
+      <c r="F260" s="36"/>
+      <c r="G260" s="30"/>
+      <c r="H260" s="30"/>
+      <c r="I260" s="30"/>
+      <c r="J260" s="36"/>
+      <c r="K260" s="30"/>
+      <c r="L260" s="30" t="s">
+        <v>2034</v>
+      </c>
+      <c r="M260" s="30" t="s">
+        <v>2301</v>
+      </c>
+      <c r="N260" s="37"/>
+      <c r="O260" s="37"/>
+    </row>
+    <row r="261" spans="1:15">
+      <c r="C261" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F261" s="36"/>
+      <c r="G261" s="30"/>
+      <c r="H261" s="30"/>
+      <c r="I261" s="30"/>
+      <c r="J261" s="36"/>
+      <c r="K261" s="30"/>
+      <c r="L261" s="30" t="s">
+        <v>2689</v>
+      </c>
+      <c r="M261" t="s">
+        <v>2302</v>
+      </c>
+      <c r="N261" s="37"/>
+      <c r="O261" s="37"/>
+    </row>
+    <row r="262" spans="1:15">
+      <c r="F262" s="36"/>
+      <c r="G262" s="30"/>
+      <c r="H262" s="30"/>
+      <c r="I262" s="30"/>
+      <c r="J262" s="36"/>
+      <c r="K262" s="30"/>
+      <c r="L262" s="41" t="s">
+        <v>2690</v>
+      </c>
+      <c r="M262" s="30" t="s">
+        <v>2303</v>
+      </c>
+      <c r="N262" s="37"/>
+      <c r="O262" s="37"/>
+    </row>
+    <row r="263" spans="1:15">
+      <c r="F263" s="36"/>
+      <c r="G263" s="30"/>
+      <c r="H263" s="30"/>
+      <c r="I263" s="30"/>
+      <c r="J263" s="36"/>
+      <c r="K263" s="30"/>
+      <c r="L263" s="41" t="s">
+        <v>2691</v>
+      </c>
+      <c r="M263" s="41" t="s">
+        <v>1172</v>
+      </c>
+      <c r="N263" s="37"/>
+      <c r="O263" s="37"/>
+    </row>
+    <row r="264" spans="1:15">
+      <c r="F264" s="36"/>
+      <c r="G264" s="30"/>
+      <c r="H264" s="30"/>
+      <c r="I264" s="30"/>
+      <c r="J264" s="36"/>
+      <c r="K264" s="30"/>
+      <c r="L264" s="41" t="s">
+        <v>2692</v>
+      </c>
+      <c r="M264" s="41" t="s">
+        <v>2304</v>
+      </c>
+      <c r="N264" s="37"/>
+      <c r="O264" s="37"/>
+    </row>
+    <row r="265" spans="1:15">
+      <c r="F265" s="36"/>
+      <c r="G265" s="30"/>
+      <c r="H265" s="30"/>
+      <c r="I265" s="30"/>
+      <c r="J265" s="36"/>
+      <c r="K265" s="30"/>
+      <c r="L265" s="41" t="s">
+        <v>2693</v>
+      </c>
+      <c r="M265" t="s">
+        <v>2305</v>
+      </c>
+      <c r="N265" s="37"/>
+      <c r="O265" s="37"/>
+    </row>
+    <row r="266" spans="1:15">
+      <c r="F266" s="36"/>
+      <c r="G266" s="30"/>
+      <c r="H266" s="30"/>
+      <c r="I266" s="30"/>
+      <c r="J266" s="36"/>
+      <c r="K266" s="30"/>
+      <c r="L266" s="30"/>
+      <c r="M266" s="30"/>
+      <c r="N266" s="37"/>
+      <c r="O266" s="37"/>
+    </row>
+    <row r="267" spans="1:15">
+      <c r="B267" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F267" s="36"/>
+      <c r="G267" s="30"/>
+      <c r="H267" s="30"/>
+      <c r="I267" s="30"/>
+      <c r="J267" s="36"/>
+      <c r="K267" s="30"/>
+      <c r="L267" s="30"/>
+      <c r="M267" s="30"/>
+      <c r="N267" s="37"/>
+      <c r="O267" s="37"/>
+    </row>
+    <row r="268" spans="1:15">
+      <c r="B268" t="s">
+        <v>2304</v>
+      </c>
+      <c r="F268" s="36"/>
+      <c r="G268" s="30"/>
+      <c r="H268" s="30"/>
+      <c r="I268" s="30"/>
+      <c r="J268" s="36"/>
+      <c r="K268" s="30"/>
+      <c r="L268" s="30"/>
+      <c r="M268" s="30"/>
+      <c r="N268" s="37"/>
+      <c r="O268" s="37"/>
+    </row>
+    <row r="269" spans="1:15" ht="15.75" thickBot="1">
+      <c r="B269" t="s">
+        <v>2305</v>
+      </c>
+      <c r="F269" s="36"/>
+      <c r="G269" s="30"/>
+      <c r="H269" s="30"/>
+      <c r="I269" s="30"/>
+      <c r="J269" s="38"/>
+      <c r="K269" s="39"/>
+      <c r="L269" s="39"/>
+      <c r="M269" s="39"/>
+      <c r="N269" s="40"/>
+      <c r="O269" s="37"/>
+    </row>
+    <row r="270" spans="1:15">
+      <c r="F270" s="36"/>
+      <c r="G270" s="30"/>
+      <c r="H270" s="30"/>
+      <c r="I270" s="30"/>
+      <c r="J270" s="30"/>
+      <c r="K270" s="30"/>
+      <c r="L270" s="30"/>
+      <c r="M270" s="30"/>
+      <c r="N270" s="30"/>
+      <c r="O270" s="37"/>
+    </row>
+    <row r="271" spans="1:15">
+      <c r="F271" s="36"/>
+      <c r="G271" s="30"/>
+      <c r="H271" s="30"/>
+      <c r="I271" s="30"/>
+      <c r="J271" s="30"/>
+      <c r="K271" s="30"/>
+      <c r="L271" s="30"/>
+      <c r="M271" s="30"/>
+      <c r="N271" s="30"/>
+      <c r="O271" s="37"/>
+    </row>
+    <row r="272" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F272" s="38"/>
+      <c r="G272" s="39"/>
+      <c r="H272" s="39"/>
+      <c r="I272" s="39"/>
+      <c r="J272" s="39"/>
+      <c r="K272" s="39"/>
+      <c r="L272" s="39"/>
+      <c r="M272" s="39"/>
+      <c r="N272" s="39"/>
+      <c r="O272" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29558,15 +30572,16 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W306"/>
+  <dimension ref="A1:W320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B279" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D293" sqref="D293:J294"/>
+    <sheetView topLeftCell="B303" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J311" sqref="J311:K312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="9" width="12" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -31417,7 +32432,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="306" spans="3:8">
+    <row r="306" spans="2:13">
       <c r="C306" t="s">
         <v>2643</v>
       </c>
@@ -31427,6 +32442,176 @@
       <c r="H306" t="s">
         <v>2639</v>
       </c>
+    </row>
+    <row r="307" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="308" spans="2:13">
+      <c r="B308" t="s">
+        <v>2644</v>
+      </c>
+      <c r="G308" s="33"/>
+      <c r="H308" s="34"/>
+      <c r="I308" s="34"/>
+      <c r="J308" s="34"/>
+      <c r="K308" s="34"/>
+      <c r="L308" s="34"/>
+      <c r="M308" s="35"/>
+    </row>
+    <row r="309" spans="2:13">
+      <c r="G309" s="36" t="s">
+        <v>2647</v>
+      </c>
+      <c r="H309" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="I309" s="30"/>
+      <c r="J309" s="30"/>
+      <c r="K309" s="30"/>
+      <c r="L309" s="30"/>
+      <c r="M309" s="37"/>
+    </row>
+    <row r="310" spans="2:13" ht="15.75" thickBot="1">
+      <c r="G310" s="36"/>
+      <c r="H310" s="30"/>
+      <c r="I310" s="30"/>
+      <c r="J310" s="30"/>
+      <c r="K310" s="30"/>
+      <c r="L310" s="30"/>
+      <c r="M310" s="37"/>
+    </row>
+    <row r="311" spans="2:13">
+      <c r="B311" t="s">
+        <v>2645</v>
+      </c>
+      <c r="G311" s="36"/>
+      <c r="H311" s="30"/>
+      <c r="I311" s="30" t="s">
+        <v>2649</v>
+      </c>
+      <c r="J311" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="K311" s="51">
+        <v>10</v>
+      </c>
+      <c r="L311" s="52"/>
+      <c r="M311" s="37"/>
+    </row>
+    <row r="312" spans="2:13">
+      <c r="G312" s="36"/>
+      <c r="H312" s="30"/>
+      <c r="I312" s="30"/>
+      <c r="J312" s="53" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K312" s="54" t="s">
+        <v>2648</v>
+      </c>
+      <c r="L312" s="55"/>
+      <c r="M312" s="37"/>
+    </row>
+    <row r="313" spans="2:13" ht="15.75" thickBot="1">
+      <c r="C313" t="s">
+        <v>360</v>
+      </c>
+      <c r="G313" s="36"/>
+      <c r="H313" s="30"/>
+      <c r="I313" s="30"/>
+      <c r="J313" s="56" t="s">
+        <v>1921</v>
+      </c>
+      <c r="K313" s="57" t="s">
+        <v>435</v>
+      </c>
+      <c r="L313" s="58"/>
+      <c r="M313" s="37"/>
+    </row>
+    <row r="314" spans="2:13" ht="15.75" thickBot="1">
+      <c r="C314" t="s">
+        <v>2646</v>
+      </c>
+      <c r="G314" s="36"/>
+      <c r="H314" s="30"/>
+      <c r="I314" s="30"/>
+      <c r="J314" s="30"/>
+      <c r="K314" s="30"/>
+      <c r="L314" s="30"/>
+      <c r="M314" s="37"/>
+    </row>
+    <row r="315" spans="2:13">
+      <c r="G315" s="36"/>
+      <c r="H315" s="30"/>
+      <c r="I315" s="30" t="s">
+        <v>2648</v>
+      </c>
+      <c r="J315" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="K315" s="51" t="s">
+        <v>430</v>
+      </c>
+      <c r="L315" s="52"/>
+      <c r="M315" s="37"/>
+    </row>
+    <row r="316" spans="2:13">
+      <c r="B316" t="s">
+        <v>2650</v>
+      </c>
+      <c r="G316" s="36"/>
+      <c r="H316" s="30"/>
+      <c r="I316" s="30"/>
+      <c r="J316" s="53" t="s">
+        <v>2452</v>
+      </c>
+      <c r="K316" s="54">
+        <v>0</v>
+      </c>
+      <c r="L316" s="55"/>
+      <c r="M316" s="37"/>
+    </row>
+    <row r="317" spans="2:13" ht="15.75" thickBot="1">
+      <c r="C317" t="s">
+        <v>2651</v>
+      </c>
+      <c r="G317" s="36"/>
+      <c r="H317" s="30"/>
+      <c r="I317" s="30"/>
+      <c r="J317" s="56"/>
+      <c r="K317" s="57"/>
+      <c r="L317" s="58"/>
+      <c r="M317" s="37"/>
+    </row>
+    <row r="318" spans="2:13">
+      <c r="B318" t="s">
+        <v>162</v>
+      </c>
+      <c r="G318" s="36"/>
+      <c r="H318" s="30"/>
+      <c r="I318" s="30"/>
+      <c r="J318" s="30"/>
+      <c r="K318" s="30"/>
+      <c r="L318" s="30"/>
+      <c r="M318" s="37"/>
+    </row>
+    <row r="319" spans="2:13">
+      <c r="G319" s="36"/>
+      <c r="H319" s="30"/>
+      <c r="I319" s="30"/>
+      <c r="J319" s="30"/>
+      <c r="K319" s="30"/>
+      <c r="L319" s="30"/>
+      <c r="M319" s="37"/>
+    </row>
+    <row r="320" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B320" t="s">
+        <v>162</v>
+      </c>
+      <c r="G320" s="38"/>
+      <c r="H320" s="39"/>
+      <c r="I320" s="39"/>
+      <c r="J320" s="39"/>
+      <c r="K320" s="39"/>
+      <c r="L320" s="39"/>
+      <c r="M320" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="16" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="19" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4834" uniqueCount="2695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4852" uniqueCount="2711">
   <si>
     <t>USER</t>
   </si>
@@ -7228,54 +7228,12 @@
     <t>Level 3</t>
   </si>
   <si>
-    <t>10 seconds</t>
-  </si>
-  <si>
-    <t>waiting list</t>
-  </si>
-  <si>
-    <t>30 second</t>
-  </si>
-  <si>
     <t>switching</t>
   </si>
   <si>
-    <t>buy 6</t>
-  </si>
-  <si>
-    <t>buy 3</t>
-  </si>
-  <si>
-    <t>buy 4</t>
-  </si>
-  <si>
-    <t>buy 2</t>
-  </si>
-  <si>
-    <t>notify producer</t>
-  </si>
-  <si>
-    <t>wake up</t>
-  </si>
-  <si>
-    <t>notify consumer</t>
-  </si>
-  <si>
-    <t>wake up buy2</t>
-  </si>
-  <si>
-    <t>buy2</t>
-  </si>
-  <si>
     <t>buy 5</t>
   </si>
   <si>
-    <t>wake up buy 5</t>
-  </si>
-  <si>
-    <t>buy 1</t>
-  </si>
-  <si>
     <t>#qqq</t>
   </si>
   <si>
@@ -8309,6 +8267,96 @@
   </si>
   <si>
     <t>changing often</t>
+  </si>
+  <si>
+    <t>String s1="jack"; // #abc pool</t>
+  </si>
+  <si>
+    <t>String s2=new String("john"); // #pqr outside pool</t>
+  </si>
+  <si>
+    <t>String s3="john"; // #abc pool</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>#wer</t>
+  </si>
+  <si>
+    <t>String s4=new String("jack");</t>
+  </si>
+  <si>
+    <t>#dfg</t>
+  </si>
+  <si>
+    <t>String s5="jack";</t>
+  </si>
+  <si>
+    <t>s1==s4</t>
+  </si>
+  <si>
+    <t>s1==s5</t>
+  </si>
+  <si>
+    <t>#ddd</t>
+  </si>
+  <si>
+    <t>namesb.append(" doe");</t>
+  </si>
+  <si>
+    <t>namesb.append(" ny");</t>
+  </si>
+  <si>
+    <t>namesb.append(" usa");</t>
+  </si>
+  <si>
+    <t>namesb</t>
+  </si>
+  <si>
+    <t>StringBuilder namesb=new StringBuilder ("john");</t>
+  </si>
+  <si>
+    <t>1 nano</t>
+  </si>
+  <si>
+    <t>WAITING  LIST</t>
+  </si>
+  <si>
+    <t>1 nano second</t>
+  </si>
+  <si>
+    <t>round robin</t>
+  </si>
+  <si>
+    <t>Multitasking</t>
+  </si>
+  <si>
+    <t>more job number of CPU/person</t>
+  </si>
+  <si>
+    <t>poor performance</t>
+  </si>
+  <si>
+    <t>waiting queue</t>
+  </si>
+  <si>
+    <t>processing time</t>
+  </si>
+  <si>
+    <t>air supply</t>
+  </si>
+  <si>
+    <t>bathroom</t>
+  </si>
+  <si>
+    <t>100 nano</t>
+  </si>
+  <si>
+    <t>50 nano</t>
+  </si>
+  <si>
+    <t>cpu5</t>
   </si>
 </sst>
 </file>
@@ -8827,7 +8875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9195,9 +9243,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -9225,33 +9270,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9343,6 +9361,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10355,19 +10415,19 @@
     </row>
     <row r="54" spans="1:13" ht="15.75" thickBot="1">
       <c r="A54" t="s">
-        <v>2459</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>2456</v>
+        <v>2442</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>2446</v>
+        <v>2432</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="34" t="s">
-        <v>2447</v>
+        <v>2433</v>
       </c>
       <c r="H55" s="34"/>
       <c r="I55" s="34"/>
@@ -10378,9 +10438,9 @@
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
       <c r="A56" t="s">
-        <v>2457</v>
-      </c>
-      <c r="E56" s="229" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E56" s="219" t="s">
         <v>222</v>
       </c>
       <c r="F56" s="166" t="s">
@@ -10390,7 +10450,7 @@
       <c r="H56" s="54"/>
       <c r="I56" s="162"/>
       <c r="J56" s="162" t="s">
-        <v>2464</v>
+        <v>2450</v>
       </c>
       <c r="K56" s="162"/>
       <c r="L56" s="162"/>
@@ -10398,7 +10458,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>2455</v>
+        <v>2441</v>
       </c>
       <c r="E57" s="53" t="s">
         <v>196</v>
@@ -10418,7 +10478,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>2460</v>
+        <v>2446</v>
       </c>
       <c r="E58" s="53" t="s">
         <v>2282</v>
@@ -10429,10 +10489,10 @@
       <c r="G58" s="54"/>
       <c r="H58" s="54"/>
       <c r="I58" s="162"/>
-      <c r="J58" s="230" t="s">
+      <c r="J58" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="K58" s="231" t="s">
+      <c r="K58" s="221" t="s">
         <v>430</v>
       </c>
       <c r="L58" s="162"/>
@@ -10440,7 +10500,7 @@
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1">
       <c r="A59" t="s">
-        <v>2454</v>
+        <v>2440</v>
       </c>
       <c r="E59" s="53" t="s">
         <v>1921</v>
@@ -10452,7 +10512,7 @@
       <c r="H59" s="54"/>
       <c r="I59" s="162"/>
       <c r="J59" s="185" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="K59" s="186">
         <v>12</v>
@@ -10462,7 +10522,7 @@
     </row>
     <row r="60" spans="1:13" ht="15.75" thickBot="1">
       <c r="A60" s="59" t="s">
-        <v>2461</v>
+        <v>2447</v>
       </c>
       <c r="E60" s="53" t="s">
         <v>1907</v>
@@ -10480,10 +10540,10 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="59" t="s">
-        <v>2462</v>
+        <v>2448</v>
       </c>
       <c r="B61" t="s">
-        <v>2463</v>
+        <v>2449</v>
       </c>
       <c r="E61" s="53"/>
       <c r="F61" s="54"/>
@@ -10517,7 +10577,7 @@
     </row>
     <row r="63" spans="1:13" ht="15.75" thickBot="1">
       <c r="A63" s="59" t="s">
-        <v>2465</v>
+        <v>2451</v>
       </c>
       <c r="B63" s="128"/>
       <c r="E63" s="53"/>
@@ -10526,7 +10586,7 @@
       <c r="H63" s="54"/>
       <c r="I63" s="54"/>
       <c r="J63" s="56" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="K63" s="58">
         <v>20</v>
@@ -10536,7 +10596,7 @@
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
       <c r="A64" s="128" t="s">
-        <v>2466</v>
+        <v>2452</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -10550,7 +10610,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>2453</v>
+        <v>2439</v>
       </c>
       <c r="C65">
         <v>30</v>
@@ -10569,7 +10629,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>2458</v>
+        <v>2444</v>
       </c>
       <c r="C66">
         <v>20</v>
@@ -10595,7 +10655,7 @@
       <c r="H67" s="54"/>
       <c r="I67" s="54"/>
       <c r="J67" s="56" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="K67" s="58">
         <v>20</v>
@@ -10633,7 +10693,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="B70" t="s">
-        <v>2445</v>
+        <v>2431</v>
       </c>
       <c r="E70" s="53"/>
       <c r="F70" s="54"/>
@@ -10664,35 +10724,35 @@
         <v>448</v>
       </c>
       <c r="B72" t="s">
-        <v>2448</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="B73" t="s">
-        <v>2449</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="B75" t="s">
-        <v>2450</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="B76" t="s">
-        <v>2451</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="80" spans="1:13" ht="15.75" thickBot="1">
       <c r="A80" t="s">
-        <v>2469</v>
+        <v>2455</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>2446</v>
+        <v>2432</v>
       </c>
       <c r="F80" s="34"/>
       <c r="G80" s="34" t="s">
-        <v>2447</v>
+        <v>2433</v>
       </c>
       <c r="H80" s="34"/>
       <c r="I80" s="34"/>
@@ -10703,9 +10763,9 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>2454</v>
-      </c>
-      <c r="E81" s="229" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E81" s="219" t="s">
         <v>222</v>
       </c>
       <c r="F81" s="166" t="s">
@@ -10713,11 +10773,11 @@
       </c>
       <c r="G81" s="54"/>
       <c r="H81" s="54"/>
-      <c r="I81" s="232" t="s">
+      <c r="I81" s="222" t="s">
         <v>431</v>
       </c>
-      <c r="J81" s="233"/>
-      <c r="K81" s="234"/>
+      <c r="J81" s="223"/>
+      <c r="K81" s="224"/>
       <c r="L81" s="162"/>
       <c r="M81" s="55"/>
     </row>
@@ -10733,11 +10793,11 @@
       </c>
       <c r="G82" s="54"/>
       <c r="H82" s="54"/>
-      <c r="I82" s="232"/>
-      <c r="J82" s="235" t="s">
+      <c r="I82" s="222"/>
+      <c r="J82" s="225" t="s">
         <v>76</v>
       </c>
-      <c r="K82" s="236" t="s">
+      <c r="K82" s="226" t="s">
         <v>430</v>
       </c>
       <c r="L82" s="162"/>
@@ -10745,7 +10805,7 @@
     </row>
     <row r="83" spans="1:13" ht="15.75" thickBot="1">
       <c r="A83" t="s">
-        <v>2461</v>
+        <v>2447</v>
       </c>
       <c r="E83" s="53" t="s">
         <v>1907</v>
@@ -10755,11 +10815,11 @@
       </c>
       <c r="G83" s="54"/>
       <c r="H83" s="54"/>
-      <c r="I83" s="232"/>
-      <c r="J83" s="237" t="s">
-        <v>2452</v>
-      </c>
-      <c r="K83" s="238">
+      <c r="I83" s="222"/>
+      <c r="J83" s="227" t="s">
+        <v>2438</v>
+      </c>
+      <c r="K83" s="228">
         <v>12</v>
       </c>
       <c r="L83" s="162"/>
@@ -10781,7 +10841,7 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>2462</v>
+        <v>2448</v>
       </c>
       <c r="E85" s="53"/>
       <c r="F85" s="54"/>
@@ -10797,7 +10857,7 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>2467</v>
+        <v>2453</v>
       </c>
       <c r="E86" s="53"/>
       <c r="F86" s="54"/>
@@ -10815,7 +10875,7 @@
     </row>
     <row r="87" spans="1:13" ht="15.75" thickBot="1">
       <c r="A87" t="s">
-        <v>2468</v>
+        <v>2454</v>
       </c>
       <c r="E87" s="53"/>
       <c r="F87" s="54"/>
@@ -10823,7 +10883,7 @@
       <c r="H87" s="54"/>
       <c r="I87" s="54"/>
       <c r="J87" s="56" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="K87" s="58">
         <v>30</v>
@@ -10859,7 +10919,7 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="128" t="s">
-        <v>2470</v>
+        <v>2456</v>
       </c>
       <c r="C90">
         <v>20</v>
@@ -10880,7 +10940,7 @@
     </row>
     <row r="91" spans="1:13" ht="15.75" thickBot="1">
       <c r="A91" t="s">
-        <v>2471</v>
+        <v>2457</v>
       </c>
       <c r="C91">
         <v>20</v>
@@ -10891,7 +10951,7 @@
       <c r="H91" s="54"/>
       <c r="I91" s="54"/>
       <c r="J91" s="56" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="K91" s="58">
         <v>20</v>
@@ -10943,7 +11003,7 @@
     </row>
     <row r="95" spans="1:13" ht="15.75" thickBot="1">
       <c r="B95" t="s">
-        <v>2445</v>
+        <v>2431</v>
       </c>
       <c r="E95" s="53"/>
       <c r="F95" s="54"/>
@@ -10951,7 +11011,7 @@
       <c r="H95" s="54"/>
       <c r="I95" s="54"/>
       <c r="J95" s="56" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="K95" s="58">
         <v>20</v>
@@ -15399,7 +15459,7 @@
       <c r="A1" s="60"/>
       <c r="B1" s="60"/>
       <c r="C1" s="60" t="s">
-        <v>2536</v>
+        <v>2522</v>
       </c>
       <c r="D1" s="60"/>
       <c r="E1" s="60"/>
@@ -15542,7 +15602,7 @@
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
       <c r="E8" s="60" t="s">
-        <v>2537</v>
+        <v>2523</v>
       </c>
       <c r="F8" s="60" t="s">
         <v>609</v>
@@ -15562,10 +15622,10 @@
       <c r="C9" s="60"/>
       <c r="D9" s="60"/>
       <c r="E9" s="154" t="s">
-        <v>2540</v>
+        <v>2526</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>2535</v>
+        <v>2521</v>
       </c>
       <c r="G9" s="60"/>
       <c r="H9" s="68"/>
@@ -15779,7 +15839,7 @@
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="128" t="s">
-        <v>2544</v>
+        <v>2530</v>
       </c>
       <c r="G18" s="153"/>
       <c r="H18" s="155" t="s">
@@ -15803,13 +15863,13 @@
         <v>593</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>2538</v>
+        <v>2524</v>
       </c>
       <c r="E19" s="68" t="s">
         <v>603</v>
       </c>
       <c r="F19" s="99" t="s">
-        <v>2545</v>
+        <v>2531</v>
       </c>
       <c r="G19" s="152"/>
       <c r="H19" s="155"/>
@@ -15830,8 +15890,8 @@
       <c r="C20" s="63" t="s">
         <v>602</v>
       </c>
-      <c r="D20" s="244" t="s">
-        <v>2539</v>
+      <c r="D20" s="234" t="s">
+        <v>2525</v>
       </c>
       <c r="E20" s="67" t="s">
         <v>604</v>
@@ -15855,7 +15915,7 @@
       <c r="B21" s="60"/>
       <c r="C21" s="68"/>
       <c r="D21" s="154" t="s">
-        <v>2541</v>
+        <v>2527</v>
       </c>
       <c r="E21" s="68" t="s">
         <v>605</v>
@@ -15882,8 +15942,8 @@
       <c r="C22" s="68" t="s">
         <v>605</v>
       </c>
-      <c r="D22" s="245" t="s">
-        <v>2542</v>
+      <c r="D22" s="235" t="s">
+        <v>2528</v>
       </c>
       <c r="E22" s="60" t="s">
         <v>593</v>
@@ -15944,7 +16004,7 @@
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60" t="s">
-        <v>2543</v>
+        <v>2529</v>
       </c>
       <c r="E25" s="60"/>
       <c r="F25" s="60"/>
@@ -16906,7 +16966,7 @@
       <c r="B13" t="s">
         <v>162</v>
       </c>
-      <c r="F13" s="198" t="s">
+      <c r="F13" s="197" t="s">
         <v>537</v>
       </c>
       <c r="G13" s="50" t="s">
@@ -16930,7 +16990,7 @@
       <c r="A14" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="198"/>
+      <c r="F14" s="197"/>
       <c r="G14" s="53" t="s">
         <v>1815</v>
       </c>
@@ -16950,7 +17010,7 @@
       <c r="A15" t="s">
         <v>2197</v>
       </c>
-      <c r="F15" s="198"/>
+      <c r="F15" s="197"/>
       <c r="G15" s="53" t="s">
         <v>2192</v>
       </c>
@@ -16970,7 +17030,7 @@
       <c r="A16" t="s">
         <v>2205</v>
       </c>
-      <c r="F16" s="198"/>
+      <c r="F16" s="197"/>
       <c r="G16" s="56" t="s">
         <v>1814</v>
       </c>
@@ -18035,7 +18095,7 @@
         <v>222</v>
       </c>
       <c r="G138" s="30" t="s">
-        <v>2511</v>
+        <v>2497</v>
       </c>
       <c r="H138" s="30"/>
       <c r="I138" s="30"/>
@@ -18048,7 +18108,7 @@
     </row>
     <row r="139" spans="1:13">
       <c r="B139" t="s">
-        <v>2445</v>
+        <v>2431</v>
       </c>
       <c r="F139" s="36" t="s">
         <v>1921</v>
@@ -18081,7 +18141,7 @@
       <c r="I140" s="30"/>
       <c r="J140" s="30"/>
       <c r="K140" s="38" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="L140" s="40">
         <v>20</v>
@@ -18090,7 +18150,7 @@
     </row>
     <row r="141" spans="1:13" ht="15.75" thickBot="1">
       <c r="F141" s="36" t="s">
-        <v>2547</v>
+        <v>2533</v>
       </c>
       <c r="G141" s="41" t="s">
         <v>2077</v>
@@ -18141,7 +18201,7 @@
       <c r="I144" s="30"/>
       <c r="J144" s="30"/>
       <c r="K144" s="38" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="L144" s="40">
         <v>20</v>
@@ -18150,7 +18210,7 @@
     </row>
     <row r="145" spans="1:13" ht="15.75" thickBot="1">
       <c r="A145" t="s">
-        <v>2546</v>
+        <v>2532</v>
       </c>
       <c r="F145" s="36"/>
       <c r="G145" s="30"/>
@@ -18194,7 +18254,7 @@
       <c r="I148" s="30"/>
       <c r="J148" s="30"/>
       <c r="K148" s="38" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="L148" s="40">
         <v>20</v>
@@ -19158,7 +19218,7 @@
       <c r="M135" s="37"/>
     </row>
     <row r="136" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B136" s="199"/>
+      <c r="B136" s="198"/>
       <c r="C136" s="36" t="s">
         <v>778</v>
       </c>
@@ -19278,7 +19338,7 @@
     </row>
     <row r="177" spans="2:10" ht="15.75" thickBot="1">
       <c r="C177" t="s">
-        <v>2557</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="178" spans="2:10">
@@ -19288,7 +19348,7 @@
       <c r="E178" s="34"/>
       <c r="F178" s="35"/>
       <c r="H178" s="33" t="s">
-        <v>2548</v>
+        <v>2534</v>
       </c>
       <c r="I178" s="34"/>
       <c r="J178" s="35"/>
@@ -19308,12 +19368,12 @@
     <row r="180" spans="2:10">
       <c r="D180" s="36"/>
       <c r="E180" s="30" t="s">
-        <v>2550</v>
+        <v>2536</v>
       </c>
       <c r="F180" s="37"/>
       <c r="H180" s="36"/>
       <c r="I180" s="36" t="s">
-        <v>2549</v>
+        <v>2535</v>
       </c>
       <c r="J180" s="37"/>
     </row>
@@ -19339,12 +19399,12 @@
     </row>
     <row r="183" spans="2:10" ht="15.75" thickBot="1">
       <c r="B183" t="s">
-        <v>2554</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="184" spans="2:10">
       <c r="B184" t="s">
-        <v>2555</v>
+        <v>2541</v>
       </c>
       <c r="F184" s="33" t="s">
         <v>748</v>
@@ -19364,7 +19424,7 @@
     </row>
     <row r="187" spans="2:10">
       <c r="B187" t="s">
-        <v>2553</v>
+        <v>2539</v>
       </c>
       <c r="F187" s="36"/>
       <c r="G187" s="30"/>
@@ -19385,15 +19445,15 @@
         <v>750</v>
       </c>
       <c r="H191" t="s">
-        <v>2551</v>
+        <v>2537</v>
       </c>
       <c r="J191" t="s">
-        <v>2552</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="193" spans="2:10" ht="15.75" thickBot="1">
       <c r="C193" t="s">
-        <v>2556</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="194" spans="2:10">
@@ -19403,7 +19463,7 @@
       <c r="E194" s="34"/>
       <c r="F194" s="35"/>
       <c r="H194" s="33" t="s">
-        <v>2548</v>
+        <v>2534</v>
       </c>
       <c r="I194" s="34"/>
       <c r="J194" s="35"/>
@@ -19422,12 +19482,12 @@
     </row>
     <row r="196" spans="2:10">
       <c r="D196" s="36" t="s">
-        <v>2558</v>
+        <v>2544</v>
       </c>
       <c r="E196" s="30"/>
       <c r="F196" s="37"/>
       <c r="H196" s="36" t="s">
-        <v>2558</v>
+        <v>2544</v>
       </c>
       <c r="I196" s="30"/>
       <c r="J196" s="37"/>
@@ -19435,12 +19495,12 @@
     <row r="197" spans="2:10">
       <c r="D197" s="36"/>
       <c r="E197" s="30" t="s">
-        <v>2559</v>
+        <v>2545</v>
       </c>
       <c r="F197" s="37"/>
       <c r="H197" s="36"/>
       <c r="I197" s="30" t="s">
-        <v>2560</v>
+        <v>2546</v>
       </c>
       <c r="J197" s="37"/>
     </row>
@@ -19458,12 +19518,12 @@
     </row>
     <row r="199" spans="2:10" ht="15.75" thickBot="1">
       <c r="B199" t="s">
-        <v>2554</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="200" spans="2:10">
       <c r="B200" t="s">
-        <v>2555</v>
+        <v>2541</v>
       </c>
       <c r="F200" s="33" t="s">
         <v>748</v>
@@ -19480,17 +19540,17 @@
     </row>
     <row r="202" spans="2:10">
       <c r="F202" s="36" t="s">
-        <v>2563</v>
+        <v>2549</v>
       </c>
       <c r="G202" s="30"/>
       <c r="H202" s="37"/>
     </row>
     <row r="203" spans="2:10">
       <c r="B203" t="s">
-        <v>2553</v>
+        <v>2539</v>
       </c>
       <c r="F203" s="36" t="s">
-        <v>2561</v>
+        <v>2547</v>
       </c>
       <c r="G203" s="30"/>
       <c r="H203" s="37"/>
@@ -19498,20 +19558,20 @@
     <row r="204" spans="2:10" ht="15.75" thickBot="1">
       <c r="F204" s="38"/>
       <c r="G204" s="39" t="s">
-        <v>2562</v>
+        <v>2548</v>
       </c>
       <c r="H204" s="40"/>
     </row>
     <row r="213" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="214" spans="4:10">
       <c r="D214" s="33" t="s">
-        <v>2564</v>
+        <v>2550</v>
       </c>
       <c r="E214" s="34"/>
       <c r="F214" s="34"/>
       <c r="G214" s="35"/>
       <c r="I214" t="s">
-        <v>2566</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="215" spans="4:10" ht="15.75" thickBot="1">
@@ -19520,18 +19580,18 @@
       <c r="F215" s="30"/>
       <c r="G215" s="37"/>
       <c r="J215" t="s">
-        <v>2569</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="216" spans="4:10">
       <c r="D216" s="36"/>
       <c r="E216" s="33" t="s">
-        <v>2564</v>
+        <v>2550</v>
       </c>
       <c r="F216" s="35"/>
       <c r="G216" s="37"/>
       <c r="J216" t="s">
-        <v>2570</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="217" spans="4:10">
@@ -19540,7 +19600,7 @@
       <c r="F217" s="37"/>
       <c r="G217" s="37"/>
       <c r="J217" t="s">
-        <v>2567</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="218" spans="4:10">
@@ -19557,7 +19617,7 @@
         <v>24</v>
       </c>
       <c r="J218" t="s">
-        <v>2568</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="219" spans="4:10">
@@ -19580,7 +19640,7 @@
         <v>105</v>
       </c>
       <c r="I220" t="s">
-        <v>2571</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="221" spans="4:10">
@@ -19591,15 +19651,15 @@
     </row>
     <row r="222" spans="4:10">
       <c r="D222" s="36" t="s">
-        <v>2565</v>
+        <v>2551</v>
       </c>
       <c r="E222" s="36" t="s">
-        <v>2565</v>
+        <v>2551</v>
       </c>
       <c r="F222" s="37"/>
       <c r="G222" s="37"/>
       <c r="J222" t="s">
-        <v>2572</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="223" spans="4:10" ht="15.75" thickBot="1">
@@ -19614,7 +19674,7 @@
       <c r="F224" s="30"/>
       <c r="G224" s="37"/>
       <c r="I224" t="s">
-        <v>2573</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="225" spans="4:11" ht="15.75" thickBot="1">
@@ -19623,23 +19683,23 @@
       <c r="F225" s="39"/>
       <c r="G225" s="40"/>
       <c r="I225" t="s">
-        <v>2574</v>
+        <v>2560</v>
       </c>
       <c r="K225" t="s">
-        <v>2576</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="226" spans="4:11">
       <c r="I226" t="s">
-        <v>2575</v>
+        <v>2561</v>
       </c>
       <c r="K226" t="s">
-        <v>2577</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="227" spans="4:11">
       <c r="J227" s="59" t="s">
-        <v>2578</v>
+        <v>2564</v>
       </c>
     </row>
   </sheetData>
@@ -21006,13 +21066,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="249" t="s">
+      <c r="H3" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="251"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="241"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="P4" t="s">
@@ -21049,20 +21109,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="252" t="s">
+      <c r="G6" s="242" t="s">
         <v>1681</v>
       </c>
-      <c r="H6" s="253"/>
+      <c r="H6" s="243"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="252" t="s">
+      <c r="J6" s="242" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="253"/>
+      <c r="K6" s="243"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="252" t="s">
+      <c r="M6" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="253"/>
+      <c r="N6" s="243"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="128" t="s">
@@ -21086,20 +21146,20 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
       <c r="F8" s="4"/>
-      <c r="G8" s="252" t="s">
+      <c r="G8" s="242" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="253"/>
+      <c r="H8" s="243"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="252" t="s">
+      <c r="J8" s="242" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="253"/>
+      <c r="K8" s="243"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="252" t="s">
+      <c r="M8" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="253"/>
+      <c r="N8" s="243"/>
       <c r="P8" t="s">
         <v>1687</v>
       </c>
@@ -21575,25 +21635,25 @@
       <c r="E32" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="196"/>
-      <c r="H32" s="196"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="196"/>
-      <c r="K32" s="196"/>
-      <c r="L32" s="196">
+      <c r="G32" s="195"/>
+      <c r="H32" s="195"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="195"/>
+      <c r="K32" s="195"/>
+      <c r="L32" s="195">
         <v>1</v>
       </c>
-      <c r="M32" s="196">
+      <c r="M32" s="195">
         <v>1</v>
       </c>
-      <c r="N32" s="196">
+      <c r="N32" s="195">
         <v>0</v>
       </c>
       <c r="O32" s="114"/>
-      <c r="P32" s="196" t="s">
+      <c r="P32" s="195" t="s">
         <v>1936</v>
       </c>
-      <c r="Q32" s="196">
+      <c r="Q32" s="195">
         <v>6</v>
       </c>
     </row>
@@ -21604,48 +21664,48 @@
       <c r="E33" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="196"/>
-      <c r="H33" s="196"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="196"/>
-      <c r="L33" s="197">
+      <c r="G33" s="195"/>
+      <c r="H33" s="195"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="195"/>
+      <c r="K33" s="195"/>
+      <c r="L33" s="196">
         <v>1</v>
       </c>
-      <c r="M33" s="197">
+      <c r="M33" s="196">
         <v>1</v>
       </c>
-      <c r="N33" s="197">
+      <c r="N33" s="196">
         <v>1</v>
       </c>
       <c r="O33" s="114"/>
       <c r="P33" s="114" t="s">
         <v>1937</v>
       </c>
-      <c r="Q33" s="197">
+      <c r="Q33" s="196">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:17 16384:16384">
-      <c r="G34" s="196"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="196"/>
-      <c r="K34" s="196"/>
-      <c r="L34" s="197">
+      <c r="G34" s="195"/>
+      <c r="H34" s="195"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="195"/>
+      <c r="K34" s="195"/>
+      <c r="L34" s="196">
         <v>0</v>
       </c>
-      <c r="M34" s="197">
+      <c r="M34" s="196">
         <v>0</v>
       </c>
-      <c r="N34" s="197">
+      <c r="N34" s="196">
         <v>1</v>
       </c>
       <c r="O34" s="114"/>
       <c r="P34" s="114" t="s">
         <v>2187</v>
       </c>
-      <c r="Q34" s="197">
+      <c r="Q34" s="196">
         <v>1</v>
       </c>
     </row>
@@ -21998,7 +22058,7 @@
     </row>
     <row r="86" spans="2:17">
       <c r="E86" t="s">
-        <v>2398</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="87" spans="2:17">
@@ -22057,7 +22117,7 @@
       <c r="B89" t="s">
         <v>195</v>
       </c>
-      <c r="E89" s="226"/>
+      <c r="E89" s="216"/>
       <c r="F89" s="137">
         <v>0</v>
       </c>
@@ -22079,12 +22139,12 @@
       <c r="L89" s="137">
         <v>0</v>
       </c>
-      <c r="M89" s="227">
+      <c r="M89" s="217">
         <v>10</v>
       </c>
     </row>
     <row r="90" spans="2:17">
-      <c r="E90" s="226"/>
+      <c r="E90" s="216"/>
       <c r="F90" s="137">
         <v>0</v>
       </c>
@@ -22128,7 +22188,7 @@
         <v>1</v>
       </c>
       <c r="M91" t="s">
-        <v>2521</v>
+        <v>2507</v>
       </c>
       <c r="N91" s="60">
         <v>9</v>
@@ -22158,7 +22218,7 @@
     </row>
     <row r="94" spans="2:17">
       <c r="E94" t="s">
-        <v>2399</v>
+        <v>2385</v>
       </c>
       <c r="O94">
         <v>1</v>
@@ -22183,10 +22243,10 @@
     </row>
     <row r="97" spans="8:10">
       <c r="H97" t="s">
-        <v>2400</v>
+        <v>2386</v>
       </c>
       <c r="I97" t="s">
-        <v>2401</v>
+        <v>2387</v>
       </c>
       <c r="J97">
         <v>128</v>
@@ -22194,7 +22254,7 @@
     </row>
     <row r="98" spans="8:10">
       <c r="H98" t="s">
-        <v>2402</v>
+        <v>2388</v>
       </c>
     </row>
   </sheetData>
@@ -24300,7 +24360,7 @@
       <c r="M177" s="54"/>
       <c r="N177" s="53"/>
       <c r="O177" s="55"/>
-      <c r="P177" s="195" t="s">
+      <c r="P177" s="194" t="s">
         <v>2217</v>
       </c>
       <c r="Q177" s="55"/>
@@ -24451,7 +24511,7 @@
     <row r="192" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="193" spans="1:17">
       <c r="A193" s="99" t="s">
-        <v>2580</v>
+        <v>2566</v>
       </c>
       <c r="B193" s="99"/>
       <c r="C193" s="99"/>
@@ -24468,13 +24528,13 @@
       <c r="Q193" s="52"/>
     </row>
     <row r="194" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A194" s="248" t="s">
-        <v>2589</v>
-      </c>
-      <c r="B194" s="248" t="s">
-        <v>2581</v>
-      </c>
-      <c r="C194" s="248"/>
+      <c r="A194" s="238" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B194" s="238" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C194" s="238"/>
       <c r="D194" s="62"/>
       <c r="E194" s="62"/>
       <c r="G194" s="53"/>
@@ -24494,7 +24554,7 @@
         <v>1554</v>
       </c>
       <c r="B195" s="99" t="s">
-        <v>2582</v>
+        <v>2568</v>
       </c>
       <c r="C195" s="99"/>
       <c r="G195" s="53"/>
@@ -24517,7 +24577,7 @@
         <v>430</v>
       </c>
       <c r="P195" s="77"/>
-      <c r="Q195" s="247"/>
+      <c r="Q195" s="237"/>
     </row>
     <row r="196" spans="1:17">
       <c r="A196" s="99" t="s">
@@ -24539,18 +24599,18 @@
       <c r="L196" s="54"/>
       <c r="M196" s="54"/>
       <c r="N196" s="53" t="s">
-        <v>2579</v>
+        <v>2565</v>
       </c>
       <c r="O196" s="55" t="s">
-        <v>2590</v>
+        <v>2576</v>
       </c>
       <c r="P196" s="77"/>
-      <c r="Q196" s="247"/>
+      <c r="Q196" s="237"/>
     </row>
     <row r="197" spans="1:17" ht="15.75" thickBot="1">
       <c r="A197" s="99"/>
       <c r="B197" s="99" t="s">
-        <v>2583</v>
+        <v>2569</v>
       </c>
       <c r="C197" s="99"/>
       <c r="G197" s="53"/>
@@ -24571,13 +24631,13 @@
         <v>1234</v>
       </c>
       <c r="P197" s="77"/>
-      <c r="Q197" s="247"/>
+      <c r="Q197" s="237"/>
     </row>
     <row r="198" spans="1:17" ht="15.75" thickBot="1">
       <c r="A198" s="99"/>
       <c r="B198" s="99"/>
       <c r="C198" s="99" t="s">
-        <v>2584</v>
+        <v>2570</v>
       </c>
       <c r="G198" s="53"/>
       <c r="H198" s="54"/>
@@ -24589,13 +24649,13 @@
       <c r="N198" s="54"/>
       <c r="O198" s="54"/>
       <c r="P198" s="77"/>
-      <c r="Q198" s="247"/>
+      <c r="Q198" s="237"/>
     </row>
     <row r="199" spans="1:17">
       <c r="A199" s="99"/>
       <c r="B199" s="99"/>
       <c r="C199" s="99" t="s">
-        <v>2585</v>
+        <v>2571</v>
       </c>
       <c r="G199" s="53"/>
       <c r="H199" s="54"/>
@@ -24613,7 +24673,7 @@
         <v>542</v>
       </c>
       <c r="P199" s="77"/>
-      <c r="Q199" s="247"/>
+      <c r="Q199" s="237"/>
     </row>
     <row r="200" spans="1:17">
       <c r="A200" s="99"/>
@@ -24629,13 +24689,13 @@
       <c r="L200" s="54"/>
       <c r="M200" s="54"/>
       <c r="N200" s="53" t="s">
-        <v>2579</v>
+        <v>2565</v>
       </c>
       <c r="O200" s="55" t="s">
-        <v>2590</v>
+        <v>2576</v>
       </c>
       <c r="P200" s="121"/>
-      <c r="Q200" s="247"/>
+      <c r="Q200" s="237"/>
     </row>
     <row r="201" spans="1:17" ht="15.75" thickBot="1">
       <c r="A201" s="99" t="s">
@@ -24657,11 +24717,11 @@
         <v>2345</v>
       </c>
       <c r="P201" s="77"/>
-      <c r="Q201" s="247"/>
+      <c r="Q201" s="237"/>
     </row>
     <row r="202" spans="1:17" ht="15.75" thickBot="1">
       <c r="A202" s="99" t="s">
-        <v>2586</v>
+        <v>2572</v>
       </c>
       <c r="G202" s="53"/>
       <c r="H202" s="54"/>
@@ -24673,11 +24733,11 @@
       <c r="N202" s="54"/>
       <c r="O202" s="54"/>
       <c r="P202" s="77"/>
-      <c r="Q202" s="247"/>
+      <c r="Q202" s="237"/>
     </row>
     <row r="203" spans="1:17">
       <c r="A203" s="99" t="s">
-        <v>2587</v>
+        <v>2573</v>
       </c>
       <c r="G203" s="53"/>
       <c r="H203" s="54"/>
@@ -24695,11 +24755,11 @@
         <v>577</v>
       </c>
       <c r="P203" s="77"/>
-      <c r="Q203" s="247"/>
+      <c r="Q203" s="237"/>
     </row>
     <row r="204" spans="1:17">
       <c r="A204" s="99" t="s">
-        <v>2588</v>
+        <v>2574</v>
       </c>
       <c r="G204" s="53"/>
       <c r="H204" s="54"/>
@@ -24709,13 +24769,13 @@
       <c r="L204" s="54"/>
       <c r="M204" s="54"/>
       <c r="N204" s="53" t="s">
-        <v>2579</v>
+        <v>2565</v>
       </c>
       <c r="O204" s="55" t="s">
-        <v>2590</v>
+        <v>2576</v>
       </c>
       <c r="P204" s="77"/>
-      <c r="Q204" s="247"/>
+      <c r="Q204" s="237"/>
     </row>
     <row r="205" spans="1:17" ht="15.75" thickBot="1">
       <c r="G205" s="53"/>
@@ -24732,7 +24792,7 @@
         <v>6789</v>
       </c>
       <c r="P205" s="77"/>
-      <c r="Q205" s="247"/>
+      <c r="Q205" s="237"/>
     </row>
     <row r="206" spans="1:17">
       <c r="G206" s="53"/>
@@ -24802,7 +24862,7 @@
     <row r="213" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="214" spans="1:17">
       <c r="A214" s="99" t="s">
-        <v>2580</v>
+        <v>2566</v>
       </c>
       <c r="B214" s="99"/>
       <c r="C214" s="99"/>
@@ -24819,13 +24879,13 @@
       <c r="Q214" s="52"/>
     </row>
     <row r="215" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A215" s="248" t="s">
-        <v>2589</v>
-      </c>
-      <c r="B215" s="248" t="s">
-        <v>2591</v>
-      </c>
-      <c r="C215" s="248"/>
+      <c r="A215" s="238" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B215" s="238" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C215" s="238"/>
       <c r="D215" s="62"/>
       <c r="E215" s="62"/>
       <c r="G215" s="53"/>
@@ -24836,7 +24896,7 @@
       <c r="L215" s="54"/>
       <c r="M215" s="54"/>
       <c r="N215" s="54" t="s">
-        <v>2594</v>
+        <v>2580</v>
       </c>
       <c r="O215" s="54"/>
       <c r="P215" s="54"/>
@@ -24847,7 +24907,7 @@
         <v>1554</v>
       </c>
       <c r="B216" s="99" t="s">
-        <v>2582</v>
+        <v>2568</v>
       </c>
       <c r="C216" s="99"/>
       <c r="G216" s="53"/>
@@ -24870,7 +24930,7 @@
         <v>430</v>
       </c>
       <c r="P216" s="107"/>
-      <c r="Q216" s="247"/>
+      <c r="Q216" s="237"/>
     </row>
     <row r="217" spans="1:17">
       <c r="A217" s="99" t="s">
@@ -24894,12 +24954,12 @@
       <c r="N217" s="53"/>
       <c r="O217" s="55"/>
       <c r="P217" s="107"/>
-      <c r="Q217" s="247"/>
+      <c r="Q217" s="237"/>
     </row>
     <row r="218" spans="1:17" ht="15.75" thickBot="1">
       <c r="A218" s="99"/>
       <c r="B218" s="99" t="s">
-        <v>2583</v>
+        <v>2569</v>
       </c>
       <c r="C218" s="99"/>
       <c r="G218" s="53"/>
@@ -24920,13 +24980,13 @@
         <v>1234</v>
       </c>
       <c r="P218" s="107"/>
-      <c r="Q218" s="247"/>
+      <c r="Q218" s="237"/>
     </row>
     <row r="219" spans="1:17" ht="15.75" thickBot="1">
       <c r="A219" s="99"/>
       <c r="B219" s="99"/>
       <c r="C219" s="99" t="s">
-        <v>2584</v>
+        <v>2570</v>
       </c>
       <c r="G219" s="53"/>
       <c r="H219" s="54"/>
@@ -24938,13 +24998,13 @@
       <c r="N219" s="54"/>
       <c r="O219" s="54"/>
       <c r="P219" s="107"/>
-      <c r="Q219" s="247"/>
+      <c r="Q219" s="237"/>
     </row>
     <row r="220" spans="1:17">
       <c r="A220" s="99"/>
       <c r="B220" s="99"/>
       <c r="C220" s="99" t="s">
-        <v>2585</v>
+        <v>2571</v>
       </c>
       <c r="G220" s="53"/>
       <c r="H220" s="54"/>
@@ -24961,10 +25021,10 @@
       <c r="O220" s="52" t="s">
         <v>542</v>
       </c>
-      <c r="P220" s="195" t="s">
-        <v>2593</v>
-      </c>
-      <c r="Q220" s="247"/>
+      <c r="P220" s="194" t="s">
+        <v>2579</v>
+      </c>
+      <c r="Q220" s="237"/>
     </row>
     <row r="221" spans="1:17">
       <c r="A221" s="99"/>
@@ -24981,10 +25041,10 @@
       <c r="M221" s="54"/>
       <c r="N221" s="53"/>
       <c r="O221" s="55"/>
-      <c r="P221" s="195" t="s">
-        <v>2592</v>
-      </c>
-      <c r="Q221" s="247"/>
+      <c r="P221" s="194" t="s">
+        <v>2578</v>
+      </c>
+      <c r="Q221" s="237"/>
     </row>
     <row r="222" spans="1:17" ht="15.75" thickBot="1">
       <c r="A222" s="99" t="s">
@@ -25006,11 +25066,11 @@
         <v>2345</v>
       </c>
       <c r="P222" s="107"/>
-      <c r="Q222" s="247"/>
+      <c r="Q222" s="237"/>
     </row>
     <row r="223" spans="1:17" ht="15.75" thickBot="1">
       <c r="A223" s="99" t="s">
-        <v>2586</v>
+        <v>2572</v>
       </c>
       <c r="G223" s="53"/>
       <c r="H223" s="54"/>
@@ -25022,11 +25082,11 @@
       <c r="N223" s="54"/>
       <c r="O223" s="54"/>
       <c r="P223" s="107"/>
-      <c r="Q223" s="247"/>
+      <c r="Q223" s="237"/>
     </row>
     <row r="224" spans="1:17">
       <c r="A224" s="99" t="s">
-        <v>2587</v>
+        <v>2573</v>
       </c>
       <c r="G224" s="53"/>
       <c r="H224" s="54"/>
@@ -25044,11 +25104,11 @@
         <v>577</v>
       </c>
       <c r="P224" s="107"/>
-      <c r="Q224" s="247"/>
+      <c r="Q224" s="237"/>
     </row>
     <row r="225" spans="1:17">
       <c r="A225" s="99" t="s">
-        <v>2588</v>
+        <v>2574</v>
       </c>
       <c r="G225" s="53"/>
       <c r="H225" s="54"/>
@@ -25060,11 +25120,11 @@
       <c r="N225" s="53"/>
       <c r="O225" s="55"/>
       <c r="P225" s="107"/>
-      <c r="Q225" s="247"/>
+      <c r="Q225" s="237"/>
     </row>
     <row r="226" spans="1:17" ht="15.75" thickBot="1">
       <c r="A226" s="60" t="s">
-        <v>2596</v>
+        <v>2582</v>
       </c>
       <c r="G226" s="53"/>
       <c r="H226" s="54"/>
@@ -25080,11 +25140,11 @@
         <v>6789</v>
       </c>
       <c r="P226" s="107"/>
-      <c r="Q226" s="247"/>
+      <c r="Q226" s="237"/>
     </row>
     <row r="227" spans="1:17">
       <c r="A227" s="99" t="s">
-        <v>2595</v>
+        <v>2581</v>
       </c>
       <c r="G227" s="53"/>
       <c r="H227" s="54"/>
@@ -27158,10 +27218,10 @@
       </c>
     </row>
     <row r="190" spans="1:13">
-      <c r="H190" s="200" t="s">
+      <c r="H190" s="199" t="s">
         <v>2239</v>
       </c>
-      <c r="I190" s="200"/>
+      <c r="I190" s="199"/>
     </row>
     <row r="191" spans="1:13">
       <c r="H191" t="s">
@@ -27277,7 +27337,7 @@
     <row r="205" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="206" spans="1:14" ht="15.75" thickBot="1">
       <c r="A206" t="s">
-        <v>2597</v>
+        <v>2583</v>
       </c>
       <c r="E206" s="33"/>
       <c r="F206" s="34"/>
@@ -27297,7 +27357,7 @@
       <c r="E207" s="36" t="s">
         <v>1863</v>
       </c>
-      <c r="F207" s="246">
+      <c r="F207" s="236">
         <v>0</v>
       </c>
       <c r="G207" s="30" t="s">
@@ -27318,7 +27378,7 @@
         <v>478</v>
       </c>
       <c r="E208" s="36"/>
-      <c r="F208" s="246">
+      <c r="F208" s="236">
         <v>1</v>
       </c>
       <c r="G208" s="30" t="s">
@@ -27339,7 +27399,7 @@
         <v>1623</v>
       </c>
       <c r="E209" s="36"/>
-      <c r="F209" s="246">
+      <c r="F209" s="236">
         <v>2</v>
       </c>
       <c r="G209" s="30" t="s">
@@ -27406,7 +27466,7 @@
     </row>
     <row r="213" spans="1:14">
       <c r="A213" t="s">
-        <v>2598</v>
+        <v>2584</v>
       </c>
       <c r="E213" s="36"/>
       <c r="F213" s="30"/>
@@ -27423,7 +27483,7 @@
     </row>
     <row r="214" spans="1:14" ht="15.75" thickBot="1">
       <c r="A214" t="s">
-        <v>2602</v>
+        <v>2588</v>
       </c>
       <c r="E214" s="36"/>
       <c r="F214" s="30"/>
@@ -27440,7 +27500,7 @@
     </row>
     <row r="215" spans="1:14">
       <c r="A215" t="s">
-        <v>2603</v>
+        <v>2589</v>
       </c>
       <c r="E215" s="36"/>
       <c r="F215" s="30"/>
@@ -27467,7 +27527,7 @@
     </row>
     <row r="217" spans="1:14" ht="15.75" thickBot="1">
       <c r="A217" t="s">
-        <v>2599</v>
+        <v>2585</v>
       </c>
       <c r="C217" t="s">
         <v>277</v>
@@ -27485,39 +27545,39 @@
     </row>
     <row r="218" spans="1:14">
       <c r="A218" t="s">
-        <v>2601</v>
+        <v>2587</v>
       </c>
       <c r="C218" t="s">
-        <v>2600</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="219" spans="1:14">
       <c r="E219" t="s">
-        <v>2604</v>
+        <v>2590</v>
       </c>
       <c r="F219" t="s">
-        <v>2607</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="220" spans="1:14">
       <c r="E220" t="s">
-        <v>2605</v>
+        <v>2591</v>
       </c>
       <c r="F220" t="s">
-        <v>2608</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="221" spans="1:14">
       <c r="E221" t="s">
-        <v>2606</v>
+        <v>2592</v>
       </c>
       <c r="F221" t="s">
-        <v>2609</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="32" t="s">
-        <v>2610</v>
+        <v>2596</v>
       </c>
       <c r="B223" s="32"/>
       <c r="C223" s="32"/>
@@ -27525,26 +27585,26 @@
     </row>
     <row r="224" spans="1:14">
       <c r="A224" t="s">
-        <v>2612</v>
+        <v>2598</v>
       </c>
       <c r="C224" t="s">
-        <v>2620</v>
+        <v>2606</v>
       </c>
       <c r="F224" t="s">
-        <v>2629</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="B225" t="s">
-        <v>2613</v>
+        <v>2599</v>
       </c>
       <c r="D225" t="s">
-        <v>2621</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="C226" t="s">
-        <v>2614</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -27566,16 +27626,16 @@
     </row>
     <row r="229" spans="1:7">
       <c r="D229" t="s">
-        <v>2611</v>
+        <v>2597</v>
       </c>
       <c r="E229" s="60">
         <v>0</v>
       </c>
       <c r="F229" s="137" t="s">
-        <v>2619</v>
+        <v>2605</v>
       </c>
       <c r="G229" s="137" t="s">
-        <v>2624</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -27583,30 +27643,30 @@
         <v>1074</v>
       </c>
       <c r="B230" t="s">
-        <v>2617</v>
+        <v>2603</v>
       </c>
       <c r="E230" s="60">
         <v>1</v>
       </c>
       <c r="F230" s="137" t="s">
-        <v>2627</v>
+        <v>2613</v>
       </c>
       <c r="G230" s="137" t="s">
-        <v>2628</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>2618</v>
+        <v>2604</v>
       </c>
       <c r="E231" s="60">
         <v>2</v>
       </c>
       <c r="F231" s="137" t="s">
-        <v>2615</v>
+        <v>2601</v>
       </c>
       <c r="G231" s="137" t="s">
-        <v>2616</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -27614,13 +27674,13 @@
         <v>1074</v>
       </c>
       <c r="B232" t="s">
-        <v>2622</v>
+        <v>2608</v>
       </c>
       <c r="G232" s="77"/>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>2623</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -27628,18 +27688,18 @@
         <v>702</v>
       </c>
       <c r="B234" t="s">
-        <v>2617</v>
+        <v>2603</v>
       </c>
       <c r="E234" t="s">
         <v>702</v>
       </c>
       <c r="F234" s="107" t="s">
-        <v>2617</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>2625</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -27647,46 +27707,46 @@
         <v>702</v>
       </c>
       <c r="B236" t="s">
-        <v>2622</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>2626</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="241" spans="2:10">
       <c r="B241" t="s">
-        <v>2630</v>
+        <v>2616</v>
       </c>
       <c r="F241" s="60" t="s">
-        <v>2633</v>
+        <v>2619</v>
       </c>
       <c r="G241" s="60"/>
       <c r="I241" t="s">
-        <v>2634</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="242" spans="2:10">
       <c r="B242" t="s">
-        <v>2631</v>
+        <v>2617</v>
       </c>
       <c r="F242" s="60">
         <v>0</v>
       </c>
-      <c r="G242" s="246">
+      <c r="G242" s="236">
         <v>12</v>
       </c>
       <c r="I242" s="60">
         <v>0</v>
       </c>
-      <c r="J242" s="246">
+      <c r="J242" s="236">
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="2:10">
       <c r="B243" t="s">
-        <v>2632</v>
+        <v>2618</v>
       </c>
       <c r="F243" s="60">
         <v>1</v>
@@ -27697,7 +27757,7 @@
       <c r="I243" s="60">
         <v>1</v>
       </c>
-      <c r="J243" s="246">
+      <c r="J243" s="236">
         <v>0</v>
       </c>
     </row>
@@ -27705,7 +27765,7 @@
       <c r="F244" s="60">
         <v>2</v>
       </c>
-      <c r="G244" s="246">
+      <c r="G244" s="236">
         <v>78</v>
       </c>
       <c r="I244" s="60">
@@ -27719,13 +27779,13 @@
       <c r="F245" s="60">
         <v>3</v>
       </c>
-      <c r="G245" s="246">
+      <c r="G245" s="236">
         <v>99</v>
       </c>
       <c r="I245" s="60">
         <v>3</v>
       </c>
-      <c r="J245" s="246">
+      <c r="J245" s="236">
         <v>78</v>
       </c>
     </row>
@@ -27733,24 +27793,24 @@
       <c r="F246" s="60">
         <v>4</v>
       </c>
-      <c r="G246" s="246">
+      <c r="G246" s="236">
         <v>125</v>
       </c>
       <c r="I246" s="60">
         <v>4</v>
       </c>
-      <c r="J246" s="246">
+      <c r="J246" s="236">
         <v>99</v>
       </c>
     </row>
     <row r="248" spans="2:10">
       <c r="D248" t="s">
-        <v>2635</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="249" spans="2:10">
       <c r="E249" t="s">
-        <v>2636</v>
+        <v>2622</v>
       </c>
     </row>
   </sheetData>
@@ -27761,10 +27821,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O272"/>
+  <dimension ref="A1:O276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C258" sqref="C258:D259"/>
+    <sheetView topLeftCell="A252" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29718,7 +29778,7 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" t="s">
-        <v>2655</v>
+        <v>2641</v>
       </c>
       <c r="F212" s="36" t="s">
         <v>222</v>
@@ -29734,7 +29794,7 @@
       </c>
       <c r="L212" s="34"/>
       <c r="M212" s="34" t="s">
-        <v>2654</v>
+        <v>2640</v>
       </c>
       <c r="N212" s="35"/>
       <c r="O212" s="37"/>
@@ -29776,7 +29836,7 @@
       <c r="J214" s="30"/>
       <c r="K214" s="36"/>
       <c r="L214" s="30" t="s">
-        <v>2659</v>
+        <v>2645</v>
       </c>
       <c r="M214" s="30"/>
       <c r="N214" s="37"/>
@@ -29891,7 +29951,7 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" t="s">
-        <v>2656</v>
+        <v>2642</v>
       </c>
       <c r="D221" t="b">
         <v>1</v>
@@ -29909,7 +29969,7 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" t="s">
-        <v>2652</v>
+        <v>2638</v>
       </c>
       <c r="D222" t="b">
         <v>1</v>
@@ -29931,7 +29991,7 @@
     </row>
     <row r="223" spans="1:15">
       <c r="A223" t="s">
-        <v>2653</v>
+        <v>2639</v>
       </c>
       <c r="D223" t="b">
         <v>0</v>
@@ -29985,18 +30045,18 @@
     </row>
     <row r="228" spans="1:15">
       <c r="D228" t="s">
-        <v>2657</v>
+        <v>2643</v>
       </c>
       <c r="G228" t="s">
-        <v>2658</v>
+        <v>2644</v>
       </c>
       <c r="I228" t="s">
-        <v>2660</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="229" spans="1:15">
       <c r="I229" t="s">
-        <v>2661</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="231" spans="1:15" ht="15.75" thickBot="1"/>
@@ -30028,10 +30088,10 @@
     </row>
     <row r="234" spans="1:15">
       <c r="A234" t="s">
-        <v>2662</v>
+        <v>2648</v>
       </c>
       <c r="F234" s="36" t="s">
-        <v>2669</v>
+        <v>2655</v>
       </c>
       <c r="G234" s="30"/>
       <c r="H234" s="30" t="s">
@@ -30047,11 +30107,11 @@
     </row>
     <row r="235" spans="1:15">
       <c r="A235" t="s">
-        <v>2663</v>
+        <v>2649</v>
       </c>
       <c r="D235" s="13"/>
       <c r="F235" s="36" t="s">
-        <v>2670</v>
+        <v>2656</v>
       </c>
       <c r="G235" s="30"/>
       <c r="H235" s="30" t="s">
@@ -30067,11 +30127,11 @@
     </row>
     <row r="236" spans="1:15">
       <c r="A236" t="s">
-        <v>2664</v>
+        <v>2650</v>
       </c>
       <c r="D236" s="13"/>
       <c r="F236" s="36" t="s">
-        <v>2671</v>
+        <v>2657</v>
       </c>
       <c r="G236" s="30"/>
       <c r="H236" s="30" t="s">
@@ -30091,11 +30151,11 @@
     </row>
     <row r="237" spans="1:15">
       <c r="A237" t="s">
-        <v>2667</v>
+        <v>2653</v>
       </c>
       <c r="D237" s="13"/>
       <c r="F237" s="36" t="s">
-        <v>2672</v>
+        <v>2658</v>
       </c>
       <c r="G237" s="54"/>
       <c r="H237" s="30" t="s">
@@ -30111,10 +30171,10 @@
     </row>
     <row r="238" spans="1:15">
       <c r="A238" t="s">
-        <v>2668</v>
+        <v>2654</v>
       </c>
       <c r="F238" s="36" t="s">
-        <v>2673</v>
+        <v>2659</v>
       </c>
       <c r="G238" s="54"/>
       <c r="H238" s="30" t="s">
@@ -30130,10 +30190,10 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" t="s">
-        <v>2665</v>
+        <v>2651</v>
       </c>
       <c r="F239" s="36" t="s">
-        <v>2674</v>
+        <v>2660</v>
       </c>
       <c r="G239" s="30"/>
       <c r="H239" s="30" t="s">
@@ -30149,10 +30209,10 @@
     </row>
     <row r="240" spans="1:15">
       <c r="A240" t="s">
-        <v>2666</v>
+        <v>2652</v>
       </c>
       <c r="F240" s="36" t="s">
-        <v>2675</v>
+        <v>2661</v>
       </c>
       <c r="G240" s="30"/>
       <c r="H240" s="30" t="s">
@@ -30165,7 +30225,7 @@
         <v>2020</v>
       </c>
       <c r="M240" s="30" t="s">
-        <v>2678</v>
+        <v>2664</v>
       </c>
       <c r="N240" s="37"/>
       <c r="O240" s="37"/>
@@ -30184,7 +30244,7 @@
     </row>
     <row r="242" spans="1:15">
       <c r="A242" t="s">
-        <v>2677</v>
+        <v>2663</v>
       </c>
       <c r="F242" s="36"/>
       <c r="G242" s="30"/>
@@ -30211,7 +30271,7 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" t="s">
-        <v>2676</v>
+        <v>2662</v>
       </c>
       <c r="F244" s="36"/>
       <c r="G244" s="30"/>
@@ -30262,37 +30322,37 @@
     </row>
     <row r="249" spans="1:15">
       <c r="D249" t="s">
-        <v>2657</v>
+        <v>2643</v>
       </c>
       <c r="G249" t="s">
-        <v>2658</v>
+        <v>2644</v>
       </c>
       <c r="I249" t="s">
-        <v>2660</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="252" spans="1:15">
       <c r="F252" t="s">
-        <v>2679</v>
+        <v>2665</v>
       </c>
       <c r="H252" t="s">
-        <v>2680</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="253" spans="1:15">
       <c r="G253" t="s">
-        <v>2681</v>
+        <v>2667</v>
       </c>
       <c r="I253" t="s">
-        <v>2683</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="254" spans="1:15">
       <c r="G254" t="s">
-        <v>2682</v>
+        <v>2668</v>
       </c>
       <c r="I254" t="s">
-        <v>2684</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="255" spans="1:15" ht="15.75" thickBot="1"/>
@@ -30327,16 +30387,16 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" t="s">
-        <v>2685</v>
+        <v>2671</v>
       </c>
       <c r="C258" t="s">
-        <v>2688</v>
+        <v>2674</v>
       </c>
       <c r="F258" s="36" t="s">
         <v>76</v>
       </c>
       <c r="G258" s="30" t="s">
-        <v>2693</v>
+        <v>2679</v>
       </c>
       <c r="H258" s="30"/>
       <c r="I258" s="30"/>
@@ -30349,10 +30409,10 @@
     </row>
     <row r="259" spans="1:15">
       <c r="A259" t="s">
-        <v>2686</v>
+        <v>2672</v>
       </c>
       <c r="C259" t="s">
-        <v>2694</v>
+        <v>2680</v>
       </c>
       <c r="F259" s="36"/>
       <c r="G259" s="30"/>
@@ -30371,7 +30431,7 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" t="s">
-        <v>2687</v>
+        <v>2673</v>
       </c>
       <c r="F260" s="36"/>
       <c r="G260" s="30"/>
@@ -30392,14 +30452,18 @@
       <c r="C261" t="s">
         <v>2072</v>
       </c>
-      <c r="F261" s="36"/>
-      <c r="G261" s="30"/>
+      <c r="F261" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="G261" s="30" t="s">
+        <v>2106</v>
+      </c>
       <c r="H261" s="30"/>
       <c r="I261" s="30"/>
       <c r="J261" s="36"/>
       <c r="K261" s="30"/>
       <c r="L261" s="30" t="s">
-        <v>2689</v>
+        <v>2675</v>
       </c>
       <c r="M261" t="s">
         <v>2302</v>
@@ -30408,14 +30472,21 @@
       <c r="O261" s="37"/>
     </row>
     <row r="262" spans="1:15">
-      <c r="F262" s="36"/>
-      <c r="G262" s="30"/>
+      <c r="A262" t="s">
+        <v>2696</v>
+      </c>
+      <c r="F262" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="G262" s="30" t="s">
+        <v>2685</v>
+      </c>
       <c r="H262" s="30"/>
       <c r="I262" s="30"/>
       <c r="J262" s="36"/>
       <c r="K262" s="30"/>
       <c r="L262" s="41" t="s">
-        <v>2690</v>
+        <v>2676</v>
       </c>
       <c r="M262" s="30" t="s">
         <v>2303</v>
@@ -30424,14 +30495,21 @@
       <c r="O262" s="37"/>
     </row>
     <row r="263" spans="1:15">
-      <c r="F263" s="36"/>
-      <c r="G263" s="30"/>
+      <c r="A263" t="s">
+        <v>2692</v>
+      </c>
+      <c r="F263" s="36" t="s">
+        <v>729</v>
+      </c>
+      <c r="G263" s="41" t="s">
+        <v>431</v>
+      </c>
       <c r="H263" s="30"/>
       <c r="I263" s="30"/>
       <c r="J263" s="36"/>
       <c r="K263" s="30"/>
       <c r="L263" s="41" t="s">
-        <v>2691</v>
+        <v>2677</v>
       </c>
       <c r="M263" s="41" t="s">
         <v>1172</v>
@@ -30440,14 +30518,21 @@
       <c r="O263" s="37"/>
     </row>
     <row r="264" spans="1:15">
-      <c r="F264" s="36"/>
-      <c r="G264" s="30"/>
+      <c r="A264" t="s">
+        <v>2693</v>
+      </c>
+      <c r="F264" s="36" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G264" s="41" t="s">
+        <v>2687</v>
+      </c>
       <c r="H264" s="30"/>
       <c r="I264" s="30"/>
       <c r="J264" s="36"/>
       <c r="K264" s="30"/>
       <c r="L264" s="41" t="s">
-        <v>2692</v>
+        <v>2678</v>
       </c>
       <c r="M264" s="41" t="s">
         <v>2304</v>
@@ -30456,14 +30541,21 @@
       <c r="O264" s="37"/>
     </row>
     <row r="265" spans="1:15">
-      <c r="F265" s="36"/>
-      <c r="G265" s="30"/>
+      <c r="A265" t="s">
+        <v>2694</v>
+      </c>
+      <c r="F265" s="36" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G265" s="41" t="s">
+        <v>2106</v>
+      </c>
       <c r="H265" s="30"/>
       <c r="I265" s="30"/>
       <c r="J265" s="36"/>
       <c r="K265" s="30"/>
       <c r="L265" s="41" t="s">
-        <v>2693</v>
+        <v>2679</v>
       </c>
       <c r="M265" t="s">
         <v>2305</v>
@@ -30472,39 +30564,53 @@
       <c r="O265" s="37"/>
     </row>
     <row r="266" spans="1:15">
-      <c r="F266" s="36"/>
-      <c r="G266" s="30"/>
+      <c r="F266" s="36" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G266" s="41" t="s">
+        <v>2678</v>
+      </c>
       <c r="H266" s="30"/>
       <c r="I266" s="30"/>
       <c r="J266" s="36"/>
       <c r="K266" s="30"/>
-      <c r="L266" s="30"/>
-      <c r="M266" s="30"/>
+      <c r="L266" s="41" t="s">
+        <v>2678</v>
+      </c>
+      <c r="M266" s="30" t="s">
+        <v>577</v>
+      </c>
       <c r="N266" s="37"/>
       <c r="O266" s="37"/>
     </row>
     <row r="267" spans="1:15">
-      <c r="B267" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F267" s="36"/>
-      <c r="G267" s="30"/>
+      <c r="F267" s="36" t="s">
+        <v>1907</v>
+      </c>
+      <c r="G267" s="41" t="s">
+        <v>2691</v>
+      </c>
       <c r="H267" s="30"/>
       <c r="I267" s="30"/>
       <c r="J267" s="36"/>
       <c r="K267" s="30"/>
-      <c r="L267" s="30"/>
-      <c r="M267" s="30"/>
+      <c r="L267" s="41" t="s">
+        <v>2106</v>
+      </c>
+      <c r="M267" s="41" t="s">
+        <v>2684</v>
+      </c>
       <c r="N267" s="37"/>
       <c r="O267" s="37"/>
     </row>
     <row r="268" spans="1:15">
-      <c r="B268" t="s">
-        <v>2304</v>
-      </c>
       <c r="F268" s="36"/>
-      <c r="G268" s="30"/>
-      <c r="H268" s="30"/>
+      <c r="G268" s="30" t="s">
+        <v>2687</v>
+      </c>
+      <c r="H268" s="30" t="s">
+        <v>2684</v>
+      </c>
       <c r="I268" s="30"/>
       <c r="J268" s="36"/>
       <c r="K268" s="30"/>
@@ -30514,21 +30620,32 @@
       <c r="O268" s="37"/>
     </row>
     <row r="269" spans="1:15" ht="15.75" thickBot="1">
-      <c r="B269" t="s">
-        <v>2305</v>
+      <c r="A269" t="s">
+        <v>2681</v>
       </c>
       <c r="F269" s="36"/>
-      <c r="G269" s="30"/>
-      <c r="H269" s="30"/>
+      <c r="G269" s="30" t="s">
+        <v>2685</v>
+      </c>
+      <c r="H269" s="30" t="s">
+        <v>430</v>
+      </c>
       <c r="I269" s="30"/>
       <c r="J269" s="38"/>
       <c r="K269" s="39"/>
-      <c r="L269" s="39"/>
-      <c r="M269" s="39"/>
+      <c r="L269" s="39" t="s">
+        <v>2691</v>
+      </c>
+      <c r="M269" s="39" t="s">
+        <v>542</v>
+      </c>
       <c r="N269" s="40"/>
       <c r="O269" s="37"/>
     </row>
     <row r="270" spans="1:15">
+      <c r="A270" t="s">
+        <v>2682</v>
+      </c>
       <c r="F270" s="36"/>
       <c r="G270" s="30"/>
       <c r="H270" s="30"/>
@@ -30541,11 +30658,22 @@
       <c r="O270" s="37"/>
     </row>
     <row r="271" spans="1:15">
-      <c r="F271" s="36"/>
-      <c r="G271" s="30"/>
+      <c r="A271" t="s">
+        <v>2683</v>
+      </c>
+      <c r="F271" s="36" t="s">
+        <v>2695</v>
+      </c>
+      <c r="G271" s="41" t="s">
+        <v>2676</v>
+      </c>
       <c r="H271" s="30"/>
-      <c r="I271" s="30"/>
-      <c r="J271" s="30"/>
+      <c r="I271" s="30" t="s">
+        <v>2676</v>
+      </c>
+      <c r="J271" s="41" t="s">
+        <v>2305</v>
+      </c>
       <c r="K271" s="30"/>
       <c r="L271" s="30"/>
       <c r="M271" s="30"/>
@@ -30553,6 +30681,9 @@
       <c r="O271" s="37"/>
     </row>
     <row r="272" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A272" t="s">
+        <v>2686</v>
+      </c>
       <c r="F272" s="38"/>
       <c r="G272" s="39"/>
       <c r="H272" s="39"/>
@@ -30564,6 +30695,27 @@
       <c r="N272" s="39"/>
       <c r="O272" s="40"/>
     </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="B275" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="B276" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C276" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30574,7 +30726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W320"/>
   <sheetViews>
-    <sheetView topLeftCell="B303" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A303" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J311" sqref="J311:K312"/>
     </sheetView>
   </sheetViews>
@@ -32122,55 +32274,55 @@
       <c r="M251" s="40"/>
     </row>
     <row r="253" spans="2:13">
-      <c r="E253" s="201"/>
-      <c r="F253" s="201"/>
-      <c r="G253" s="201"/>
-      <c r="H253" s="201"/>
+      <c r="E253" s="200"/>
+      <c r="F253" s="200"/>
+      <c r="G253" s="200"/>
+      <c r="H253" s="200"/>
     </row>
     <row r="254" spans="2:13">
-      <c r="H254" s="201"/>
+      <c r="H254" s="200"/>
     </row>
     <row r="255" spans="2:13">
-      <c r="H255" s="201"/>
+      <c r="H255" s="200"/>
     </row>
     <row r="256" spans="2:13">
-      <c r="H256" s="201"/>
+      <c r="H256" s="200"/>
     </row>
     <row r="257" spans="2:13">
-      <c r="D257" s="201"/>
-      <c r="E257" s="201"/>
-      <c r="F257" s="201"/>
-      <c r="H257" s="201"/>
+      <c r="D257" s="200"/>
+      <c r="E257" s="200"/>
+      <c r="F257" s="200"/>
+      <c r="H257" s="200"/>
     </row>
     <row r="258" spans="2:13">
-      <c r="D258" s="201"/>
+      <c r="D258" s="200"/>
       <c r="E258" s="32"/>
-      <c r="F258" s="201"/>
-      <c r="G258" s="201"/>
-      <c r="H258" s="201"/>
-      <c r="I258" s="201"/>
-      <c r="J258" s="201"/>
-      <c r="K258" s="201"/>
-      <c r="L258" s="201"/>
+      <c r="F258" s="200"/>
+      <c r="G258" s="200"/>
+      <c r="H258" s="200"/>
+      <c r="I258" s="200"/>
+      <c r="J258" s="200"/>
+      <c r="K258" s="200"/>
+      <c r="L258" s="200"/>
       <c r="M258" s="32"/>
     </row>
     <row r="259" spans="2:13">
-      <c r="D259" s="201"/>
+      <c r="D259" s="200"/>
       <c r="E259" s="32"/>
-      <c r="F259" s="201"/>
-      <c r="G259" s="201"/>
-      <c r="H259" s="201"/>
-      <c r="I259" s="201"/>
-      <c r="J259" s="201"/>
-      <c r="K259" s="201"/>
-      <c r="L259" s="201"/>
+      <c r="F259" s="200"/>
+      <c r="G259" s="200"/>
+      <c r="H259" s="200"/>
+      <c r="I259" s="200"/>
+      <c r="J259" s="200"/>
+      <c r="K259" s="200"/>
+      <c r="L259" s="200"/>
       <c r="M259" s="32"/>
     </row>
     <row r="260" spans="2:13">
       <c r="B260" t="s">
         <v>2273</v>
       </c>
-      <c r="D260" s="201"/>
+      <c r="D260" s="200"/>
       <c r="E260" s="32"/>
       <c r="F260" s="32"/>
       <c r="G260" s="32"/>
@@ -32184,20 +32336,20 @@
       <c r="M260" s="32"/>
     </row>
     <row r="261" spans="2:13">
-      <c r="D261" s="201"/>
+      <c r="D261" s="200"/>
     </row>
     <row r="262" spans="2:13">
-      <c r="D262" s="201"/>
+      <c r="D262" s="200"/>
       <c r="F262" s="32"/>
       <c r="L262" s="32"/>
     </row>
     <row r="263" spans="2:13">
-      <c r="D263" s="201"/>
+      <c r="D263" s="200"/>
       <c r="F263" s="32"/>
       <c r="L263" s="32"/>
     </row>
     <row r="264" spans="2:13">
-      <c r="D264" s="201"/>
+      <c r="D264" s="200"/>
       <c r="F264" s="32"/>
       <c r="G264" s="32"/>
       <c r="H264" s="32"/>
@@ -32209,24 +32361,24 @@
       <c r="L264" s="32"/>
     </row>
     <row r="265" spans="2:13">
-      <c r="D265" s="201"/>
+      <c r="D265" s="200"/>
     </row>
     <row r="266" spans="2:13">
-      <c r="D266" s="201"/>
+      <c r="D266" s="200"/>
       <c r="G266" s="32"/>
       <c r="H266" s="109"/>
       <c r="I266" s="109"/>
       <c r="K266" s="32"/>
     </row>
     <row r="267" spans="2:13">
-      <c r="D267" s="201"/>
+      <c r="D267" s="200"/>
       <c r="G267" s="32"/>
       <c r="H267" s="109"/>
       <c r="I267" s="109"/>
       <c r="K267" s="32"/>
     </row>
     <row r="268" spans="2:13">
-      <c r="D268" s="201"/>
+      <c r="D268" s="200"/>
       <c r="G268" s="32"/>
       <c r="H268" s="32"/>
       <c r="I268" s="32" t="s">
@@ -32236,20 +32388,20 @@
       <c r="K268" s="32"/>
     </row>
     <row r="269" spans="2:13">
-      <c r="D269" s="201"/>
+      <c r="D269" s="200"/>
     </row>
     <row r="270" spans="2:13">
-      <c r="D270" s="201"/>
+      <c r="D270" s="200"/>
       <c r="H270" s="32"/>
       <c r="J270" s="32"/>
     </row>
     <row r="271" spans="2:13">
-      <c r="D271" s="201"/>
+      <c r="D271" s="200"/>
       <c r="H271" s="32"/>
       <c r="J271" s="32"/>
     </row>
     <row r="272" spans="2:13">
-      <c r="D272" s="201"/>
+      <c r="D272" s="200"/>
       <c r="H272" s="32"/>
       <c r="I272" s="32" t="s">
         <v>2274</v>
@@ -32257,39 +32409,39 @@
       <c r="J272" s="32"/>
     </row>
     <row r="273" spans="4:11">
-      <c r="D273" s="201"/>
+      <c r="D273" s="200"/>
     </row>
     <row r="277" spans="4:11">
-      <c r="E277" s="201"/>
-      <c r="F277" s="201"/>
-      <c r="G277" s="201"/>
-      <c r="H277" s="201"/>
+      <c r="E277" s="200"/>
+      <c r="F277" s="200"/>
+      <c r="G277" s="200"/>
+      <c r="H277" s="200"/>
     </row>
     <row r="278" spans="4:11">
-      <c r="H278" s="201"/>
+      <c r="H278" s="200"/>
     </row>
     <row r="279" spans="4:11">
-      <c r="H279" s="201"/>
+      <c r="H279" s="200"/>
     </row>
     <row r="280" spans="4:11">
-      <c r="F280" s="201"/>
-      <c r="G280" s="201"/>
-      <c r="H280" s="201"/>
+      <c r="F280" s="200"/>
+      <c r="G280" s="200"/>
+      <c r="H280" s="200"/>
     </row>
     <row r="281" spans="4:11">
-      <c r="F281" s="201"/>
+      <c r="F281" s="200"/>
       <c r="G281" s="32"/>
-      <c r="H281" s="201"/>
+      <c r="H281" s="200"/>
       <c r="I281" s="32"/>
     </row>
     <row r="282" spans="4:11">
-      <c r="F282" s="201"/>
+      <c r="F282" s="200"/>
       <c r="G282" s="32"/>
-      <c r="H282" s="201"/>
+      <c r="H282" s="200"/>
       <c r="I282" s="32"/>
     </row>
     <row r="283" spans="4:11">
-      <c r="F283" s="201"/>
+      <c r="F283" s="200"/>
       <c r="G283" s="32"/>
       <c r="H283" s="32" t="s">
         <v>2274</v>
@@ -32297,23 +32449,23 @@
       <c r="I283" s="32"/>
     </row>
     <row r="284" spans="4:11">
-      <c r="F284" s="201"/>
+      <c r="F284" s="200"/>
     </row>
     <row r="285" spans="4:11">
       <c r="F285" s="32"/>
-      <c r="G285" s="201"/>
-      <c r="H285" s="201"/>
-      <c r="I285" s="201"/>
+      <c r="G285" s="200"/>
+      <c r="H285" s="200"/>
+      <c r="I285" s="200"/>
       <c r="J285" s="32"/>
-      <c r="K285" s="201"/>
+      <c r="K285" s="200"/>
     </row>
     <row r="286" spans="4:11">
       <c r="F286" s="32"/>
-      <c r="G286" s="201"/>
-      <c r="H286" s="201"/>
-      <c r="I286" s="201"/>
+      <c r="G286" s="200"/>
+      <c r="H286" s="200"/>
+      <c r="I286" s="200"/>
       <c r="J286" s="32"/>
-      <c r="K286" s="201"/>
+      <c r="K286" s="200"/>
     </row>
     <row r="287" spans="4:11">
       <c r="F287" s="32"/>
@@ -32323,27 +32475,27 @@
       </c>
       <c r="I287" s="32"/>
       <c r="J287" s="32"/>
-      <c r="K287" s="201"/>
+      <c r="K287" s="200"/>
     </row>
     <row r="288" spans="4:11">
-      <c r="K288" s="201"/>
+      <c r="K288" s="200"/>
     </row>
     <row r="289" spans="4:12">
       <c r="E289" s="32"/>
-      <c r="F289" s="201"/>
-      <c r="G289" s="201"/>
-      <c r="H289" s="201"/>
-      <c r="I289" s="201"/>
-      <c r="J289" s="201"/>
+      <c r="F289" s="200"/>
+      <c r="G289" s="200"/>
+      <c r="H289" s="200"/>
+      <c r="I289" s="200"/>
+      <c r="J289" s="200"/>
       <c r="K289" s="32"/>
     </row>
     <row r="290" spans="4:12">
       <c r="E290" s="32"/>
-      <c r="F290" s="201"/>
-      <c r="G290" s="201"/>
-      <c r="H290" s="201"/>
-      <c r="I290" s="201"/>
-      <c r="J290" s="201"/>
+      <c r="F290" s="200"/>
+      <c r="G290" s="200"/>
+      <c r="H290" s="200"/>
+      <c r="I290" s="200"/>
+      <c r="J290" s="200"/>
       <c r="K290" s="32"/>
     </row>
     <row r="291" spans="4:12">
@@ -32407,18 +32559,18 @@
     <row r="300" spans="4:12">
       <c r="D300" s="109"/>
       <c r="E300" t="s">
-        <v>2640</v>
+        <v>2626</v>
       </c>
       <c r="G300" t="s">
         <v>1925</v>
       </c>
       <c r="H300" t="s">
-        <v>2638</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="302" spans="4:12">
       <c r="E302" t="s">
-        <v>2641</v>
+        <v>2627</v>
       </c>
       <c r="G302" t="s">
         <v>1157</v>
@@ -32426,7 +32578,7 @@
     </row>
     <row r="304" spans="4:12">
       <c r="E304" t="s">
-        <v>2642</v>
+        <v>2628</v>
       </c>
       <c r="G304" t="s">
         <v>1156</v>
@@ -32434,19 +32586,19 @@
     </row>
     <row r="306" spans="2:13">
       <c r="C306" t="s">
-        <v>2643</v>
+        <v>2629</v>
       </c>
       <c r="E306" t="s">
-        <v>2637</v>
+        <v>2623</v>
       </c>
       <c r="H306" t="s">
-        <v>2639</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="307" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="308" spans="2:13">
       <c r="B308" t="s">
-        <v>2644</v>
+        <v>2630</v>
       </c>
       <c r="G308" s="33"/>
       <c r="H308" s="34"/>
@@ -32458,7 +32610,7 @@
     </row>
     <row r="309" spans="2:13">
       <c r="G309" s="36" t="s">
-        <v>2647</v>
+        <v>2633</v>
       </c>
       <c r="H309" s="30" t="s">
         <v>431</v>
@@ -32480,12 +32632,12 @@
     </row>
     <row r="311" spans="2:13">
       <c r="B311" t="s">
-        <v>2645</v>
+        <v>2631</v>
       </c>
       <c r="G311" s="36"/>
       <c r="H311" s="30"/>
       <c r="I311" s="30" t="s">
-        <v>2649</v>
+        <v>2635</v>
       </c>
       <c r="J311" s="50" t="s">
         <v>420</v>
@@ -32504,7 +32656,7 @@
         <v>1280</v>
       </c>
       <c r="K312" s="54" t="s">
-        <v>2648</v>
+        <v>2634</v>
       </c>
       <c r="L312" s="55"/>
       <c r="M312" s="37"/>
@@ -32527,7 +32679,7 @@
     </row>
     <row r="314" spans="2:13" ht="15.75" thickBot="1">
       <c r="C314" t="s">
-        <v>2646</v>
+        <v>2632</v>
       </c>
       <c r="G314" s="36"/>
       <c r="H314" s="30"/>
@@ -32541,7 +32693,7 @@
       <c r="G315" s="36"/>
       <c r="H315" s="30"/>
       <c r="I315" s="30" t="s">
-        <v>2648</v>
+        <v>2634</v>
       </c>
       <c r="J315" s="50" t="s">
         <v>76</v>
@@ -32554,13 +32706,13 @@
     </row>
     <row r="316" spans="2:13">
       <c r="B316" t="s">
-        <v>2650</v>
+        <v>2636</v>
       </c>
       <c r="G316" s="36"/>
       <c r="H316" s="30"/>
       <c r="I316" s="30"/>
       <c r="J316" s="53" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="K316" s="54">
         <v>0</v>
@@ -32570,7 +32722,7 @@
     </row>
     <row r="317" spans="2:13" ht="15.75" thickBot="1">
       <c r="C317" t="s">
-        <v>2651</v>
+        <v>2637</v>
       </c>
       <c r="G317" s="36"/>
       <c r="H317" s="30"/>
@@ -32623,8 +32775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P224"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32655,7 +32807,7 @@
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="I3" s="203" t="s">
+      <c r="I3" s="202" t="s">
         <v>2317</v>
       </c>
       <c r="J3" s="32"/>
@@ -32689,24 +32841,24 @@
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="I6" s="203" t="s">
+      <c r="I6" s="202" t="s">
         <v>2319</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="202" t="s">
         <v>2320</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="I8" s="204" t="s">
+      <c r="I8" s="203" t="s">
         <v>2321</v>
       </c>
-      <c r="J8" s="204"/>
+      <c r="J8" s="203"/>
       <c r="K8" s="32"/>
     </row>
     <row r="9" spans="2:13">
@@ -32725,24 +32877,24 @@
       <c r="K10" s="32"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="I11" s="203" t="s">
+      <c r="I11" s="202" t="s">
         <v>2322</v>
       </c>
-      <c r="J11" s="203"/>
+      <c r="J11" s="202"/>
       <c r="K11" s="32"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="I12" s="203" t="s">
+      <c r="I12" s="202" t="s">
         <v>2320</v>
       </c>
-      <c r="J12" s="203"/>
+      <c r="J12" s="202"/>
       <c r="K12" s="32"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="I13" s="203" t="s">
+      <c r="I13" s="202" t="s">
         <v>2323</v>
       </c>
-      <c r="J13" s="203"/>
+      <c r="J13" s="202"/>
       <c r="K13" s="32"/>
     </row>
     <row r="14" spans="2:13">
@@ -32754,11 +32906,11 @@
       <c r="G15" t="s">
         <v>1267</v>
       </c>
-      <c r="I15" s="203" t="s">
+      <c r="I15" s="202" t="s">
         <v>2324</v>
       </c>
-      <c r="J15" s="203"/>
-      <c r="K15" s="203"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="202"/>
     </row>
     <row r="17" spans="1:15" s="111" customFormat="1"/>
     <row r="18" spans="1:15">
@@ -32822,7 +32974,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="E22" s="205" t="s">
+      <c r="E22" s="204" t="s">
         <v>1347</v>
       </c>
       <c r="F22" s="107"/>
@@ -32832,7 +32984,7 @@
       <c r="J22" s="107"/>
       <c r="K22" s="42"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="205" t="s">
+      <c r="M22" s="204" t="s">
         <v>1349</v>
       </c>
       <c r="N22" s="30"/>
@@ -33017,7 +33169,7 @@
     <row r="35" spans="1:16">
       <c r="A35" s="99"/>
       <c r="B35" s="116"/>
-      <c r="C35" s="194" t="s">
+      <c r="C35" s="193" t="s">
         <v>1270</v>
       </c>
       <c r="D35" s="118"/>
@@ -33031,7 +33183,7 @@
       <c r="J35" s="99"/>
       <c r="K35" s="99"/>
       <c r="L35" s="116"/>
-      <c r="M35" s="194" t="s">
+      <c r="M35" s="193" t="s">
         <v>1272</v>
       </c>
       <c r="N35" s="118"/>
@@ -33040,21 +33192,21 @@
     <row r="36" spans="1:16">
       <c r="A36" s="99"/>
       <c r="B36" s="119"/>
-      <c r="C36" s="195" t="s">
+      <c r="C36" s="194" t="s">
         <v>1273</v>
       </c>
       <c r="D36" s="115"/>
       <c r="E36" s="99"/>
       <c r="F36" s="99"/>
       <c r="G36" s="119"/>
-      <c r="H36" s="195" t="s">
+      <c r="H36" s="194" t="s">
         <v>219</v>
       </c>
       <c r="I36" s="115"/>
       <c r="J36" s="99"/>
       <c r="K36" s="99"/>
       <c r="L36" s="119"/>
-      <c r="M36" s="195" t="s">
+      <c r="M36" s="194" t="s">
         <v>1274</v>
       </c>
       <c r="N36" s="115"/>
@@ -33062,71 +33214,57 @@
     </row>
     <row r="37" spans="1:16" ht="15.75" thickBot="1">
       <c r="A37" s="99"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="207">
+      <c r="B37" s="245"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="247"/>
+      <c r="E37" s="248"/>
+      <c r="F37" s="248"/>
+      <c r="G37" s="245"/>
+      <c r="H37" s="246">
         <v>10</v>
       </c>
-      <c r="D37" s="115"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="120">
-        <v>10</v>
-      </c>
-      <c r="I37" s="115"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="119"/>
-      <c r="M37" s="121" t="s">
-        <v>2338</v>
-      </c>
-      <c r="N37" s="115"/>
+      <c r="I37" s="247"/>
+      <c r="J37" s="248"/>
+      <c r="K37" s="248"/>
+      <c r="L37" s="245"/>
+      <c r="M37" s="249"/>
+      <c r="N37" s="247"/>
       <c r="O37" s="99"/>
     </row>
     <row r="38" spans="1:16" ht="15.75" thickBot="1">
       <c r="A38" s="99"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="209" t="s">
-        <v>2343</v>
-      </c>
-      <c r="D38" s="115"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="120">
-        <v>4</v>
-      </c>
-      <c r="I38" s="115"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="119"/>
-      <c r="M38" s="121" t="s">
-        <v>2339</v>
-      </c>
-      <c r="N38" s="115"/>
+      <c r="B38" s="245"/>
+      <c r="C38" s="250"/>
+      <c r="D38" s="247"/>
+      <c r="E38" s="248"/>
+      <c r="F38" s="248"/>
+      <c r="G38" s="245"/>
+      <c r="H38" s="246"/>
+      <c r="I38" s="247"/>
+      <c r="J38" s="248"/>
+      <c r="K38" s="248"/>
+      <c r="L38" s="245"/>
+      <c r="M38" s="249"/>
+      <c r="N38" s="247"/>
       <c r="O38" s="99"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="99"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="210">
-        <v>10</v>
-      </c>
-      <c r="D39" s="115"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="120">
-        <v>1</v>
-      </c>
-      <c r="I39" s="115"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="119"/>
-      <c r="M39" s="213" t="s">
-        <v>2341</v>
-      </c>
-      <c r="N39" s="115"/>
+      <c r="B39" s="245"/>
+      <c r="C39" s="251"/>
+      <c r="D39" s="247"/>
+      <c r="E39" s="248"/>
+      <c r="F39" s="248"/>
+      <c r="G39" s="245"/>
+      <c r="H39" s="246"/>
+      <c r="I39" s="247"/>
+      <c r="J39" s="248"/>
+      <c r="K39" s="248"/>
+      <c r="L39" s="245"/>
+      <c r="M39" s="252" t="s">
+        <v>2335</v>
+      </c>
+      <c r="N39" s="247"/>
       <c r="O39" s="99"/>
       <c r="P39" t="s">
         <v>1275</v>
@@ -33134,25 +33272,19 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="99"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="211" t="s">
-        <v>2344</v>
-      </c>
-      <c r="D40" s="115"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="121">
-        <v>11</v>
-      </c>
-      <c r="I40" s="115"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="119"/>
-      <c r="M40" s="214" t="s">
-        <v>2342</v>
-      </c>
-      <c r="N40" s="115"/>
+      <c r="B40" s="245"/>
+      <c r="C40" s="251"/>
+      <c r="D40" s="247"/>
+      <c r="E40" s="248"/>
+      <c r="F40" s="248"/>
+      <c r="G40" s="245"/>
+      <c r="H40" s="249"/>
+      <c r="I40" s="247"/>
+      <c r="J40" s="248"/>
+      <c r="K40" s="248"/>
+      <c r="L40" s="245"/>
+      <c r="M40" s="253"/>
+      <c r="N40" s="247"/>
       <c r="O40" s="99"/>
       <c r="P40" t="s">
         <v>1276</v>
@@ -33160,245 +33292,189 @@
     </row>
     <row r="41" spans="1:16" ht="15.75" thickBot="1">
       <c r="A41" s="99"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="212" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D41" s="115"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="121">
-        <v>9</v>
-      </c>
-      <c r="I41" s="115"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="119"/>
-      <c r="M41" s="214" t="s">
-        <v>1275</v>
-      </c>
-      <c r="N41" s="115"/>
+      <c r="B41" s="245"/>
+      <c r="C41" s="254"/>
+      <c r="D41" s="247"/>
+      <c r="E41" s="248"/>
+      <c r="F41" s="248"/>
+      <c r="G41" s="245"/>
+      <c r="H41" s="249"/>
+      <c r="I41" s="247"/>
+      <c r="J41" s="248"/>
+      <c r="K41" s="248"/>
+      <c r="L41" s="245"/>
+      <c r="M41" s="253"/>
+      <c r="N41" s="247"/>
       <c r="O41" s="99"/>
     </row>
     <row r="42" spans="1:16" ht="15.75" thickBot="1">
       <c r="A42" s="99"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="120" t="s">
-        <v>2343</v>
-      </c>
-      <c r="D42" s="115"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="119"/>
-      <c r="H42" s="121">
-        <v>5</v>
-      </c>
-      <c r="I42" s="115"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="119"/>
-      <c r="M42" s="212" t="s">
-        <v>2345</v>
-      </c>
-      <c r="N42" s="115"/>
+      <c r="B42" s="245"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="247"/>
+      <c r="E42" s="248"/>
+      <c r="F42" s="248"/>
+      <c r="G42" s="245"/>
+      <c r="H42" s="249"/>
+      <c r="I42" s="247"/>
+      <c r="J42" s="248"/>
+      <c r="K42" s="248"/>
+      <c r="L42" s="245"/>
+      <c r="M42" s="254"/>
+      <c r="N42" s="247"/>
       <c r="O42" s="99"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="99"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="207">
-        <v>10</v>
-      </c>
-      <c r="D43" s="115"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="121">
-        <v>3</v>
-      </c>
-      <c r="I43" s="115"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="120" t="s">
-        <v>2340</v>
-      </c>
-      <c r="N43" s="115"/>
+      <c r="B43" s="245"/>
+      <c r="C43" s="246"/>
+      <c r="D43" s="247"/>
+      <c r="E43" s="248"/>
+      <c r="F43" s="248"/>
+      <c r="G43" s="245"/>
+      <c r="H43" s="249"/>
+      <c r="I43" s="247"/>
+      <c r="J43" s="248"/>
+      <c r="K43" s="248"/>
+      <c r="L43" s="245"/>
+      <c r="M43" s="246"/>
+      <c r="N43" s="247"/>
       <c r="O43" s="99"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="99"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="120" t="s">
-        <v>2344</v>
-      </c>
-      <c r="D44" s="115"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="121">
-        <v>13</v>
-      </c>
-      <c r="I44" s="115"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="119"/>
-      <c r="M44" s="120" t="s">
-        <v>2346</v>
-      </c>
-      <c r="N44" s="115"/>
+      <c r="B44" s="245"/>
+      <c r="C44" s="246"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="248"/>
+      <c r="F44" s="248"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="249"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="248"/>
+      <c r="K44" s="248"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="246"/>
+      <c r="N44" s="247"/>
       <c r="O44" s="99"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="99"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="120" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D45" s="115"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="121">
-        <v>8</v>
-      </c>
-      <c r="I45" s="115"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="119"/>
-      <c r="M45" s="193" t="s">
-        <v>2347</v>
-      </c>
-      <c r="N45" s="115"/>
+      <c r="B45" s="245"/>
+      <c r="C45" s="246"/>
+      <c r="D45" s="247"/>
+      <c r="E45" s="248"/>
+      <c r="F45" s="248"/>
+      <c r="G45" s="245"/>
+      <c r="H45" s="249"/>
+      <c r="I45" s="247"/>
+      <c r="J45" s="248"/>
+      <c r="K45" s="248"/>
+      <c r="L45" s="245"/>
+      <c r="M45" s="249"/>
+      <c r="N45" s="247"/>
       <c r="O45" s="99"/>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="99"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="120" t="s">
-        <v>2343</v>
-      </c>
-      <c r="D46" s="115"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="120">
-        <v>2</v>
-      </c>
-      <c r="I46" s="115"/>
-      <c r="J46" s="99"/>
-      <c r="K46" s="99"/>
-      <c r="L46" s="119"/>
-      <c r="M46" s="99" t="s">
-        <v>2342</v>
-      </c>
-      <c r="N46" s="115"/>
+      <c r="B46" s="245"/>
+      <c r="C46" s="246"/>
+      <c r="D46" s="247"/>
+      <c r="E46" s="248"/>
+      <c r="F46" s="248"/>
+      <c r="G46" s="245"/>
+      <c r="H46" s="246"/>
+      <c r="I46" s="247"/>
+      <c r="J46" s="248"/>
+      <c r="K46" s="248"/>
+      <c r="L46" s="245"/>
+      <c r="M46" s="248"/>
+      <c r="N46" s="247"/>
       <c r="O46" s="99"/>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="99"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="207">
-        <v>10</v>
-      </c>
-      <c r="D47" s="115"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="120">
-        <v>1</v>
-      </c>
-      <c r="I47" s="115"/>
-      <c r="J47" s="99"/>
-      <c r="K47" s="99"/>
-      <c r="L47" s="119"/>
-      <c r="M47" s="121" t="s">
-        <v>1275</v>
-      </c>
-      <c r="N47" s="115"/>
+      <c r="B47" s="245"/>
+      <c r="C47" s="246"/>
+      <c r="D47" s="247"/>
+      <c r="E47" s="248"/>
+      <c r="F47" s="248"/>
+      <c r="G47" s="245"/>
+      <c r="H47" s="246"/>
+      <c r="I47" s="247"/>
+      <c r="J47" s="248"/>
+      <c r="K47" s="248"/>
+      <c r="L47" s="245"/>
+      <c r="M47" s="249"/>
+      <c r="N47" s="247"/>
       <c r="O47" s="99"/>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="99"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="120" t="s">
-        <v>2344</v>
-      </c>
-      <c r="D48" s="115"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="120">
-        <v>11</v>
-      </c>
-      <c r="I48" s="115"/>
-      <c r="J48" s="99"/>
-      <c r="K48" s="99"/>
-      <c r="L48" s="119"/>
-      <c r="M48" s="120" t="s">
-        <v>2348</v>
-      </c>
-      <c r="N48" s="115"/>
+      <c r="B48" s="245"/>
+      <c r="C48" s="246"/>
+      <c r="D48" s="247"/>
+      <c r="E48" s="248"/>
+      <c r="F48" s="248"/>
+      <c r="G48" s="245"/>
+      <c r="H48" s="246"/>
+      <c r="I48" s="247"/>
+      <c r="J48" s="248"/>
+      <c r="K48" s="248"/>
+      <c r="L48" s="245"/>
+      <c r="M48" s="246"/>
+      <c r="N48" s="247"/>
       <c r="O48" s="99"/>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="99"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="120" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D49" s="115"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="120"/>
-      <c r="I49" s="115"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="99"/>
-      <c r="L49" s="119"/>
-      <c r="M49" s="120" t="s">
-        <v>2338</v>
-      </c>
-      <c r="N49" s="115"/>
+      <c r="B49" s="245"/>
+      <c r="C49" s="246"/>
+      <c r="D49" s="247"/>
+      <c r="E49" s="248"/>
+      <c r="F49" s="248"/>
+      <c r="G49" s="245"/>
+      <c r="H49" s="246"/>
+      <c r="I49" s="247"/>
+      <c r="J49" s="248"/>
+      <c r="K49" s="248"/>
+      <c r="L49" s="245"/>
+      <c r="M49" s="246"/>
+      <c r="N49" s="247"/>
       <c r="O49" s="99"/>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="99"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="207"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="115"/>
-      <c r="J50" s="99"/>
-      <c r="K50" s="99"/>
-      <c r="L50" s="119"/>
-      <c r="M50" s="120" t="s">
-        <v>2349</v>
-      </c>
-      <c r="N50" s="115"/>
+      <c r="B50" s="245"/>
+      <c r="C50" s="246"/>
+      <c r="D50" s="247"/>
+      <c r="E50" s="248"/>
+      <c r="F50" s="248"/>
+      <c r="G50" s="245"/>
+      <c r="H50" s="246"/>
+      <c r="I50" s="247"/>
+      <c r="J50" s="248"/>
+      <c r="K50" s="248"/>
+      <c r="L50" s="245"/>
+      <c r="M50" s="246"/>
+      <c r="N50" s="247"/>
       <c r="O50" s="99"/>
     </row>
     <row r="51" spans="1:15" ht="15.75" thickBot="1">
       <c r="A51" s="60"/>
-      <c r="B51" s="164"/>
-      <c r="C51" s="208"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="215" t="s">
-        <v>2339</v>
-      </c>
-      <c r="N51" s="115"/>
+      <c r="B51" s="255"/>
+      <c r="C51" s="256"/>
+      <c r="D51" s="228"/>
+      <c r="E51" s="257"/>
+      <c r="F51" s="257"/>
+      <c r="G51" s="227"/>
+      <c r="H51" s="258"/>
+      <c r="I51" s="228"/>
+      <c r="J51" s="257"/>
+      <c r="K51" s="257"/>
+      <c r="L51" s="227"/>
+      <c r="M51" s="258"/>
+      <c r="N51" s="247"/>
       <c r="O51" s="60"/>
     </row>
     <row r="52" spans="1:15">
@@ -33414,16 +33490,12 @@
       <c r="J52" s="60"/>
       <c r="K52" s="60"/>
       <c r="L52" s="60"/>
-      <c r="M52" s="99" t="s">
-        <v>2342</v>
-      </c>
+      <c r="M52" s="99"/>
       <c r="N52" s="60"/>
       <c r="O52" s="60"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="M53" s="121" t="s">
-        <v>1275</v>
-      </c>
+      <c r="M53" s="121"/>
       <c r="N53" s="115"/>
     </row>
     <row r="54" spans="1:15">
@@ -33475,7 +33547,7 @@
         <v>1280</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>2350</v>
+        <v>2336</v>
       </c>
       <c r="G59" s="30"/>
       <c r="H59" s="30"/>
@@ -33545,7 +33617,7 @@
       <c r="H63" s="30"/>
       <c r="I63" s="30"/>
       <c r="J63" s="30" t="s">
-        <v>2350</v>
+        <v>2336</v>
       </c>
       <c r="K63" s="33"/>
       <c r="L63" s="34"/>
@@ -33708,7 +33780,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>2351</v>
+        <v>2337</v>
       </c>
       <c r="E74" s="36"/>
       <c r="F74" s="30"/>
@@ -33723,7 +33795,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>2352</v>
+        <v>2338</v>
       </c>
       <c r="E75" s="36"/>
       <c r="F75" s="30"/>
@@ -34570,7 +34642,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="183" spans="2:10">
+    <row r="183" spans="2:11">
       <c r="C183" s="46" t="s">
         <v>2176</v>
       </c>
@@ -34583,43 +34655,88 @@
       <c r="F183" s="46" t="s">
         <v>2179</v>
       </c>
-      <c r="G183" s="46"/>
+      <c r="G183" s="46" t="s">
+        <v>2710</v>
+      </c>
       <c r="H183" s="46"/>
     </row>
-    <row r="184" spans="2:10">
+    <row r="184" spans="2:11">
       <c r="B184" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2706</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2328</v>
+      </c>
+      <c r="E184" t="s">
+        <v>2707</v>
+      </c>
+      <c r="F184" s="46"/>
+      <c r="G184" s="205"/>
+    </row>
+    <row r="186" spans="2:11">
+      <c r="I186" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11">
+      <c r="H187" t="s">
+        <v>2708</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11">
+      <c r="H188" t="s">
+        <v>2709</v>
+      </c>
+      <c r="K188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11">
+      <c r="D189" t="s">
+        <v>2700</v>
+      </c>
+      <c r="H189" t="s">
+        <v>2697</v>
+      </c>
+      <c r="K189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11">
+      <c r="B192" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10">
+      <c r="B193" t="s">
         <v>2334</v>
       </c>
-      <c r="C184" s="46" t="s">
-        <v>2184</v>
-      </c>
-      <c r="D184" s="46" t="s">
-        <v>2185</v>
-      </c>
-      <c r="E184" s="46" t="s">
-        <v>2180</v>
-      </c>
-      <c r="F184" s="165" t="s">
-        <v>2182</v>
-      </c>
-      <c r="G184" s="206" t="s">
-        <v>2336</v>
-      </c>
-    </row>
-    <row r="187" spans="2:10">
-      <c r="J187" t="s">
-        <v>2335</v>
-      </c>
-    </row>
-    <row r="189" spans="2:10">
-      <c r="D189" t="s">
-        <v>2337</v>
-      </c>
-    </row>
-    <row r="192" spans="2:10">
-      <c r="J192" s="46" t="s">
-        <v>2183</v>
-      </c>
+      <c r="C193" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10">
+      <c r="B194" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10">
+      <c r="B195" t="s">
+        <v>2705</v>
+      </c>
+      <c r="J195" s="46"/>
+    </row>
+    <row r="196" spans="2:10">
+      <c r="J196" s="165"/>
     </row>
     <row r="217" spans="3:14">
       <c r="C217" s="46" t="s">
@@ -34771,14 +34888,14 @@
       <c r="C8" s="60">
         <v>3</v>
       </c>
-      <c r="D8" s="202" t="s">
+      <c r="D8" s="201" t="s">
         <v>435</v>
       </c>
       <c r="F8" t="s">
         <v>1435</v>
       </c>
       <c r="I8" t="s">
-        <v>2354</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="9" spans="3:9">
@@ -34812,7 +34929,7 @@
     </row>
     <row r="16" spans="3:9">
       <c r="C16" t="s">
-        <v>2353</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="17" spans="3:22">
@@ -34845,7 +34962,7 @@
     </row>
     <row r="19" spans="3:22">
       <c r="V19" t="s">
-        <v>2362</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="20" spans="3:22">
@@ -35728,11 +35845,11 @@
       <c r="K97" s="54">
         <v>1</v>
       </c>
-      <c r="L97" s="216" t="s">
-        <v>2373</v>
+      <c r="L97" s="206" t="s">
+        <v>2359</v>
       </c>
       <c r="M97" s="46" t="s">
-        <v>2380</v>
+        <v>2366</v>
       </c>
       <c r="N97" s="37"/>
     </row>
@@ -35762,7 +35879,7 @@
         <v>2</v>
       </c>
       <c r="L98" s="133" t="s">
-        <v>2374</v>
+        <v>2360</v>
       </c>
       <c r="M98" s="46"/>
       <c r="N98" s="37"/>
@@ -35851,7 +35968,7 @@
         <v>1501</v>
       </c>
       <c r="L104" t="s">
-        <v>2367</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -35862,7 +35979,7 @@
         <v>1502</v>
       </c>
       <c r="L105" t="s">
-        <v>2368</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -35870,7 +35987,7 @@
         <v>162</v>
       </c>
       <c r="L106" t="s">
-        <v>2375</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -35881,7 +35998,7 @@
         <v>1574</v>
       </c>
       <c r="L107" t="s">
-        <v>2376</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -35892,10 +36009,10 @@
         <v>1503</v>
       </c>
       <c r="L108" t="s">
-        <v>2369</v>
+        <v>2355</v>
       </c>
       <c r="N108" t="s">
-        <v>2372</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -35906,7 +36023,7 @@
         <v>1504</v>
       </c>
       <c r="L109" t="s">
-        <v>2370</v>
+        <v>2356</v>
       </c>
       <c r="N109" s="60"/>
       <c r="O109" s="60"/>
@@ -35919,10 +36036,10 @@
         <v>162</v>
       </c>
       <c r="G110" t="s">
-        <v>2377</v>
+        <v>2363</v>
       </c>
       <c r="L110" t="s">
-        <v>2371</v>
+        <v>2357</v>
       </c>
       <c r="N110" s="60"/>
       <c r="O110" s="60"/>
@@ -35931,24 +36048,24 @@
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="13" t="s">
-        <v>2385</v>
+        <v>2371</v>
       </c>
       <c r="B111" t="s">
-        <v>2382</v>
+        <v>2368</v>
       </c>
       <c r="H111" t="s">
-        <v>2378</v>
+        <v>2364</v>
       </c>
       <c r="L111" t="s">
-        <v>2381</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="112" spans="1:18">
       <c r="A112" s="13" t="s">
-        <v>2386</v>
+        <v>2372</v>
       </c>
       <c r="B112" t="s">
-        <v>2383</v>
+        <v>2369</v>
       </c>
       <c r="H112" t="s">
         <v>271</v>
@@ -35956,7 +36073,7 @@
     </row>
     <row r="113" spans="2:14">
       <c r="B113" t="s">
-        <v>2384</v>
+        <v>2370</v>
       </c>
       <c r="G113" t="s">
         <v>155</v>
@@ -35964,7 +36081,7 @@
     </row>
     <row r="114" spans="2:14">
       <c r="H114" t="s">
-        <v>2379</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="115" spans="2:14">
@@ -36075,10 +36192,10 @@
       <c r="D132" t="s">
         <v>1522</v>
       </c>
-      <c r="E132" s="216">
+      <c r="E132" s="206">
         <v>1</v>
       </c>
-      <c r="F132" s="216" t="s">
+      <c r="F132" s="206" t="s">
         <v>542</v>
       </c>
       <c r="H132" t="s">
@@ -36086,10 +36203,10 @@
       </c>
     </row>
     <row r="133" spans="1:12">
-      <c r="E133" s="216">
+      <c r="E133" s="206">
         <v>2</v>
       </c>
-      <c r="F133" s="216" t="s">
+      <c r="F133" s="206" t="s">
         <v>577</v>
       </c>
       <c r="H133" t="s">
@@ -36103,10 +36220,10 @@
       <c r="B134" t="s">
         <v>577</v>
       </c>
-      <c r="E134" s="216">
+      <c r="E134" s="206">
         <v>3</v>
       </c>
-      <c r="F134" s="216" t="s">
+      <c r="F134" s="206" t="s">
         <v>430</v>
       </c>
       <c r="I134" t="s">
@@ -36117,10 +36234,10 @@
       </c>
     </row>
     <row r="135" spans="1:12">
-      <c r="E135" s="216">
+      <c r="E135" s="206">
         <v>4</v>
       </c>
-      <c r="F135" s="216" t="s">
+      <c r="F135" s="206" t="s">
         <v>2113</v>
       </c>
       <c r="I135" t="s">
@@ -36520,21 +36637,21 @@
     </row>
     <row r="183" spans="5:11">
       <c r="G183" s="175" t="s">
-        <v>2361</v>
+        <v>2347</v>
       </c>
       <c r="H183" t="s">
-        <v>2359</v>
-      </c>
-      <c r="I183" s="217" t="s">
-        <v>2360</v>
+        <v>2345</v>
+      </c>
+      <c r="I183" s="207" t="s">
+        <v>2346</v>
       </c>
     </row>
     <row r="184" spans="5:11">
       <c r="E184" t="s">
-        <v>2355</v>
+        <v>2341</v>
       </c>
       <c r="H184" t="s">
-        <v>2356</v>
+        <v>2342</v>
       </c>
       <c r="K184" t="s">
         <v>1379</v>
@@ -36542,13 +36659,13 @@
     </row>
     <row r="185" spans="5:11">
       <c r="E185" t="s">
-        <v>2357</v>
+        <v>2343</v>
       </c>
       <c r="H185">
         <v>10</v>
       </c>
       <c r="K185" t="s">
-        <v>2358</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="186" spans="5:11">
@@ -36568,7 +36685,7 @@
     </row>
     <row r="195" spans="1:11">
       <c r="A195" t="s">
-        <v>2363</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -36578,31 +36695,31 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197" t="s">
-        <v>2366</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="200" spans="1:11">
       <c r="A200" s="33" t="s">
-        <v>2364</v>
+        <v>2350</v>
       </c>
       <c r="B200" s="34"/>
       <c r="C200" s="35" t="s">
-        <v>2365</v>
-      </c>
-      <c r="E200" s="218" t="s">
-        <v>2364</v>
-      </c>
-      <c r="F200" s="219"/>
-      <c r="G200" s="220" t="s">
-        <v>2365</v>
+        <v>2351</v>
+      </c>
+      <c r="E200" s="208" t="s">
+        <v>2350</v>
+      </c>
+      <c r="F200" s="209"/>
+      <c r="G200" s="210" t="s">
+        <v>2351</v>
       </c>
       <c r="I200" s="33" t="s">
-        <v>2364</v>
+        <v>2350</v>
       </c>
       <c r="J200" s="34"/>
       <c r="K200" s="35" t="s">
-        <v>2365</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -36615,13 +36732,13 @@
       <c r="C201" s="37" t="s">
         <v>569</v>
       </c>
-      <c r="E201" s="221" t="s">
+      <c r="E201" s="211" t="s">
         <v>1173</v>
       </c>
       <c r="F201" s="180" t="s">
         <v>542</v>
       </c>
-      <c r="G201" s="222" t="s">
+      <c r="G201" s="212" t="s">
         <v>569</v>
       </c>
       <c r="I201" s="36" t="s">
@@ -36640,11 +36757,11 @@
         <v>535</v>
       </c>
       <c r="C202" s="40"/>
-      <c r="E202" s="223"/>
-      <c r="F202" s="224" t="s">
+      <c r="E202" s="213"/>
+      <c r="F202" s="214" t="s">
         <v>537</v>
       </c>
-      <c r="G202" s="225"/>
+      <c r="G202" s="215"/>
       <c r="I202" s="38"/>
       <c r="J202" s="39" t="s">
         <v>569</v>
@@ -37449,11 +37566,11 @@
       <c r="L6" s="46" t="s">
         <v>1618</v>
       </c>
-      <c r="M6" s="254" t="s">
+      <c r="M6" s="244" t="s">
         <v>1619</v>
       </c>
-      <c r="N6" s="254"/>
-      <c r="O6" s="254"/>
+      <c r="N6" s="244"/>
+      <c r="O6" s="244"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
@@ -38832,10 +38949,10 @@
         <v>54</v>
       </c>
       <c r="M113" t="s">
-        <v>2533</v>
+        <v>2519</v>
       </c>
       <c r="O113" t="s">
-        <v>2534</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -39127,7 +39244,7 @@
   <sheetData>
     <row r="2" spans="4:18">
       <c r="O2" t="s">
-        <v>2393</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="4" spans="4:18">
@@ -39137,12 +39254,12 @@
     </row>
     <row r="6" spans="4:18">
       <c r="O6" s="32" t="s">
-        <v>2394</v>
+        <v>2380</v>
       </c>
       <c r="P6" s="32"/>
       <c r="Q6" s="32"/>
       <c r="R6" t="s">
-        <v>2397</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="7" spans="4:18">
@@ -39155,13 +39272,13 @@
         <v>148</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>2390</v>
+        <v>2376</v>
       </c>
       <c r="O8" t="s">
-        <v>2391</v>
+        <v>2377</v>
       </c>
       <c r="Q8" t="s">
-        <v>2392</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="9" spans="4:18">
@@ -39174,10 +39291,10 @@
         <v>150</v>
       </c>
       <c r="M10" t="s">
-        <v>2395</v>
+        <v>2381</v>
       </c>
       <c r="O10" t="s">
-        <v>2396</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="11" spans="4:18">
@@ -39190,13 +39307,13 @@
         <v>152</v>
       </c>
       <c r="M12" t="s">
-        <v>2387</v>
+        <v>2373</v>
       </c>
       <c r="O12" t="s">
-        <v>2388</v>
+        <v>2374</v>
       </c>
       <c r="Q12" t="s">
-        <v>2389</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="13" spans="4:18">
@@ -39536,7 +39653,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
-        <v>2403</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -39547,7 +39664,7 @@
         <v>430</v>
       </c>
       <c r="F2" t="s">
-        <v>2404</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -39558,7 +39675,7 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>2405</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -39566,21 +39683,21 @@
         <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>2406</v>
+        <v>2392</v>
       </c>
       <c r="F4" t="s">
-        <v>2407</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>2408</v>
+        <v>2394</v>
       </c>
       <c r="B5" t="s">
-        <v>2409</v>
+        <v>2395</v>
       </c>
       <c r="F5" t="s">
-        <v>2410</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -39593,10 +39710,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>2411</v>
+        <v>2397</v>
       </c>
       <c r="B7" t="s">
-        <v>2412</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -39607,7 +39724,7 @@
         <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>2411</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -39618,7 +39735,7 @@
         <v>201</v>
       </c>
       <c r="C10" t="s">
-        <v>2408</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1"/>
@@ -39626,7 +39743,7 @@
       <c r="A12" s="34"/>
       <c r="B12" s="35"/>
       <c r="D12" s="33" t="s">
-        <v>2413</v>
+        <v>2399</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="35"/>
@@ -39636,14 +39753,14 @@
         <v>205</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>2414</v>
+        <v>2400</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="30" t="s">
         <v>198</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>2415</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -39651,14 +39768,14 @@
         <v>203</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>2416</v>
+        <v>2402</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="30" t="s">
         <v>202</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>2417</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -39666,17 +39783,17 @@
         <v>204</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>2411</v>
+        <v>2397</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="30" t="s">
         <v>198</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>2418</v>
+        <v>2404</v>
       </c>
       <c r="H15" t="s">
-        <v>2419</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -39684,35 +39801,35 @@
         <v>198</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>2420</v>
+        <v>2406</v>
       </c>
       <c r="D16" s="36"/>
       <c r="E16" s="41" t="s">
         <v>198</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>2421</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="41" t="s">
-        <v>2413</v>
+        <v>2399</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>2422</v>
+        <v>2408</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="41" t="s">
         <v>202</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>2423</v>
+        <v>2409</v>
       </c>
       <c r="J17" t="s">
         <v>1729</v>
       </c>
       <c r="L17" t="s">
-        <v>2424</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1">
@@ -39720,17 +39837,17 @@
         <v>198</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>2425</v>
+        <v>2411</v>
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="39" t="s">
         <v>198</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>2426</v>
+        <v>2412</v>
       </c>
       <c r="J18" t="s">
-        <v>2427</v>
+        <v>2413</v>
       </c>
       <c r="L18" t="s">
         <v>198</v>
@@ -39738,23 +39855,23 @@
     </row>
     <row r="19" spans="1:16">
       <c r="J19" t="s">
-        <v>2428</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="22" spans="1:16">
       <c r="C22" s="33" t="s">
-        <v>2429</v>
+        <v>2415</v>
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="35"/>
       <c r="G22" s="33" t="s">
-        <v>2430</v>
+        <v>2416</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="35"/>
       <c r="K22" s="33" t="s">
-        <v>2431</v>
+        <v>2417</v>
       </c>
       <c r="L22" s="34"/>
       <c r="M22" s="35"/>
@@ -39775,7 +39892,7 @@
         <v>198</v>
       </c>
       <c r="M23" s="37" t="s">
-        <v>2415</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1">
@@ -39784,34 +39901,34 @@
         <v>198</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>2432</v>
+        <v>2418</v>
       </c>
       <c r="G24" s="36"/>
       <c r="H24" s="33" t="s">
-        <v>2431</v>
+        <v>2417</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>2433</v>
+        <v>2419</v>
       </c>
       <c r="K24" s="36"/>
       <c r="L24" s="30" t="s">
         <v>202</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>2434</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1">
       <c r="C25" s="36"/>
       <c r="D25" s="29" t="s">
-        <v>2430</v>
+        <v>2416</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>2435</v>
+        <v>2421</v>
       </c>
       <c r="G25" s="36"/>
       <c r="H25" s="49" t="s">
-        <v>2436</v>
+        <v>2422</v>
       </c>
       <c r="I25" s="37" t="s">
         <v>220</v>
@@ -39821,14 +39938,14 @@
         <v>198</v>
       </c>
       <c r="M25" s="37" t="s">
-        <v>2418</v>
+        <v>2404</v>
       </c>
       <c r="P25" s="45"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1">
       <c r="C26" s="36"/>
-      <c r="D26" s="228" t="s">
-        <v>2437</v>
+      <c r="D26" s="218" t="s">
+        <v>2423</v>
       </c>
       <c r="E26" s="37" t="s">
         <v>216</v>
@@ -39841,16 +39958,16 @@
         <v>198</v>
       </c>
       <c r="M26" s="37" t="s">
-        <v>2421</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="C27" s="36"/>
       <c r="D27" s="41" t="s">
-        <v>2431</v>
+        <v>2417</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>2438</v>
+        <v>2424</v>
       </c>
       <c r="G27" s="36"/>
       <c r="H27" s="30"/>
@@ -39860,7 +39977,7 @@
         <v>202</v>
       </c>
       <c r="M27" s="37" t="s">
-        <v>2423</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1">
@@ -39875,18 +39992,18 @@
         <v>198</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>2426</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:16">
       <c r="G30" s="33" t="s">
-        <v>2437</v>
+        <v>2423</v>
       </c>
       <c r="H30" s="34"/>
       <c r="I30" s="35"/>
       <c r="K30" s="33" t="s">
-        <v>2436</v>
+        <v>2422</v>
       </c>
       <c r="L30" s="34"/>
       <c r="M30" s="35"/>
@@ -39907,7 +40024,7 @@
         <v>206</v>
       </c>
       <c r="M31" s="37" t="s">
-        <v>2439</v>
+        <v>2425</v>
       </c>
       <c r="N31">
         <v>1313123123213210</v>
@@ -39929,7 +40046,7 @@
         <v>198</v>
       </c>
       <c r="M32" s="37" t="s">
-        <v>2440</v>
+        <v>2426</v>
       </c>
       <c r="N32" s="43">
         <v>44553</v>
@@ -39941,17 +40058,17 @@
         <v>198</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>2408</v>
+        <v>2394</v>
       </c>
       <c r="J33" t="s">
-        <v>2441</v>
+        <v>2427</v>
       </c>
       <c r="K33" s="36"/>
       <c r="L33" s="41" t="s">
         <v>202</v>
       </c>
       <c r="M33" s="37" t="s">
-        <v>2442</v>
+        <v>2428</v>
       </c>
       <c r="N33">
         <v>12345</v>
@@ -39960,10 +40077,10 @@
     <row r="34" spans="3:15">
       <c r="G34" s="36"/>
       <c r="H34" s="41" t="s">
-        <v>2431</v>
+        <v>2417</v>
       </c>
       <c r="I34" s="37" t="s">
-        <v>2443</v>
+        <v>2429</v>
       </c>
       <c r="K34" s="36"/>
       <c r="L34" s="41" t="s">
@@ -39985,7 +40102,7 @@
         <v>205</v>
       </c>
       <c r="M35" s="40" t="s">
-        <v>2444</v>
+        <v>2430</v>
       </c>
       <c r="N35">
         <v>850</v>
@@ -41778,7 +41895,7 @@
       <c r="E162" s="30"/>
       <c r="F162" s="30"/>
       <c r="G162" s="30" t="s">
-        <v>2475</v>
+        <v>2461</v>
       </c>
       <c r="H162" s="30"/>
       <c r="I162" s="30"/>
@@ -41801,7 +41918,7 @@
     </row>
     <row r="164" spans="2:12">
       <c r="B164" s="36" t="s">
-        <v>2473</v>
+        <v>2459</v>
       </c>
       <c r="C164" s="30"/>
       <c r="D164" s="30"/>
@@ -41816,14 +41933,14 @@
     </row>
     <row r="165" spans="2:12">
       <c r="B165" s="36" t="s">
-        <v>2474</v>
+        <v>2460</v>
       </c>
       <c r="C165" s="30"/>
       <c r="D165" s="30"/>
       <c r="E165" s="30"/>
       <c r="F165" s="30"/>
       <c r="G165" s="46" t="s">
-        <v>2478</v>
+        <v>2464</v>
       </c>
       <c r="H165" s="30"/>
       <c r="I165" s="30"/>
@@ -41838,7 +41955,7 @@
       <c r="E166" s="30"/>
       <c r="F166" s="30"/>
       <c r="G166" s="46" t="s">
-        <v>2477</v>
+        <v>2463</v>
       </c>
       <c r="H166" s="30"/>
       <c r="I166" s="30"/>
@@ -41853,7 +41970,7 @@
       <c r="E167" s="30"/>
       <c r="F167" s="30"/>
       <c r="G167" s="46" t="s">
-        <v>2476</v>
+        <v>2462</v>
       </c>
       <c r="H167" s="30"/>
       <c r="I167" s="30"/>
@@ -41868,7 +41985,7 @@
       <c r="E168" s="30"/>
       <c r="F168" s="30"/>
       <c r="G168" s="46" t="s">
-        <v>2478</v>
+        <v>2464</v>
       </c>
       <c r="H168" s="30"/>
       <c r="I168" s="30"/>
@@ -41883,7 +42000,7 @@
       <c r="E169" s="30"/>
       <c r="F169" s="30"/>
       <c r="G169" s="46" t="s">
-        <v>2477</v>
+        <v>2463</v>
       </c>
       <c r="H169" s="30"/>
       <c r="I169" s="30"/>
@@ -41898,7 +42015,7 @@
       <c r="E170" s="30"/>
       <c r="F170" s="30"/>
       <c r="G170" s="46" t="s">
-        <v>2476</v>
+        <v>2462</v>
       </c>
       <c r="H170" s="30"/>
       <c r="I170" s="30"/>
@@ -41913,7 +42030,7 @@
       <c r="E171" s="30"/>
       <c r="F171" s="30"/>
       <c r="G171" s="46" t="s">
-        <v>2478</v>
+        <v>2464</v>
       </c>
       <c r="H171" s="30"/>
       <c r="I171" s="30"/>
@@ -41928,7 +42045,7 @@
       <c r="E172" s="30"/>
       <c r="F172" s="30"/>
       <c r="G172" s="46" t="s">
-        <v>2477</v>
+        <v>2463</v>
       </c>
       <c r="H172" s="30"/>
       <c r="I172" s="30"/>
@@ -41943,7 +42060,7 @@
       <c r="E173" s="30"/>
       <c r="F173" s="30"/>
       <c r="G173" s="46" t="s">
-        <v>2476</v>
+        <v>2462</v>
       </c>
       <c r="H173" s="30"/>
       <c r="I173" s="30"/>
@@ -41958,7 +42075,7 @@
       <c r="E174" s="30"/>
       <c r="F174" s="30"/>
       <c r="G174" s="46" t="s">
-        <v>2478</v>
+        <v>2464</v>
       </c>
       <c r="H174" s="30"/>
       <c r="I174" s="30"/>
@@ -41973,7 +42090,7 @@
       <c r="E175" s="30"/>
       <c r="F175" s="30"/>
       <c r="G175" s="46" t="s">
-        <v>2477</v>
+        <v>2463</v>
       </c>
       <c r="H175" s="30"/>
       <c r="I175" s="30"/>
@@ -41988,7 +42105,7 @@
       <c r="E176" s="30"/>
       <c r="F176" s="30"/>
       <c r="G176" s="46" t="s">
-        <v>2476</v>
+        <v>2462</v>
       </c>
       <c r="H176" s="30"/>
       <c r="I176" s="30"/>
@@ -42003,7 +42120,7 @@
       <c r="E177" s="30"/>
       <c r="F177" s="30"/>
       <c r="G177" s="46" t="s">
-        <v>2472</v>
+        <v>2458</v>
       </c>
       <c r="H177" s="30"/>
       <c r="I177" s="30"/>
@@ -42039,7 +42156,7 @@
     <row r="186" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="187" spans="1:12" ht="15.75" thickBot="1">
       <c r="A187" t="s">
-        <v>2479</v>
+        <v>2465</v>
       </c>
       <c r="D187" s="33"/>
       <c r="E187" s="34"/>
@@ -42053,7 +42170,7 @@
     </row>
     <row r="188" spans="1:12">
       <c r="B188" t="s">
-        <v>2480</v>
+        <v>2466</v>
       </c>
       <c r="D188" s="36" t="s">
         <v>1727</v>
@@ -42073,10 +42190,10 @@
     </row>
     <row r="189" spans="1:12">
       <c r="B189" t="s">
-        <v>2481</v>
+        <v>2467</v>
       </c>
       <c r="D189" s="53" t="s">
-        <v>2490</v>
+        <v>2476</v>
       </c>
       <c r="E189" s="54" t="s">
         <v>431</v>
@@ -42091,7 +42208,7 @@
     </row>
     <row r="190" spans="1:12" ht="15.75" thickBot="1">
       <c r="B190" t="s">
-        <v>2482</v>
+        <v>2468</v>
       </c>
       <c r="D190" s="53" t="s">
         <v>554</v>
@@ -42109,7 +42226,7 @@
     </row>
     <row r="191" spans="1:12" ht="15.75" thickBot="1">
       <c r="B191" t="s">
-        <v>2483</v>
+        <v>2469</v>
       </c>
       <c r="D191" s="53" t="s">
         <v>1921</v>
@@ -42178,7 +42295,7 @@
       <c r="H194" s="30"/>
       <c r="I194" s="30"/>
       <c r="J194" s="56" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="K194" s="58">
         <v>20</v>
@@ -42201,7 +42318,7 @@
     </row>
     <row r="196" spans="1:12">
       <c r="B196" t="s">
-        <v>2445</v>
+        <v>2431</v>
       </c>
       <c r="D196" s="53"/>
       <c r="E196" s="54"/>
@@ -42229,14 +42346,14 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" t="s">
-        <v>2489</v>
-      </c>
-      <c r="D198" s="240" t="s">
-        <v>2491</v>
+        <v>2475</v>
+      </c>
+      <c r="D198" s="230" t="s">
+        <v>2477</v>
       </c>
       <c r="E198" s="54"/>
-      <c r="F198" s="241" t="s">
-        <v>2493</v>
+      <c r="F198" s="231" t="s">
+        <v>2479</v>
       </c>
       <c r="G198" s="30"/>
       <c r="H198" s="30"/>
@@ -42247,15 +42364,15 @@
     </row>
     <row r="199" spans="1:12">
       <c r="B199" t="s">
-        <v>2484</v>
+        <v>2470</v>
       </c>
       <c r="D199" s="53" t="s">
-        <v>2492</v>
+        <v>2478</v>
       </c>
       <c r="E199" s="30"/>
       <c r="F199" s="30"/>
       <c r="G199" s="30"/>
-      <c r="H199" s="241" t="s">
+      <c r="H199" s="231" t="s">
         <v>552</v>
       </c>
       <c r="I199" s="30"/>
@@ -42265,7 +42382,7 @@
     </row>
     <row r="200" spans="1:12">
       <c r="B200" t="s">
-        <v>2485</v>
+        <v>2471</v>
       </c>
       <c r="D200" s="53">
         <v>10</v>
@@ -42306,11 +42423,11 @@
       <c r="F202" s="30"/>
       <c r="G202" s="30"/>
       <c r="H202" s="30" t="s">
-        <v>2495</v>
+        <v>2481</v>
       </c>
       <c r="I202" s="30"/>
       <c r="J202" s="30" t="s">
-        <v>2498</v>
+        <v>2484</v>
       </c>
       <c r="K202" s="30"/>
       <c r="L202" s="37"/>
@@ -42326,7 +42443,7 @@
       <c r="F203" s="30"/>
       <c r="G203" s="30"/>
       <c r="H203" s="30" t="s">
-        <v>2496</v>
+        <v>2482</v>
       </c>
       <c r="I203" s="30"/>
       <c r="J203" s="30"/>
@@ -42335,27 +42452,27 @@
     </row>
     <row r="204" spans="1:12">
       <c r="B204" t="s">
-        <v>2486</v>
+        <v>2472</v>
       </c>
       <c r="D204" s="53"/>
       <c r="E204" s="30"/>
       <c r="F204" s="30" t="s">
-        <v>2494</v>
+        <v>2480</v>
       </c>
       <c r="G204" s="30"/>
       <c r="H204" s="30" t="s">
-        <v>2497</v>
+        <v>2483</v>
       </c>
       <c r="I204" s="30"/>
       <c r="J204" s="30" t="s">
-        <v>2499</v>
+        <v>2485</v>
       </c>
       <c r="K204" s="30"/>
       <c r="L204" s="37"/>
     </row>
     <row r="205" spans="1:12">
       <c r="B205" t="s">
-        <v>2487</v>
+        <v>2473</v>
       </c>
       <c r="D205" s="53"/>
       <c r="E205" s="30"/>
@@ -42369,7 +42486,7 @@
     </row>
     <row r="206" spans="1:12" ht="15.75" thickBot="1">
       <c r="B206" t="s">
-        <v>2488</v>
+        <v>2474</v>
       </c>
       <c r="D206" s="56"/>
       <c r="E206" s="39"/>
@@ -42384,7 +42501,7 @@
     <row r="208" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="209" spans="1:12" ht="15.75" thickBot="1">
       <c r="A209" t="s">
-        <v>2479</v>
+        <v>2465</v>
       </c>
       <c r="D209" s="33"/>
       <c r="E209" s="34"/>
@@ -42398,13 +42515,13 @@
     </row>
     <row r="210" spans="1:12">
       <c r="B210" t="s">
-        <v>2503</v>
+        <v>2489</v>
       </c>
       <c r="D210" s="36" t="s">
         <v>419</v>
       </c>
       <c r="E210" s="30" t="s">
-        <v>2504</v>
+        <v>2490</v>
       </c>
       <c r="F210" s="30"/>
       <c r="G210" s="30"/>
@@ -42418,10 +42535,10 @@
     </row>
     <row r="211" spans="1:12">
       <c r="B211" t="s">
-        <v>2502</v>
+        <v>2488</v>
       </c>
       <c r="D211" s="53" t="s">
-        <v>2490</v>
+        <v>2476</v>
       </c>
       <c r="E211" s="54" t="s">
         <v>431</v>
@@ -42513,7 +42630,7 @@
       <c r="H216" s="30"/>
       <c r="I216" s="30"/>
       <c r="J216" s="56" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="K216" s="58">
         <v>20</v>
@@ -42522,7 +42639,7 @@
     </row>
     <row r="217" spans="1:12">
       <c r="B217" t="s">
-        <v>2445</v>
+        <v>2431</v>
       </c>
       <c r="D217" s="53"/>
       <c r="E217" s="54"/>
@@ -42561,14 +42678,14 @@
     </row>
     <row r="220" spans="1:12">
       <c r="A220" t="s">
-        <v>2489</v>
-      </c>
-      <c r="D220" s="240" t="s">
-        <v>2491</v>
+        <v>2475</v>
+      </c>
+      <c r="D220" s="230" t="s">
+        <v>2477</v>
       </c>
       <c r="E220" s="54"/>
-      <c r="F220" s="241" t="s">
-        <v>2493</v>
+      <c r="F220" s="231" t="s">
+        <v>2479</v>
       </c>
       <c r="G220" s="30"/>
       <c r="H220" s="30"/>
@@ -42579,7 +42696,7 @@
     </row>
     <row r="221" spans="1:12">
       <c r="B221" t="s">
-        <v>2485</v>
+        <v>2471</v>
       </c>
       <c r="D221" s="53" t="s">
         <v>430</v>
@@ -42587,7 +42704,7 @@
       <c r="E221" s="30"/>
       <c r="F221" s="30"/>
       <c r="G221" s="30"/>
-      <c r="H221" s="241" t="s">
+      <c r="H221" s="231" t="s">
         <v>552</v>
       </c>
       <c r="I221" s="30"/>
@@ -42613,7 +42730,7 @@
     </row>
     <row r="223" spans="1:12">
       <c r="B223" t="s">
-        <v>2488</v>
+        <v>2474</v>
       </c>
       <c r="D223" s="53"/>
       <c r="E223" s="30"/>
@@ -42627,34 +42744,34 @@
     </row>
     <row r="224" spans="1:12">
       <c r="B224" t="s">
-        <v>2500</v>
+        <v>2486</v>
       </c>
       <c r="D224" s="53"/>
       <c r="E224" s="30"/>
       <c r="F224" s="30" t="s">
-        <v>2505</v>
+        <v>2491</v>
       </c>
       <c r="G224" s="30"/>
       <c r="H224" s="30" t="s">
-        <v>2495</v>
+        <v>2481</v>
       </c>
       <c r="I224" s="30"/>
       <c r="J224" s="30" t="s">
-        <v>2498</v>
+        <v>2484</v>
       </c>
       <c r="K224" s="30"/>
       <c r="L224" s="37"/>
     </row>
     <row r="225" spans="1:12">
       <c r="B225" t="s">
-        <v>2501</v>
+        <v>2487</v>
       </c>
       <c r="D225" s="53"/>
       <c r="E225" s="30"/>
       <c r="F225" s="30"/>
       <c r="G225" s="30"/>
       <c r="H225" s="30" t="s">
-        <v>2496</v>
+        <v>2482</v>
       </c>
       <c r="I225" s="30"/>
       <c r="J225" s="30"/>
@@ -42667,11 +42784,11 @@
       <c r="F226" s="30"/>
       <c r="G226" s="30"/>
       <c r="H226" s="30" t="s">
-        <v>2497</v>
+        <v>2483</v>
       </c>
       <c r="I226" s="30"/>
       <c r="J226" s="30" t="s">
-        <v>2499</v>
+        <v>2485</v>
       </c>
       <c r="K226" s="30"/>
       <c r="L226" s="37"/>
@@ -42692,7 +42809,7 @@
     </row>
     <row r="228" spans="1:12" ht="15.75" thickBot="1">
       <c r="B228" t="s">
-        <v>2485</v>
+        <v>2471</v>
       </c>
       <c r="D228" s="56"/>
       <c r="E228" s="39"/>
@@ -42711,18 +42828,18 @@
     </row>
     <row r="230" spans="1:12" ht="15.75" thickBot="1">
       <c r="B230" t="s">
-        <v>2488</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="231" spans="1:12">
       <c r="B231" t="s">
-        <v>2500</v>
+        <v>2486</v>
       </c>
       <c r="D231" s="50" t="s">
-        <v>2510</v>
+        <v>2496</v>
       </c>
       <c r="E231" s="51" t="s">
-        <v>2511</v>
+        <v>2497</v>
       </c>
       <c r="F231" s="51"/>
       <c r="G231" s="51"/>
@@ -42734,10 +42851,10 @@
     </row>
     <row r="232" spans="1:12">
       <c r="B232" t="s">
-        <v>2514</v>
+        <v>2500</v>
       </c>
       <c r="D232" s="53" t="s">
-        <v>2490</v>
+        <v>2476</v>
       </c>
       <c r="E232" s="54" t="s">
         <v>431</v>
@@ -42748,13 +42865,13 @@
       <c r="I232" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="J232" s="239"/>
+      <c r="J232" s="229"/>
       <c r="K232" s="54"/>
       <c r="L232" s="55"/>
     </row>
     <row r="233" spans="1:12" ht="15.75" thickBot="1">
       <c r="B233" t="s">
-        <v>2488</v>
+        <v>2474</v>
       </c>
       <c r="D233" s="53" t="s">
         <v>1921</v>
@@ -42785,7 +42902,7 @@
       <c r="F234" s="54"/>
       <c r="G234" s="54"/>
       <c r="H234" s="54" t="s">
-        <v>2515</v>
+        <v>2501</v>
       </c>
       <c r="I234" s="54" t="s">
         <v>2020</v>
@@ -42796,7 +42913,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="A235" t="s">
-        <v>2503</v>
+        <v>2489</v>
       </c>
       <c r="D235" s="53" t="s">
         <v>1907</v>
@@ -42827,7 +42944,7 @@
       <c r="H236" s="54"/>
       <c r="I236" s="54"/>
       <c r="J236" s="56" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="K236" s="58">
         <v>20</v>
@@ -42836,7 +42953,7 @@
     </row>
     <row r="237" spans="1:12" ht="15.75" thickBot="1">
       <c r="B237" t="s">
-        <v>2506</v>
+        <v>2492</v>
       </c>
       <c r="D237" s="53"/>
       <c r="E237" s="54"/>
@@ -42850,7 +42967,7 @@
     </row>
     <row r="238" spans="1:12">
       <c r="B238" t="s">
-        <v>2507</v>
+        <v>2493</v>
       </c>
       <c r="D238" s="53"/>
       <c r="E238" s="54"/>
@@ -42872,7 +42989,7 @@
       <c r="E239" s="54"/>
       <c r="F239" s="54"/>
       <c r="G239" s="54" t="s">
-        <v>2512</v>
+        <v>2498</v>
       </c>
       <c r="H239" s="54"/>
       <c r="I239" s="54"/>
@@ -42886,18 +43003,18 @@
     </row>
     <row r="240" spans="1:12" ht="15.75" thickBot="1">
       <c r="A240" t="s">
-        <v>2508</v>
+        <v>2494</v>
       </c>
       <c r="D240" s="53"/>
       <c r="E240" s="166" t="s">
-        <v>2513</v>
+        <v>2499</v>
       </c>
       <c r="F240" s="54"/>
-      <c r="G240" s="239"/>
+      <c r="G240" s="229"/>
       <c r="H240" s="54"/>
       <c r="I240" s="54"/>
       <c r="J240" s="56" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="K240" s="58">
         <v>20</v>
@@ -42906,14 +43023,14 @@
     </row>
     <row r="241" spans="1:12">
       <c r="B241" t="s">
-        <v>2509</v>
+        <v>2495</v>
       </c>
       <c r="D241" s="53"/>
       <c r="E241" s="54" t="s">
         <v>430</v>
       </c>
       <c r="F241" s="54"/>
-      <c r="G241" s="239"/>
+      <c r="G241" s="229"/>
       <c r="H241" s="54"/>
       <c r="I241" s="54"/>
       <c r="J241" s="54"/>
@@ -42929,7 +43046,7 @@
         <v>542</v>
       </c>
       <c r="F242" s="54"/>
-      <c r="G242" s="239"/>
+      <c r="G242" s="229"/>
       <c r="H242" s="54"/>
       <c r="I242" s="54"/>
       <c r="J242" s="54"/>
@@ -42943,7 +43060,7 @@
       <c r="D243" s="53"/>
       <c r="E243" s="54"/>
       <c r="F243" s="54"/>
-      <c r="G243" s="239"/>
+      <c r="G243" s="229"/>
       <c r="H243" s="54"/>
       <c r="I243" s="54"/>
       <c r="J243" s="54"/>
@@ -42957,7 +43074,7 @@
       <c r="D244" s="53"/>
       <c r="E244" s="54"/>
       <c r="F244" s="54"/>
-      <c r="G244" s="239"/>
+      <c r="G244" s="229"/>
       <c r="H244" s="54"/>
       <c r="I244" s="54"/>
       <c r="J244" s="54"/>
@@ -42966,7 +43083,7 @@
     </row>
     <row r="245" spans="1:12" ht="15.75" thickBot="1">
       <c r="B245" t="s">
-        <v>2445</v>
+        <v>2431</v>
       </c>
       <c r="D245" s="56"/>
       <c r="E245" s="57"/>
@@ -42989,10 +43106,10 @@
         <v>1898</v>
       </c>
       <c r="D249" s="50" t="s">
-        <v>2510</v>
+        <v>2496</v>
       </c>
       <c r="E249" s="51" t="s">
-        <v>2511</v>
+        <v>2497</v>
       </c>
       <c r="F249" s="51"/>
       <c r="G249" s="51"/>
@@ -43016,13 +43133,13 @@
       <c r="G250" s="54"/>
       <c r="H250" s="54"/>
       <c r="I250" s="54"/>
-      <c r="J250" s="239"/>
+      <c r="J250" s="229"/>
       <c r="K250" s="54"/>
       <c r="L250" s="55"/>
     </row>
     <row r="251" spans="1:12" ht="15.75" thickBot="1">
       <c r="B251" t="s">
-        <v>2445</v>
+        <v>2431</v>
       </c>
       <c r="D251" s="53" t="s">
         <v>1921</v>
@@ -43081,7 +43198,7 @@
       <c r="H254" s="54"/>
       <c r="I254" s="54"/>
       <c r="J254" s="56" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="K254" s="58">
         <v>20</v>
@@ -43140,11 +43257,11 @@
       <c r="D258" s="53"/>
       <c r="E258" s="166"/>
       <c r="F258" s="54"/>
-      <c r="G258" s="239"/>
+      <c r="G258" s="229"/>
       <c r="H258" s="54"/>
       <c r="I258" s="54"/>
       <c r="J258" s="56" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="K258" s="58">
         <v>20</v>
@@ -43155,7 +43272,7 @@
       <c r="D259" s="53"/>
       <c r="E259" s="54"/>
       <c r="F259" s="54"/>
-      <c r="G259" s="239"/>
+      <c r="G259" s="229"/>
       <c r="H259" s="54"/>
       <c r="I259" s="54"/>
       <c r="J259" s="54"/>
@@ -43166,7 +43283,7 @@
       <c r="D260" s="53"/>
       <c r="E260" s="54"/>
       <c r="F260" s="54"/>
-      <c r="G260" s="239"/>
+      <c r="G260" s="229"/>
       <c r="H260" s="54"/>
       <c r="I260" s="54" t="s">
         <v>2077</v>
@@ -43179,7 +43296,7 @@
       <c r="D261" s="53"/>
       <c r="E261" s="54"/>
       <c r="F261" s="54"/>
-      <c r="G261" s="239"/>
+      <c r="G261" s="229"/>
       <c r="H261" s="54"/>
       <c r="I261" s="54"/>
       <c r="J261" s="53" t="s">
@@ -43194,11 +43311,11 @@
       <c r="D262" s="53"/>
       <c r="E262" s="54"/>
       <c r="F262" s="54"/>
-      <c r="G262" s="239"/>
+      <c r="G262" s="229"/>
       <c r="H262" s="54"/>
       <c r="I262" s="54"/>
       <c r="J262" s="56" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="K262" s="58">
         <v>20</v>
@@ -43222,10 +43339,10 @@
         <v>1898</v>
       </c>
       <c r="D267" s="50" t="s">
-        <v>2510</v>
+        <v>2496</v>
       </c>
       <c r="E267" s="51" t="s">
-        <v>2511</v>
+        <v>2497</v>
       </c>
       <c r="F267" s="51"/>
       <c r="G267" s="51"/>
@@ -43249,13 +43366,13 @@
       <c r="G268" s="54"/>
       <c r="H268" s="54"/>
       <c r="I268" s="54"/>
-      <c r="J268" s="242"/>
+      <c r="J268" s="232"/>
       <c r="K268" s="54"/>
       <c r="L268" s="55"/>
     </row>
     <row r="269" spans="1:12" ht="15.75" thickBot="1">
       <c r="B269" t="s">
-        <v>2445</v>
+        <v>2431</v>
       </c>
       <c r="D269" s="53" t="s">
         <v>1921</v>
@@ -43314,7 +43431,7 @@
       <c r="H272" s="54"/>
       <c r="I272" s="54"/>
       <c r="J272" s="56" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="K272" s="58">
         <v>20</v>
@@ -43381,11 +43498,11 @@
         <v>10</v>
       </c>
       <c r="F276" s="54"/>
-      <c r="G276" s="242"/>
+      <c r="G276" s="232"/>
       <c r="H276" s="54"/>
       <c r="I276" s="54"/>
       <c r="J276" s="56" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="K276" s="58">
         <v>20</v>
@@ -43394,7 +43511,7 @@
     </row>
     <row r="277" spans="1:12" ht="15.75" thickBot="1">
       <c r="B277" t="s">
-        <v>2516</v>
+        <v>2502</v>
       </c>
       <c r="C277" t="b">
         <v>0</v>
@@ -43402,7 +43519,7 @@
       <c r="D277" s="53"/>
       <c r="E277" s="54"/>
       <c r="F277" s="54"/>
-      <c r="G277" s="242"/>
+      <c r="G277" s="232"/>
       <c r="H277" s="54"/>
       <c r="I277" s="54"/>
       <c r="J277" s="54"/>
@@ -43413,7 +43530,7 @@
       <c r="D278" s="53"/>
       <c r="E278" s="54"/>
       <c r="F278" s="54"/>
-      <c r="G278" s="242"/>
+      <c r="G278" s="232"/>
       <c r="H278" s="54"/>
       <c r="I278" s="54" t="s">
         <v>2077</v>
@@ -43424,12 +43541,12 @@
     </row>
     <row r="279" spans="1:12">
       <c r="A279" t="s">
-        <v>2517</v>
+        <v>2503</v>
       </c>
       <c r="D279" s="53"/>
       <c r="E279" s="54"/>
       <c r="F279" s="54"/>
-      <c r="G279" s="242"/>
+      <c r="G279" s="232"/>
       <c r="H279" s="54"/>
       <c r="I279" s="54"/>
       <c r="J279" s="53" t="s">
@@ -43442,16 +43559,16 @@
     </row>
     <row r="280" spans="1:12" ht="15.75" thickBot="1">
       <c r="A280" t="s">
-        <v>2518</v>
+        <v>2504</v>
       </c>
       <c r="D280" s="53"/>
       <c r="E280" s="54"/>
       <c r="F280" s="54"/>
-      <c r="G280" s="242"/>
+      <c r="G280" s="232"/>
       <c r="H280" s="54"/>
       <c r="I280" s="54"/>
       <c r="J280" s="56" t="s">
-        <v>2452</v>
+        <v>2438</v>
       </c>
       <c r="K280" s="58">
         <v>20</v>
@@ -43460,7 +43577,7 @@
     </row>
     <row r="281" spans="1:12" ht="15.75" thickBot="1">
       <c r="B281" t="s">
-        <v>2519</v>
+        <v>2505</v>
       </c>
       <c r="C281" t="b">
         <v>1</v>
@@ -43477,7 +43594,7 @@
     </row>
     <row r="283" spans="1:12">
       <c r="B283" t="s">
-        <v>2520</v>
+        <v>2506</v>
       </c>
       <c r="C283" t="b">
         <v>1</v>
@@ -43485,7 +43602,7 @@
     </row>
     <row r="286" spans="1:12" ht="15.75" thickBot="1">
       <c r="A286" t="s">
-        <v>2532</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -43510,13 +43627,13 @@
         <v>222</v>
       </c>
       <c r="E288" s="54" t="s">
-        <v>2526</v>
+        <v>2512</v>
       </c>
       <c r="F288" s="54"/>
       <c r="G288" s="54"/>
       <c r="H288" s="54"/>
       <c r="I288" s="54"/>
-      <c r="J288" s="243"/>
+      <c r="J288" s="233"/>
       <c r="K288" s="54"/>
       <c r="L288" s="55"/>
     </row>
@@ -43540,7 +43657,7 @@
         <v>162</v>
       </c>
       <c r="D290" s="53" t="s">
-        <v>2527</v>
+        <v>2513</v>
       </c>
       <c r="E290" s="54" t="s">
         <v>2020</v>
@@ -43566,7 +43683,7 @@
     </row>
     <row r="292" spans="1:12" ht="15.75" thickBot="1">
       <c r="A292" t="s">
-        <v>2522</v>
+        <v>2508</v>
       </c>
       <c r="D292" s="53"/>
       <c r="E292" s="54"/>
@@ -43580,7 +43697,7 @@
     </row>
     <row r="293" spans="1:12" ht="15.75" thickBot="1">
       <c r="B293" t="s">
-        <v>2523</v>
+        <v>2509</v>
       </c>
       <c r="D293" s="53"/>
       <c r="E293" s="54"/>
@@ -43589,14 +43706,14 @@
       <c r="H293" s="54"/>
       <c r="I293" s="54"/>
       <c r="J293" s="54" t="s">
-        <v>2531</v>
+        <v>2517</v>
       </c>
       <c r="K293" s="54"/>
       <c r="L293" s="55"/>
     </row>
     <row r="294" spans="1:12">
       <c r="B294" t="s">
-        <v>2506</v>
+        <v>2492</v>
       </c>
       <c r="D294" s="53"/>
       <c r="E294" s="54"/>
@@ -43612,7 +43729,7 @@
     </row>
     <row r="295" spans="1:12">
       <c r="B295" t="s">
-        <v>2529</v>
+        <v>2515</v>
       </c>
       <c r="D295" s="53"/>
       <c r="E295" s="54"/>
@@ -43630,12 +43747,12 @@
     </row>
     <row r="296" spans="1:12" ht="15.75" thickBot="1">
       <c r="B296" t="s">
-        <v>2530</v>
+        <v>2516</v>
       </c>
       <c r="D296" s="53"/>
       <c r="E296" s="166"/>
       <c r="F296" s="54"/>
-      <c r="G296" s="243"/>
+      <c r="G296" s="233"/>
       <c r="H296" s="54"/>
       <c r="I296" s="54"/>
       <c r="J296" s="56"/>
@@ -43649,7 +43766,7 @@
       <c r="D297" s="53"/>
       <c r="E297" s="54"/>
       <c r="F297" s="54"/>
-      <c r="G297" s="243"/>
+      <c r="G297" s="233"/>
       <c r="H297" s="54"/>
       <c r="I297" s="54"/>
       <c r="J297" s="54"/>
@@ -43658,12 +43775,12 @@
     </row>
     <row r="298" spans="1:12">
       <c r="A298" t="s">
-        <v>2524</v>
+        <v>2510</v>
       </c>
       <c r="D298" s="53"/>
       <c r="E298" s="54"/>
       <c r="F298" s="54"/>
-      <c r="G298" s="243"/>
+      <c r="G298" s="233"/>
       <c r="H298" s="54"/>
       <c r="I298" s="54"/>
       <c r="J298" s="50"/>
@@ -43672,12 +43789,12 @@
     </row>
     <row r="299" spans="1:12">
       <c r="B299" t="s">
-        <v>2525</v>
+        <v>2511</v>
       </c>
       <c r="D299" s="53"/>
       <c r="E299" s="54"/>
       <c r="F299" s="54"/>
-      <c r="G299" s="243"/>
+      <c r="G299" s="233"/>
       <c r="H299" s="54"/>
       <c r="I299" s="54"/>
       <c r="J299" s="53"/>
@@ -43691,7 +43808,7 @@
       <c r="D300" s="53"/>
       <c r="E300" s="54"/>
       <c r="F300" s="54"/>
-      <c r="G300" s="243"/>
+      <c r="G300" s="233"/>
       <c r="H300" s="54"/>
       <c r="I300" s="54"/>
       <c r="J300" s="56"/>
@@ -43700,7 +43817,7 @@
     </row>
     <row r="301" spans="1:12" ht="15.75" thickBot="1">
       <c r="B301" t="s">
-        <v>2528</v>
+        <v>2514</v>
       </c>
       <c r="D301" s="56"/>
       <c r="E301" s="57"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4893" uniqueCount="2738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4968" uniqueCount="2765">
   <si>
     <t>USER</t>
   </si>
@@ -7273,30 +7273,9 @@
     <t>Student s2=new Student("jane", 2);</t>
   </si>
   <si>
-    <t>map.put(s1,123);</t>
-  </si>
-  <si>
-    <t>map.put(s2,12);</t>
-  </si>
-  <si>
-    <t>map.put(s3,13);</t>
-  </si>
-  <si>
-    <t>s1 - ctagory ? Hashcode method of s1 object</t>
-  </si>
-  <si>
-    <t>john /1</t>
-  </si>
-  <si>
-    <t>jane/2</t>
-  </si>
-  <si>
     <t>Student s3=new Student("mike", 1);</t>
   </si>
   <si>
-    <t>Student s4=new Student("mike", 1);</t>
-  </si>
-  <si>
     <t>if(otherObj.name.equals(this.name) &amp;&amp;</t>
   </si>
   <si>
@@ -7306,12 +7285,6 @@
     <t>return false</t>
   </si>
   <si>
-    <t>mike /1</t>
-  </si>
-  <si>
-    <t>map.put(s4,13);</t>
-  </si>
-  <si>
     <t>2 objects can have same hashcode but not equal</t>
   </si>
   <si>
@@ -8438,6 +8411,114 @@
   </si>
   <si>
     <t>names[1]=null;</t>
+  </si>
+  <si>
+    <t>arraylist, vector,linkedlist</t>
+  </si>
+  <si>
+    <t>0- item</t>
+  </si>
+  <si>
+    <t>1-item</t>
+  </si>
+  <si>
+    <t>2-item</t>
+  </si>
+  <si>
+    <t>1000000-item</t>
+  </si>
+  <si>
+    <t>Arraylist and vector</t>
+  </si>
+  <si>
+    <t>READING</t>
+  </si>
+  <si>
+    <t>SLOWER READ</t>
+  </si>
+  <si>
+    <t>FASTER EDITING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked list </t>
+  </si>
+  <si>
+    <t>reading like going page by page</t>
+  </si>
+  <si>
+    <t>reading table of index. Jumping to specific page</t>
+  </si>
+  <si>
+    <t>Treemap</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Key=unique</t>
+  </si>
+  <si>
+    <t>Value = can be duplicate</t>
+  </si>
+  <si>
+    <t>set.add("ron");</t>
+  </si>
+  <si>
+    <t>hashing algorithm</t>
+  </si>
+  <si>
+    <t>million items</t>
+  </si>
+  <si>
+    <t>hashcode()</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>equals()</t>
+  </si>
+  <si>
+    <t>Student s4=new Student("john", 1);</t>
+  </si>
+  <si>
+    <t>school.add(s1);</t>
+  </si>
+  <si>
+    <t>school.add(s2);</t>
+  </si>
+  <si>
+    <t>school.add(s3);</t>
+  </si>
+  <si>
+    <t>school.add(s4);</t>
+  </si>
+  <si>
+    <t>HashSet&lt;StudentCol&gt; school=new HashSet&lt;StudentCol&gt; ();</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>items1</t>
+  </si>
+  <si>
+    <t>items2</t>
+  </si>
+  <si>
+    <t>s1=john/1</t>
+  </si>
+  <si>
+    <t>s2=jane/2</t>
+  </si>
+  <si>
+    <t>s3=mike/1</t>
   </si>
 </sst>
 </file>
@@ -8956,7 +9037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9453,6 +9534,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9471,12 +9561,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10487,19 +10575,19 @@
     </row>
     <row r="54" spans="1:13" ht="15.75" thickBot="1">
       <c r="A54" t="s">
-        <v>2439</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>2436</v>
+        <v>2427</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>2426</v>
+        <v>2417</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="34" t="s">
-        <v>2427</v>
+        <v>2418</v>
       </c>
       <c r="H55" s="34"/>
       <c r="I55" s="34"/>
@@ -10510,7 +10598,7 @@
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
       <c r="A56" t="s">
-        <v>2437</v>
+        <v>2428</v>
       </c>
       <c r="E56" s="219" t="s">
         <v>222</v>
@@ -10522,7 +10610,7 @@
       <c r="H56" s="54"/>
       <c r="I56" s="162"/>
       <c r="J56" s="162" t="s">
-        <v>2444</v>
+        <v>2435</v>
       </c>
       <c r="K56" s="162"/>
       <c r="L56" s="162"/>
@@ -10530,7 +10618,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>2435</v>
+        <v>2426</v>
       </c>
       <c r="E57" s="53" t="s">
         <v>196</v>
@@ -10550,7 +10638,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>2440</v>
+        <v>2431</v>
       </c>
       <c r="E58" s="53" t="s">
         <v>2279</v>
@@ -10572,7 +10660,7 @@
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1">
       <c r="A59" t="s">
-        <v>2434</v>
+        <v>2425</v>
       </c>
       <c r="E59" s="53" t="s">
         <v>1918</v>
@@ -10584,7 +10672,7 @@
       <c r="H59" s="54"/>
       <c r="I59" s="162"/>
       <c r="J59" s="185" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="K59" s="186">
         <v>12</v>
@@ -10594,7 +10682,7 @@
     </row>
     <row r="60" spans="1:13" ht="15.75" thickBot="1">
       <c r="A60" s="59" t="s">
-        <v>2441</v>
+        <v>2432</v>
       </c>
       <c r="E60" s="53" t="s">
         <v>1904</v>
@@ -10612,10 +10700,10 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="59" t="s">
-        <v>2442</v>
+        <v>2433</v>
       </c>
       <c r="B61" t="s">
-        <v>2443</v>
+        <v>2434</v>
       </c>
       <c r="E61" s="53"/>
       <c r="F61" s="54"/>
@@ -10649,7 +10737,7 @@
     </row>
     <row r="63" spans="1:13" ht="15.75" thickBot="1">
       <c r="A63" s="59" t="s">
-        <v>2445</v>
+        <v>2436</v>
       </c>
       <c r="B63" s="128"/>
       <c r="E63" s="53"/>
@@ -10658,7 +10746,7 @@
       <c r="H63" s="54"/>
       <c r="I63" s="54"/>
       <c r="J63" s="56" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="K63" s="58">
         <v>20</v>
@@ -10668,7 +10756,7 @@
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
       <c r="A64" s="128" t="s">
-        <v>2446</v>
+        <v>2437</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -10682,7 +10770,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>2433</v>
+        <v>2424</v>
       </c>
       <c r="C65">
         <v>30</v>
@@ -10701,7 +10789,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>2438</v>
+        <v>2429</v>
       </c>
       <c r="C66">
         <v>20</v>
@@ -10727,7 +10815,7 @@
       <c r="H67" s="54"/>
       <c r="I67" s="54"/>
       <c r="J67" s="56" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="K67" s="58">
         <v>20</v>
@@ -10765,7 +10853,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="B70" t="s">
-        <v>2425</v>
+        <v>2416</v>
       </c>
       <c r="E70" s="53"/>
       <c r="F70" s="54"/>
@@ -10796,35 +10884,35 @@
         <v>448</v>
       </c>
       <c r="B72" t="s">
-        <v>2428</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="B73" t="s">
-        <v>2429</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="B75" t="s">
-        <v>2430</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="B76" t="s">
-        <v>2431</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="80" spans="1:13" ht="15.75" thickBot="1">
       <c r="A80" t="s">
-        <v>2449</v>
+        <v>2440</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>2426</v>
+        <v>2417</v>
       </c>
       <c r="F80" s="34"/>
       <c r="G80" s="34" t="s">
-        <v>2427</v>
+        <v>2418</v>
       </c>
       <c r="H80" s="34"/>
       <c r="I80" s="34"/>
@@ -10835,7 +10923,7 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>2434</v>
+        <v>2425</v>
       </c>
       <c r="E81" s="219" t="s">
         <v>222</v>
@@ -10877,7 +10965,7 @@
     </row>
     <row r="83" spans="1:13" ht="15.75" thickBot="1">
       <c r="A83" t="s">
-        <v>2441</v>
+        <v>2432</v>
       </c>
       <c r="E83" s="53" t="s">
         <v>1904</v>
@@ -10889,7 +10977,7 @@
       <c r="H83" s="54"/>
       <c r="I83" s="222"/>
       <c r="J83" s="227" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="K83" s="228">
         <v>12</v>
@@ -10913,7 +11001,7 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>2442</v>
+        <v>2433</v>
       </c>
       <c r="E85" s="53"/>
       <c r="F85" s="54"/>
@@ -10929,7 +11017,7 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>2447</v>
+        <v>2438</v>
       </c>
       <c r="E86" s="53"/>
       <c r="F86" s="54"/>
@@ -10947,7 +11035,7 @@
     </row>
     <row r="87" spans="1:13" ht="15.75" thickBot="1">
       <c r="A87" t="s">
-        <v>2448</v>
+        <v>2439</v>
       </c>
       <c r="E87" s="53"/>
       <c r="F87" s="54"/>
@@ -10955,7 +11043,7 @@
       <c r="H87" s="54"/>
       <c r="I87" s="54"/>
       <c r="J87" s="56" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="K87" s="58">
         <v>30</v>
@@ -10991,7 +11079,7 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="128" t="s">
-        <v>2450</v>
+        <v>2441</v>
       </c>
       <c r="C90">
         <v>20</v>
@@ -11012,7 +11100,7 @@
     </row>
     <row r="91" spans="1:13" ht="15.75" thickBot="1">
       <c r="A91" t="s">
-        <v>2451</v>
+        <v>2442</v>
       </c>
       <c r="C91">
         <v>20</v>
@@ -11023,7 +11111,7 @@
       <c r="H91" s="54"/>
       <c r="I91" s="54"/>
       <c r="J91" s="56" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="K91" s="58">
         <v>20</v>
@@ -11075,7 +11163,7 @@
     </row>
     <row r="95" spans="1:13" ht="15.75" thickBot="1">
       <c r="B95" t="s">
-        <v>2425</v>
+        <v>2416</v>
       </c>
       <c r="E95" s="53"/>
       <c r="F95" s="54"/>
@@ -11083,7 +11171,7 @@
       <c r="H95" s="54"/>
       <c r="I95" s="54"/>
       <c r="J95" s="56" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="K95" s="58">
         <v>20</v>
@@ -15531,7 +15619,7 @@
       <c r="A1" s="60"/>
       <c r="B1" s="60"/>
       <c r="C1" s="60" t="s">
-        <v>2516</v>
+        <v>2507</v>
       </c>
       <c r="D1" s="60"/>
       <c r="E1" s="60"/>
@@ -15674,7 +15762,7 @@
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
       <c r="E8" s="60" t="s">
-        <v>2517</v>
+        <v>2508</v>
       </c>
       <c r="F8" s="60" t="s">
         <v>609</v>
@@ -15694,10 +15782,10 @@
       <c r="C9" s="60"/>
       <c r="D9" s="60"/>
       <c r="E9" s="154" t="s">
-        <v>2520</v>
+        <v>2511</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>2515</v>
+        <v>2506</v>
       </c>
       <c r="G9" s="60"/>
       <c r="H9" s="68"/>
@@ -15911,7 +15999,7 @@
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="128" t="s">
-        <v>2524</v>
+        <v>2515</v>
       </c>
       <c r="G18" s="153"/>
       <c r="H18" s="155" t="s">
@@ -15935,13 +16023,13 @@
         <v>593</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>2518</v>
+        <v>2509</v>
       </c>
       <c r="E19" s="68" t="s">
         <v>603</v>
       </c>
       <c r="F19" s="99" t="s">
-        <v>2525</v>
+        <v>2516</v>
       </c>
       <c r="G19" s="152"/>
       <c r="H19" s="155"/>
@@ -15963,7 +16051,7 @@
         <v>602</v>
       </c>
       <c r="D20" s="234" t="s">
-        <v>2519</v>
+        <v>2510</v>
       </c>
       <c r="E20" s="67" t="s">
         <v>604</v>
@@ -15987,7 +16075,7 @@
       <c r="B21" s="60"/>
       <c r="C21" s="68"/>
       <c r="D21" s="154" t="s">
-        <v>2521</v>
+        <v>2512</v>
       </c>
       <c r="E21" s="68" t="s">
         <v>605</v>
@@ -16015,7 +16103,7 @@
         <v>605</v>
       </c>
       <c r="D22" s="235" t="s">
-        <v>2522</v>
+        <v>2513</v>
       </c>
       <c r="E22" s="60" t="s">
         <v>593</v>
@@ -16076,7 +16164,7 @@
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60" t="s">
-        <v>2523</v>
+        <v>2514</v>
       </c>
       <c r="E25" s="60"/>
       <c r="F25" s="60"/>
@@ -18167,7 +18255,7 @@
         <v>222</v>
       </c>
       <c r="G138" s="30" t="s">
-        <v>2491</v>
+        <v>2482</v>
       </c>
       <c r="H138" s="30"/>
       <c r="I138" s="30"/>
@@ -18180,7 +18268,7 @@
     </row>
     <row r="139" spans="1:13">
       <c r="B139" t="s">
-        <v>2425</v>
+        <v>2416</v>
       </c>
       <c r="F139" s="36" t="s">
         <v>1918</v>
@@ -18213,7 +18301,7 @@
       <c r="I140" s="30"/>
       <c r="J140" s="30"/>
       <c r="K140" s="38" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="L140" s="40">
         <v>20</v>
@@ -18222,7 +18310,7 @@
     </row>
     <row r="141" spans="1:13" ht="15.75" thickBot="1">
       <c r="F141" s="36" t="s">
-        <v>2527</v>
+        <v>2518</v>
       </c>
       <c r="G141" s="41" t="s">
         <v>2074</v>
@@ -18273,7 +18361,7 @@
       <c r="I144" s="30"/>
       <c r="J144" s="30"/>
       <c r="K144" s="38" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="L144" s="40">
         <v>20</v>
@@ -18282,7 +18370,7 @@
     </row>
     <row r="145" spans="1:13" ht="15.75" thickBot="1">
       <c r="A145" t="s">
-        <v>2526</v>
+        <v>2517</v>
       </c>
       <c r="F145" s="36"/>
       <c r="G145" s="30"/>
@@ -18326,7 +18414,7 @@
       <c r="I148" s="30"/>
       <c r="J148" s="30"/>
       <c r="K148" s="38" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="L148" s="40">
         <v>20</v>
@@ -19410,7 +19498,7 @@
     </row>
     <row r="177" spans="2:10" ht="15.75" thickBot="1">
       <c r="C177" t="s">
-        <v>2537</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="178" spans="2:10">
@@ -19420,7 +19508,7 @@
       <c r="E178" s="34"/>
       <c r="F178" s="35"/>
       <c r="H178" s="33" t="s">
-        <v>2528</v>
+        <v>2519</v>
       </c>
       <c r="I178" s="34"/>
       <c r="J178" s="35"/>
@@ -19440,12 +19528,12 @@
     <row r="180" spans="2:10">
       <c r="D180" s="36"/>
       <c r="E180" s="30" t="s">
-        <v>2530</v>
+        <v>2521</v>
       </c>
       <c r="F180" s="37"/>
       <c r="H180" s="36"/>
       <c r="I180" s="36" t="s">
-        <v>2529</v>
+        <v>2520</v>
       </c>
       <c r="J180" s="37"/>
     </row>
@@ -19471,12 +19559,12 @@
     </row>
     <row r="183" spans="2:10" ht="15.75" thickBot="1">
       <c r="B183" t="s">
-        <v>2534</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="184" spans="2:10">
       <c r="B184" t="s">
-        <v>2535</v>
+        <v>2526</v>
       </c>
       <c r="F184" s="33" t="s">
         <v>748</v>
@@ -19496,7 +19584,7 @@
     </row>
     <row r="187" spans="2:10">
       <c r="B187" t="s">
-        <v>2533</v>
+        <v>2524</v>
       </c>
       <c r="F187" s="36"/>
       <c r="G187" s="30"/>
@@ -19517,15 +19605,15 @@
         <v>750</v>
       </c>
       <c r="H191" t="s">
-        <v>2531</v>
+        <v>2522</v>
       </c>
       <c r="J191" t="s">
-        <v>2532</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="193" spans="2:10" ht="15.75" thickBot="1">
       <c r="C193" t="s">
-        <v>2536</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="194" spans="2:10">
@@ -19535,7 +19623,7 @@
       <c r="E194" s="34"/>
       <c r="F194" s="35"/>
       <c r="H194" s="33" t="s">
-        <v>2528</v>
+        <v>2519</v>
       </c>
       <c r="I194" s="34"/>
       <c r="J194" s="35"/>
@@ -19554,12 +19642,12 @@
     </row>
     <row r="196" spans="2:10">
       <c r="D196" s="36" t="s">
-        <v>2538</v>
+        <v>2529</v>
       </c>
       <c r="E196" s="30"/>
       <c r="F196" s="37"/>
       <c r="H196" s="36" t="s">
-        <v>2538</v>
+        <v>2529</v>
       </c>
       <c r="I196" s="30"/>
       <c r="J196" s="37"/>
@@ -19567,12 +19655,12 @@
     <row r="197" spans="2:10">
       <c r="D197" s="36"/>
       <c r="E197" s="30" t="s">
-        <v>2539</v>
+        <v>2530</v>
       </c>
       <c r="F197" s="37"/>
       <c r="H197" s="36"/>
       <c r="I197" s="30" t="s">
-        <v>2540</v>
+        <v>2531</v>
       </c>
       <c r="J197" s="37"/>
     </row>
@@ -19590,12 +19678,12 @@
     </row>
     <row r="199" spans="2:10" ht="15.75" thickBot="1">
       <c r="B199" t="s">
-        <v>2534</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="200" spans="2:10">
       <c r="B200" t="s">
-        <v>2535</v>
+        <v>2526</v>
       </c>
       <c r="F200" s="33" t="s">
         <v>748</v>
@@ -19612,17 +19700,17 @@
     </row>
     <row r="202" spans="2:10">
       <c r="F202" s="36" t="s">
-        <v>2543</v>
+        <v>2534</v>
       </c>
       <c r="G202" s="30"/>
       <c r="H202" s="37"/>
     </row>
     <row r="203" spans="2:10">
       <c r="B203" t="s">
-        <v>2533</v>
+        <v>2524</v>
       </c>
       <c r="F203" s="36" t="s">
-        <v>2541</v>
+        <v>2532</v>
       </c>
       <c r="G203" s="30"/>
       <c r="H203" s="37"/>
@@ -19630,20 +19718,20 @@
     <row r="204" spans="2:10" ht="15.75" thickBot="1">
       <c r="F204" s="38"/>
       <c r="G204" s="39" t="s">
-        <v>2542</v>
+        <v>2533</v>
       </c>
       <c r="H204" s="40"/>
     </row>
     <row r="213" spans="4:10" ht="15.75" thickBot="1"/>
     <row r="214" spans="4:10">
       <c r="D214" s="33" t="s">
-        <v>2544</v>
+        <v>2535</v>
       </c>
       <c r="E214" s="34"/>
       <c r="F214" s="34"/>
       <c r="G214" s="35"/>
       <c r="I214" t="s">
-        <v>2546</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="215" spans="4:10" ht="15.75" thickBot="1">
@@ -19652,18 +19740,18 @@
       <c r="F215" s="30"/>
       <c r="G215" s="37"/>
       <c r="J215" t="s">
-        <v>2549</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="216" spans="4:10">
       <c r="D216" s="36"/>
       <c r="E216" s="33" t="s">
-        <v>2544</v>
+        <v>2535</v>
       </c>
       <c r="F216" s="35"/>
       <c r="G216" s="37"/>
       <c r="J216" t="s">
-        <v>2550</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="217" spans="4:10">
@@ -19672,7 +19760,7 @@
       <c r="F217" s="37"/>
       <c r="G217" s="37"/>
       <c r="J217" t="s">
-        <v>2547</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="218" spans="4:10">
@@ -19689,7 +19777,7 @@
         <v>24</v>
       </c>
       <c r="J218" t="s">
-        <v>2548</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="219" spans="4:10">
@@ -19712,7 +19800,7 @@
         <v>105</v>
       </c>
       <c r="I220" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="221" spans="4:10">
@@ -19723,15 +19811,15 @@
     </row>
     <row r="222" spans="4:10">
       <c r="D222" s="36" t="s">
-        <v>2545</v>
+        <v>2536</v>
       </c>
       <c r="E222" s="36" t="s">
-        <v>2545</v>
+        <v>2536</v>
       </c>
       <c r="F222" s="37"/>
       <c r="G222" s="37"/>
       <c r="J222" t="s">
-        <v>2552</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="223" spans="4:10" ht="15.75" thickBot="1">
@@ -19746,7 +19834,7 @@
       <c r="F224" s="30"/>
       <c r="G224" s="37"/>
       <c r="I224" t="s">
-        <v>2553</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="225" spans="4:11" ht="15.75" thickBot="1">
@@ -19755,23 +19843,23 @@
       <c r="F225" s="39"/>
       <c r="G225" s="40"/>
       <c r="I225" t="s">
-        <v>2554</v>
+        <v>2545</v>
       </c>
       <c r="K225" t="s">
-        <v>2556</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="226" spans="4:11">
       <c r="I226" t="s">
-        <v>2555</v>
+        <v>2546</v>
       </c>
       <c r="K226" t="s">
-        <v>2557</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="227" spans="4:11">
       <c r="J227" s="59" t="s">
-        <v>2558</v>
+        <v>2549</v>
       </c>
     </row>
   </sheetData>
@@ -21138,13 +21226,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="248" t="s">
+      <c r="H3" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="250"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="253"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="P4" t="s">
@@ -21181,20 +21269,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="251" t="s">
+      <c r="G6" s="254" t="s">
         <v>1678</v>
       </c>
-      <c r="H6" s="252"/>
+      <c r="H6" s="255"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="251" t="s">
+      <c r="J6" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="252"/>
+      <c r="K6" s="255"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="251" t="s">
+      <c r="M6" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="252"/>
+      <c r="N6" s="255"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="128" t="s">
@@ -21218,20 +21306,20 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
       <c r="F8" s="4"/>
-      <c r="G8" s="251" t="s">
+      <c r="G8" s="254" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="252"/>
+      <c r="H8" s="255"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="251" t="s">
+      <c r="J8" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="252"/>
+      <c r="K8" s="255"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="251" t="s">
+      <c r="M8" s="254" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="252"/>
+      <c r="N8" s="255"/>
       <c r="P8" t="s">
         <v>1684</v>
       </c>
@@ -22130,7 +22218,7 @@
     </row>
     <row r="86" spans="2:17">
       <c r="E86" t="s">
-        <v>2378</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="87" spans="2:17">
@@ -22260,7 +22348,7 @@
         <v>1</v>
       </c>
       <c r="M91" t="s">
-        <v>2501</v>
+        <v>2492</v>
       </c>
       <c r="N91" s="60">
         <v>9</v>
@@ -22290,7 +22378,7 @@
     </row>
     <row r="94" spans="2:17">
       <c r="E94" t="s">
-        <v>2379</v>
+        <v>2370</v>
       </c>
       <c r="O94">
         <v>1</v>
@@ -22315,10 +22403,10 @@
     </row>
     <row r="97" spans="8:10">
       <c r="H97" t="s">
-        <v>2380</v>
+        <v>2371</v>
       </c>
       <c r="I97" t="s">
-        <v>2381</v>
+        <v>2372</v>
       </c>
       <c r="J97">
         <v>128</v>
@@ -22326,7 +22414,7 @@
     </row>
     <row r="98" spans="8:10">
       <c r="H98" t="s">
-        <v>2382</v>
+        <v>2373</v>
       </c>
     </row>
   </sheetData>
@@ -24583,7 +24671,7 @@
     <row r="192" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="193" spans="1:17">
       <c r="A193" s="99" t="s">
-        <v>2560</v>
+        <v>2551</v>
       </c>
       <c r="B193" s="99"/>
       <c r="C193" s="99"/>
@@ -24601,10 +24689,10 @@
     </row>
     <row r="194" spans="1:17" ht="15.75" thickBot="1">
       <c r="A194" s="238" t="s">
-        <v>2569</v>
+        <v>2560</v>
       </c>
       <c r="B194" s="238" t="s">
-        <v>2561</v>
+        <v>2552</v>
       </c>
       <c r="C194" s="238"/>
       <c r="D194" s="62"/>
@@ -24626,7 +24714,7 @@
         <v>1551</v>
       </c>
       <c r="B195" s="99" t="s">
-        <v>2562</v>
+        <v>2553</v>
       </c>
       <c r="C195" s="99"/>
       <c r="G195" s="53"/>
@@ -24671,10 +24759,10 @@
       <c r="L196" s="54"/>
       <c r="M196" s="54"/>
       <c r="N196" s="53" t="s">
-        <v>2559</v>
+        <v>2550</v>
       </c>
       <c r="O196" s="55" t="s">
-        <v>2570</v>
+        <v>2561</v>
       </c>
       <c r="P196" s="77"/>
       <c r="Q196" s="237"/>
@@ -24682,7 +24770,7 @@
     <row r="197" spans="1:17" ht="15.75" thickBot="1">
       <c r="A197" s="99"/>
       <c r="B197" s="99" t="s">
-        <v>2563</v>
+        <v>2554</v>
       </c>
       <c r="C197" s="99"/>
       <c r="G197" s="53"/>
@@ -24709,7 +24797,7 @@
       <c r="A198" s="99"/>
       <c r="B198" s="99"/>
       <c r="C198" s="99" t="s">
-        <v>2564</v>
+        <v>2555</v>
       </c>
       <c r="G198" s="53"/>
       <c r="H198" s="54"/>
@@ -24727,7 +24815,7 @@
       <c r="A199" s="99"/>
       <c r="B199" s="99"/>
       <c r="C199" s="99" t="s">
-        <v>2565</v>
+        <v>2556</v>
       </c>
       <c r="G199" s="53"/>
       <c r="H199" s="54"/>
@@ -24761,10 +24849,10 @@
       <c r="L200" s="54"/>
       <c r="M200" s="54"/>
       <c r="N200" s="53" t="s">
-        <v>2559</v>
+        <v>2550</v>
       </c>
       <c r="O200" s="55" t="s">
-        <v>2570</v>
+        <v>2561</v>
       </c>
       <c r="P200" s="121"/>
       <c r="Q200" s="237"/>
@@ -24793,7 +24881,7 @@
     </row>
     <row r="202" spans="1:17" ht="15.75" thickBot="1">
       <c r="A202" s="99" t="s">
-        <v>2566</v>
+        <v>2557</v>
       </c>
       <c r="G202" s="53"/>
       <c r="H202" s="54"/>
@@ -24809,7 +24897,7 @@
     </row>
     <row r="203" spans="1:17">
       <c r="A203" s="99" t="s">
-        <v>2567</v>
+        <v>2558</v>
       </c>
       <c r="G203" s="53"/>
       <c r="H203" s="54"/>
@@ -24831,7 +24919,7 @@
     </row>
     <row r="204" spans="1:17">
       <c r="A204" s="99" t="s">
-        <v>2568</v>
+        <v>2559</v>
       </c>
       <c r="G204" s="53"/>
       <c r="H204" s="54"/>
@@ -24841,10 +24929,10 @@
       <c r="L204" s="54"/>
       <c r="M204" s="54"/>
       <c r="N204" s="53" t="s">
-        <v>2559</v>
+        <v>2550</v>
       </c>
       <c r="O204" s="55" t="s">
-        <v>2570</v>
+        <v>2561</v>
       </c>
       <c r="P204" s="77"/>
       <c r="Q204" s="237"/>
@@ -24934,7 +25022,7 @@
     <row r="213" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="214" spans="1:17">
       <c r="A214" s="99" t="s">
-        <v>2560</v>
+        <v>2551</v>
       </c>
       <c r="B214" s="99"/>
       <c r="C214" s="99"/>
@@ -24952,10 +25040,10 @@
     </row>
     <row r="215" spans="1:17" ht="15.75" thickBot="1">
       <c r="A215" s="238" t="s">
-        <v>2569</v>
+        <v>2560</v>
       </c>
       <c r="B215" s="238" t="s">
-        <v>2571</v>
+        <v>2562</v>
       </c>
       <c r="C215" s="238"/>
       <c r="D215" s="62"/>
@@ -24968,7 +25056,7 @@
       <c r="L215" s="54"/>
       <c r="M215" s="54"/>
       <c r="N215" s="54" t="s">
-        <v>2574</v>
+        <v>2565</v>
       </c>
       <c r="O215" s="54"/>
       <c r="P215" s="54"/>
@@ -24979,7 +25067,7 @@
         <v>1551</v>
       </c>
       <c r="B216" s="99" t="s">
-        <v>2562</v>
+        <v>2553</v>
       </c>
       <c r="C216" s="99"/>
       <c r="G216" s="53"/>
@@ -25031,7 +25119,7 @@
     <row r="218" spans="1:17" ht="15.75" thickBot="1">
       <c r="A218" s="99"/>
       <c r="B218" s="99" t="s">
-        <v>2563</v>
+        <v>2554</v>
       </c>
       <c r="C218" s="99"/>
       <c r="G218" s="53"/>
@@ -25058,7 +25146,7 @@
       <c r="A219" s="99"/>
       <c r="B219" s="99"/>
       <c r="C219" s="99" t="s">
-        <v>2564</v>
+        <v>2555</v>
       </c>
       <c r="G219" s="53"/>
       <c r="H219" s="54"/>
@@ -25076,7 +25164,7 @@
       <c r="A220" s="99"/>
       <c r="B220" s="99"/>
       <c r="C220" s="99" t="s">
-        <v>2565</v>
+        <v>2556</v>
       </c>
       <c r="G220" s="53"/>
       <c r="H220" s="54"/>
@@ -25094,7 +25182,7 @@
         <v>542</v>
       </c>
       <c r="P220" s="194" t="s">
-        <v>2573</v>
+        <v>2564</v>
       </c>
       <c r="Q220" s="237"/>
     </row>
@@ -25114,7 +25202,7 @@
       <c r="N221" s="53"/>
       <c r="O221" s="55"/>
       <c r="P221" s="194" t="s">
-        <v>2572</v>
+        <v>2563</v>
       </c>
       <c r="Q221" s="237"/>
     </row>
@@ -25142,7 +25230,7 @@
     </row>
     <row r="223" spans="1:17" ht="15.75" thickBot="1">
       <c r="A223" s="99" t="s">
-        <v>2566</v>
+        <v>2557</v>
       </c>
       <c r="G223" s="53"/>
       <c r="H223" s="54"/>
@@ -25158,7 +25246,7 @@
     </row>
     <row r="224" spans="1:17">
       <c r="A224" s="99" t="s">
-        <v>2567</v>
+        <v>2558</v>
       </c>
       <c r="G224" s="53"/>
       <c r="H224" s="54"/>
@@ -25180,7 +25268,7 @@
     </row>
     <row r="225" spans="1:17">
       <c r="A225" s="99" t="s">
-        <v>2568</v>
+        <v>2559</v>
       </c>
       <c r="G225" s="53"/>
       <c r="H225" s="54"/>
@@ -25196,7 +25284,7 @@
     </row>
     <row r="226" spans="1:17" ht="15.75" thickBot="1">
       <c r="A226" s="60" t="s">
-        <v>2576</v>
+        <v>2567</v>
       </c>
       <c r="G226" s="53"/>
       <c r="H226" s="54"/>
@@ -25216,7 +25304,7 @@
     </row>
     <row r="227" spans="1:17">
       <c r="A227" s="99" t="s">
-        <v>2575</v>
+        <v>2566</v>
       </c>
       <c r="G227" s="53"/>
       <c r="H227" s="54"/>
@@ -27409,7 +27497,7 @@
     <row r="205" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="206" spans="1:14" ht="15.75" thickBot="1">
       <c r="A206" t="s">
-        <v>2577</v>
+        <v>2568</v>
       </c>
       <c r="E206" s="33"/>
       <c r="F206" s="34"/>
@@ -27538,7 +27626,7 @@
     </row>
     <row r="213" spans="1:14">
       <c r="A213" t="s">
-        <v>2578</v>
+        <v>2569</v>
       </c>
       <c r="E213" s="36"/>
       <c r="F213" s="30"/>
@@ -27555,7 +27643,7 @@
     </row>
     <row r="214" spans="1:14" ht="15.75" thickBot="1">
       <c r="A214" t="s">
-        <v>2582</v>
+        <v>2573</v>
       </c>
       <c r="E214" s="36"/>
       <c r="F214" s="30"/>
@@ -27572,7 +27660,7 @@
     </row>
     <row r="215" spans="1:14">
       <c r="A215" t="s">
-        <v>2583</v>
+        <v>2574</v>
       </c>
       <c r="E215" s="36"/>
       <c r="F215" s="30"/>
@@ -27599,7 +27687,7 @@
     </row>
     <row r="217" spans="1:14" ht="15.75" thickBot="1">
       <c r="A217" t="s">
-        <v>2579</v>
+        <v>2570</v>
       </c>
       <c r="C217" t="s">
         <v>277</v>
@@ -27617,39 +27705,39 @@
     </row>
     <row r="218" spans="1:14">
       <c r="A218" t="s">
-        <v>2581</v>
+        <v>2572</v>
       </c>
       <c r="C218" t="s">
-        <v>2580</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="219" spans="1:14">
       <c r="E219" t="s">
-        <v>2584</v>
+        <v>2575</v>
       </c>
       <c r="F219" t="s">
-        <v>2587</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="220" spans="1:14">
       <c r="E220" t="s">
-        <v>2585</v>
+        <v>2576</v>
       </c>
       <c r="F220" t="s">
-        <v>2588</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="221" spans="1:14">
       <c r="E221" t="s">
-        <v>2586</v>
+        <v>2577</v>
       </c>
       <c r="F221" t="s">
-        <v>2589</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="32" t="s">
-        <v>2590</v>
+        <v>2581</v>
       </c>
       <c r="B223" s="32"/>
       <c r="C223" s="32"/>
@@ -27657,26 +27745,26 @@
     </row>
     <row r="224" spans="1:14">
       <c r="A224" t="s">
-        <v>2592</v>
+        <v>2583</v>
       </c>
       <c r="C224" t="s">
+        <v>2591</v>
+      </c>
+      <c r="F224" t="s">
         <v>2600</v>
-      </c>
-      <c r="F224" t="s">
-        <v>2609</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="B225" t="s">
-        <v>2593</v>
+        <v>2584</v>
       </c>
       <c r="D225" t="s">
-        <v>2601</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="C226" t="s">
-        <v>2594</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -27698,16 +27786,16 @@
     </row>
     <row r="229" spans="1:7">
       <c r="D229" t="s">
-        <v>2591</v>
+        <v>2582</v>
       </c>
       <c r="E229" s="60">
         <v>0</v>
       </c>
       <c r="F229" s="137" t="s">
-        <v>2599</v>
+        <v>2590</v>
       </c>
       <c r="G229" s="137" t="s">
-        <v>2604</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -27715,30 +27803,30 @@
         <v>1074</v>
       </c>
       <c r="B230" t="s">
-        <v>2597</v>
+        <v>2588</v>
       </c>
       <c r="E230" s="60">
         <v>1</v>
       </c>
       <c r="F230" s="137" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="G230" s="137" t="s">
-        <v>2608</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>2598</v>
+        <v>2589</v>
       </c>
       <c r="E231" s="60">
         <v>2</v>
       </c>
       <c r="F231" s="137" t="s">
-        <v>2595</v>
+        <v>2586</v>
       </c>
       <c r="G231" s="137" t="s">
-        <v>2596</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -27746,13 +27834,13 @@
         <v>1074</v>
       </c>
       <c r="B232" t="s">
-        <v>2602</v>
+        <v>2593</v>
       </c>
       <c r="G232" s="77"/>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>2603</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -27760,18 +27848,18 @@
         <v>702</v>
       </c>
       <c r="B234" t="s">
-        <v>2597</v>
+        <v>2588</v>
       </c>
       <c r="E234" t="s">
         <v>702</v>
       </c>
       <c r="F234" s="107" t="s">
-        <v>2597</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>2605</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -27779,29 +27867,29 @@
         <v>702</v>
       </c>
       <c r="B236" t="s">
-        <v>2602</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="241" spans="2:10">
       <c r="B241" t="s">
-        <v>2610</v>
+        <v>2601</v>
       </c>
       <c r="F241" s="60" t="s">
-        <v>2613</v>
+        <v>2604</v>
       </c>
       <c r="G241" s="60"/>
       <c r="I241" t="s">
-        <v>2614</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="242" spans="2:10">
       <c r="B242" t="s">
-        <v>2611</v>
+        <v>2602</v>
       </c>
       <c r="F242" s="60">
         <v>0</v>
@@ -27818,7 +27906,7 @@
     </row>
     <row r="243" spans="2:10">
       <c r="B243" t="s">
-        <v>2612</v>
+        <v>2603</v>
       </c>
       <c r="F243" s="60">
         <v>1</v>
@@ -27877,12 +27965,12 @@
     </row>
     <row r="248" spans="2:10">
       <c r="D248" t="s">
-        <v>2615</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="249" spans="2:10">
       <c r="E249" t="s">
-        <v>2616</v>
+        <v>2607</v>
       </c>
     </row>
   </sheetData>
@@ -29850,7 +29938,7 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" t="s">
-        <v>2635</v>
+        <v>2626</v>
       </c>
       <c r="F212" s="36" t="s">
         <v>222</v>
@@ -29866,7 +29954,7 @@
       </c>
       <c r="L212" s="34"/>
       <c r="M212" s="34" t="s">
-        <v>2634</v>
+        <v>2625</v>
       </c>
       <c r="N212" s="35"/>
       <c r="O212" s="37"/>
@@ -29908,7 +29996,7 @@
       <c r="J214" s="30"/>
       <c r="K214" s="36"/>
       <c r="L214" s="30" t="s">
-        <v>2639</v>
+        <v>2630</v>
       </c>
       <c r="M214" s="30"/>
       <c r="N214" s="37"/>
@@ -30023,7 +30111,7 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" t="s">
-        <v>2636</v>
+        <v>2627</v>
       </c>
       <c r="D221" t="b">
         <v>1</v>
@@ -30041,7 +30129,7 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" t="s">
-        <v>2632</v>
+        <v>2623</v>
       </c>
       <c r="D222" t="b">
         <v>1</v>
@@ -30063,7 +30151,7 @@
     </row>
     <row r="223" spans="1:15">
       <c r="A223" t="s">
-        <v>2633</v>
+        <v>2624</v>
       </c>
       <c r="D223" t="b">
         <v>0</v>
@@ -30117,18 +30205,18 @@
     </row>
     <row r="228" spans="1:15">
       <c r="D228" t="s">
-        <v>2637</v>
+        <v>2628</v>
       </c>
       <c r="G228" t="s">
-        <v>2638</v>
+        <v>2629</v>
       </c>
       <c r="I228" t="s">
-        <v>2640</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="229" spans="1:15">
       <c r="I229" t="s">
-        <v>2641</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="231" spans="1:15" ht="15.75" thickBot="1"/>
@@ -30160,10 +30248,10 @@
     </row>
     <row r="234" spans="1:15">
       <c r="A234" t="s">
-        <v>2642</v>
+        <v>2633</v>
       </c>
       <c r="F234" s="36" t="s">
-        <v>2649</v>
+        <v>2640</v>
       </c>
       <c r="G234" s="30"/>
       <c r="H234" s="30" t="s">
@@ -30179,11 +30267,11 @@
     </row>
     <row r="235" spans="1:15">
       <c r="A235" t="s">
-        <v>2643</v>
+        <v>2634</v>
       </c>
       <c r="D235" s="13"/>
       <c r="F235" s="36" t="s">
-        <v>2650</v>
+        <v>2641</v>
       </c>
       <c r="G235" s="30"/>
       <c r="H235" s="30" t="s">
@@ -30199,11 +30287,11 @@
     </row>
     <row r="236" spans="1:15">
       <c r="A236" t="s">
-        <v>2644</v>
+        <v>2635</v>
       </c>
       <c r="D236" s="13"/>
       <c r="F236" s="36" t="s">
-        <v>2651</v>
+        <v>2642</v>
       </c>
       <c r="G236" s="30"/>
       <c r="H236" s="30" t="s">
@@ -30223,11 +30311,11 @@
     </row>
     <row r="237" spans="1:15">
       <c r="A237" t="s">
-        <v>2647</v>
+        <v>2638</v>
       </c>
       <c r="D237" s="13"/>
       <c r="F237" s="36" t="s">
-        <v>2652</v>
+        <v>2643</v>
       </c>
       <c r="G237" s="54"/>
       <c r="H237" s="30" t="s">
@@ -30243,10 +30331,10 @@
     </row>
     <row r="238" spans="1:15">
       <c r="A238" t="s">
-        <v>2648</v>
+        <v>2639</v>
       </c>
       <c r="F238" s="36" t="s">
-        <v>2653</v>
+        <v>2644</v>
       </c>
       <c r="G238" s="54"/>
       <c r="H238" s="30" t="s">
@@ -30262,10 +30350,10 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" t="s">
+        <v>2636</v>
+      </c>
+      <c r="F239" s="36" t="s">
         <v>2645</v>
-      </c>
-      <c r="F239" s="36" t="s">
-        <v>2654</v>
       </c>
       <c r="G239" s="30"/>
       <c r="H239" s="30" t="s">
@@ -30281,10 +30369,10 @@
     </row>
     <row r="240" spans="1:15">
       <c r="A240" t="s">
+        <v>2637</v>
+      </c>
+      <c r="F240" s="36" t="s">
         <v>2646</v>
-      </c>
-      <c r="F240" s="36" t="s">
-        <v>2655</v>
       </c>
       <c r="G240" s="30"/>
       <c r="H240" s="30" t="s">
@@ -30297,7 +30385,7 @@
         <v>2017</v>
       </c>
       <c r="M240" s="30" t="s">
-        <v>2658</v>
+        <v>2649</v>
       </c>
       <c r="N240" s="37"/>
       <c r="O240" s="37"/>
@@ -30316,7 +30404,7 @@
     </row>
     <row r="242" spans="1:15">
       <c r="A242" t="s">
-        <v>2657</v>
+        <v>2648</v>
       </c>
       <c r="F242" s="36"/>
       <c r="G242" s="30"/>
@@ -30343,7 +30431,7 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" t="s">
-        <v>2656</v>
+        <v>2647</v>
       </c>
       <c r="F244" s="36"/>
       <c r="G244" s="30"/>
@@ -30394,37 +30482,37 @@
     </row>
     <row r="249" spans="1:15">
       <c r="D249" t="s">
-        <v>2637</v>
+        <v>2628</v>
       </c>
       <c r="G249" t="s">
-        <v>2638</v>
+        <v>2629</v>
       </c>
       <c r="I249" t="s">
-        <v>2640</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="252" spans="1:15">
       <c r="F252" t="s">
-        <v>2659</v>
+        <v>2650</v>
       </c>
       <c r="H252" t="s">
-        <v>2660</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="253" spans="1:15">
       <c r="G253" t="s">
-        <v>2661</v>
+        <v>2652</v>
       </c>
       <c r="I253" t="s">
-        <v>2663</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="254" spans="1:15">
       <c r="G254" t="s">
-        <v>2662</v>
+        <v>2653</v>
       </c>
       <c r="I254" t="s">
-        <v>2664</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="255" spans="1:15" ht="15.75" thickBot="1"/>
@@ -30459,16 +30547,16 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" t="s">
-        <v>2665</v>
+        <v>2656</v>
       </c>
       <c r="C258" t="s">
-        <v>2668</v>
+        <v>2659</v>
       </c>
       <c r="F258" s="36" t="s">
         <v>76</v>
       </c>
       <c r="G258" s="30" t="s">
-        <v>2673</v>
+        <v>2664</v>
       </c>
       <c r="H258" s="30"/>
       <c r="I258" s="30"/>
@@ -30481,10 +30569,10 @@
     </row>
     <row r="259" spans="1:15">
       <c r="A259" t="s">
-        <v>2666</v>
+        <v>2657</v>
       </c>
       <c r="C259" t="s">
-        <v>2674</v>
+        <v>2665</v>
       </c>
       <c r="F259" s="36"/>
       <c r="G259" s="30"/>
@@ -30503,7 +30591,7 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" t="s">
-        <v>2667</v>
+        <v>2658</v>
       </c>
       <c r="F260" s="36"/>
       <c r="G260" s="30"/>
@@ -30535,7 +30623,7 @@
       <c r="J261" s="36"/>
       <c r="K261" s="30"/>
       <c r="L261" s="30" t="s">
-        <v>2669</v>
+        <v>2660</v>
       </c>
       <c r="M261" t="s">
         <v>2299</v>
@@ -30545,20 +30633,20 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" t="s">
-        <v>2690</v>
+        <v>2681</v>
       </c>
       <c r="F262" s="36" t="s">
         <v>568</v>
       </c>
       <c r="G262" s="30" t="s">
-        <v>2679</v>
+        <v>2670</v>
       </c>
       <c r="H262" s="30"/>
       <c r="I262" s="30"/>
       <c r="J262" s="36"/>
       <c r="K262" s="30"/>
       <c r="L262" s="41" t="s">
-        <v>2670</v>
+        <v>2661</v>
       </c>
       <c r="M262" s="30" t="s">
         <v>2300</v>
@@ -30568,7 +30656,7 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" t="s">
-        <v>2686</v>
+        <v>2677</v>
       </c>
       <c r="F263" s="36" t="s">
         <v>729</v>
@@ -30581,7 +30669,7 @@
       <c r="J263" s="36"/>
       <c r="K263" s="30"/>
       <c r="L263" s="41" t="s">
-        <v>2671</v>
+        <v>2662</v>
       </c>
       <c r="M263" s="41" t="s">
         <v>1172</v>
@@ -30591,20 +30679,20 @@
     </row>
     <row r="264" spans="1:15">
       <c r="A264" t="s">
-        <v>2687</v>
+        <v>2678</v>
       </c>
       <c r="F264" s="36" t="s">
         <v>1160</v>
       </c>
       <c r="G264" s="41" t="s">
-        <v>2681</v>
+        <v>2672</v>
       </c>
       <c r="H264" s="30"/>
       <c r="I264" s="30"/>
       <c r="J264" s="36"/>
       <c r="K264" s="30"/>
       <c r="L264" s="41" t="s">
-        <v>2672</v>
+        <v>2663</v>
       </c>
       <c r="M264" s="41" t="s">
         <v>2301</v>
@@ -30614,7 +30702,7 @@
     </row>
     <row r="265" spans="1:15">
       <c r="A265" t="s">
-        <v>2688</v>
+        <v>2679</v>
       </c>
       <c r="F265" s="36" t="s">
         <v>2276</v>
@@ -30627,7 +30715,7 @@
       <c r="J265" s="36"/>
       <c r="K265" s="30"/>
       <c r="L265" s="41" t="s">
-        <v>2673</v>
+        <v>2664</v>
       </c>
       <c r="M265" t="s">
         <v>2302</v>
@@ -30640,14 +30728,14 @@
         <v>1918</v>
       </c>
       <c r="G266" s="41" t="s">
-        <v>2672</v>
+        <v>2663</v>
       </c>
       <c r="H266" s="30"/>
       <c r="I266" s="30"/>
       <c r="J266" s="36"/>
       <c r="K266" s="30"/>
       <c r="L266" s="41" t="s">
-        <v>2672</v>
+        <v>2663</v>
       </c>
       <c r="M266" s="30" t="s">
         <v>577</v>
@@ -30660,7 +30748,7 @@
         <v>1904</v>
       </c>
       <c r="G267" s="41" t="s">
-        <v>2685</v>
+        <v>2676</v>
       </c>
       <c r="H267" s="30"/>
       <c r="I267" s="30"/>
@@ -30670,7 +30758,7 @@
         <v>2103</v>
       </c>
       <c r="M267" s="41" t="s">
-        <v>2678</v>
+        <v>2669</v>
       </c>
       <c r="N267" s="37"/>
       <c r="O267" s="37"/>
@@ -30678,10 +30766,10 @@
     <row r="268" spans="1:15">
       <c r="F268" s="36"/>
       <c r="G268" s="30" t="s">
-        <v>2681</v>
+        <v>2672</v>
       </c>
       <c r="H268" s="30" t="s">
-        <v>2678</v>
+        <v>2669</v>
       </c>
       <c r="I268" s="30"/>
       <c r="J268" s="36"/>
@@ -30693,11 +30781,11 @@
     </row>
     <row r="269" spans="1:15" ht="15.75" thickBot="1">
       <c r="A269" t="s">
-        <v>2675</v>
+        <v>2666</v>
       </c>
       <c r="F269" s="36"/>
       <c r="G269" s="30" t="s">
-        <v>2679</v>
+        <v>2670</v>
       </c>
       <c r="H269" s="30" t="s">
         <v>430</v>
@@ -30706,7 +30794,7 @@
       <c r="J269" s="38"/>
       <c r="K269" s="39"/>
       <c r="L269" s="39" t="s">
-        <v>2685</v>
+        <v>2676</v>
       </c>
       <c r="M269" s="39" t="s">
         <v>542</v>
@@ -30716,7 +30804,7 @@
     </row>
     <row r="270" spans="1:15">
       <c r="A270" t="s">
-        <v>2676</v>
+        <v>2667</v>
       </c>
       <c r="F270" s="36"/>
       <c r="G270" s="30"/>
@@ -30731,17 +30819,17 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" t="s">
-        <v>2677</v>
+        <v>2668</v>
       </c>
       <c r="F271" s="36" t="s">
-        <v>2689</v>
+        <v>2680</v>
       </c>
       <c r="G271" s="41" t="s">
-        <v>2670</v>
+        <v>2661</v>
       </c>
       <c r="H271" s="30"/>
       <c r="I271" s="30" t="s">
-        <v>2670</v>
+        <v>2661</v>
       </c>
       <c r="J271" s="41" t="s">
         <v>2302</v>
@@ -30754,7 +30842,7 @@
     </row>
     <row r="272" spans="1:15" ht="15.75" thickBot="1">
       <c r="A272" t="s">
-        <v>2680</v>
+        <v>2671</v>
       </c>
       <c r="F272" s="38"/>
       <c r="G272" s="39"/>
@@ -30769,12 +30857,12 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>2682</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="B275" t="s">
-        <v>2683</v>
+        <v>2674</v>
       </c>
       <c r="C275" t="b">
         <v>0</v>
@@ -30782,7 +30870,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="B276" t="s">
-        <v>2684</v>
+        <v>2675</v>
       </c>
       <c r="C276" t="b">
         <v>1</v>
@@ -32631,18 +32719,18 @@
     <row r="300" spans="4:12">
       <c r="D300" s="109"/>
       <c r="E300" t="s">
-        <v>2620</v>
+        <v>2611</v>
       </c>
       <c r="G300" t="s">
         <v>1922</v>
       </c>
       <c r="H300" t="s">
-        <v>2618</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="302" spans="4:12">
       <c r="E302" t="s">
-        <v>2621</v>
+        <v>2612</v>
       </c>
       <c r="G302" t="s">
         <v>1157</v>
@@ -32650,7 +32738,7 @@
     </row>
     <row r="304" spans="4:12">
       <c r="E304" t="s">
-        <v>2622</v>
+        <v>2613</v>
       </c>
       <c r="G304" t="s">
         <v>1156</v>
@@ -32658,19 +32746,19 @@
     </row>
     <row r="306" spans="2:13">
       <c r="C306" t="s">
-        <v>2623</v>
+        <v>2614</v>
       </c>
       <c r="E306" t="s">
-        <v>2617</v>
+        <v>2608</v>
       </c>
       <c r="H306" t="s">
-        <v>2619</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="307" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="308" spans="2:13">
       <c r="B308" t="s">
-        <v>2624</v>
+        <v>2615</v>
       </c>
       <c r="G308" s="33"/>
       <c r="H308" s="34"/>
@@ -32682,7 +32770,7 @@
     </row>
     <row r="309" spans="2:13">
       <c r="G309" s="36" t="s">
-        <v>2627</v>
+        <v>2618</v>
       </c>
       <c r="H309" s="30" t="s">
         <v>431</v>
@@ -32704,12 +32792,12 @@
     </row>
     <row r="311" spans="2:13">
       <c r="B311" t="s">
-        <v>2625</v>
+        <v>2616</v>
       </c>
       <c r="G311" s="36"/>
       <c r="H311" s="30"/>
       <c r="I311" s="30" t="s">
-        <v>2629</v>
+        <v>2620</v>
       </c>
       <c r="J311" s="50" t="s">
         <v>420</v>
@@ -32728,7 +32816,7 @@
         <v>1279</v>
       </c>
       <c r="K312" s="54" t="s">
-        <v>2628</v>
+        <v>2619</v>
       </c>
       <c r="L312" s="55"/>
       <c r="M312" s="37"/>
@@ -32751,7 +32839,7 @@
     </row>
     <row r="314" spans="2:13" ht="15.75" thickBot="1">
       <c r="C314" t="s">
-        <v>2626</v>
+        <v>2617</v>
       </c>
       <c r="G314" s="36"/>
       <c r="H314" s="30"/>
@@ -32765,7 +32853,7 @@
       <c r="G315" s="36"/>
       <c r="H315" s="30"/>
       <c r="I315" s="30" t="s">
-        <v>2628</v>
+        <v>2619</v>
       </c>
       <c r="J315" s="50" t="s">
         <v>76</v>
@@ -32778,13 +32866,13 @@
     </row>
     <row r="316" spans="2:13">
       <c r="B316" t="s">
-        <v>2630</v>
+        <v>2621</v>
       </c>
       <c r="G316" s="36"/>
       <c r="H316" s="30"/>
       <c r="I316" s="30"/>
       <c r="J316" s="53" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="K316" s="54">
         <v>0</v>
@@ -32794,7 +32882,7 @@
     </row>
     <row r="317" spans="2:13" ht="15.75" thickBot="1">
       <c r="C317" t="s">
-        <v>2631</v>
+        <v>2622</v>
       </c>
       <c r="G317" s="36"/>
       <c r="H317" s="30"/>
@@ -33241,7 +33329,7 @@
     <row r="35" spans="1:16">
       <c r="A35" s="99"/>
       <c r="B35" s="116" t="s">
-        <v>2710</v>
+        <v>2701</v>
       </c>
       <c r="C35" s="193" t="s">
         <v>1270</v>
@@ -33250,7 +33338,7 @@
       <c r="E35" s="99"/>
       <c r="F35" s="99"/>
       <c r="G35" s="116" t="s">
-        <v>2711</v>
+        <v>2702</v>
       </c>
       <c r="H35" s="117" t="s">
         <v>1271</v>
@@ -33259,7 +33347,7 @@
       <c r="J35" s="99"/>
       <c r="K35" s="99"/>
       <c r="L35" s="116" t="s">
-        <v>2711</v>
+        <v>2702</v>
       </c>
       <c r="M35" s="193" t="s">
         <v>1272</v>
@@ -33277,7 +33365,7 @@
       <c r="E36" s="99"/>
       <c r="F36" s="99"/>
       <c r="G36" s="119" t="s">
-        <v>2712</v>
+        <v>2703</v>
       </c>
       <c r="H36" s="194" t="s">
         <v>219</v>
@@ -33286,7 +33374,7 @@
       <c r="J36" s="99"/>
       <c r="K36" s="99"/>
       <c r="L36" s="119" t="s">
-        <v>2713</v>
+        <v>2704</v>
       </c>
       <c r="M36" s="194" t="s">
         <v>1274</v>
@@ -33296,11 +33384,11 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="99" t="s">
-        <v>2705</v>
+        <v>2696</v>
       </c>
       <c r="B37" s="239"/>
       <c r="C37" s="240" t="s">
-        <v>2726</v>
+        <v>2717</v>
       </c>
       <c r="D37" s="241"/>
       <c r="E37" s="242"/>
@@ -33310,7 +33398,7 @@
       <c r="I37" s="241"/>
       <c r="J37" s="242"/>
       <c r="K37" s="242" t="s">
-        <v>2705</v>
+        <v>2696</v>
       </c>
       <c r="L37" s="239"/>
       <c r="M37" s="243"/>
@@ -33319,11 +33407,11 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="99" t="s">
-        <v>2706</v>
+        <v>2697</v>
       </c>
       <c r="B38" s="239"/>
-      <c r="C38" s="255" t="s">
-        <v>2724</v>
+      <c r="C38" s="250" t="s">
+        <v>2715</v>
       </c>
       <c r="D38" s="241"/>
       <c r="E38" s="242"/>
@@ -33335,22 +33423,22 @@
       <c r="I38" s="241"/>
       <c r="J38" s="242"/>
       <c r="K38" s="242" t="s">
-        <v>2708</v>
+        <v>2699</v>
       </c>
       <c r="L38" s="239"/>
       <c r="M38" s="243" t="s">
-        <v>2728</v>
+        <v>2719</v>
       </c>
       <c r="N38" s="241"/>
       <c r="O38" s="99"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="99" t="s">
-        <v>2707</v>
+        <v>2698</v>
       </c>
       <c r="B39" s="239"/>
-      <c r="C39" s="255" t="s">
-        <v>2725</v>
+      <c r="C39" s="250" t="s">
+        <v>2716</v>
       </c>
       <c r="D39" s="241"/>
       <c r="E39" s="242"/>
@@ -33362,11 +33450,11 @@
       <c r="I39" s="241"/>
       <c r="J39" s="242"/>
       <c r="K39" s="242" t="s">
-        <v>2709</v>
+        <v>2700</v>
       </c>
       <c r="L39" s="239"/>
       <c r="M39" s="243" t="s">
-        <v>2729</v>
+        <v>2720</v>
       </c>
       <c r="N39" s="241"/>
       <c r="O39" s="99"/>
@@ -33378,7 +33466,7 @@
       <c r="A40" s="99"/>
       <c r="B40" s="239"/>
       <c r="C40" s="240" t="s">
-        <v>2727</v>
+        <v>2718</v>
       </c>
       <c r="D40" s="241"/>
       <c r="E40" s="242"/>
@@ -33394,7 +33482,7 @@
       </c>
       <c r="L40" s="239"/>
       <c r="M40" s="243" t="s">
-        <v>2730</v>
+        <v>2721</v>
       </c>
       <c r="N40" s="241"/>
       <c r="O40" s="99"/>
@@ -33406,7 +33494,7 @@
       <c r="A41" s="99"/>
       <c r="B41" s="239"/>
       <c r="C41" s="240" t="s">
-        <v>2714</v>
+        <v>2705</v>
       </c>
       <c r="D41" s="241"/>
       <c r="E41" s="242"/>
@@ -33419,8 +33507,8 @@
       <c r="J41" s="242"/>
       <c r="K41" s="242"/>
       <c r="L41" s="239"/>
-      <c r="M41" s="254" t="s">
-        <v>2731</v>
+      <c r="M41" s="249" t="s">
+        <v>2722</v>
       </c>
       <c r="N41" s="241"/>
       <c r="O41" s="99"/>
@@ -33429,7 +33517,7 @@
       <c r="A42" s="99"/>
       <c r="B42" s="239"/>
       <c r="C42" s="240" t="s">
-        <v>2726</v>
+        <v>2717</v>
       </c>
       <c r="D42" s="241"/>
       <c r="E42" s="242"/>
@@ -33442,8 +33530,8 @@
       <c r="J42" s="242"/>
       <c r="K42" s="242"/>
       <c r="L42" s="239"/>
-      <c r="M42" s="255" t="s">
-        <v>2732</v>
+      <c r="M42" s="250" t="s">
+        <v>2723</v>
       </c>
       <c r="N42" s="241"/>
       <c r="O42" s="99"/>
@@ -33451,8 +33539,8 @@
     <row r="43" spans="1:16">
       <c r="A43" s="99"/>
       <c r="B43" s="239"/>
-      <c r="C43" s="255" t="s">
-        <v>2724</v>
+      <c r="C43" s="250" t="s">
+        <v>2715</v>
       </c>
       <c r="D43" s="241"/>
       <c r="E43" s="242"/>
@@ -33465,8 +33553,8 @@
       <c r="J43" s="242"/>
       <c r="K43" s="242"/>
       <c r="L43" s="239"/>
-      <c r="M43" s="255" t="s">
-        <v>2714</v>
+      <c r="M43" s="250" t="s">
+        <v>2705</v>
       </c>
       <c r="N43" s="241"/>
       <c r="O43" s="99"/>
@@ -33474,7 +33562,7 @@
     <row r="44" spans="1:16">
       <c r="A44" s="99"/>
       <c r="B44" s="239"/>
-      <c r="C44" s="255"/>
+      <c r="C44" s="250"/>
       <c r="D44" s="241"/>
       <c r="E44" s="242"/>
       <c r="F44" s="242"/>
@@ -33485,7 +33573,7 @@
       <c r="K44" s="242"/>
       <c r="L44" s="239"/>
       <c r="M44" s="240" t="s">
-        <v>2733</v>
+        <v>2724</v>
       </c>
       <c r="N44" s="241"/>
       <c r="O44" s="99"/>
@@ -33493,7 +33581,7 @@
     <row r="45" spans="1:16">
       <c r="A45" s="99"/>
       <c r="B45" s="239"/>
-      <c r="C45" s="255"/>
+      <c r="C45" s="250"/>
       <c r="D45" s="241"/>
       <c r="E45" s="242"/>
       <c r="F45" s="242"/>
@@ -33504,7 +33592,7 @@
       <c r="K45" s="242"/>
       <c r="L45" s="239"/>
       <c r="M45" s="243" t="s">
-        <v>2715</v>
+        <v>2706</v>
       </c>
       <c r="N45" s="241"/>
       <c r="O45" s="99"/>
@@ -33575,7 +33663,7 @@
       <c r="J49" s="242"/>
       <c r="K49" s="242"/>
       <c r="L49" s="239"/>
-      <c r="M49" s="255"/>
+      <c r="M49" s="250"/>
       <c r="N49" s="241"/>
       <c r="O49" s="99"/>
     </row>
@@ -33592,7 +33680,7 @@
       <c r="J50" s="242"/>
       <c r="K50" s="242"/>
       <c r="L50" s="239"/>
-      <c r="M50" s="255"/>
+      <c r="M50" s="250"/>
       <c r="N50" s="241"/>
       <c r="O50" s="99"/>
     </row>
@@ -33644,7 +33732,7 @@
     </row>
     <row r="57" spans="1:15" ht="15.75" thickBot="1">
       <c r="B57" t="s">
-        <v>2716</v>
+        <v>2707</v>
       </c>
       <c r="E57" s="33" t="s">
         <v>222</v>
@@ -33700,7 +33788,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>2718</v>
+        <v>2709</v>
       </c>
       <c r="E60" s="36" t="s">
         <v>1279</v>
@@ -33776,7 +33864,7 @@
       <c r="I64" s="30"/>
       <c r="J64" s="30"/>
       <c r="K64" s="36" t="s">
-        <v>2719</v>
+        <v>2710</v>
       </c>
       <c r="L64" s="30" t="s">
         <v>431</v>
@@ -33786,7 +33874,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="B65" t="s">
-        <v>2717</v>
+        <v>2708</v>
       </c>
       <c r="E65" s="36"/>
       <c r="F65" s="30"/>
@@ -33891,7 +33979,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>2720</v>
+        <v>2711</v>
       </c>
       <c r="E72" s="36"/>
       <c r="F72" s="30"/>
@@ -33906,7 +33994,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>2721</v>
+        <v>2712</v>
       </c>
       <c r="E73" s="36"/>
       <c r="F73" s="30"/>
@@ -33921,7 +34009,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>2722</v>
+        <v>2713</v>
       </c>
       <c r="E74" s="36"/>
       <c r="F74" s="30"/>
@@ -33936,7 +34024,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>2723</v>
+        <v>2714</v>
       </c>
       <c r="E75" s="36"/>
       <c r="F75" s="30"/>
@@ -34797,34 +34885,34 @@
         <v>2176</v>
       </c>
       <c r="G183" s="46" t="s">
-        <v>2704</v>
+        <v>2695</v>
       </c>
       <c r="H183" s="46"/>
     </row>
     <row r="184" spans="2:11">
       <c r="B184" t="s">
-        <v>2693</v>
+        <v>2684</v>
       </c>
       <c r="C184" t="s">
-        <v>2700</v>
+        <v>2691</v>
       </c>
       <c r="D184" t="s">
         <v>2325</v>
       </c>
       <c r="E184" t="s">
-        <v>2701</v>
+        <v>2692</v>
       </c>
       <c r="F184" s="46"/>
       <c r="G184" s="205"/>
     </row>
     <row r="186" spans="2:11">
       <c r="I186" t="s">
-        <v>2692</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="187" spans="2:11">
       <c r="H187" t="s">
-        <v>2702</v>
+        <v>2693</v>
       </c>
       <c r="K187">
         <v>1</v>
@@ -34832,7 +34920,7 @@
     </row>
     <row r="188" spans="2:11">
       <c r="H188" t="s">
-        <v>2703</v>
+        <v>2694</v>
       </c>
       <c r="K188">
         <v>3</v>
@@ -34840,10 +34928,10 @@
     </row>
     <row r="189" spans="2:11">
       <c r="D189" t="s">
-        <v>2694</v>
+        <v>2685</v>
       </c>
       <c r="H189" t="s">
-        <v>2691</v>
+        <v>2682</v>
       </c>
       <c r="K189">
         <v>5</v>
@@ -34851,10 +34939,10 @@
     </row>
     <row r="192" spans="2:11">
       <c r="B192" t="s">
-        <v>2695</v>
+        <v>2686</v>
       </c>
       <c r="C192" t="s">
-        <v>2696</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="193" spans="2:10">
@@ -34862,17 +34950,17 @@
         <v>2331</v>
       </c>
       <c r="C193" t="s">
-        <v>2697</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="194" spans="2:10">
       <c r="B194" t="s">
-        <v>2698</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="195" spans="2:10">
       <c r="B195" t="s">
-        <v>2699</v>
+        <v>2690</v>
       </c>
       <c r="J195" s="46"/>
     </row>
@@ -34970,19 +35058,20 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:V220"/>
+  <dimension ref="A2:AG220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104:H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
     <col min="15" max="15" width="11.140625" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:9">
@@ -35067,13 +35156,16 @@
       <c r="C14" s="128" t="s">
         <v>1409</v>
       </c>
+      <c r="I14" t="s">
+        <v>2729</v>
+      </c>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" t="s">
         <v>2333</v>
       </c>
     </row>
-    <row r="17" spans="3:22">
+    <row r="17" spans="2:33">
       <c r="E17" s="13" t="s">
         <v>1510</v>
       </c>
@@ -35081,7 +35173,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="18" spans="3:22">
+    <row r="18" spans="2:33">
       <c r="C18" t="s">
         <v>1399</v>
       </c>
@@ -35100,13 +35192,22 @@
       <c r="N18" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="19" spans="3:22">
+      <c r="V18" t="s">
+        <v>2734</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33">
       <c r="V19" t="s">
         <v>2342</v>
       </c>
     </row>
-    <row r="20" spans="3:22">
+    <row r="20" spans="2:33">
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20" s="46"/>
       <c r="E20" s="46" t="s">
         <v>430</v>
@@ -35130,10 +35231,13 @@
         <v>0</v>
       </c>
       <c r="V20" s="46" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33">
+      <c r="B21">
+        <v>1</v>
+      </c>
       <c r="C21" s="46"/>
       <c r="E21" s="46"/>
       <c r="G21" s="46" t="s">
@@ -35151,10 +35255,10 @@
         <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33">
       <c r="C22" s="30"/>
       <c r="I22" s="46" t="s">
         <v>577</v>
@@ -35165,13 +35269,16 @@
         <v>2</v>
       </c>
       <c r="U22">
-        <v>99999999</v>
+        <v>2</v>
       </c>
       <c r="V22" s="46" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="23" spans="3:22">
+      <c r="X22">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33">
       <c r="C23" s="13" t="s">
         <v>1407</v>
       </c>
@@ -35200,8 +35307,14 @@
       <c r="V23" s="129" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="24" spans="3:22">
+      <c r="AA23" t="s">
+        <v>1529</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33">
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -35224,9 +35337,11 @@
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-    </row>
-    <row r="25" spans="3:22">
+      <c r="U24" s="13">
+        <v>100000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33">
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -35252,8 +35367,14 @@
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
-    </row>
-    <row r="26" spans="3:22">
+      <c r="AA25" t="s">
+        <v>2738</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33">
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -35277,10 +35398,18 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
+      <c r="T26" s="13" t="s">
+        <v>1528</v>
+      </c>
       <c r="U26" s="13"/>
-    </row>
-    <row r="27" spans="3:22">
+      <c r="V26" t="s">
+        <v>2736</v>
+      </c>
+      <c r="X26" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33">
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -35300,26 +35429,115 @@
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-    </row>
-    <row r="30" spans="3:22">
+      <c r="T27" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="V27" t="s">
+        <v>577</v>
+      </c>
+      <c r="W27" s="13" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" ht="15.75" thickBot="1">
       <c r="C30" s="128" t="s">
         <v>1417</v>
       </c>
       <c r="D30" s="128" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="32" spans="3:22">
+      <c r="P30" t="s">
+        <v>2730</v>
+      </c>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59" t="s">
+        <v>2731</v>
+      </c>
+      <c r="Y30" s="59"/>
+      <c r="AB30" t="s">
+        <v>2732</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33" ht="15.75" thickBot="1">
+      <c r="P31" s="49" t="s">
+        <v>1872</v>
+      </c>
+      <c r="S31" s="30"/>
+      <c r="T31" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="W31" s="59"/>
+      <c r="X31" s="258" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y31" s="59"/>
+      <c r="AB31" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="AF31" s="49" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33">
       <c r="C32" s="13" t="s">
         <v>1418</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="O32" t="s">
+        <v>2106</v>
+      </c>
+      <c r="P32" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>1440</v>
+      </c>
+      <c r="S32" s="257" t="s">
+        <v>2106</v>
+      </c>
+      <c r="T32" s="257" t="s">
+        <v>2676</v>
+      </c>
+      <c r="U32" s="257" t="s">
+        <v>1440</v>
+      </c>
+      <c r="W32" s="59" t="s">
+        <v>1439</v>
+      </c>
+      <c r="X32" s="59" t="s">
+        <v>2074</v>
+      </c>
+      <c r="Y32" s="59" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>2017</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>2106</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>2670</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" s="13" t="s">
         <v>1422</v>
       </c>
@@ -35329,8 +35547,39 @@
       <c r="J33" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="O33" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>2676</v>
+      </c>
+      <c r="S33" t="s">
+        <v>431</v>
+      </c>
+      <c r="U33" t="s">
+        <v>2017</v>
+      </c>
+      <c r="W33" s="59" t="s">
+        <v>2676</v>
+      </c>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59" t="s">
+        <v>2017</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>2676</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>2670</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>2017</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" s="13" t="s">
         <v>1423</v>
       </c>
@@ -35341,12 +35590,12 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:33">
       <c r="C35" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:33">
       <c r="B36" s="60">
         <v>0</v>
       </c>
@@ -35359,11 +35608,8 @@
       <c r="M36" s="46" t="s">
         <v>542</v>
       </c>
-      <c r="Q36" s="46" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+    </row>
+    <row r="37" spans="1:33">
       <c r="B37" s="60">
         <v>1</v>
       </c>
@@ -35388,17 +35634,8 @@
       <c r="N37" t="s">
         <v>1440</v>
       </c>
-      <c r="P37" t="s">
-        <v>1439</v>
-      </c>
-      <c r="Q37" s="59" t="s">
-        <v>1062</v>
-      </c>
-      <c r="R37" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+    </row>
+    <row r="38" spans="1:33">
       <c r="B38" s="60">
         <v>2</v>
       </c>
@@ -35417,14 +35654,8 @@
       <c r="N38" t="s">
         <v>1062</v>
       </c>
-      <c r="P38" t="s">
-        <v>1173</v>
-      </c>
-      <c r="R38" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+    </row>
+    <row r="39" spans="1:33">
       <c r="B39" s="77">
         <v>1000000</v>
       </c>
@@ -35432,7 +35663,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:33">
       <c r="C41" s="13" t="s">
         <v>1425</v>
       </c>
@@ -35440,7 +35671,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:33">
       <c r="C42" s="13" t="s">
         <v>1435</v>
       </c>
@@ -35448,7 +35679,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:33">
       <c r="A43" s="131" t="s">
         <v>1436</v>
       </c>
@@ -35456,12 +35687,12 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:33">
       <c r="A44" s="132" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:33">
       <c r="C47" s="128" t="s">
         <v>1427</v>
       </c>
@@ -35469,7 +35700,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:33">
       <c r="A48" t="s">
         <v>1442</v>
       </c>
@@ -35740,8 +35971,12 @@
       <c r="H82" s="181" t="s">
         <v>1482</v>
       </c>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
+      <c r="I82" s="181" t="s">
+        <v>2750</v>
+      </c>
+      <c r="J82" s="181" t="s">
+        <v>1617</v>
+      </c>
       <c r="K82" s="37"/>
     </row>
     <row r="83" spans="2:14">
@@ -35752,8 +35987,12 @@
       <c r="F83" s="180"/>
       <c r="G83" s="180"/>
       <c r="H83" s="180"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="30"/>
+      <c r="I83" s="30" t="s">
+        <v>2752</v>
+      </c>
+      <c r="J83" s="30" t="s">
+        <v>2751</v>
+      </c>
       <c r="K83" s="37"/>
       <c r="M83" t="s">
         <v>66</v>
@@ -35920,13 +36159,13 @@
         <v>430</v>
       </c>
       <c r="F94" s="30"/>
-      <c r="G94" s="181" t="s">
+      <c r="G94" s="259" t="s">
         <v>1160</v>
       </c>
-      <c r="H94" s="183" t="s">
+      <c r="H94" s="223" t="s">
         <v>76</v>
       </c>
-      <c r="I94" s="184" t="s">
+      <c r="I94" s="224" t="s">
         <v>430</v>
       </c>
       <c r="J94" s="30"/>
@@ -35945,11 +36184,11 @@
         <v>1</v>
       </c>
       <c r="F95" s="30"/>
-      <c r="G95" s="180"/>
-      <c r="H95" s="185" t="s">
+      <c r="G95" s="260"/>
+      <c r="H95" s="227" t="s">
         <v>208</v>
       </c>
-      <c r="I95" s="186">
+      <c r="I95" s="228">
         <v>1</v>
       </c>
       <c r="J95" s="30"/>
@@ -35969,7 +36208,9 @@
       <c r="I96" s="30"/>
       <c r="J96" s="30"/>
       <c r="K96" s="30"/>
-      <c r="L96" s="30"/>
+      <c r="L96" s="30" t="s">
+        <v>2759</v>
+      </c>
       <c r="M96" s="30"/>
       <c r="N96" s="37"/>
     </row>
@@ -35983,14 +36224,14 @@
       <c r="H97" s="30"/>
       <c r="I97" s="30"/>
       <c r="J97" s="30"/>
-      <c r="K97" s="54">
-        <v>1</v>
-      </c>
-      <c r="L97" s="206" t="s">
-        <v>2353</v>
+      <c r="K97" s="54" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L97" s="248" t="s">
+        <v>2760</v>
       </c>
       <c r="M97" s="46" t="s">
-        <v>2360</v>
+        <v>2761</v>
       </c>
       <c r="N97" s="37"/>
     </row>
@@ -36017,12 +36258,14 @@
       </c>
       <c r="J98" s="30"/>
       <c r="K98" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L98" s="133" t="s">
-        <v>2354</v>
-      </c>
-      <c r="M98" s="46"/>
+        <v>2762</v>
+      </c>
+      <c r="M98" s="46" t="s">
+        <v>2764</v>
+      </c>
       <c r="N98" s="37"/>
     </row>
     <row r="99" spans="1:18" ht="15.75" thickBot="1">
@@ -36043,8 +36286,12 @@
         <v>1</v>
       </c>
       <c r="J99" s="30"/>
-      <c r="K99" s="54"/>
-      <c r="L99" s="133"/>
+      <c r="K99" s="54">
+        <v>2</v>
+      </c>
+      <c r="L99" s="133" t="s">
+        <v>2763</v>
+      </c>
       <c r="M99" s="46"/>
       <c r="N99" s="37"/>
     </row>
@@ -36100,6 +36347,9 @@
       <c r="F103" t="s">
         <v>1570</v>
       </c>
+      <c r="L103" t="s">
+        <v>2758</v>
+      </c>
     </row>
     <row r="104" spans="1:18">
       <c r="B104" t="s">
@@ -36128,7 +36378,7 @@
         <v>162</v>
       </c>
       <c r="L106" t="s">
-        <v>2355</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -36139,7 +36389,7 @@
         <v>1571</v>
       </c>
       <c r="L107" t="s">
-        <v>2356</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -36150,10 +36400,7 @@
         <v>1500</v>
       </c>
       <c r="L108" t="s">
-        <v>2349</v>
-      </c>
-      <c r="N108" t="s">
-        <v>2352</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -36163,10 +36410,9 @@
       <c r="G109" t="s">
         <v>1501</v>
       </c>
-      <c r="L109" t="s">
-        <v>2350</v>
-      </c>
-      <c r="N109" s="60"/>
+      <c r="L109" s="99" t="s">
+        <v>2755</v>
+      </c>
       <c r="O109" s="60"/>
       <c r="P109" s="60"/>
       <c r="Q109" s="60"/>
@@ -36177,36 +36423,35 @@
         <v>162</v>
       </c>
       <c r="G110" t="s">
-        <v>2357</v>
-      </c>
-      <c r="L110" t="s">
-        <v>2351</v>
-      </c>
-      <c r="N110" s="60"/>
+        <v>2350</v>
+      </c>
+      <c r="L110" s="99" t="s">
+        <v>2756</v>
+      </c>
       <c r="O110" s="60"/>
       <c r="P110" s="60"/>
       <c r="Q110" s="60"/>
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="13" t="s">
-        <v>2365</v>
+        <v>2356</v>
       </c>
       <c r="B111" t="s">
-        <v>2362</v>
+        <v>2353</v>
       </c>
       <c r="H111" t="s">
-        <v>2358</v>
-      </c>
-      <c r="L111" t="s">
-        <v>2361</v>
+        <v>2351</v>
+      </c>
+      <c r="L111" s="99" t="s">
+        <v>2757</v>
       </c>
     </row>
     <row r="112" spans="1:18">
       <c r="A112" s="13" t="s">
-        <v>2366</v>
+        <v>2357</v>
       </c>
       <c r="B112" t="s">
-        <v>2363</v>
+        <v>2354</v>
       </c>
       <c r="H112" t="s">
         <v>271</v>
@@ -36214,7 +36459,7 @@
     </row>
     <row r="113" spans="2:14">
       <c r="B113" t="s">
-        <v>2364</v>
+        <v>2355</v>
       </c>
       <c r="G113" t="s">
         <v>155</v>
@@ -36222,7 +36467,7 @@
     </row>
     <row r="114" spans="2:14">
       <c r="H114" t="s">
-        <v>2359</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="115" spans="2:14">
@@ -36926,7 +37171,7 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" t="s">
-        <v>2735</v>
+        <v>2726</v>
       </c>
       <c r="B208" t="s">
         <v>435</v>
@@ -36943,7 +37188,7 @@
     </row>
     <row r="209" spans="1:15">
       <c r="G209" s="36" t="s">
-        <v>2734</v>
+        <v>2725</v>
       </c>
       <c r="H209" s="30" t="s">
         <v>1861</v>
@@ -36975,7 +37220,7 @@
     </row>
     <row r="211" spans="1:15">
       <c r="A211" t="s">
-        <v>2736</v>
+        <v>2727</v>
       </c>
       <c r="G211" s="36"/>
       <c r="H211" s="30" t="s">
@@ -37004,7 +37249,7 @@
     </row>
     <row r="213" spans="1:15">
       <c r="A213" t="s">
-        <v>2737</v>
+        <v>2728</v>
       </c>
       <c r="G213" s="36"/>
       <c r="H213" s="41"/>
@@ -37104,10 +37349,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:U107"/>
+  <dimension ref="A3:U134"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A125" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130:D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37736,6 +37981,151 @@
         <v>1601</v>
       </c>
     </row>
+    <row r="114" spans="4:10">
+      <c r="E114" t="s">
+        <v>2743</v>
+      </c>
+      <c r="I114" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="115" spans="4:10">
+      <c r="E115" t="s">
+        <v>2741</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="116" spans="4:10">
+      <c r="E116" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F116" t="s">
+        <v>2109</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1456</v>
+      </c>
+      <c r="J116" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="117" spans="4:10">
+      <c r="E117" s="248">
+        <v>1</v>
+      </c>
+      <c r="F117" s="248" t="s">
+        <v>430</v>
+      </c>
+      <c r="I117" s="248">
+        <v>1</v>
+      </c>
+      <c r="J117" s="46"/>
+    </row>
+    <row r="118" spans="4:10">
+      <c r="E118" s="248">
+        <v>2</v>
+      </c>
+      <c r="F118" s="248" t="s">
+        <v>542</v>
+      </c>
+      <c r="I118" s="248">
+        <v>2</v>
+      </c>
+      <c r="J118" s="46"/>
+    </row>
+    <row r="119" spans="4:10">
+      <c r="E119" s="248">
+        <v>3</v>
+      </c>
+      <c r="F119" s="248" t="s">
+        <v>577</v>
+      </c>
+      <c r="I119" s="248">
+        <v>3</v>
+      </c>
+      <c r="J119" s="46"/>
+    </row>
+    <row r="120" spans="4:10">
+      <c r="E120" s="248">
+        <v>4</v>
+      </c>
+      <c r="F120" s="248" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I120" s="248">
+        <v>4</v>
+      </c>
+      <c r="J120" s="46"/>
+    </row>
+    <row r="121" spans="4:10">
+      <c r="E121" s="248">
+        <v>5</v>
+      </c>
+      <c r="F121" s="248" t="s">
+        <v>1872</v>
+      </c>
+      <c r="I121" s="248">
+        <v>5</v>
+      </c>
+      <c r="J121" s="46"/>
+    </row>
+    <row r="124" spans="4:10">
+      <c r="E124" s="99" t="s">
+        <v>2744</v>
+      </c>
+      <c r="F124" s="121" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="125" spans="4:10">
+      <c r="E125" s="99"/>
+      <c r="F125" s="121" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="128" spans="4:10">
+      <c r="D128" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="129" spans="4:7">
+      <c r="D129" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="130" spans="4:7">
+      <c r="D130" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="G130" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="131" spans="4:7">
+      <c r="D131" s="46" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="132" spans="4:7">
+      <c r="D132" s="46" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="133" spans="4:7">
+      <c r="D133" s="46" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F133" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="134" spans="4:7">
+      <c r="D134" s="46" t="s">
+        <v>1872</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37745,7 +38135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="N7" sqref="M7:N7"/>
     </sheetView>
   </sheetViews>
@@ -37878,11 +38268,11 @@
       <c r="L6" s="46" t="s">
         <v>1615</v>
       </c>
-      <c r="M6" s="253" t="s">
+      <c r="M6" s="256" t="s">
         <v>1616</v>
       </c>
-      <c r="N6" s="253"/>
-      <c r="O6" s="253"/>
+      <c r="N6" s="256"/>
+      <c r="O6" s="256"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
@@ -39261,10 +39651,10 @@
         <v>54</v>
       </c>
       <c r="M113" t="s">
-        <v>2513</v>
+        <v>2504</v>
       </c>
       <c r="O113" t="s">
-        <v>2514</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -39556,7 +39946,7 @@
   <sheetData>
     <row r="2" spans="4:18">
       <c r="O2" t="s">
-        <v>2373</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="4" spans="4:18">
@@ -39566,12 +39956,12 @@
     </row>
     <row r="6" spans="4:18">
       <c r="O6" s="32" t="s">
-        <v>2374</v>
+        <v>2365</v>
       </c>
       <c r="P6" s="32"/>
       <c r="Q6" s="32"/>
       <c r="R6" t="s">
-        <v>2377</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="7" spans="4:18">
@@ -39584,13 +39974,13 @@
         <v>148</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>2370</v>
+        <v>2361</v>
       </c>
       <c r="O8" t="s">
-        <v>2371</v>
+        <v>2362</v>
       </c>
       <c r="Q8" t="s">
-        <v>2372</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="9" spans="4:18">
@@ -39603,10 +39993,10 @@
         <v>150</v>
       </c>
       <c r="M10" t="s">
-        <v>2375</v>
+        <v>2366</v>
       </c>
       <c r="O10" t="s">
-        <v>2376</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="11" spans="4:18">
@@ -39619,13 +40009,13 @@
         <v>152</v>
       </c>
       <c r="M12" t="s">
-        <v>2367</v>
+        <v>2358</v>
       </c>
       <c r="O12" t="s">
-        <v>2368</v>
+        <v>2359</v>
       </c>
       <c r="Q12" t="s">
-        <v>2369</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="13" spans="4:18">
@@ -39965,7 +40355,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
-        <v>2383</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -39976,7 +40366,7 @@
         <v>430</v>
       </c>
       <c r="F2" t="s">
-        <v>2384</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -39987,7 +40377,7 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>2385</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -39995,21 +40385,21 @@
         <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>2386</v>
+        <v>2377</v>
       </c>
       <c r="F4" t="s">
-        <v>2387</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>2388</v>
+        <v>2379</v>
       </c>
       <c r="B5" t="s">
-        <v>2389</v>
+        <v>2380</v>
       </c>
       <c r="F5" t="s">
-        <v>2390</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -40022,10 +40412,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>2391</v>
+        <v>2382</v>
       </c>
       <c r="B7" t="s">
-        <v>2392</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -40036,7 +40426,7 @@
         <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>2391</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -40047,7 +40437,7 @@
         <v>201</v>
       </c>
       <c r="C10" t="s">
-        <v>2388</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1"/>
@@ -40055,7 +40445,7 @@
       <c r="A12" s="34"/>
       <c r="B12" s="35"/>
       <c r="D12" s="33" t="s">
-        <v>2393</v>
+        <v>2384</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="35"/>
@@ -40065,14 +40455,14 @@
         <v>205</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>2394</v>
+        <v>2385</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="30" t="s">
         <v>198</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>2395</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -40080,14 +40470,14 @@
         <v>203</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>2396</v>
+        <v>2387</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="30" t="s">
         <v>202</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>2397</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -40095,17 +40485,17 @@
         <v>204</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>2391</v>
+        <v>2382</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="30" t="s">
         <v>198</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>2398</v>
+        <v>2389</v>
       </c>
       <c r="H15" t="s">
-        <v>2399</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -40113,35 +40503,35 @@
         <v>198</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>2400</v>
+        <v>2391</v>
       </c>
       <c r="D16" s="36"/>
       <c r="E16" s="41" t="s">
         <v>198</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>2401</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="41" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B17" s="37" t="s">
         <v>2393</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>2402</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="41" t="s">
         <v>202</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>2403</v>
+        <v>2394</v>
       </c>
       <c r="J17" t="s">
         <v>1726</v>
       </c>
       <c r="L17" t="s">
-        <v>2404</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1">
@@ -40149,17 +40539,17 @@
         <v>198</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>2405</v>
+        <v>2396</v>
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="39" t="s">
         <v>198</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>2406</v>
+        <v>2397</v>
       </c>
       <c r="J18" t="s">
-        <v>2407</v>
+        <v>2398</v>
       </c>
       <c r="L18" t="s">
         <v>198</v>
@@ -40167,23 +40557,23 @@
     </row>
     <row r="19" spans="1:16">
       <c r="J19" t="s">
-        <v>2408</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="22" spans="1:16">
       <c r="C22" s="33" t="s">
-        <v>2409</v>
+        <v>2400</v>
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="35"/>
       <c r="G22" s="33" t="s">
-        <v>2410</v>
+        <v>2401</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="35"/>
       <c r="K22" s="33" t="s">
-        <v>2411</v>
+        <v>2402</v>
       </c>
       <c r="L22" s="34"/>
       <c r="M22" s="35"/>
@@ -40204,7 +40594,7 @@
         <v>198</v>
       </c>
       <c r="M23" s="37" t="s">
-        <v>2395</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1">
@@ -40213,34 +40603,34 @@
         <v>198</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>2412</v>
+        <v>2403</v>
       </c>
       <c r="G24" s="36"/>
       <c r="H24" s="33" t="s">
-        <v>2411</v>
+        <v>2402</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>2413</v>
+        <v>2404</v>
       </c>
       <c r="K24" s="36"/>
       <c r="L24" s="30" t="s">
         <v>202</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>2414</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1">
       <c r="C25" s="36"/>
       <c r="D25" s="29" t="s">
-        <v>2410</v>
+        <v>2401</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>2415</v>
+        <v>2406</v>
       </c>
       <c r="G25" s="36"/>
       <c r="H25" s="49" t="s">
-        <v>2416</v>
+        <v>2407</v>
       </c>
       <c r="I25" s="37" t="s">
         <v>220</v>
@@ -40250,14 +40640,14 @@
         <v>198</v>
       </c>
       <c r="M25" s="37" t="s">
-        <v>2398</v>
+        <v>2389</v>
       </c>
       <c r="P25" s="45"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1">
       <c r="C26" s="36"/>
       <c r="D26" s="218" t="s">
-        <v>2417</v>
+        <v>2408</v>
       </c>
       <c r="E26" s="37" t="s">
         <v>216</v>
@@ -40270,16 +40660,16 @@
         <v>198</v>
       </c>
       <c r="M26" s="37" t="s">
-        <v>2401</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="C27" s="36"/>
       <c r="D27" s="41" t="s">
-        <v>2411</v>
+        <v>2402</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>2418</v>
+        <v>2409</v>
       </c>
       <c r="G27" s="36"/>
       <c r="H27" s="30"/>
@@ -40289,7 +40679,7 @@
         <v>202</v>
       </c>
       <c r="M27" s="37" t="s">
-        <v>2403</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1">
@@ -40304,18 +40694,18 @@
         <v>198</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>2406</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:16">
       <c r="G30" s="33" t="s">
-        <v>2417</v>
+        <v>2408</v>
       </c>
       <c r="H30" s="34"/>
       <c r="I30" s="35"/>
       <c r="K30" s="33" t="s">
-        <v>2416</v>
+        <v>2407</v>
       </c>
       <c r="L30" s="34"/>
       <c r="M30" s="35"/>
@@ -40336,7 +40726,7 @@
         <v>206</v>
       </c>
       <c r="M31" s="37" t="s">
-        <v>2419</v>
+        <v>2410</v>
       </c>
       <c r="N31">
         <v>1313123123213210</v>
@@ -40358,7 +40748,7 @@
         <v>198</v>
       </c>
       <c r="M32" s="37" t="s">
-        <v>2420</v>
+        <v>2411</v>
       </c>
       <c r="N32" s="43">
         <v>44553</v>
@@ -40370,17 +40760,17 @@
         <v>198</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>2388</v>
+        <v>2379</v>
       </c>
       <c r="J33" t="s">
-        <v>2421</v>
+        <v>2412</v>
       </c>
       <c r="K33" s="36"/>
       <c r="L33" s="41" t="s">
         <v>202</v>
       </c>
       <c r="M33" s="37" t="s">
-        <v>2422</v>
+        <v>2413</v>
       </c>
       <c r="N33">
         <v>12345</v>
@@ -40389,10 +40779,10 @@
     <row r="34" spans="3:15">
       <c r="G34" s="36"/>
       <c r="H34" s="41" t="s">
-        <v>2411</v>
+        <v>2402</v>
       </c>
       <c r="I34" s="37" t="s">
-        <v>2423</v>
+        <v>2414</v>
       </c>
       <c r="K34" s="36"/>
       <c r="L34" s="41" t="s">
@@ -40414,7 +40804,7 @@
         <v>205</v>
       </c>
       <c r="M35" s="40" t="s">
-        <v>2424</v>
+        <v>2415</v>
       </c>
       <c r="N35">
         <v>850</v>
@@ -42207,7 +42597,7 @@
       <c r="E162" s="30"/>
       <c r="F162" s="30"/>
       <c r="G162" s="30" t="s">
-        <v>2455</v>
+        <v>2446</v>
       </c>
       <c r="H162" s="30"/>
       <c r="I162" s="30"/>
@@ -42230,7 +42620,7 @@
     </row>
     <row r="164" spans="2:12">
       <c r="B164" s="36" t="s">
-        <v>2453</v>
+        <v>2444</v>
       </c>
       <c r="C164" s="30"/>
       <c r="D164" s="30"/>
@@ -42245,14 +42635,14 @@
     </row>
     <row r="165" spans="2:12">
       <c r="B165" s="36" t="s">
-        <v>2454</v>
+        <v>2445</v>
       </c>
       <c r="C165" s="30"/>
       <c r="D165" s="30"/>
       <c r="E165" s="30"/>
       <c r="F165" s="30"/>
       <c r="G165" s="46" t="s">
-        <v>2458</v>
+        <v>2449</v>
       </c>
       <c r="H165" s="30"/>
       <c r="I165" s="30"/>
@@ -42267,7 +42657,7 @@
       <c r="E166" s="30"/>
       <c r="F166" s="30"/>
       <c r="G166" s="46" t="s">
-        <v>2457</v>
+        <v>2448</v>
       </c>
       <c r="H166" s="30"/>
       <c r="I166" s="30"/>
@@ -42282,7 +42672,7 @@
       <c r="E167" s="30"/>
       <c r="F167" s="30"/>
       <c r="G167" s="46" t="s">
-        <v>2456</v>
+        <v>2447</v>
       </c>
       <c r="H167" s="30"/>
       <c r="I167" s="30"/>
@@ -42297,7 +42687,7 @@
       <c r="E168" s="30"/>
       <c r="F168" s="30"/>
       <c r="G168" s="46" t="s">
-        <v>2458</v>
+        <v>2449</v>
       </c>
       <c r="H168" s="30"/>
       <c r="I168" s="30"/>
@@ -42312,7 +42702,7 @@
       <c r="E169" s="30"/>
       <c r="F169" s="30"/>
       <c r="G169" s="46" t="s">
-        <v>2457</v>
+        <v>2448</v>
       </c>
       <c r="H169" s="30"/>
       <c r="I169" s="30"/>
@@ -42327,7 +42717,7 @@
       <c r="E170" s="30"/>
       <c r="F170" s="30"/>
       <c r="G170" s="46" t="s">
-        <v>2456</v>
+        <v>2447</v>
       </c>
       <c r="H170" s="30"/>
       <c r="I170" s="30"/>
@@ -42342,7 +42732,7 @@
       <c r="E171" s="30"/>
       <c r="F171" s="30"/>
       <c r="G171" s="46" t="s">
-        <v>2458</v>
+        <v>2449</v>
       </c>
       <c r="H171" s="30"/>
       <c r="I171" s="30"/>
@@ -42357,7 +42747,7 @@
       <c r="E172" s="30"/>
       <c r="F172" s="30"/>
       <c r="G172" s="46" t="s">
-        <v>2457</v>
+        <v>2448</v>
       </c>
       <c r="H172" s="30"/>
       <c r="I172" s="30"/>
@@ -42372,7 +42762,7 @@
       <c r="E173" s="30"/>
       <c r="F173" s="30"/>
       <c r="G173" s="46" t="s">
-        <v>2456</v>
+        <v>2447</v>
       </c>
       <c r="H173" s="30"/>
       <c r="I173" s="30"/>
@@ -42387,7 +42777,7 @@
       <c r="E174" s="30"/>
       <c r="F174" s="30"/>
       <c r="G174" s="46" t="s">
-        <v>2458</v>
+        <v>2449</v>
       </c>
       <c r="H174" s="30"/>
       <c r="I174" s="30"/>
@@ -42402,7 +42792,7 @@
       <c r="E175" s="30"/>
       <c r="F175" s="30"/>
       <c r="G175" s="46" t="s">
-        <v>2457</v>
+        <v>2448</v>
       </c>
       <c r="H175" s="30"/>
       <c r="I175" s="30"/>
@@ -42417,7 +42807,7 @@
       <c r="E176" s="30"/>
       <c r="F176" s="30"/>
       <c r="G176" s="46" t="s">
-        <v>2456</v>
+        <v>2447</v>
       </c>
       <c r="H176" s="30"/>
       <c r="I176" s="30"/>
@@ -42432,7 +42822,7 @@
       <c r="E177" s="30"/>
       <c r="F177" s="30"/>
       <c r="G177" s="46" t="s">
-        <v>2452</v>
+        <v>2443</v>
       </c>
       <c r="H177" s="30"/>
       <c r="I177" s="30"/>
@@ -42468,7 +42858,7 @@
     <row r="186" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="187" spans="1:12" ht="15.75" thickBot="1">
       <c r="A187" t="s">
-        <v>2459</v>
+        <v>2450</v>
       </c>
       <c r="D187" s="33"/>
       <c r="E187" s="34"/>
@@ -42482,7 +42872,7 @@
     </row>
     <row r="188" spans="1:12">
       <c r="B188" t="s">
-        <v>2460</v>
+        <v>2451</v>
       </c>
       <c r="D188" s="36" t="s">
         <v>1724</v>
@@ -42502,10 +42892,10 @@
     </row>
     <row r="189" spans="1:12">
       <c r="B189" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D189" s="53" t="s">
         <v>2461</v>
-      </c>
-      <c r="D189" s="53" t="s">
-        <v>2470</v>
       </c>
       <c r="E189" s="54" t="s">
         <v>431</v>
@@ -42520,7 +42910,7 @@
     </row>
     <row r="190" spans="1:12" ht="15.75" thickBot="1">
       <c r="B190" t="s">
-        <v>2462</v>
+        <v>2453</v>
       </c>
       <c r="D190" s="53" t="s">
         <v>554</v>
@@ -42538,7 +42928,7 @@
     </row>
     <row r="191" spans="1:12" ht="15.75" thickBot="1">
       <c r="B191" t="s">
-        <v>2463</v>
+        <v>2454</v>
       </c>
       <c r="D191" s="53" t="s">
         <v>1918</v>
@@ -42607,7 +42997,7 @@
       <c r="H194" s="30"/>
       <c r="I194" s="30"/>
       <c r="J194" s="56" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="K194" s="58">
         <v>20</v>
@@ -42630,7 +43020,7 @@
     </row>
     <row r="196" spans="1:12">
       <c r="B196" t="s">
-        <v>2425</v>
+        <v>2416</v>
       </c>
       <c r="D196" s="53"/>
       <c r="E196" s="54"/>
@@ -42658,14 +43048,14 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" t="s">
-        <v>2469</v>
+        <v>2460</v>
       </c>
       <c r="D198" s="230" t="s">
-        <v>2471</v>
+        <v>2462</v>
       </c>
       <c r="E198" s="54"/>
       <c r="F198" s="231" t="s">
-        <v>2473</v>
+        <v>2464</v>
       </c>
       <c r="G198" s="30"/>
       <c r="H198" s="30"/>
@@ -42676,10 +43066,10 @@
     </row>
     <row r="199" spans="1:12">
       <c r="B199" t="s">
-        <v>2464</v>
+        <v>2455</v>
       </c>
       <c r="D199" s="53" t="s">
-        <v>2472</v>
+        <v>2463</v>
       </c>
       <c r="E199" s="30"/>
       <c r="F199" s="30"/>
@@ -42694,7 +43084,7 @@
     </row>
     <row r="200" spans="1:12">
       <c r="B200" t="s">
-        <v>2465</v>
+        <v>2456</v>
       </c>
       <c r="D200" s="53">
         <v>10</v>
@@ -42735,11 +43125,11 @@
       <c r="F202" s="30"/>
       <c r="G202" s="30"/>
       <c r="H202" s="30" t="s">
-        <v>2475</v>
+        <v>2466</v>
       </c>
       <c r="I202" s="30"/>
       <c r="J202" s="30" t="s">
-        <v>2478</v>
+        <v>2469</v>
       </c>
       <c r="K202" s="30"/>
       <c r="L202" s="37"/>
@@ -42755,7 +43145,7 @@
       <c r="F203" s="30"/>
       <c r="G203" s="30"/>
       <c r="H203" s="30" t="s">
-        <v>2476</v>
+        <v>2467</v>
       </c>
       <c r="I203" s="30"/>
       <c r="J203" s="30"/>
@@ -42764,27 +43154,27 @@
     </row>
     <row r="204" spans="1:12">
       <c r="B204" t="s">
-        <v>2466</v>
+        <v>2457</v>
       </c>
       <c r="D204" s="53"/>
       <c r="E204" s="30"/>
       <c r="F204" s="30" t="s">
-        <v>2474</v>
+        <v>2465</v>
       </c>
       <c r="G204" s="30"/>
       <c r="H204" s="30" t="s">
-        <v>2477</v>
+        <v>2468</v>
       </c>
       <c r="I204" s="30"/>
       <c r="J204" s="30" t="s">
-        <v>2479</v>
+        <v>2470</v>
       </c>
       <c r="K204" s="30"/>
       <c r="L204" s="37"/>
     </row>
     <row r="205" spans="1:12">
       <c r="B205" t="s">
-        <v>2467</v>
+        <v>2458</v>
       </c>
       <c r="D205" s="53"/>
       <c r="E205" s="30"/>
@@ -42798,7 +43188,7 @@
     </row>
     <row r="206" spans="1:12" ht="15.75" thickBot="1">
       <c r="B206" t="s">
-        <v>2468</v>
+        <v>2459</v>
       </c>
       <c r="D206" s="56"/>
       <c r="E206" s="39"/>
@@ -42813,7 +43203,7 @@
     <row r="208" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="209" spans="1:12" ht="15.75" thickBot="1">
       <c r="A209" t="s">
-        <v>2459</v>
+        <v>2450</v>
       </c>
       <c r="D209" s="33"/>
       <c r="E209" s="34"/>
@@ -42827,13 +43217,13 @@
     </row>
     <row r="210" spans="1:12">
       <c r="B210" t="s">
-        <v>2483</v>
+        <v>2474</v>
       </c>
       <c r="D210" s="36" t="s">
         <v>419</v>
       </c>
       <c r="E210" s="30" t="s">
-        <v>2484</v>
+        <v>2475</v>
       </c>
       <c r="F210" s="30"/>
       <c r="G210" s="30"/>
@@ -42847,10 +43237,10 @@
     </row>
     <row r="211" spans="1:12">
       <c r="B211" t="s">
-        <v>2482</v>
+        <v>2473</v>
       </c>
       <c r="D211" s="53" t="s">
-        <v>2470</v>
+        <v>2461</v>
       </c>
       <c r="E211" s="54" t="s">
         <v>431</v>
@@ -42942,7 +43332,7 @@
       <c r="H216" s="30"/>
       <c r="I216" s="30"/>
       <c r="J216" s="56" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="K216" s="58">
         <v>20</v>
@@ -42951,7 +43341,7 @@
     </row>
     <row r="217" spans="1:12">
       <c r="B217" t="s">
-        <v>2425</v>
+        <v>2416</v>
       </c>
       <c r="D217" s="53"/>
       <c r="E217" s="54"/>
@@ -42990,14 +43380,14 @@
     </row>
     <row r="220" spans="1:12">
       <c r="A220" t="s">
-        <v>2469</v>
+        <v>2460</v>
       </c>
       <c r="D220" s="230" t="s">
-        <v>2471</v>
+        <v>2462</v>
       </c>
       <c r="E220" s="54"/>
       <c r="F220" s="231" t="s">
-        <v>2473</v>
+        <v>2464</v>
       </c>
       <c r="G220" s="30"/>
       <c r="H220" s="30"/>
@@ -43008,7 +43398,7 @@
     </row>
     <row r="221" spans="1:12">
       <c r="B221" t="s">
-        <v>2465</v>
+        <v>2456</v>
       </c>
       <c r="D221" s="53" t="s">
         <v>430</v>
@@ -43042,7 +43432,7 @@
     </row>
     <row r="223" spans="1:12">
       <c r="B223" t="s">
-        <v>2468</v>
+        <v>2459</v>
       </c>
       <c r="D223" s="53"/>
       <c r="E223" s="30"/>
@@ -43056,34 +43446,34 @@
     </row>
     <row r="224" spans="1:12">
       <c r="B224" t="s">
-        <v>2480</v>
+        <v>2471</v>
       </c>
       <c r="D224" s="53"/>
       <c r="E224" s="30"/>
       <c r="F224" s="30" t="s">
-        <v>2485</v>
+        <v>2476</v>
       </c>
       <c r="G224" s="30"/>
       <c r="H224" s="30" t="s">
-        <v>2475</v>
+        <v>2466</v>
       </c>
       <c r="I224" s="30"/>
       <c r="J224" s="30" t="s">
-        <v>2478</v>
+        <v>2469</v>
       </c>
       <c r="K224" s="30"/>
       <c r="L224" s="37"/>
     </row>
     <row r="225" spans="1:12">
       <c r="B225" t="s">
-        <v>2481</v>
+        <v>2472</v>
       </c>
       <c r="D225" s="53"/>
       <c r="E225" s="30"/>
       <c r="F225" s="30"/>
       <c r="G225" s="30"/>
       <c r="H225" s="30" t="s">
-        <v>2476</v>
+        <v>2467</v>
       </c>
       <c r="I225" s="30"/>
       <c r="J225" s="30"/>
@@ -43096,11 +43486,11 @@
       <c r="F226" s="30"/>
       <c r="G226" s="30"/>
       <c r="H226" s="30" t="s">
-        <v>2477</v>
+        <v>2468</v>
       </c>
       <c r="I226" s="30"/>
       <c r="J226" s="30" t="s">
-        <v>2479</v>
+        <v>2470</v>
       </c>
       <c r="K226" s="30"/>
       <c r="L226" s="37"/>
@@ -43121,7 +43511,7 @@
     </row>
     <row r="228" spans="1:12" ht="15.75" thickBot="1">
       <c r="B228" t="s">
-        <v>2465</v>
+        <v>2456</v>
       </c>
       <c r="D228" s="56"/>
       <c r="E228" s="39"/>
@@ -43140,18 +43530,18 @@
     </row>
     <row r="230" spans="1:12" ht="15.75" thickBot="1">
       <c r="B230" t="s">
-        <v>2468</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="231" spans="1:12">
       <c r="B231" t="s">
-        <v>2480</v>
+        <v>2471</v>
       </c>
       <c r="D231" s="50" t="s">
-        <v>2490</v>
+        <v>2481</v>
       </c>
       <c r="E231" s="51" t="s">
-        <v>2491</v>
+        <v>2482</v>
       </c>
       <c r="F231" s="51"/>
       <c r="G231" s="51"/>
@@ -43163,10 +43553,10 @@
     </row>
     <row r="232" spans="1:12">
       <c r="B232" t="s">
-        <v>2494</v>
+        <v>2485</v>
       </c>
       <c r="D232" s="53" t="s">
-        <v>2470</v>
+        <v>2461</v>
       </c>
       <c r="E232" s="54" t="s">
         <v>431</v>
@@ -43183,7 +43573,7 @@
     </row>
     <row r="233" spans="1:12" ht="15.75" thickBot="1">
       <c r="B233" t="s">
-        <v>2468</v>
+        <v>2459</v>
       </c>
       <c r="D233" s="53" t="s">
         <v>1918</v>
@@ -43214,7 +43604,7 @@
       <c r="F234" s="54"/>
       <c r="G234" s="54"/>
       <c r="H234" s="54" t="s">
-        <v>2495</v>
+        <v>2486</v>
       </c>
       <c r="I234" s="54" t="s">
         <v>2017</v>
@@ -43225,7 +43615,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="A235" t="s">
-        <v>2483</v>
+        <v>2474</v>
       </c>
       <c r="D235" s="53" t="s">
         <v>1904</v>
@@ -43256,7 +43646,7 @@
       <c r="H236" s="54"/>
       <c r="I236" s="54"/>
       <c r="J236" s="56" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="K236" s="58">
         <v>20</v>
@@ -43265,7 +43655,7 @@
     </row>
     <row r="237" spans="1:12" ht="15.75" thickBot="1">
       <c r="B237" t="s">
-        <v>2486</v>
+        <v>2477</v>
       </c>
       <c r="D237" s="53"/>
       <c r="E237" s="54"/>
@@ -43279,7 +43669,7 @@
     </row>
     <row r="238" spans="1:12">
       <c r="B238" t="s">
-        <v>2487</v>
+        <v>2478</v>
       </c>
       <c r="D238" s="53"/>
       <c r="E238" s="54"/>
@@ -43301,7 +43691,7 @@
       <c r="E239" s="54"/>
       <c r="F239" s="54"/>
       <c r="G239" s="54" t="s">
-        <v>2492</v>
+        <v>2483</v>
       </c>
       <c r="H239" s="54"/>
       <c r="I239" s="54"/>
@@ -43315,18 +43705,18 @@
     </row>
     <row r="240" spans="1:12" ht="15.75" thickBot="1">
       <c r="A240" t="s">
-        <v>2488</v>
+        <v>2479</v>
       </c>
       <c r="D240" s="53"/>
       <c r="E240" s="166" t="s">
-        <v>2493</v>
+        <v>2484</v>
       </c>
       <c r="F240" s="54"/>
       <c r="G240" s="229"/>
       <c r="H240" s="54"/>
       <c r="I240" s="54"/>
       <c r="J240" s="56" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="K240" s="58">
         <v>20</v>
@@ -43335,7 +43725,7 @@
     </row>
     <row r="241" spans="1:12">
       <c r="B241" t="s">
-        <v>2489</v>
+        <v>2480</v>
       </c>
       <c r="D241" s="53"/>
       <c r="E241" s="54" t="s">
@@ -43395,7 +43785,7 @@
     </row>
     <row r="245" spans="1:12" ht="15.75" thickBot="1">
       <c r="B245" t="s">
-        <v>2425</v>
+        <v>2416</v>
       </c>
       <c r="D245" s="56"/>
       <c r="E245" s="57"/>
@@ -43418,10 +43808,10 @@
         <v>1895</v>
       </c>
       <c r="D249" s="50" t="s">
-        <v>2490</v>
+        <v>2481</v>
       </c>
       <c r="E249" s="51" t="s">
-        <v>2491</v>
+        <v>2482</v>
       </c>
       <c r="F249" s="51"/>
       <c r="G249" s="51"/>
@@ -43451,7 +43841,7 @@
     </row>
     <row r="251" spans="1:12" ht="15.75" thickBot="1">
       <c r="B251" t="s">
-        <v>2425</v>
+        <v>2416</v>
       </c>
       <c r="D251" s="53" t="s">
         <v>1918</v>
@@ -43510,7 +43900,7 @@
       <c r="H254" s="54"/>
       <c r="I254" s="54"/>
       <c r="J254" s="56" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="K254" s="58">
         <v>20</v>
@@ -43573,7 +43963,7 @@
       <c r="H258" s="54"/>
       <c r="I258" s="54"/>
       <c r="J258" s="56" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="K258" s="58">
         <v>20</v>
@@ -43627,7 +44017,7 @@
       <c r="H262" s="54"/>
       <c r="I262" s="54"/>
       <c r="J262" s="56" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="K262" s="58">
         <v>20</v>
@@ -43651,10 +44041,10 @@
         <v>1895</v>
       </c>
       <c r="D267" s="50" t="s">
-        <v>2490</v>
+        <v>2481</v>
       </c>
       <c r="E267" s="51" t="s">
-        <v>2491</v>
+        <v>2482</v>
       </c>
       <c r="F267" s="51"/>
       <c r="G267" s="51"/>
@@ -43684,7 +44074,7 @@
     </row>
     <row r="269" spans="1:12" ht="15.75" thickBot="1">
       <c r="B269" t="s">
-        <v>2425</v>
+        <v>2416</v>
       </c>
       <c r="D269" s="53" t="s">
         <v>1918</v>
@@ -43743,7 +44133,7 @@
       <c r="H272" s="54"/>
       <c r="I272" s="54"/>
       <c r="J272" s="56" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="K272" s="58">
         <v>20</v>
@@ -43814,7 +44204,7 @@
       <c r="H276" s="54"/>
       <c r="I276" s="54"/>
       <c r="J276" s="56" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="K276" s="58">
         <v>20</v>
@@ -43823,7 +44213,7 @@
     </row>
     <row r="277" spans="1:12" ht="15.75" thickBot="1">
       <c r="B277" t="s">
-        <v>2496</v>
+        <v>2487</v>
       </c>
       <c r="C277" t="b">
         <v>0</v>
@@ -43853,7 +44243,7 @@
     </row>
     <row r="279" spans="1:12">
       <c r="A279" t="s">
-        <v>2497</v>
+        <v>2488</v>
       </c>
       <c r="D279" s="53"/>
       <c r="E279" s="54"/>
@@ -43871,7 +44261,7 @@
     </row>
     <row r="280" spans="1:12" ht="15.75" thickBot="1">
       <c r="A280" t="s">
-        <v>2498</v>
+        <v>2489</v>
       </c>
       <c r="D280" s="53"/>
       <c r="E280" s="54"/>
@@ -43880,7 +44270,7 @@
       <c r="H280" s="54"/>
       <c r="I280" s="54"/>
       <c r="J280" s="56" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="K280" s="58">
         <v>20</v>
@@ -43889,7 +44279,7 @@
     </row>
     <row r="281" spans="1:12" ht="15.75" thickBot="1">
       <c r="B281" t="s">
-        <v>2499</v>
+        <v>2490</v>
       </c>
       <c r="C281" t="b">
         <v>1</v>
@@ -43906,7 +44296,7 @@
     </row>
     <row r="283" spans="1:12">
       <c r="B283" t="s">
-        <v>2500</v>
+        <v>2491</v>
       </c>
       <c r="C283" t="b">
         <v>1</v>
@@ -43914,7 +44304,7 @@
     </row>
     <row r="286" spans="1:12" ht="15.75" thickBot="1">
       <c r="A286" t="s">
-        <v>2512</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -43939,7 +44329,7 @@
         <v>222</v>
       </c>
       <c r="E288" s="54" t="s">
-        <v>2506</v>
+        <v>2497</v>
       </c>
       <c r="F288" s="54"/>
       <c r="G288" s="54"/>
@@ -43969,7 +44359,7 @@
         <v>162</v>
       </c>
       <c r="D290" s="53" t="s">
-        <v>2507</v>
+        <v>2498</v>
       </c>
       <c r="E290" s="54" t="s">
         <v>2017</v>
@@ -43995,7 +44385,7 @@
     </row>
     <row r="292" spans="1:12" ht="15.75" thickBot="1">
       <c r="A292" t="s">
-        <v>2502</v>
+        <v>2493</v>
       </c>
       <c r="D292" s="53"/>
       <c r="E292" s="54"/>
@@ -44009,7 +44399,7 @@
     </row>
     <row r="293" spans="1:12" ht="15.75" thickBot="1">
       <c r="B293" t="s">
-        <v>2503</v>
+        <v>2494</v>
       </c>
       <c r="D293" s="53"/>
       <c r="E293" s="54"/>
@@ -44018,14 +44408,14 @@
       <c r="H293" s="54"/>
       <c r="I293" s="54"/>
       <c r="J293" s="54" t="s">
-        <v>2511</v>
+        <v>2502</v>
       </c>
       <c r="K293" s="54"/>
       <c r="L293" s="55"/>
     </row>
     <row r="294" spans="1:12">
       <c r="B294" t="s">
-        <v>2486</v>
+        <v>2477</v>
       </c>
       <c r="D294" s="53"/>
       <c r="E294" s="54"/>
@@ -44041,7 +44431,7 @@
     </row>
     <row r="295" spans="1:12">
       <c r="B295" t="s">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="D295" s="53"/>
       <c r="E295" s="54"/>
@@ -44059,7 +44449,7 @@
     </row>
     <row r="296" spans="1:12" ht="15.75" thickBot="1">
       <c r="B296" t="s">
-        <v>2510</v>
+        <v>2501</v>
       </c>
       <c r="D296" s="53"/>
       <c r="E296" s="166"/>
@@ -44087,7 +44477,7 @@
     </row>
     <row r="298" spans="1:12">
       <c r="A298" t="s">
-        <v>2504</v>
+        <v>2495</v>
       </c>
       <c r="D298" s="53"/>
       <c r="E298" s="54"/>
@@ -44101,7 +44491,7 @@
     </row>
     <row r="299" spans="1:12">
       <c r="B299" t="s">
-        <v>2505</v>
+        <v>2496</v>
       </c>
       <c r="D299" s="53"/>
       <c r="E299" s="54"/>
@@ -44129,7 +44519,7 @@
     </row>
     <row r="301" spans="1:12" ht="15.75" thickBot="1">
       <c r="B301" t="s">
-        <v>2508</v>
+        <v>2499</v>
       </c>
       <c r="D301" s="56"/>
       <c r="E301" s="57"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="19" activeTab="24"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="19" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4968" uniqueCount="2765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5005" uniqueCount="2780">
   <si>
     <t>USER</t>
   </si>
@@ -8519,6 +8519,51 @@
   </si>
   <si>
     <t>s3=mike/1</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>HashMap&lt;String, String&gt; test=new HashMap&lt;String, String&gt;();</t>
+  </si>
+  <si>
+    <t>test.put("john","doe");</t>
+  </si>
+  <si>
+    <t>test.put("jane","joe");</t>
+  </si>
+  <si>
+    <t>joe</t>
+  </si>
+  <si>
+    <t>test.put("mike","doe");</t>
+  </si>
+  <si>
+    <t>doe&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>1) collect all the keys</t>
+  </si>
+  <si>
+    <t>2) get method to read the value</t>
+  </si>
+  <si>
+    <t>HashMap&lt;String, String&gt; test</t>
+  </si>
+  <si>
+    <t>Set&lt;String&gt; allKeys=test.keySet();</t>
+  </si>
+  <si>
+    <t>for(String s:allKeys)</t>
+  </si>
+  <si>
+    <t>String v= test.get(s);</t>
+  </si>
+  <si>
+    <t>sysout(v);</t>
   </si>
 </sst>
 </file>
@@ -9037,7 +9082,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9543,6 +9588,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9561,10 +9613,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11203,8 +11251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T176"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C166" sqref="C166"/>
+    <sheetView topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O126" sqref="O126:Q130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21226,13 +21274,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="251" t="s">
+      <c r="H3" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
-      <c r="L3" s="253"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="258"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="P4" t="s">
@@ -21269,20 +21317,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="254" t="s">
+      <c r="G6" s="259" t="s">
         <v>1678</v>
       </c>
-      <c r="H6" s="255"/>
+      <c r="H6" s="260"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="254" t="s">
+      <c r="J6" s="259" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="255"/>
+      <c r="K6" s="260"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="254" t="s">
+      <c r="M6" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="255"/>
+      <c r="N6" s="260"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="128" t="s">
@@ -21306,20 +21354,20 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
       <c r="F8" s="4"/>
-      <c r="G8" s="254" t="s">
+      <c r="G8" s="259" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="255"/>
+      <c r="H8" s="260"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="254" t="s">
+      <c r="J8" s="259" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="255"/>
+      <c r="K8" s="260"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="254" t="s">
+      <c r="M8" s="259" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="255"/>
+      <c r="N8" s="260"/>
       <c r="P8" t="s">
         <v>1684</v>
       </c>
@@ -27983,8 +28031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O276"/>
   <sheetViews>
-    <sheetView topLeftCell="A252" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257"/>
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F256" sqref="F256:O272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35060,7 +35108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AG220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A96" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F104" sqref="F104:H115"/>
     </sheetView>
   </sheetViews>
@@ -35473,7 +35521,7 @@
         <v>430</v>
       </c>
       <c r="W31" s="59"/>
-      <c r="X31" s="258" t="s">
+      <c r="X31" s="252" t="s">
         <v>542</v>
       </c>
       <c r="Y31" s="59"/>
@@ -35500,13 +35548,13 @@
       <c r="Q32" t="s">
         <v>1440</v>
       </c>
-      <c r="S32" s="257" t="s">
+      <c r="S32" s="251" t="s">
         <v>2106</v>
       </c>
-      <c r="T32" s="257" t="s">
+      <c r="T32" s="251" t="s">
         <v>2676</v>
       </c>
-      <c r="U32" s="257" t="s">
+      <c r="U32" s="251" t="s">
         <v>1440</v>
       </c>
       <c r="W32" s="59" t="s">
@@ -36159,7 +36207,7 @@
         <v>430</v>
       </c>
       <c r="F94" s="30"/>
-      <c r="G94" s="259" t="s">
+      <c r="G94" s="253" t="s">
         <v>1160</v>
       </c>
       <c r="H94" s="223" t="s">
@@ -36184,7 +36232,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="30"/>
-      <c r="G95" s="260"/>
+      <c r="G95" s="254"/>
       <c r="H95" s="227" t="s">
         <v>208</v>
       </c>
@@ -37351,8 +37399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:U134"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130:D134"/>
+    <sheetView topLeftCell="A115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37981,7 +38029,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="114" spans="4:10">
+    <row r="114" spans="3:10">
       <c r="E114" t="s">
         <v>2743</v>
       </c>
@@ -37989,7 +38037,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="115" spans="4:10">
+    <row r="115" spans="3:10">
       <c r="E115" t="s">
         <v>2741</v>
       </c>
@@ -37997,7 +38045,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="116" spans="4:10">
+    <row r="116" spans="3:10">
       <c r="E116" t="s">
         <v>1456</v>
       </c>
@@ -38011,7 +38059,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="117" spans="4:10">
+    <row r="117" spans="3:10">
       <c r="E117" s="248">
         <v>1</v>
       </c>
@@ -38023,7 +38071,7 @@
       </c>
       <c r="J117" s="46"/>
     </row>
-    <row r="118" spans="4:10">
+    <row r="118" spans="3:10">
       <c r="E118" s="248">
         <v>2</v>
       </c>
@@ -38035,7 +38083,7 @@
       </c>
       <c r="J118" s="46"/>
     </row>
-    <row r="119" spans="4:10">
+    <row r="119" spans="3:10">
       <c r="E119" s="248">
         <v>3</v>
       </c>
@@ -38047,7 +38095,7 @@
       </c>
       <c r="J119" s="46"/>
     </row>
-    <row r="120" spans="4:10">
+    <row r="120" spans="3:10">
       <c r="E120" s="248">
         <v>4</v>
       </c>
@@ -38059,7 +38107,7 @@
       </c>
       <c r="J120" s="46"/>
     </row>
-    <row r="121" spans="4:10">
+    <row r="121" spans="3:10">
       <c r="E121" s="248">
         <v>5</v>
       </c>
@@ -38071,7 +38119,18 @@
       </c>
       <c r="J121" s="46"/>
     </row>
-    <row r="124" spans="4:10">
+    <row r="122" spans="3:10">
+      <c r="C122" t="s">
+        <v>2766</v>
+      </c>
+      <c r="E122" s="255">
+        <v>6</v>
+      </c>
+      <c r="F122" s="255" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="124" spans="3:10">
       <c r="E124" s="99" t="s">
         <v>2744</v>
       </c>
@@ -38079,13 +38138,13 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="125" spans="4:10">
+    <row r="125" spans="3:10">
       <c r="E125" s="99"/>
       <c r="F125" s="121" t="s">
         <v>2746</v>
       </c>
     </row>
-    <row r="128" spans="4:10">
+    <row r="128" spans="3:10">
       <c r="D128" t="s">
         <v>2749</v>
       </c>
@@ -38133,10 +38192,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="N7" sqref="M7:N7"/>
+    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38268,11 +38327,11 @@
       <c r="L6" s="46" t="s">
         <v>1615</v>
       </c>
-      <c r="M6" s="256" t="s">
+      <c r="M6" s="261" t="s">
         <v>1616</v>
       </c>
-      <c r="N6" s="256"/>
-      <c r="O6" s="256"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="261"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
@@ -38531,6 +38590,146 @@
         <v>162</v>
       </c>
     </row>
+    <row r="39" spans="2:13">
+      <c r="L39" t="s">
+        <v>1456</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="C40" t="s">
+        <v>2767</v>
+      </c>
+      <c r="L40" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="M40" s="46" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="E41" t="s">
+        <v>2768</v>
+      </c>
+      <c r="L41" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="M41" s="46" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="E42" t="s">
+        <v>2769</v>
+      </c>
+      <c r="I42" t="s">
+        <v>577</v>
+      </c>
+      <c r="J42" t="s">
+        <v>2772</v>
+      </c>
+      <c r="L42" s="46" t="s">
+        <v>577</v>
+      </c>
+      <c r="M42" s="46" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="E43" t="s">
+        <v>2771</v>
+      </c>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="H45" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J45" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" t="s">
+        <v>2773</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1456</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="C47" t="s">
+        <v>2776</v>
+      </c>
+      <c r="H47" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="J47" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="K47" s="46" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="H48" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="J48" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="K48" s="46" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" t="s">
+        <v>2774</v>
+      </c>
+      <c r="H49" s="46" t="s">
+        <v>577</v>
+      </c>
+      <c r="J49" s="46" t="s">
+        <v>577</v>
+      </c>
+      <c r="K49" s="46" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="C50" t="s">
+        <v>2777</v>
+      </c>
+      <c r="H50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="C51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="D52" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="D53" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="C54" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="M6:O6"/>
@@ -38544,7 +38743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L85"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="19" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="19" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5005" uniqueCount="2780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5067" uniqueCount="2812">
   <si>
     <t>USER</t>
   </si>
@@ -8564,6 +8564,102 @@
   </si>
   <si>
     <t>sysout(v);</t>
+  </si>
+  <si>
+    <t>String x=java</t>
+  </si>
+  <si>
+    <t>String y=jee</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>jee</t>
+  </si>
+  <si>
+    <t>x=html;</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>hashcode</t>
+  </si>
+  <si>
+    <t>equals</t>
+  </si>
+  <si>
+    <t>perons p1=new Person(john)l</t>
+  </si>
+  <si>
+    <t>perons p3=new Person(john)l</t>
+  </si>
+  <si>
+    <t>perons p2=new Person(jane)l</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>p1 ( john) #123</t>
+  </si>
+  <si>
+    <t>returns false</t>
+  </si>
+  <si>
+    <t>p1 add</t>
+  </si>
+  <si>
+    <t>p2 add</t>
+  </si>
+  <si>
+    <t>p2(jane)</t>
+  </si>
+  <si>
+    <t>p3 add</t>
+  </si>
+  <si>
+    <t>p3 (john)</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>static String name=john</t>
+  </si>
+  <si>
+    <t>test t1=new test();</t>
+  </si>
+  <si>
+    <t>test t2=new test();</t>
+  </si>
+  <si>
+    <t>test t3=new test(0</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>#qqq</t>
+  </si>
+  <si>
+    <t>#www</t>
+  </si>
+  <si>
+    <t>#eee</t>
+  </si>
+  <si>
+    <t>name=john</t>
   </si>
 </sst>
 </file>
@@ -9082,7 +9178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9613,6 +9709,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22481,16 +22583,18 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:R231"/>
+  <dimension ref="A2:R244"/>
   <sheetViews>
-    <sheetView topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N200" sqref="N200:O200"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M239" sqref="M239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" style="60" customWidth="1"/>
-    <col min="2" max="16" width="9.140625" style="60"/>
+    <col min="2" max="14" width="9.140625" style="60"/>
+    <col min="15" max="15" width="14.42578125" style="60" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="60"/>
     <col min="17" max="17" width="10.5703125" style="60" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="60"/>
   </cols>
@@ -25418,7 +25522,234 @@
       <c r="P231" s="57"/>
       <c r="Q231" s="58"/>
     </row>
+    <row r="233" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="234" spans="1:17" ht="15.75" thickBot="1">
+      <c r="G234" s="50"/>
+      <c r="H234" s="51"/>
+      <c r="I234" s="51"/>
+      <c r="J234" s="51"/>
+      <c r="K234" s="51"/>
+      <c r="L234" s="51"/>
+      <c r="M234" s="51"/>
+      <c r="N234" s="51"/>
+      <c r="O234" s="51"/>
+      <c r="P234" s="51"/>
+      <c r="Q234" s="52"/>
+    </row>
+    <row r="235" spans="1:17">
+      <c r="A235" s="99" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B235" s="99"/>
+      <c r="C235" s="99"/>
+      <c r="D235" s="99"/>
+      <c r="G235" s="53" t="s">
+        <v>2805</v>
+      </c>
+      <c r="H235" s="54" t="s">
+        <v>2808</v>
+      </c>
+      <c r="I235" s="54"/>
+      <c r="J235" s="54"/>
+      <c r="K235" s="54"/>
+      <c r="L235" s="54" t="s">
+        <v>2808</v>
+      </c>
+      <c r="M235" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="N235" s="52">
+        <v>10</v>
+      </c>
+      <c r="O235" s="263" t="s">
+        <v>2811</v>
+      </c>
+      <c r="P235" s="54"/>
+      <c r="Q235" s="55"/>
+    </row>
+    <row r="236" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A236" s="99"/>
+      <c r="B236" s="99" t="s">
+        <v>373</v>
+      </c>
+      <c r="C236" s="99"/>
+      <c r="D236" s="99"/>
+      <c r="G236" s="53" t="s">
+        <v>2806</v>
+      </c>
+      <c r="H236" s="54" t="s">
+        <v>2809</v>
+      </c>
+      <c r="I236" s="54"/>
+      <c r="J236" s="54"/>
+      <c r="K236" s="54"/>
+      <c r="L236" s="54"/>
+      <c r="M236" s="56"/>
+      <c r="N236" s="58"/>
+      <c r="O236" s="263"/>
+      <c r="P236" s="54"/>
+      <c r="Q236" s="55"/>
+    </row>
+    <row r="237" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A237" s="99"/>
+      <c r="B237" s="99" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C237" s="99"/>
+      <c r="D237" s="99"/>
+      <c r="G237" s="53" t="s">
+        <v>2807</v>
+      </c>
+      <c r="H237" s="54" t="s">
+        <v>2810</v>
+      </c>
+      <c r="I237" s="54"/>
+      <c r="J237" s="54"/>
+      <c r="K237" s="54"/>
+      <c r="L237" s="54"/>
+      <c r="M237" s="54"/>
+      <c r="N237" s="54"/>
+      <c r="O237" s="263"/>
+      <c r="P237" s="54"/>
+      <c r="Q237" s="55"/>
+    </row>
+    <row r="238" spans="1:17">
+      <c r="A238" s="99"/>
+      <c r="B238" s="99"/>
+      <c r="C238" s="99"/>
+      <c r="D238" s="99"/>
+      <c r="G238" s="53"/>
+      <c r="H238" s="54"/>
+      <c r="I238" s="54"/>
+      <c r="J238" s="54"/>
+      <c r="K238" s="54"/>
+      <c r="L238" s="54" t="s">
+        <v>2809</v>
+      </c>
+      <c r="M238" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="N238" s="52">
+        <v>10</v>
+      </c>
+      <c r="O238" s="263"/>
+      <c r="P238" s="54"/>
+      <c r="Q238" s="55"/>
+    </row>
+    <row r="239" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A239" s="99"/>
+      <c r="B239" s="99"/>
+      <c r="C239" s="99"/>
+      <c r="D239" s="99"/>
+      <c r="G239" s="53"/>
+      <c r="H239" s="54"/>
+      <c r="I239" s="54"/>
+      <c r="J239" s="54"/>
+      <c r="K239" s="54"/>
+      <c r="L239" s="54"/>
+      <c r="M239" s="56"/>
+      <c r="N239" s="58"/>
+      <c r="O239" s="263"/>
+      <c r="P239" s="54"/>
+      <c r="Q239" s="55"/>
+    </row>
+    <row r="240" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A240" s="99" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B240" s="99"/>
+      <c r="C240" s="99"/>
+      <c r="D240" s="99"/>
+      <c r="G240" s="53"/>
+      <c r="H240" s="54"/>
+      <c r="I240" s="54"/>
+      <c r="J240" s="54"/>
+      <c r="K240" s="54"/>
+      <c r="L240" s="54"/>
+      <c r="M240" s="54"/>
+      <c r="N240" s="54"/>
+      <c r="O240" s="263"/>
+      <c r="P240" s="54"/>
+      <c r="Q240" s="55"/>
+    </row>
+    <row r="241" spans="1:17">
+      <c r="A241" s="99" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B241" s="99"/>
+      <c r="C241" s="99"/>
+      <c r="D241" s="99"/>
+      <c r="G241" s="53"/>
+      <c r="H241" s="54"/>
+      <c r="I241" s="54"/>
+      <c r="J241" s="54"/>
+      <c r="K241" s="54"/>
+      <c r="L241" s="54" t="s">
+        <v>2810</v>
+      </c>
+      <c r="M241" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="N241" s="52">
+        <v>10</v>
+      </c>
+      <c r="O241" s="263"/>
+      <c r="P241" s="54"/>
+      <c r="Q241" s="55"/>
+    </row>
+    <row r="242" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A242" s="99" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B242" s="99"/>
+      <c r="C242" s="99"/>
+      <c r="D242" s="99"/>
+      <c r="G242" s="53"/>
+      <c r="H242" s="54"/>
+      <c r="I242" s="54"/>
+      <c r="J242" s="54"/>
+      <c r="K242" s="54"/>
+      <c r="L242" s="54"/>
+      <c r="M242" s="56"/>
+      <c r="N242" s="58"/>
+      <c r="O242" s="263"/>
+      <c r="P242" s="54"/>
+      <c r="Q242" s="55"/>
+    </row>
+    <row r="243" spans="1:17">
+      <c r="A243" s="99"/>
+      <c r="B243" s="99"/>
+      <c r="C243" s="99"/>
+      <c r="D243" s="99"/>
+      <c r="G243" s="53"/>
+      <c r="H243" s="54"/>
+      <c r="I243" s="54"/>
+      <c r="J243" s="54"/>
+      <c r="K243" s="54"/>
+      <c r="L243" s="54"/>
+      <c r="M243" s="54"/>
+      <c r="N243" s="54"/>
+      <c r="O243" s="262"/>
+      <c r="P243" s="54"/>
+      <c r="Q243" s="55"/>
+    </row>
+    <row r="244" spans="1:17" ht="15.75" thickBot="1">
+      <c r="G244" s="56"/>
+      <c r="H244" s="57"/>
+      <c r="I244" s="57"/>
+      <c r="J244" s="57"/>
+      <c r="K244" s="57"/>
+      <c r="L244" s="57"/>
+      <c r="M244" s="57"/>
+      <c r="N244" s="57"/>
+      <c r="O244" s="57"/>
+      <c r="P244" s="57"/>
+      <c r="Q244" s="58"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O235:O242"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -28029,10 +28360,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O276"/>
+  <dimension ref="A1:O297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F256" sqref="F256:O272"/>
+    <sheetView topLeftCell="A282" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B286" sqref="B286:D287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30556,6 +30887,9 @@
       </c>
     </row>
     <row r="254" spans="1:15">
+      <c r="C254" t="s">
+        <v>2780</v>
+      </c>
       <c r="G254" t="s">
         <v>2653</v>
       </c>
@@ -30563,8 +30897,15 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="255" spans="1:15" ht="15.75" thickBot="1">
+      <c r="C255" t="s">
+        <v>2781</v>
+      </c>
+    </row>
     <row r="256" spans="1:15" ht="15.75" thickBot="1">
+      <c r="C256" t="s">
+        <v>2784</v>
+      </c>
       <c r="F256" s="33"/>
       <c r="G256" s="34"/>
       <c r="H256" s="34"/>
@@ -30588,8 +30929,12 @@
         <v>1151</v>
       </c>
       <c r="K257" s="34"/>
-      <c r="L257" s="34"/>
-      <c r="M257" s="34"/>
+      <c r="L257" s="34" t="s">
+        <v>535</v>
+      </c>
+      <c r="M257" s="34" t="s">
+        <v>1</v>
+      </c>
       <c r="N257" s="35"/>
       <c r="O257" s="37"/>
     </row>
@@ -30610,8 +30955,12 @@
       <c r="I258" s="30"/>
       <c r="J258" s="36"/>
       <c r="K258" s="30"/>
-      <c r="L258" s="30"/>
-      <c r="M258" s="30"/>
+      <c r="L258" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="M258" s="30" t="s">
+        <v>2783</v>
+      </c>
       <c r="N258" s="37"/>
       <c r="O258" s="37"/>
     </row>
@@ -30622,8 +30971,12 @@
       <c r="C259" t="s">
         <v>2665</v>
       </c>
-      <c r="F259" s="36"/>
-      <c r="G259" s="30"/>
+      <c r="F259" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="G259" s="30" t="s">
+        <v>1062</v>
+      </c>
       <c r="H259" s="30"/>
       <c r="I259" s="30"/>
       <c r="J259" s="36"/>
@@ -30641,12 +30994,20 @@
       <c r="A260" t="s">
         <v>2658</v>
       </c>
-      <c r="F260" s="36"/>
-      <c r="G260" s="30"/>
+      <c r="F260" s="36" t="s">
+        <v>2782</v>
+      </c>
+      <c r="G260" s="30" t="s">
+        <v>537</v>
+      </c>
       <c r="H260" s="30"/>
       <c r="I260" s="30"/>
-      <c r="J260" s="36"/>
-      <c r="K260" s="30"/>
+      <c r="J260" s="36" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K260" s="41" t="s">
+        <v>2785</v>
+      </c>
       <c r="L260" s="30" t="s">
         <v>2031</v>
       </c>
@@ -30903,12 +31264,12 @@
       <c r="N272" s="39"/>
       <c r="O272" s="40"/>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:13">
       <c r="A273" t="s">
         <v>2673</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:13">
       <c r="B275" t="s">
         <v>2674</v>
       </c>
@@ -30916,13 +31277,228 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:13">
       <c r="B276" t="s">
         <v>2675</v>
       </c>
       <c r="C276" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="283" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A283" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13">
+      <c r="B284" t="s">
+        <v>2787</v>
+      </c>
+      <c r="F284" s="33"/>
+      <c r="G284" s="34"/>
+      <c r="H284" s="34"/>
+      <c r="I284" s="34"/>
+      <c r="J284" s="34"/>
+      <c r="K284" s="34"/>
+      <c r="L284" s="34"/>
+      <c r="M284" s="35"/>
+    </row>
+    <row r="285" spans="1:13">
+      <c r="C285" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F285" s="36" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G285" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="H285" s="30"/>
+      <c r="I285" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="J285" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="K285" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="L285" s="30"/>
+      <c r="M285" s="37"/>
+    </row>
+    <row r="286" spans="1:13">
+      <c r="B286" t="s">
+        <v>2788</v>
+      </c>
+      <c r="F286" s="36" t="s">
+        <v>1904</v>
+      </c>
+      <c r="G286" s="30" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H286" s="30"/>
+      <c r="I286" s="30"/>
+      <c r="J286" s="30"/>
+      <c r="K286" s="30"/>
+      <c r="L286" s="30"/>
+      <c r="M286" s="37"/>
+    </row>
+    <row r="287" spans="1:13">
+      <c r="C287" t="s">
+        <v>2794</v>
+      </c>
+      <c r="F287" s="36" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G287" s="30" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H287" s="30"/>
+      <c r="I287" s="30" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J287" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="K287" s="41" t="s">
+        <v>542</v>
+      </c>
+      <c r="L287" s="30"/>
+      <c r="M287" s="37"/>
+    </row>
+    <row r="288" spans="1:13">
+      <c r="F288" s="36"/>
+      <c r="G288" s="30"/>
+      <c r="H288" s="30"/>
+      <c r="I288" s="30"/>
+      <c r="J288" s="30"/>
+      <c r="K288" s="30"/>
+      <c r="L288" s="30"/>
+      <c r="M288" s="37"/>
+    </row>
+    <row r="289" spans="1:13">
+      <c r="F289" s="36"/>
+      <c r="G289" s="30"/>
+      <c r="H289" s="30"/>
+      <c r="I289" s="30" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J289" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="K289" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="L289" s="30"/>
+      <c r="M289" s="37"/>
+    </row>
+    <row r="290" spans="1:13">
+      <c r="A290" t="s">
+        <v>2789</v>
+      </c>
+      <c r="F290" s="36"/>
+      <c r="G290" s="30"/>
+      <c r="H290" s="30"/>
+      <c r="I290" s="30"/>
+      <c r="J290" s="30"/>
+      <c r="K290" s="30"/>
+      <c r="L290" s="30"/>
+      <c r="M290" s="37"/>
+    </row>
+    <row r="291" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A291" t="s">
+        <v>2791</v>
+      </c>
+      <c r="F291" s="36"/>
+      <c r="G291" s="30"/>
+      <c r="H291" s="30" t="s">
+        <v>2792</v>
+      </c>
+      <c r="I291" s="30"/>
+      <c r="J291" s="30"/>
+      <c r="K291" s="30"/>
+      <c r="L291" s="30"/>
+      <c r="M291" s="37"/>
+    </row>
+    <row r="292" spans="1:13">
+      <c r="A292" t="s">
+        <v>2790</v>
+      </c>
+      <c r="F292" s="36"/>
+      <c r="G292" s="30"/>
+      <c r="H292" s="30">
+        <v>1</v>
+      </c>
+      <c r="I292" s="33" t="s">
+        <v>2793</v>
+      </c>
+      <c r="J292" s="34"/>
+      <c r="K292" s="34" t="s">
+        <v>2797</v>
+      </c>
+      <c r="L292" s="35" t="s">
+        <v>2799</v>
+      </c>
+      <c r="M292" s="37"/>
+    </row>
+    <row r="293" spans="1:13">
+      <c r="F293" s="36"/>
+      <c r="G293" s="30"/>
+      <c r="H293" s="30"/>
+      <c r="I293" s="36"/>
+      <c r="J293" s="30"/>
+      <c r="K293" s="30"/>
+      <c r="L293" s="37"/>
+      <c r="M293" s="37"/>
+    </row>
+    <row r="294" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A294" t="s">
+        <v>2795</v>
+      </c>
+      <c r="F294" s="36"/>
+      <c r="G294" s="30"/>
+      <c r="H294" s="30"/>
+      <c r="I294" s="38"/>
+      <c r="J294" s="39"/>
+      <c r="K294" s="39"/>
+      <c r="L294" s="40"/>
+      <c r="M294" s="37"/>
+    </row>
+    <row r="295" spans="1:13">
+      <c r="A295" t="s">
+        <v>2796</v>
+      </c>
+      <c r="F295" s="36"/>
+      <c r="G295" s="30"/>
+      <c r="H295" s="30"/>
+      <c r="I295" s="30"/>
+      <c r="J295" s="30"/>
+      <c r="K295" s="30"/>
+      <c r="L295" s="30"/>
+      <c r="M295" s="37"/>
+    </row>
+    <row r="296" spans="1:13">
+      <c r="A296" t="s">
+        <v>2798</v>
+      </c>
+      <c r="F296" s="36"/>
+      <c r="G296" s="30"/>
+      <c r="H296" s="30"/>
+      <c r="I296" s="30"/>
+      <c r="J296" s="30"/>
+      <c r="K296" s="30"/>
+      <c r="L296" s="30"/>
+      <c r="M296" s="37"/>
+    </row>
+    <row r="297" spans="1:13" ht="15.75" thickBot="1">
+      <c r="F297" s="38"/>
+      <c r="G297" s="39"/>
+      <c r="H297" s="39"/>
+      <c r="I297" s="39"/>
+      <c r="J297" s="39"/>
+      <c r="K297" s="39"/>
+      <c r="L297" s="39"/>
+      <c r="M297" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30934,8 +31510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W320"/>
   <sheetViews>
-    <sheetView topLeftCell="A303" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J311" sqref="J311:K312"/>
+    <sheetView topLeftCell="A254" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F261" sqref="F261:L271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37399,8 +37975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:U134"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView topLeftCell="C115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115:K122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="19" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5067" uniqueCount="2812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5077" uniqueCount="2822">
   <si>
     <t>USER</t>
   </si>
@@ -8660,6 +8660,36 @@
   </si>
   <si>
     <t>name=john</t>
+  </si>
+  <si>
+    <t>&lt;Restaurant&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/Restaurant&gt;</t>
+  </si>
+  <si>
+    <t>&lt;name&gt;john&lt;/name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;customer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/customer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;address&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/address&gt;</t>
+  </si>
+  <si>
+    <t>&lt;city&gt;</t>
+  </si>
+  <si>
+    <t>&lt;state&gt;</t>
   </si>
 </sst>
 </file>
@@ -9691,6 +9721,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9706,14 +9739,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -21376,13 +21406,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="256" t="s">
+      <c r="H3" s="257" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="257"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="259"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="P4" t="s">
@@ -21419,20 +21449,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="259" t="s">
+      <c r="G6" s="260" t="s">
         <v>1678</v>
       </c>
-      <c r="H6" s="260"/>
+      <c r="H6" s="261"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="259" t="s">
+      <c r="J6" s="260" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="260"/>
+      <c r="K6" s="261"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="259" t="s">
+      <c r="M6" s="260" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="260"/>
+      <c r="N6" s="261"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="128" t="s">
@@ -21456,20 +21486,20 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
       <c r="F8" s="4"/>
-      <c r="G8" s="259" t="s">
+      <c r="G8" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="260"/>
+      <c r="H8" s="261"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="259" t="s">
+      <c r="J8" s="260" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="260"/>
+      <c r="K8" s="261"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="259" t="s">
+      <c r="M8" s="260" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="260"/>
+      <c r="N8" s="261"/>
       <c r="P8" t="s">
         <v>1684</v>
       </c>
@@ -22585,7 +22615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M239" sqref="M239"/>
     </sheetView>
   </sheetViews>
@@ -25561,7 +25591,7 @@
       <c r="N235" s="52">
         <v>10</v>
       </c>
-      <c r="O235" s="263" t="s">
+      <c r="O235" s="262" t="s">
         <v>2811</v>
       </c>
       <c r="P235" s="54"/>
@@ -25586,7 +25616,7 @@
       <c r="L236" s="54"/>
       <c r="M236" s="56"/>
       <c r="N236" s="58"/>
-      <c r="O236" s="263"/>
+      <c r="O236" s="262"/>
       <c r="P236" s="54"/>
       <c r="Q236" s="55"/>
     </row>
@@ -25609,7 +25639,7 @@
       <c r="L237" s="54"/>
       <c r="M237" s="54"/>
       <c r="N237" s="54"/>
-      <c r="O237" s="263"/>
+      <c r="O237" s="262"/>
       <c r="P237" s="54"/>
       <c r="Q237" s="55"/>
     </row>
@@ -25632,7 +25662,7 @@
       <c r="N238" s="52">
         <v>10</v>
       </c>
-      <c r="O238" s="263"/>
+      <c r="O238" s="262"/>
       <c r="P238" s="54"/>
       <c r="Q238" s="55"/>
     </row>
@@ -25649,7 +25679,7 @@
       <c r="L239" s="54"/>
       <c r="M239" s="56"/>
       <c r="N239" s="58"/>
-      <c r="O239" s="263"/>
+      <c r="O239" s="262"/>
       <c r="P239" s="54"/>
       <c r="Q239" s="55"/>
     </row>
@@ -25668,7 +25698,7 @@
       <c r="L240" s="54"/>
       <c r="M240" s="54"/>
       <c r="N240" s="54"/>
-      <c r="O240" s="263"/>
+      <c r="O240" s="262"/>
       <c r="P240" s="54"/>
       <c r="Q240" s="55"/>
     </row>
@@ -25693,7 +25723,7 @@
       <c r="N241" s="52">
         <v>10</v>
       </c>
-      <c r="O241" s="263"/>
+      <c r="O241" s="262"/>
       <c r="P241" s="54"/>
       <c r="Q241" s="55"/>
     </row>
@@ -25712,7 +25742,7 @@
       <c r="L242" s="54"/>
       <c r="M242" s="56"/>
       <c r="N242" s="58"/>
-      <c r="O242" s="263"/>
+      <c r="O242" s="262"/>
       <c r="P242" s="54"/>
       <c r="Q242" s="55"/>
     </row>
@@ -25729,7 +25759,7 @@
       <c r="L243" s="54"/>
       <c r="M243" s="54"/>
       <c r="N243" s="54"/>
-      <c r="O243" s="262"/>
+      <c r="O243" s="256"/>
       <c r="P243" s="54"/>
       <c r="Q243" s="55"/>
     </row>
@@ -38903,11 +38933,11 @@
       <c r="L6" s="46" t="s">
         <v>1615</v>
       </c>
-      <c r="M6" s="261" t="s">
+      <c r="M6" s="263" t="s">
         <v>1616</v>
       </c>
-      <c r="N6" s="261"/>
-      <c r="O6" s="261"/>
+      <c r="N6" s="263"/>
+      <c r="O6" s="263"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
@@ -41117,8 +41147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22:M28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41474,6 +41504,9 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>2812</v>
+      </c>
       <c r="G30" s="33" t="s">
         <v>2408</v>
       </c>
@@ -41486,6 +41519,9 @@
       <c r="M30" s="35"/>
     </row>
     <row r="31" spans="1:16">
+      <c r="B31" t="s">
+        <v>2814</v>
+      </c>
       <c r="G31" s="36"/>
       <c r="H31" s="30" t="s">
         <v>198</v>
@@ -41508,6 +41544,9 @@
       </c>
     </row>
     <row r="32" spans="1:16">
+      <c r="B32" t="s">
+        <v>2815</v>
+      </c>
       <c r="G32" s="36"/>
       <c r="H32" s="30" t="s">
         <v>203</v>
@@ -41529,7 +41568,10 @@
         <v>44553</v>
       </c>
     </row>
-    <row r="33" spans="3:15">
+    <row r="33" spans="1:15">
+      <c r="C33" t="s">
+        <v>2817</v>
+      </c>
       <c r="G33" s="36"/>
       <c r="H33" s="30" t="s">
         <v>198</v>
@@ -41551,7 +41593,10 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="34" spans="3:15">
+    <row r="34" spans="1:15">
+      <c r="C34" t="s">
+        <v>2818</v>
+      </c>
       <c r="G34" s="36"/>
       <c r="H34" s="41" t="s">
         <v>2402</v>
@@ -41570,7 +41615,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="35" spans="3:15" ht="15.75" thickBot="1">
+    <row r="35" spans="1:15" ht="15.75" thickBot="1">
+      <c r="D35" t="s">
+        <v>2820</v>
+      </c>
       <c r="G35" s="38"/>
       <c r="H35" s="39"/>
       <c r="I35" s="40"/>
@@ -41585,8 +41633,29 @@
         <v>850</v>
       </c>
     </row>
-    <row r="42" spans="3:15" ht="15.75" thickBot="1"/>
-    <row r="43" spans="3:15">
+    <row r="36" spans="1:15">
+      <c r="D36" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="C37" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="B38" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C39" s="43"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="43" spans="1:15">
       <c r="G43" s="33"/>
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
@@ -41596,7 +41665,7 @@
       <c r="N43" s="30"/>
       <c r="O43" s="37"/>
     </row>
-    <row r="44" spans="3:15" ht="15.75" thickBot="1">
+    <row r="44" spans="1:15" ht="15.75" thickBot="1">
       <c r="G44" s="36"/>
       <c r="H44" s="30"/>
       <c r="I44" s="30"/>
@@ -41606,20 +41675,19 @@
       <c r="N44" s="39"/>
       <c r="O44" s="40"/>
     </row>
-    <row r="45" spans="3:15">
-      <c r="C45" s="43"/>
+    <row r="45" spans="1:15">
       <c r="G45" s="36"/>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
       <c r="J45" s="37"/>
     </row>
-    <row r="46" spans="3:15">
+    <row r="46" spans="1:15">
       <c r="G46" s="36"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
       <c r="J46" s="37"/>
     </row>
-    <row r="47" spans="3:15" ht="15.75" thickBot="1">
+    <row r="47" spans="1:15" ht="15.75" thickBot="1">
       <c r="G47" s="38"/>
       <c r="H47" s="39"/>
       <c r="I47" s="39"/>
